--- a/xlsx/surgut.xlsx
+++ b/xlsx/surgut.xlsx
@@ -491,7 +491,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>102</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -514,7 +514,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3600000</t>
+          <t>3750000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -550,7 +550,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>108</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -564,16 +564,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1295000</v>
+        <v>1340000</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/baic/u5_plus/</t>
+          <t>https://auto-centre-profsouz.ru/auto/baic/sedan/sedan-1gen</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1295000</t>
+          <t>1445000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>104</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1450000</v>
+        <v>1495000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/baic/x35/</t>
+          <t>https://auto-centre-profsouz.ru/auto/baic/cuv/suv-1gen</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1450000</t>
+          <t>1600000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -668,7 +668,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>105</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2105000</t>
+          <t>2255000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -727,7 +727,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>106</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -768,7 +768,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>107</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -801,7 +801,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>109</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>111</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -875,7 +875,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>112</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -908,7 +908,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>119</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -922,16 +922,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>890000</v>
+        <v>935000</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/changan/alsvin/</t>
+          <t>https://auto-centre-profsouz.ru/auto/changan/alsvin/sed</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>1040000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -967,7 +967,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>115</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1008,7 +1008,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>122</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1479900</t>
+          <t>1629900</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1067,7 +1067,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>117</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1329900</t>
+          <t>1479900</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1126,7 +1126,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>121</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1140,16 +1140,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1769900</v>
+        <v>1814900</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/changan/cs55_plus/</t>
+          <t>https://auto-centre-profsouz.ru/auto/changan/cs55plus/cuv</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1769900</t>
+          <t>1919900</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1185,7 +1185,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>133</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1218,7 +1218,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>135</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1251,7 +1251,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>118</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1609900</t>
+          <t>1759900</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1310,7 +1310,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2849900</t>
+          <t>2999900</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1369,7 +1369,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3389900</t>
+          <t>3539900</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1428,7 +1428,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>140</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1461,7 +1461,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1469900</v>
+        <v>1514900</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/changan/eado_plus/</t>
+          <t>https://auto-centre-profsouz.ru/auto/changan/eado-plus/SEDAN</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1469900</t>
+          <t>1619900</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1520,7 +1520,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>129</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1553,7 +1553,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>141</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1567,16 +1567,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2679900</v>
+        <v>2724900</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/changan/hunter_plus/</t>
+          <t>https://auto-centre-profsouz.ru/auto/changan/hunter-plus/plus</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2679900</t>
+          <t>2829900</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1604,7 +1604,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1618,16 +1618,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2039900</v>
+        <v>2084900</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/changan/lamore/</t>
+          <t>https://auto-centre-profsouz.ru/auto/changan/lamore/sedan</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2039900</t>
+          <t>2189900</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1663,7 +1663,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>142</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1696,7 +1696,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>120</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1710,16 +1710,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2779900</v>
+        <v>2824900</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/changan/uni-k/</t>
+          <t>https://auto-centre-profsouz.ru/auto/changan/uni-k/suv</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2779900</t>
+          <t>2929900</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1755,7 +1755,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1769,16 +1769,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2009900</v>
+        <v>2054900</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/changan/uni-t/</t>
+          <t>https://auto-centre-profsouz.ru/auto/changan/UNI-T/SUV_5D</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2009900</t>
+          <t>2159900</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1814,7 +1814,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1999900</t>
+          <t>2149900</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1873,7 +1873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1887,16 +1887,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2050000</v>
+        <v>2095000</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/chery/arrizo_8/</t>
+          <t>https://auto-centre-profsouz.ru/auto/chery/arrizo-8/sedan</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2050000</t>
+          <t>2200000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1932,7 +1932,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1965,7 +1965,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>148</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1998,7 +1998,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>949900</t>
+          <t>1099900</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2057,7 +2057,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2080,7 +2080,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1370000</t>
+          <t>1520000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2116,7 +2116,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2130,16 +2130,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>479900</v>
+        <v>524900</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/chery/tiggo_7/</t>
+          <t>https://auto-centre-profsouz.ru/auto/chery/tiggo-7/2019</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>479900</t>
+          <t>629900</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2175,7 +2175,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1820000</t>
+          <t>1970000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2234,7 +2234,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2070000</t>
+          <t>2220000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2293,7 +2293,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2120000</v>
+        <v>2270000</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2120000</t>
+          <t>2270000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2336,7 +2336,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2220000</t>
+          <t>2370000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2395,7 +2395,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2680000</t>
+          <t>2830000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2454,7 +2454,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3101000</t>
+          <t>3251000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2513,7 +2513,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3410000</v>
+        <v>3560000</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3410000</t>
+          <t>3560000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2564,7 +2564,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2597,7 +2597,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2630,7 +2630,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2663,7 +2663,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>461900</v>
+        <v>611900</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>461900</t>
+          <t>611900</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2706,7 +2706,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>388900</v>
+        <v>538900</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>388900</t>
+          <t>538900</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2749,7 +2749,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2763,7 +2763,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>458900</v>
+        <v>608900</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>458900</t>
+          <t>608900</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2792,7 +2792,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2825,7 +2825,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2858,7 +2858,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1179000</v>
+        <v>1329000</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1179000</t>
+          <t>1329000</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2901,7 +2901,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2915,7 +2915,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>479000</v>
+        <v>629000</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>479000</t>
+          <t>629000</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2944,7 +2944,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2977,7 +2977,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3010,7 +3010,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3043,7 +3043,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3076,7 +3076,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3109,7 +3109,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3142,7 +3142,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3175,7 +3175,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3208,7 +3208,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3241,7 +3241,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2310000</t>
+          <t>2460000</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3300,7 +3300,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3341,7 +3341,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3355,16 +3355,16 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3540000</v>
+        <v>3585000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/exeed/rx/</t>
+          <t>https://auto-centre-profsouz.ru/auto/exeed/rx/SUV_5D</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>3540000</t>
+          <t>3690000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3400,7 +3400,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>3510000</t>
+          <t>3660000</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3459,7 +3459,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3508,7 +3508,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>4550000</t>
+          <t>4700000</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3567,7 +3567,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3608,7 +3608,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3649,7 +3649,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3682,7 +3682,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3696,16 +3696,16 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1700000</v>
+        <v>1745000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/faw/bestune_b70/</t>
+          <t>https://auto-centre-profsouz.ru/auto/faw/bestune-b70/LIFTBACK</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1700000</t>
+          <t>1850000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3741,7 +3741,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3755,16 +3755,16 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1661000</v>
+        <v>1706000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/faw/bestune_t55/</t>
+          <t>https://auto-centre-profsouz.ru/auto/faw/bestune-t55/SUV_5D</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1661000</t>
+          <t>1811000</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3800,7 +3800,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3823,7 +3823,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1420000</t>
+          <t>1570000</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3859,7 +3859,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3873,16 +3873,16 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2290000</v>
+        <v>2335000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/faw/bestune_t99/</t>
+          <t>https://auto-centre-profsouz.ru/auto/faw/bestune-t99/SUV_5D</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2290000</t>
+          <t>2440000</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3918,7 +3918,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3951,7 +3951,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3992,7 +3992,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>852000</v>
+        <v>1002000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>852000</t>
+          <t>1002000</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -4035,7 +4035,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4076,7 +4076,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4090,7 +4090,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>758000</v>
+        <v>908000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>758000</t>
+          <t>908000</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -4119,7 +4119,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4160,7 +4160,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4201,7 +4201,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4234,7 +4234,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4267,7 +4267,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4308,7 +4308,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4341,7 +4341,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1499000</t>
+          <t>1649000</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4400,7 +4400,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2239000</t>
+          <t>2389000</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4459,7 +4459,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4492,7 +4492,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4525,7 +4525,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4539,16 +4539,16 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1088990</v>
+        <v>1133990</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/geely/atlas_1/</t>
+          <t>https://auto-centre-profsouz.ru/auto/geely/Atlas/cuv</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1088990</t>
+          <t>1238990</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4584,7 +4584,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2194990</t>
+          <t>2344990</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4643,7 +4643,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1968990</t>
+          <t>2118990</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4702,7 +4702,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4716,7 +4716,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1185990</v>
+        <v>1335990</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1185990</t>
+          <t>1335990</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4745,7 +4745,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1579990</t>
+          <t>1729990</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4804,7 +4804,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4818,16 +4818,16 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1069990</v>
+        <v>1114990</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/geely/coolray/</t>
+          <t>https://auto-centre-profsouz.ru/auto/geely/coolray-new/suv-5d</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1069990</t>
+          <t>1219990</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4863,7 +4863,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4896,7 +4896,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4910,7 +4910,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1009990</v>
+        <v>1159990</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1009990</t>
+          <t>1159990</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4947,7 +4947,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4996,7 +4996,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5010,16 +5010,16 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>569990</v>
+        <v>614990</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/geely/gs/</t>
+          <t>https://auto-centre-profsouz.ru/auto/geely/gs/cuv</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>569990</t>
+          <t>719990</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -5055,7 +5055,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>3424990</t>
+          <t>3574990</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -5114,7 +5114,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5163,7 +5163,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2799990</t>
+          <t>2949990</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -5206,7 +5206,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5239,7 +5239,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5280,7 +5280,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>3524990</t>
+          <t>3674990</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -5331,7 +5331,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5354,7 +5354,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2139000</t>
+          <t>2289000</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -5390,7 +5390,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5413,7 +5413,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2409000</t>
+          <t>2559000</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -5449,7 +5449,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5472,7 +5472,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>1539000</t>
+          <t>1689000</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -5508,7 +5508,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>1589000</t>
+          <t>1739000</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -5567,7 +5567,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5600,7 +5600,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5641,7 +5641,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5655,7 +5655,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>879000</v>
+        <v>1029000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>879000</t>
+          <t>1029000</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5684,7 +5684,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5717,7 +5717,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>3239000</t>
+          <t>3389000</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5776,7 +5776,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>1199000</t>
+          <t>1349000</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5835,7 +5835,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5849,16 +5849,16 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1089000</v>
+        <v>1134000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/haval/jolion/</t>
+          <t>https://auto-centre-profsouz.ru/auto/haval/jolion/suv-1gen-rest</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>1089000</t>
+          <t>1239000</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5894,7 +5894,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5908,16 +5908,16 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1319000</v>
+        <v>1364000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/haval/m6/</t>
+          <t>https://auto-centre-profsouz.ru/auto/haval/m6/WAGON_7D</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1319000</t>
+          <t>1469000</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -5953,7 +5953,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5986,7 +5986,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -6019,7 +6019,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -6052,7 +6052,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -6085,7 +6085,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -6108,7 +6108,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>1409000</t>
+          <t>1559000</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -6136,7 +6136,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6169,7 +6169,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1699000</t>
+          <t>1849000</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -6220,7 +6220,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -6253,7 +6253,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6294,7 +6294,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -6308,7 +6308,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>958000</v>
+        <v>1108000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>958000</t>
+          <t>1108000</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -6337,7 +6337,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6378,7 +6378,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>2319000</v>
+        <v>2469000</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2319000</t>
+          <t>2469000</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -6421,7 +6421,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -6462,7 +6462,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -6495,7 +6495,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -6528,7 +6528,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2299000</t>
+          <t>2449000</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -6579,7 +6579,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -6602,7 +6602,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1379000</t>
+          <t>1529000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -6638,7 +6638,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -6679,7 +6679,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -6720,7 +6720,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -6734,16 +6734,16 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>649000</v>
+        <v>694000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/jac/s3/</t>
+          <t>https://auto-centre-profsouz.ru/auto/jac/s3/cuv</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>649000</t>
+          <t>799000</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -6779,7 +6779,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -6820,7 +6820,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1029000</t>
+          <t>1179000</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -6879,7 +6879,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -6928,7 +6928,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -6961,7 +6961,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -6994,7 +6994,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -7008,16 +7008,16 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2589900</v>
+        <v>2739900</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/jaecoo/j7/</t>
+          <t>https://auto-centre-profsouz.ru/auto/jaecoo/j-7/suv-1gen</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2589900</t>
+          <t>2739900</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -7053,7 +7053,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -7086,7 +7086,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -7100,16 +7100,16 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1739900</v>
+        <v>1784900</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/jetour/dashing/</t>
+          <t>https://auto-centre-profsouz.ru/auto/jetour/dashing/suv-1gen</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>1739900</t>
+          <t>1889900</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -7145,7 +7145,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -7178,7 +7178,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -7201,7 +7201,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2249900</t>
+          <t>2399900</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -7237,7 +7237,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -7251,16 +7251,16 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>2649900</v>
+        <v>2694900</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/jetour/x90_plus/</t>
+          <t>https://auto-centre-profsouz.ru/auto/jetour/x90plus/suv-1gen</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2649900</t>
+          <t>2799900</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -7296,7 +7296,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -7310,16 +7310,16 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>940000</v>
+        <v>985000</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/jetta/va3/</t>
+          <t>https://auto-centre-profsouz.ru/auto/jetta/va3/va3</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>940000</t>
+          <t>1090000</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -7355,7 +7355,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -7369,16 +7369,16 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1240000</v>
+        <v>1285000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/jetta/vs5/</t>
+          <t>https://auto-centre-profsouz.ru/auto/jetta/vs5/vs5</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>1240000</t>
+          <t>1390000</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -7414,7 +7414,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -7428,16 +7428,16 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1399000</v>
+        <v>1444000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/jetta/vs7/</t>
+          <t>https://auto-centre-profsouz.ru/auto/jetta/vs7/vs7</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>1399000</t>
+          <t>1549000</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -7473,7 +7473,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -7496,7 +7496,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>1495000</t>
+          <t>1645000</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -7532,7 +7532,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -7546,16 +7546,16 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1481650</v>
+        <v>1526650</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/kaiyi/x3/</t>
+          <t>https://auto-centre-profsouz.ru/auto/kaiyi/X3/SUV_5D</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>1481650</t>
+          <t>1631650</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -7591,7 +7591,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -7605,16 +7605,16 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1764900</v>
+        <v>1809900</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://auto-centre-profsouz.ru/auto/kaiyi/X3%20Pro/SUV_5D</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>1764900</t>
+          <t>1914900</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -7650,7 +7650,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -7673,7 +7673,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2347900</t>
+          <t>2497900</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -7709,7 +7709,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -7742,7 +7742,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -7765,7 +7765,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>1794900</t>
+          <t>1944900</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -7793,7 +7793,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -7834,7 +7834,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -7857,7 +7857,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>1864900</t>
+          <t>2014900</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -7885,7 +7885,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -7926,7 +7926,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -7967,7 +7967,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -7990,7 +7990,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>1604900</t>
+          <t>1754900</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -8018,7 +8018,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2284900</t>
+          <t>2434900</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -8077,7 +8077,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -8110,7 +8110,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>884900</t>
+          <t>1034900</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -8161,7 +8161,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -8175,7 +8175,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>817999</v>
+        <v>967999</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>817999</t>
+          <t>967999</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -8204,7 +8204,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -8237,7 +8237,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -8260,7 +8260,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>984900</t>
+          <t>1134900</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -8288,7 +8288,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>1124900</t>
+          <t>1274900</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -8347,7 +8347,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -8370,7 +8370,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>1509900</t>
+          <t>1659900</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -8406,7 +8406,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -8455,7 +8455,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1379900</v>
+        <v>1529900</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>1379900</t>
+          <t>1529900</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -8498,7 +8498,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -8539,7 +8539,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -8572,7 +8572,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -8595,7 +8595,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2399900</t>
+          <t>2549900</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -8631,7 +8631,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -8664,7 +8664,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -8678,16 +8678,16 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>919900</v>
+        <v>1004900</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/kia/xceed/</t>
+          <t>https://aspect-motors.ru/auto/kia/xceed/cuv</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>919900</t>
+          <t>1069900</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -8707,7 +8707,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -8740,7 +8740,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -8799,7 +8799,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -8858,7 +8858,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -8909,7 +8909,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -8942,7 +8942,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -8993,7 +8993,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>415</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -9026,7 +9026,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -9077,7 +9077,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -9110,7 +9110,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -9143,7 +9143,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -9176,7 +9176,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -9209,7 +9209,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -9260,7 +9260,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -9293,7 +9293,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -9342,7 +9342,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -9375,7 +9375,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -9424,7 +9424,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -9459,7 +9459,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -9494,7 +9494,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -9543,7 +9543,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -9584,7 +9584,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -9643,7 +9643,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -9684,7 +9684,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -9717,7 +9717,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>425</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -9750,7 +9750,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>426</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -9783,7 +9783,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -9834,7 +9834,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -9893,7 +9893,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -9952,7 +9952,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -10011,7 +10011,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -10054,7 +10054,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -10113,7 +10113,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -10172,7 +10172,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -10215,7 +10215,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -10258,7 +10258,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -10317,7 +10317,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -10360,7 +10360,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -10419,7 +10419,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -10452,7 +10452,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -10511,7 +10511,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -10570,7 +10570,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -10605,7 +10605,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -10619,16 +10619,16 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>555300</v>
+        <v>650300</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/murman/</t>
+          <t>https://aspect-motors.ru/auto/lifan/murman/sedan</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>555300</t>
+          <t>705300</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -10648,7 +10648,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -10662,16 +10662,16 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>606300</v>
+        <v>701300</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/myway/</t>
+          <t>https://aspect-motors.ru/auto/lifan/myway/wagon</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>606300</t>
+          <t>756300</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -10691,7 +10691,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -10705,16 +10705,16 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>306300</v>
+        <v>401300</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/solano_ii/</t>
+          <t>https://aspect-motors.ru/auto/lifan/solano-2/sedan</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>306300</t>
+          <t>456300</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -10734,7 +10734,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -10757,7 +10757,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>425300</t>
+          <t>575300</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -10777,7 +10777,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -10791,16 +10791,16 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>396300</v>
+        <v>491300</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/x60/</t>
+          <t>https://aspect-motors.ru/auto/lifan/x60/wagon</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>396300</t>
+          <t>546300</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -10820,7 +10820,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -10834,16 +10834,16 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>675300</v>
+        <v>770300</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/x70/</t>
+          <t>https://aspect-motors.ru/auto/lifan/x70/cuv</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>675300</t>
+          <t>825300</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -10863,7 +10863,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -10877,16 +10877,16 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>1634930</v>
+        <v>1679930</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/livan/s6pro/</t>
+          <t>https://auto-centre-profsouz.ru/auto/livan/s6pro/sedan-1gen</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>1634930</t>
+          <t>1784930</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -10922,7 +10922,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -10936,16 +10936,16 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>1129900</v>
+        <v>1174900</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/livan/x3pro/</t>
+          <t>https://auto-centre-profsouz.ru/auto/livan/x3pro/suv-1gen</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>1129900</t>
+          <t>1279900</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -10981,7 +10981,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -10995,16 +10995,16 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>1690930</v>
+        <v>1735930</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/livan/x6pro/</t>
+          <t>https://auto-centre-profsouz.ru/auto/livan/x6pro/suv-1gen</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>1690930</t>
+          <t>1840930</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -11040,7 +11040,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -11081,7 +11081,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -11122,7 +11122,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -11163,7 +11163,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -11204,7 +11204,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>482</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -11237,7 +11237,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -11270,7 +11270,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -11303,7 +11303,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>479</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -11336,7 +11336,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>496</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -11369,7 +11369,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>501</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -11402,7 +11402,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -11435,7 +11435,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>503</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -11468,7 +11468,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>507</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -11501,7 +11501,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -11515,16 +11515,16 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>1180000</v>
+        <v>1225000</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/moskvich/3/</t>
+          <t>https://auto-centre-profsouz.ru/auto/moskvich/moskvich3/cuv</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>1180000</t>
+          <t>1330000</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -11560,7 +11560,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -11583,7 +11583,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>2908000</t>
+          <t>3058000</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -11611,7 +11611,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -11652,7 +11652,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>3959000</v>
+        <v>4109000</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -11675,7 +11675,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>3959000</t>
+          <t>4109000</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -11695,7 +11695,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>518</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -11728,7 +11728,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -11742,16 +11742,16 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1687000</v>
+        <v>1732000</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/nissan/qashqai/</t>
+          <t>https://auto-centre-profsouz.ru/auto/nissan/new-qashqai/2019</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>1687000</t>
+          <t>1837000</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -11779,7 +11779,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>521</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -11820,7 +11820,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -11834,7 +11834,7 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>1240000</v>
+        <v>1390000</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>1240000</t>
+          <t>1390000</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -11863,7 +11863,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>519</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -11904,7 +11904,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -11927,7 +11927,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>2202000</t>
+          <t>2352000</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -11955,7 +11955,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>524</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -11996,7 +11996,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -12019,7 +12019,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>1929900</t>
+          <t>2079900</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -12055,7 +12055,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -12078,7 +12078,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>1569900</t>
+          <t>1719900</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -12114,7 +12114,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -12155,7 +12155,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>536</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -12188,7 +12188,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -12221,7 +12221,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -12254,7 +12254,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -12287,7 +12287,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -12301,7 +12301,7 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>1314000</v>
+        <v>1464000</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>1314000</t>
+          <t>1464000</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -12330,7 +12330,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -12371,7 +12371,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -12404,7 +12404,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -12427,7 +12427,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>1058000</t>
+          <t>1208000</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -12455,7 +12455,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -12469,7 +12469,7 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>1164000</v>
+        <v>1314000</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>1164000</t>
+          <t>1314000</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -12498,7 +12498,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>557</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -12539,7 +12539,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -12553,7 +12553,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>674000</v>
+        <v>824000</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -12562,7 +12562,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>674000</t>
+          <t>824000</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -12582,7 +12582,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>562</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -12623,7 +12623,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -12646,7 +12646,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>813000</t>
+          <t>963000</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -12682,7 +12682,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>564000</v>
+        <v>714000</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>564000</t>
+          <t>714000</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -12725,7 +12725,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -12766,7 +12766,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -12780,7 +12780,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>741000</v>
+        <v>891000</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>741000</t>
+          <t>891000</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -12809,7 +12809,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>564</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -12850,7 +12850,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -12891,7 +12891,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -12932,7 +12932,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -12973,7 +12973,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>1255000</t>
+          <t>1405000</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -13032,7 +13032,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -13046,16 +13046,16 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>1607000</v>
+        <v>1609500</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/skoda/kodiaq/</t>
+          <t>https://aspect-motors.ru/auto/skoda/new-kodiaq/cuv</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>1607000</t>
+          <t>1757000</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -13091,7 +13091,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -13124,7 +13124,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>580</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -13165,7 +13165,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -13179,7 +13179,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>1207000</v>
+        <v>1357000</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>1207000</t>
+          <t>1357000</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -13200,7 +13200,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -13214,7 +13214,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>601000</v>
+        <v>751000</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>601000</t>
+          <t>751000</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -13243,7 +13243,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -13284,7 +13284,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -13298,7 +13298,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>2936000</v>
+        <v>3086000</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -13307,7 +13307,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>2936000</t>
+          <t>3086000</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -13327,7 +13327,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -13341,7 +13341,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3367000</v>
+        <v>3517000</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>3367000</t>
+          <t>3517000</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -13370,7 +13370,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>588</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -13403,7 +13403,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -13426,7 +13426,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>1599300</t>
+          <t>1749300</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -13454,7 +13454,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -13477,7 +13477,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>1529000</t>
+          <t>1679000</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -13505,7 +13505,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -13528,7 +13528,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>1425600</t>
+          <t>1575600</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -13556,7 +13556,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -13579,7 +13579,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>1564000</t>
+          <t>1714000</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -13607,7 +13607,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>598</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -13648,7 +13648,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>601</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -13681,7 +13681,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>606</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -13714,7 +13714,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>607</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -13747,7 +13747,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -13780,7 +13780,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -13794,16 +13794,16 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>3389000</v>
+        <v>3434000</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/tank/300/</t>
+          <t>https://auto-centre-profsouz.ru/auto/tank/300/SUV_5D</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>3389000</t>
+          <t>3539000</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -13839,7 +13839,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -13880,7 +13880,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>624</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -13913,7 +13913,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>622</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -13946,7 +13946,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>631</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -13979,7 +13979,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>628</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -14012,7 +14012,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>632</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -14045,7 +14045,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -14068,7 +14068,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>830000</t>
+          <t>980000</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
@@ -14104,7 +14104,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -14118,7 +14118,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>990000</v>
+        <v>1140000</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>990000</t>
+          <t>1140000</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -14147,7 +14147,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>635</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -14188,7 +14188,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -14202,7 +14202,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1015000</v>
+        <v>1165000</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>1015000</t>
+          <t>1165000</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
@@ -14231,7 +14231,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>638</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -14272,7 +14272,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>639</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -14305,7 +14305,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>644</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -14338,7 +14338,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -14352,7 +14352,7 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>958000</v>
+        <v>1108000</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -14361,7 +14361,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>958000</t>
+          <t>1108000</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -14381,7 +14381,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>646</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -14422,7 +14422,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -14436,7 +14436,7 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>2173000</v>
+        <v>2323000</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>2173000</t>
+          <t>2323000</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -14465,7 +14465,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>650</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -14506,7 +14506,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -14520,7 +14520,7 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>562400</v>
+        <v>712400</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>562400</t>
+          <t>712400</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -14549,7 +14549,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>648</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -14590,7 +14590,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -14613,7 +14613,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>2268900</t>
+          <t>2418900</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
@@ -14649,7 +14649,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>656</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -14682,7 +14682,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -14715,7 +14715,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -14738,7 +14738,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>1574900</t>
+          <t>1724900</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -14766,7 +14766,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>660</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -14799,7 +14799,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>676</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -14832,7 +14832,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>672</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>929600</v>
+        <v>1079600</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>929600</t>
+          <t>1079600</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
@@ -14883,7 +14883,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>674</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -14897,7 +14897,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>711600</v>
+        <v>861600</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -14906,7 +14906,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>711600</t>
+          <t>861600</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">

--- a/xlsx/surgut.xlsx
+++ b/xlsx/surgut.xlsx
@@ -514,7 +514,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3750000</t>
+          <t>3600000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -564,16 +564,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1340000</v>
+        <v>1295000</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/baic/sedan/sedan-1gen</t>
+          <t>https://autosurgut186.ru/auto/baic/u5_plus/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1445000</t>
+          <t>1295000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1495000</v>
+        <v>1450000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/baic/cuv/suv-1gen</t>
+          <t>https://autosurgut186.ru/auto/baic/x35/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1600000</t>
+          <t>1450000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2255000</t>
+          <t>2105000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -922,16 +922,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>935000</v>
+        <v>890000</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/alsvin/sed</t>
+          <t>https://autosurgut186.ru/auto/changan/alsvin/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1040000</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1629900</t>
+          <t>1479900</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1479900</t>
+          <t>1329900</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1140,16 +1140,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1814900</v>
+        <v>1769900</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/cs55plus/cuv</t>
+          <t>https://autosurgut186.ru/auto/changan/cs55_plus/</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1919900</t>
+          <t>1769900</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1759900</t>
+          <t>1609900</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2999900</t>
+          <t>2849900</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3539900</t>
+          <t>3389900</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1514900</v>
+        <v>1469900</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/eado-plus/SEDAN</t>
+          <t>https://autosurgut186.ru/auto/changan/eado_plus/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1619900</t>
+          <t>1469900</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1567,16 +1567,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2724900</v>
+        <v>2679900</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/hunter-plus/plus</t>
+          <t>https://autosurgut186.ru/auto/changan/hunter_plus/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2829900</t>
+          <t>2679900</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1618,16 +1618,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2084900</v>
+        <v>2039900</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/lamore/sedan</t>
+          <t>https://autosurgut186.ru/auto/changan/lamore/</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2189900</t>
+          <t>2039900</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1710,16 +1710,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2824900</v>
+        <v>2779900</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/uni-k/suv</t>
+          <t>https://autosurgut186.ru/auto/changan/uni-k/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2929900</t>
+          <t>2779900</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1769,16 +1769,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2054900</v>
+        <v>2009900</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/UNI-T/SUV_5D</t>
+          <t>https://autosurgut186.ru/auto/changan/uni-t/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2159900</t>
+          <t>2009900</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2149900</t>
+          <t>1999900</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1887,16 +1887,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2095000</v>
+        <v>2050000</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/chery/arrizo-8/sedan</t>
+          <t>https://autosurgut186.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2200000</t>
+          <t>2050000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1099900</t>
+          <t>949900</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2080,7 +2080,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1520000</t>
+          <t>1370000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2130,16 +2130,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>524900</v>
+        <v>479900</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/chery/tiggo-7/2019</t>
+          <t>https://autosurgut186.ru/auto/chery/tiggo_7/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>629900</t>
+          <t>479900</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1970000</t>
+          <t>1820000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2220000</t>
+          <t>2070000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2270000</v>
+        <v>2120000</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2270000</t>
+          <t>2120000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2370000</t>
+          <t>2220000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2830000</t>
+          <t>2680000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3251000</t>
+          <t>3101000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3560000</v>
+        <v>3410000</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3560000</t>
+          <t>3410000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>611900</v>
+        <v>461900</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>611900</t>
+          <t>461900</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>538900</v>
+        <v>388900</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>538900</t>
+          <t>388900</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2763,7 +2763,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>608900</v>
+        <v>458900</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>608900</t>
+          <t>458900</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1329000</v>
+        <v>1179000</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1329000</t>
+          <t>1179000</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2915,7 +2915,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>629000</v>
+        <v>479000</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>629000</t>
+          <t>479000</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2460000</t>
+          <t>2310000</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3355,16 +3355,16 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3585000</v>
+        <v>3540000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/exeed/rx/SUV_5D</t>
+          <t>https://autosurgut186.ru/auto/exeed/rx/</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>3690000</t>
+          <t>3540000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>3660000</t>
+          <t>3510000</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>4700000</t>
+          <t>4550000</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3696,16 +3696,16 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1745000</v>
+        <v>1700000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/faw/bestune-b70/LIFTBACK</t>
+          <t>https://autosurgut186.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1850000</t>
+          <t>1700000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3755,16 +3755,16 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1706000</v>
+        <v>1661000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/faw/bestune-t55/SUV_5D</t>
+          <t>https://autosurgut186.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1811000</t>
+          <t>1661000</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3823,7 +3823,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1570000</t>
+          <t>1420000</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3873,16 +3873,16 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2335000</v>
+        <v>2290000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/faw/bestune-t99/SUV_5D</t>
+          <t>https://autosurgut186.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2440000</t>
+          <t>2290000</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1002000</v>
+        <v>852000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1002000</t>
+          <t>852000</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -4090,7 +4090,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>908000</v>
+        <v>758000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>908000</t>
+          <t>758000</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1649000</t>
+          <t>1499000</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2389000</t>
+          <t>2239000</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4539,16 +4539,16 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1133990</v>
+        <v>1088990</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/geely/Atlas/cuv</t>
+          <t>https://autosurgut186.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1238990</t>
+          <t>1088990</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2344990</t>
+          <t>2194990</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2118990</t>
+          <t>1968990</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4716,7 +4716,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1335990</v>
+        <v>1185990</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1335990</t>
+          <t>1185990</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1729990</t>
+          <t>1579990</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4818,16 +4818,16 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1114990</v>
+        <v>1069990</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/geely/coolray-new/suv-5d</t>
+          <t>https://autosurgut186.ru/auto/geely/coolray/</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1219990</t>
+          <t>1069990</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4910,7 +4910,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1159990</v>
+        <v>1009990</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1159990</t>
+          <t>1009990</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -5010,16 +5010,16 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>614990</v>
+        <v>569990</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/geely/gs/cuv</t>
+          <t>https://autosurgut186.ru/auto/geely/gs/</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>719990</t>
+          <t>569990</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>3574990</t>
+          <t>3424990</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2949990</t>
+          <t>2799990</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>3674990</t>
+          <t>3524990</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -5354,7 +5354,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2289000</t>
+          <t>2139000</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -5413,7 +5413,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2559000</t>
+          <t>2409000</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -5472,7 +5472,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>1689000</t>
+          <t>1539000</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>1739000</t>
+          <t>1589000</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -5655,7 +5655,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1029000</v>
+        <v>879000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>1029000</t>
+          <t>879000</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>3389000</t>
+          <t>3239000</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>1199000</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5849,16 +5849,16 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1134000</v>
+        <v>1089000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/haval/jolion/suv-1gen-rest</t>
+          <t>https://autosurgut186.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>1239000</t>
+          <t>1089000</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5908,16 +5908,16 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1364000</v>
+        <v>1319000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/haval/m6/WAGON_7D</t>
+          <t>https://autosurgut186.ru/auto/haval/m6/</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1469000</t>
+          <t>1319000</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -6108,7 +6108,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>1559000</t>
+          <t>1409000</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1849000</t>
+          <t>1699000</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -6308,7 +6308,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1108000</v>
+        <v>958000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>1108000</t>
+          <t>958000</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>2469000</v>
+        <v>2319000</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2469000</t>
+          <t>2319000</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2449000</t>
+          <t>2299000</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -6602,7 +6602,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1529000</t>
+          <t>1379000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -6734,16 +6734,16 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>694000</v>
+        <v>649000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jac/s3/cuv</t>
+          <t>https://autosurgut186.ru/auto/jac/s3/</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>799000</t>
+          <t>649000</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1179000</t>
+          <t>1029000</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -7008,16 +7008,16 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2739900</v>
+        <v>2589900</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jaecoo/j-7/suv-1gen</t>
+          <t>https://autosurgut186.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2739900</t>
+          <t>2589900</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -7100,16 +7100,16 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1784900</v>
+        <v>1739900</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetour/dashing/suv-1gen</t>
+          <t>https://autosurgut186.ru/auto/jetour/dashing/</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>1889900</t>
+          <t>1739900</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -7201,7 +7201,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2399900</t>
+          <t>2249900</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -7251,16 +7251,16 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>2694900</v>
+        <v>2649900</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetour/x90plus/suv-1gen</t>
+          <t>https://autosurgut186.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2799900</t>
+          <t>2649900</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -7310,16 +7310,16 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>985000</v>
+        <v>940000</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetta/va3/va3</t>
+          <t>https://autosurgut186.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>1090000</t>
+          <t>940000</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -7369,16 +7369,16 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1285000</v>
+        <v>1240000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetta/vs5/vs5</t>
+          <t>https://autosurgut186.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>1240000</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -7428,16 +7428,16 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1444000</v>
+        <v>1399000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetta/vs7/vs7</t>
+          <t>https://autosurgut186.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>1549000</t>
+          <t>1399000</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -7496,7 +7496,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>1645000</t>
+          <t>1495000</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -7546,16 +7546,16 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1526650</v>
+        <v>1481650</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kaiyi/X3/SUV_5D</t>
+          <t>https://autosurgut186.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>1631650</t>
+          <t>1481650</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -7605,16 +7605,16 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1809900</v>
+        <v>1764900</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kaiyi/X3%20Pro/SUV_5D</t>
+          <t>https://autosurgut186.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>1914900</t>
+          <t>1764900</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -7673,7 +7673,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2497900</t>
+          <t>2347900</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -7765,7 +7765,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>1944900</t>
+          <t>1794900</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -7857,7 +7857,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2014900</t>
+          <t>1864900</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -7990,7 +7990,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>1754900</t>
+          <t>1604900</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2434900</t>
+          <t>2284900</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>1034900</t>
+          <t>884900</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -8175,7 +8175,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>967999</v>
+        <v>817999</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>967999</t>
+          <t>817999</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -8260,7 +8260,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>1134900</t>
+          <t>984900</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>1274900</t>
+          <t>1124900</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -8370,7 +8370,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>1659900</t>
+          <t>1509900</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1529900</v>
+        <v>1379900</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>1529900</t>
+          <t>1379900</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -8595,7 +8595,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2549900</t>
+          <t>2399900</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -8678,16 +8678,16 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1004900</v>
+        <v>919900</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/kia/xceed/cuv</t>
+          <t>https://autosurgut186.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>1069900</t>
+          <t>919900</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -9664,6 +9664,16 @@
           <t>https://aspect-motors.ru/auto/lada/niva-legend/cuv</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>618900</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/lada/4x4_5_dv/</t>
+        </is>
+      </c>
       <c r="H200" t="n">
         <v>613900</v>
       </c>
@@ -9680,6 +9690,14 @@
           <t>https://aspect-motors.ru/auto/lada/niva-legend/cuv</t>
         </is>
       </c>
+      <c r="L200" t="n">
+        <v>918900</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/lada/4x4_5_dv/</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -10619,16 +10637,16 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>650300</v>
+        <v>555300</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/murman/sedan</t>
+          <t>https://autosurgut186.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>705300</t>
+          <t>555300</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -10662,16 +10680,16 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>701300</v>
+        <v>606300</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/myway/wagon</t>
+          <t>https://autosurgut186.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>756300</t>
+          <t>606300</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -10705,16 +10723,16 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>401300</v>
+        <v>306300</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/solano-2/sedan</t>
+          <t>https://autosurgut186.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>456300</t>
+          <t>306300</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -10757,7 +10775,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>575300</t>
+          <t>425300</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -10791,16 +10809,16 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>491300</v>
+        <v>396300</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/x60/wagon</t>
+          <t>https://autosurgut186.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>546300</t>
+          <t>396300</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -10834,16 +10852,16 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>770300</v>
+        <v>675300</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/x70/cuv</t>
+          <t>https://autosurgut186.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>825300</t>
+          <t>675300</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -10877,16 +10895,16 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>1679930</v>
+        <v>1634930</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/livan/s6pro/sedan-1gen</t>
+          <t>https://autosurgut186.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>1784930</t>
+          <t>1634930</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -10936,16 +10954,16 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>1174900</v>
+        <v>1129900</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/livan/x3pro/suv-1gen</t>
+          <t>https://autosurgut186.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>1279900</t>
+          <t>1129900</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -10995,16 +11013,16 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>1735930</v>
+        <v>1690930</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/livan/x6pro/suv-1gen</t>
+          <t>https://autosurgut186.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>1840930</t>
+          <t>1690930</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -11515,16 +11533,16 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>1225000</v>
+        <v>1180000</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/moskvich/moskvich3/cuv</t>
+          <t>https://autosurgut186.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>1330000</t>
+          <t>1180000</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -11583,7 +11601,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>3058000</t>
+          <t>2908000</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -11666,7 +11684,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>4109000</v>
+        <v>3959000</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -11675,7 +11693,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>4109000</t>
+          <t>3959000</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -11742,16 +11760,16 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1732000</v>
+        <v>1687000</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/nissan/new-qashqai/2019</t>
+          <t>https://autosurgut186.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>1837000</t>
+          <t>1687000</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -11834,7 +11852,7 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>1390000</v>
+        <v>1240000</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -11843,7 +11861,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>1240000</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -11927,7 +11945,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>2352000</t>
+          <t>2202000</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -12019,7 +12037,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>2079900</t>
+          <t>1929900</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -12078,7 +12096,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>1719900</t>
+          <t>1569900</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -12301,7 +12319,7 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>1464000</v>
+        <v>1314000</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -12310,7 +12328,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>1464000</t>
+          <t>1314000</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -12427,7 +12445,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>1208000</t>
+          <t>1058000</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -12469,7 +12487,7 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>1314000</v>
+        <v>1164000</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -12478,7 +12496,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>1314000</t>
+          <t>1164000</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -12553,7 +12571,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>824000</v>
+        <v>674000</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -12562,7 +12580,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>824000</t>
+          <t>674000</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -12646,7 +12664,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>963000</t>
+          <t>813000</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -12696,7 +12714,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>714000</v>
+        <v>564000</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -12705,7 +12723,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>714000</t>
+          <t>564000</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -12780,7 +12798,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>891000</v>
+        <v>741000</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -12789,7 +12807,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>891000</t>
+          <t>741000</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -12996,7 +13014,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>1405000</t>
+          <t>1255000</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -13046,16 +13064,16 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>1609500</v>
+        <v>1607000</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/skoda/new-kodiaq/cuv</t>
+          <t>https://autosurgut186.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>1757000</t>
+          <t>1607000</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -13179,7 +13197,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>1357000</v>
+        <v>1207000</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -13188,7 +13206,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>1357000</t>
+          <t>1207000</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -13214,7 +13232,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>751000</v>
+        <v>601000</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -13223,7 +13241,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>751000</t>
+          <t>601000</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -13298,7 +13316,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>3086000</v>
+        <v>2936000</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -13307,7 +13325,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>3086000</t>
+          <t>2936000</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -13341,7 +13359,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3517000</v>
+        <v>3367000</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -13350,7 +13368,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>3517000</t>
+          <t>3367000</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -13426,7 +13444,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>1749300</t>
+          <t>1599300</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -13477,7 +13495,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>1679000</t>
+          <t>1529000</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -13528,7 +13546,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>1575600</t>
+          <t>1425600</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -13579,7 +13597,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>1714000</t>
+          <t>1564000</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -13794,16 +13812,16 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>3434000</v>
+        <v>3389000</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/tank/300/SUV_5D</t>
+          <t>https://autosurgut186.ru/auto/tank/300/</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>3539000</t>
+          <t>3389000</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -14068,7 +14086,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>980000</t>
+          <t>830000</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
@@ -14118,7 +14136,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>1140000</v>
+        <v>990000</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -14127,7 +14145,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>1140000</t>
+          <t>990000</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -14202,7 +14220,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1165000</v>
+        <v>1015000</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -14211,7 +14229,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>1165000</t>
+          <t>1015000</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
@@ -14352,7 +14370,7 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>1108000</v>
+        <v>958000</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -14361,7 +14379,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>1108000</t>
+          <t>958000</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -14436,7 +14454,7 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>2323000</v>
+        <v>2173000</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -14445,7 +14463,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>2323000</t>
+          <t>2173000</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -14520,7 +14538,7 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>712400</v>
+        <v>562400</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -14529,7 +14547,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>712400</t>
+          <t>562400</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -14613,7 +14631,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>2418900</t>
+          <t>2268900</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
@@ -14738,7 +14756,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>1724900</t>
+          <t>1574900</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -14846,7 +14864,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>1079600</v>
+        <v>929600</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -14855,7 +14873,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>1079600</t>
+          <t>929600</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
@@ -14897,7 +14915,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>861600</v>
+        <v>711600</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -14906,7 +14924,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>861600</t>
+          <t>711600</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">

--- a/xlsx/surgut.xlsx
+++ b/xlsx/surgut.xlsx
@@ -514,7 +514,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3600000</t>
+          <t>3750000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -564,16 +564,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1295000</v>
+        <v>1340000</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/baic/u5_plus/</t>
+          <t>https://auto-centre-profsouz.ru/auto/baic/sedan/sedan-1gen</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1295000</t>
+          <t>1445000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1450000</v>
+        <v>1495000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/baic/x35/</t>
+          <t>https://auto-centre-profsouz.ru/auto/baic/cuv/suv-1gen</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1450000</t>
+          <t>1600000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2105000</t>
+          <t>2255000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -922,16 +922,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>890000</v>
+        <v>935000</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/changan/alsvin/</t>
+          <t>https://auto-centre-profsouz.ru/auto/changan/alsvin/sed</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>1040000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1479900</t>
+          <t>1629900</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1329900</t>
+          <t>1479900</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1140,16 +1140,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1769900</v>
+        <v>1814900</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/changan/cs55_plus/</t>
+          <t>https://auto-centre-profsouz.ru/auto/changan/cs55plus/cuv</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1769900</t>
+          <t>1919900</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1609900</t>
+          <t>1759900</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2849900</t>
+          <t>2999900</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3389900</t>
+          <t>3539900</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1469900</v>
+        <v>1514900</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/changan/eado_plus/</t>
+          <t>https://auto-centre-profsouz.ru/auto/changan/eado-plus/SEDAN</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1469900</t>
+          <t>1619900</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1567,16 +1567,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2679900</v>
+        <v>2724900</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/changan/hunter_plus/</t>
+          <t>https://auto-centre-profsouz.ru/auto/changan/hunter-plus/plus</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2679900</t>
+          <t>2829900</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1618,16 +1618,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2039900</v>
+        <v>2084900</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/changan/lamore/</t>
+          <t>https://auto-centre-profsouz.ru/auto/changan/lamore/sedan</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2039900</t>
+          <t>2189900</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1710,16 +1710,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2779900</v>
+        <v>2824900</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/changan/uni-k/</t>
+          <t>https://auto-centre-profsouz.ru/auto/changan/uni-k/suv</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2779900</t>
+          <t>2929900</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1769,16 +1769,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2009900</v>
+        <v>2054900</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/changan/uni-t/</t>
+          <t>https://auto-centre-profsouz.ru/auto/changan/UNI-T/SUV_5D</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2009900</t>
+          <t>2159900</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1999900</t>
+          <t>2149900</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1887,16 +1887,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2050000</v>
+        <v>2095000</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/chery/arrizo_8/</t>
+          <t>https://auto-centre-profsouz.ru/auto/chery/arrizo-8/sedan</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2050000</t>
+          <t>2200000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>949900</t>
+          <t>1099900</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2080,7 +2080,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1370000</t>
+          <t>1520000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2130,16 +2130,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>479900</v>
+        <v>524900</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/chery/tiggo_7/</t>
+          <t>https://auto-centre-profsouz.ru/auto/chery/tiggo-7/2019</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>479900</t>
+          <t>629900</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1820000</t>
+          <t>1970000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2070000</t>
+          <t>2220000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2120000</v>
+        <v>2270000</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2120000</t>
+          <t>2270000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2220000</t>
+          <t>2370000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2680000</t>
+          <t>2830000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3101000</t>
+          <t>3251000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3410000</v>
+        <v>3560000</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3410000</t>
+          <t>3560000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>461900</v>
+        <v>611900</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>461900</t>
+          <t>611900</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>388900</v>
+        <v>538900</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>388900</t>
+          <t>538900</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2763,7 +2763,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>458900</v>
+        <v>608900</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>458900</t>
+          <t>608900</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1179000</v>
+        <v>1329000</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1179000</t>
+          <t>1329000</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2915,7 +2915,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>479000</v>
+        <v>629000</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>479000</t>
+          <t>629000</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2310000</t>
+          <t>2460000</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3355,16 +3355,16 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3540000</v>
+        <v>3585000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/exeed/rx/</t>
+          <t>https://auto-centre-profsouz.ru/auto/exeed/rx/SUV_5D</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>3540000</t>
+          <t>3690000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>3510000</t>
+          <t>3660000</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>4550000</t>
+          <t>4700000</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3696,16 +3696,16 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1700000</v>
+        <v>1745000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/faw/bestune_b70/</t>
+          <t>https://auto-centre-profsouz.ru/auto/faw/bestune-b70/LIFTBACK</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1700000</t>
+          <t>1850000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3755,16 +3755,16 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1661000</v>
+        <v>1706000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/faw/bestune_t55/</t>
+          <t>https://auto-centre-profsouz.ru/auto/faw/bestune-t55/SUV_5D</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1661000</t>
+          <t>1811000</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3823,7 +3823,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1420000</t>
+          <t>1570000</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3873,16 +3873,16 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2290000</v>
+        <v>2335000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/faw/bestune_t99/</t>
+          <t>https://auto-centre-profsouz.ru/auto/faw/bestune-t99/SUV_5D</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2290000</t>
+          <t>2440000</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>852000</v>
+        <v>1002000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>852000</t>
+          <t>1002000</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -4090,7 +4090,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>758000</v>
+        <v>908000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>758000</t>
+          <t>908000</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1499000</t>
+          <t>1649000</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2239000</t>
+          <t>2389000</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4539,16 +4539,16 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1088990</v>
+        <v>1133990</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/geely/atlas_1/</t>
+          <t>https://auto-centre-profsouz.ru/auto/geely/Atlas/cuv</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1088990</t>
+          <t>1238990</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2194990</t>
+          <t>2344990</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1968990</t>
+          <t>2118990</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4716,7 +4716,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1185990</v>
+        <v>1335990</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1185990</t>
+          <t>1335990</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1579990</t>
+          <t>1729990</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4818,16 +4818,16 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1069990</v>
+        <v>1114990</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/geely/coolray/</t>
+          <t>https://auto-centre-profsouz.ru/auto/geely/coolray-new/suv-5d</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1069990</t>
+          <t>1219990</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4910,7 +4910,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1009990</v>
+        <v>1159990</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1009990</t>
+          <t>1159990</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -5010,16 +5010,16 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>569990</v>
+        <v>614990</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/geely/gs/</t>
+          <t>https://auto-centre-profsouz.ru/auto/geely/gs/cuv</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>569990</t>
+          <t>719990</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>3424990</t>
+          <t>3574990</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2799990</t>
+          <t>2949990</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>3524990</t>
+          <t>3674990</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -5354,7 +5354,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2139000</t>
+          <t>2289000</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -5413,7 +5413,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2409000</t>
+          <t>2559000</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -5472,7 +5472,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>1539000</t>
+          <t>1689000</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>1589000</t>
+          <t>1739000</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -5655,7 +5655,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>879000</v>
+        <v>1029000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>879000</t>
+          <t>1029000</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>3239000</t>
+          <t>3389000</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>1199000</t>
+          <t>1349000</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5849,16 +5849,16 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1089000</v>
+        <v>1134000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/haval/jolion/</t>
+          <t>https://auto-centre-profsouz.ru/auto/haval/jolion/suv-1gen-rest</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>1089000</t>
+          <t>1239000</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5908,16 +5908,16 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1319000</v>
+        <v>1364000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/haval/m6/</t>
+          <t>https://auto-centre-profsouz.ru/auto/haval/m6/WAGON_7D</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1319000</t>
+          <t>1469000</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -6108,7 +6108,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>1409000</t>
+          <t>1559000</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1699000</t>
+          <t>1849000</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -6308,7 +6308,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>958000</v>
+        <v>1108000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>958000</t>
+          <t>1108000</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>2319000</v>
+        <v>2469000</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2319000</t>
+          <t>2469000</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2299000</t>
+          <t>2449000</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -6602,7 +6602,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1379000</t>
+          <t>1529000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -6734,16 +6734,16 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>649000</v>
+        <v>694000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/jac/s3/</t>
+          <t>https://auto-centre-profsouz.ru/auto/jac/s3/cuv</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>649000</t>
+          <t>799000</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1029000</t>
+          <t>1179000</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -7008,16 +7008,16 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2589900</v>
+        <v>2739900</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/jaecoo/j7/</t>
+          <t>https://auto-centre-profsouz.ru/auto/jaecoo/j-7/suv-1gen</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2589900</t>
+          <t>2739900</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -7100,16 +7100,16 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1739900</v>
+        <v>1784900</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/jetour/dashing/</t>
+          <t>https://auto-centre-profsouz.ru/auto/jetour/dashing/suv-1gen</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>1739900</t>
+          <t>1889900</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -7201,7 +7201,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2249900</t>
+          <t>2399900</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -7251,16 +7251,16 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>2649900</v>
+        <v>2694900</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/jetour/x90_plus/</t>
+          <t>https://auto-centre-profsouz.ru/auto/jetour/x90plus/suv-1gen</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2649900</t>
+          <t>2799900</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -7310,16 +7310,16 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>940000</v>
+        <v>985000</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/jetta/va3/</t>
+          <t>https://auto-centre-profsouz.ru/auto/jetta/va3/va3</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>940000</t>
+          <t>1090000</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -7369,16 +7369,16 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1240000</v>
+        <v>1285000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/jetta/vs5/</t>
+          <t>https://auto-centre-profsouz.ru/auto/jetta/vs5/vs5</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>1240000</t>
+          <t>1390000</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -7428,16 +7428,16 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1399000</v>
+        <v>1444000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/jetta/vs7/</t>
+          <t>https://auto-centre-profsouz.ru/auto/jetta/vs7/vs7</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>1399000</t>
+          <t>1549000</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -7496,7 +7496,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>1495000</t>
+          <t>1645000</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -7546,16 +7546,16 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1481650</v>
+        <v>1526650</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/kaiyi/x3/</t>
+          <t>https://auto-centre-profsouz.ru/auto/kaiyi/X3/SUV_5D</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>1481650</t>
+          <t>1631650</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -7605,16 +7605,16 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1764900</v>
+        <v>1809900</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://auto-centre-profsouz.ru/auto/kaiyi/X3%20Pro/SUV_5D</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>1764900</t>
+          <t>1914900</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -7673,7 +7673,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2347900</t>
+          <t>2497900</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -7765,7 +7765,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>1794900</t>
+          <t>1944900</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -7857,7 +7857,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>1864900</t>
+          <t>2014900</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -7990,7 +7990,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>1604900</t>
+          <t>1754900</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2284900</t>
+          <t>2434900</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>884900</t>
+          <t>1034900</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -8175,7 +8175,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>817999</v>
+        <v>967999</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>817999</t>
+          <t>967999</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -8260,7 +8260,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>984900</t>
+          <t>1134900</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>1124900</t>
+          <t>1274900</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -8370,7 +8370,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>1509900</t>
+          <t>1659900</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1379900</v>
+        <v>1529900</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>1379900</t>
+          <t>1529900</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -8595,7 +8595,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2399900</t>
+          <t>2549900</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -8678,16 +8678,16 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>919900</v>
+        <v>1004900</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/kia/xceed/</t>
+          <t>https://aspect-motors.ru/auto/kia/xceed/cuv</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>919900</t>
+          <t>1069900</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -9543,7 +9543,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -9553,38 +9553,32 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>742900</v>
+        <v>1001900</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-new/cuv</t>
-        </is>
-      </c>
-      <c r="H198" t="n">
-        <v>742900</v>
-      </c>
-      <c r="I198" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-new/cuv</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1042900</v>
-      </c>
-      <c r="M198" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/lada/niva/</t>
+          <t>https://autosurgut186.ru/auto/lada/largus_furgon/</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>1001900</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -9594,56 +9588,38 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>350300</v>
+        <v>742900</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/niva-legend/suv</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>529900</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-new/cuv</t>
         </is>
       </c>
       <c r="H199" t="n">
-        <v>524900</v>
+        <v>742900</v>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/suv</t>
-        </is>
-      </c>
-      <c r="J199" t="n">
-        <v>350300</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/lada/niva-legend/suv</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-new/cuv</t>
         </is>
       </c>
       <c r="L199" t="n">
-        <v>829900</v>
+        <v>1042900</v>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://sibir-morots.ru/auto/lada/niva/</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -9653,56 +9629,56 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>371300</v>
+        <v>350300</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/niva-legend/cuv</t>
+          <t>https://aspect-motors.ru/auto/lada/niva-legend/suv</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>618900</t>
+          <t>529900</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://autosurgut186.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="H200" t="n">
-        <v>613900</v>
+        <v>524900</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/suv</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>371300</v>
+        <v>350300</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/niva-legend/cuv</t>
+          <t>https://aspect-motors.ru/auto/lada/niva-legend/suv</t>
         </is>
       </c>
       <c r="L200" t="n">
-        <v>918900</v>
+        <v>829900</v>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://sibir-morots.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -9712,30 +9688,56 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Niva Legend Bronto</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>689900</v>
+        <v>371300</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/niva-legend/suv_3d</t>
+          <t>https://aspect-motors.ru/auto/lada/niva-legend/cuv</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>618900</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/lada/4x4_5_dv/</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>613900</v>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>689900</v>
+        <v>371300</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/niva-legend/suv_3d</t>
+          <t>https://aspect-motors.ru/auto/lada/niva-legend/cuv</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>918900</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -9745,30 +9747,30 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Niva Legend Urban 3 двери</t>
+          <t>Niva Legend Bronto</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>592900</v>
+        <v>689900</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv-urban</t>
-        </is>
-      </c>
-      <c r="H202" t="n">
-        <v>592900</v>
-      </c>
-      <c r="I202" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv-urban</t>
+          <t>https://aspect-motors.ru/auto/lada/niva-legend/suv_3d</t>
+        </is>
+      </c>
+      <c r="J202" t="n">
+        <v>689900</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/lada/niva-legend/suv_3d</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>425</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -9778,30 +9780,30 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Niva Legend Urban 5 дверей</t>
+          <t>Niva Legend Urban 3 двери</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>689900</v>
+        <v>592900</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv-urban5</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv-urban</t>
         </is>
       </c>
       <c r="H203" t="n">
-        <v>689900</v>
+        <v>592900</v>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv-urban5</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv-urban</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>426</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -9811,48 +9813,30 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>Niva Legend Urban 5 дверей</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>519000</v>
+        <v>689900</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-new/suv</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>524000</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/lada/niva_off-road/</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv-urban5</t>
         </is>
       </c>
       <c r="H204" t="n">
-        <v>519000</v>
+        <v>689900</v>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-new/suv</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>824000</v>
-      </c>
-      <c r="M204" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/lada/niva_off-road/</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv-urban5</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -9862,56 +9846,48 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>365200</v>
+        <v>519000</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/niva-travel/suv</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-new/suv</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>792900</t>
+          <t>524000</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/niva_travel/</t>
+          <t>https://autosurgut186.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
       <c r="H205" t="n">
-        <v>787900</v>
+        <v>519000</v>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-travel/suv</t>
-        </is>
-      </c>
-      <c r="J205" t="n">
-        <v>365200</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/lada/niva-travel/suv</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-new/suv</t>
         </is>
       </c>
       <c r="L205" t="n">
-        <v>1092900</v>
+        <v>824000</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/niva_travel/</t>
+          <t>https://sibir-morots.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -9921,49 +9897,49 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Vesta CNG</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>537300</v>
+        <v>365200</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/vesta/cng</t>
+          <t>https://aspect-motors.ru/auto/lada/niva-travel/suv</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>1016900</t>
+          <t>792900</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_cng/</t>
+          <t>https://autosurgut186.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="H206" t="n">
-        <v>1011900</v>
+        <v>787900</v>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/cng</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-travel/suv</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>537300</v>
+        <v>365200</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/vesta/cng</t>
+          <t>https://aspect-motors.ru/auto/lada/niva-travel/suv</t>
         </is>
       </c>
       <c r="L206" t="n">
-        <v>1316900</v>
+        <v>1092900</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/vesta_cng/</t>
+          <t>https://sibir-morots.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
     </row>
@@ -10335,7 +10311,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -10345,40 +10321,56 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>939900</v>
+        <v>537300</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta/</t>
+          <t>https://aspect-motors.ru/auto/lada/vesta/cng</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>939900</t>
+          <t>1016900</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta/</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_cng/</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>1011900</v>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/cng</t>
+        </is>
+      </c>
+      <c r="J214" t="n">
+        <v>537300</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/lada/vesta/cng</t>
         </is>
       </c>
       <c r="L214" t="n">
-        <v>1509900</v>
+        <v>1316900</v>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/vesta/</t>
+          <t>https://sibir-morots.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -10388,56 +10380,40 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>570300</v>
+        <v>939900</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/vesta/sport</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>1297900</t>
+          <t>939900</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_sport/</t>
-        </is>
-      </c>
-      <c r="H215" t="n">
-        <v>1292900</v>
-      </c>
-      <c r="I215" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/sport</t>
-        </is>
-      </c>
-      <c r="J215" t="n">
-        <v>570300</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/lada/vesta/sport</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="L215" t="n">
-        <v>1597900</v>
+        <v>1509900</v>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/vesta_sport/</t>
+          <t>https://sibir-morots.ru/auto/lada/vesta/</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -10447,30 +10423,56 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Vesta Sportline</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>1269900</v>
+        <v>570300</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/vesta-sportline/sedan-1gen-rest</t>
+          <t>https://aspect-motors.ru/auto/lada/vesta/sport</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>1297900</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/lada/vesta_sport/</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>1292900</v>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/sport</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>1269900</v>
+        <v>570300</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/vesta-sportline/sedan-1gen-rest</t>
+          <t>https://aspect-motors.ru/auto/lada/vesta/sport</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1597900</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -10480,56 +10482,30 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta Sportline</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>409300</v>
+        <v>1269900</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/xray/suv</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>806900</t>
-        </is>
-      </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/lada/xray/</t>
-        </is>
-      </c>
-      <c r="H217" t="n">
-        <v>801900</v>
-      </c>
-      <c r="I217" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/xray/suv</t>
+          <t>https://aspect-motors.ru/auto/lada/vesta-sportline/sedan-1gen-rest</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>409300</v>
+        <v>1269900</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/xray/suv</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1106900</v>
-      </c>
-      <c r="M217" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/lada/xray/</t>
+          <t>https://aspect-motors.ru/auto/lada/vesta-sportline/sedan-1gen-rest</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -10539,56 +10515,56 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>522300</v>
+        <v>409300</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/xray/xray-cross</t>
+          <t>https://aspect-motors.ru/auto/lada/xray/suv</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>949900</t>
+          <t>806900</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/xray_cross/</t>
+          <t>https://autosurgut186.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="H218" t="n">
-        <v>944900</v>
+        <v>801900</v>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/xray/xray-cross</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/xray/suv</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>522300</v>
+        <v>409300</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/xray/xray-cross</t>
+          <t>https://aspect-motors.ru/auto/lada/xray/suv</t>
         </is>
       </c>
       <c r="L218" t="n">
-        <v>1249900</v>
+        <v>1106900</v>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/xray_cross/</t>
+          <t>https://sibir-morots.ru/auto/lada/xray/</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -10598,25 +10574,49 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Фургон New</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>1001900</v>
+        <v>522300</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/largus_furgon/</t>
+          <t>https://aspect-motors.ru/auto/lada/xray/xray-cross</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>1001900</t>
+          <t>949900</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/largus_furgon/</t>
+          <t>https://autosurgut186.ru/auto/lada/xray_cross/</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>944900</v>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/lada/xray/xray-cross</t>
+        </is>
+      </c>
+      <c r="J219" t="n">
+        <v>522300</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/lada/xray/xray-cross</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1249900</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
     </row>
@@ -10637,16 +10637,16 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>555300</v>
+        <v>650300</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/murman/</t>
+          <t>https://aspect-motors.ru/auto/lifan/murman/sedan</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>555300</t>
+          <t>705300</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -10680,16 +10680,16 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>606300</v>
+        <v>701300</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/myway/</t>
+          <t>https://aspect-motors.ru/auto/lifan/myway/wagon</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>606300</t>
+          <t>756300</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -10723,16 +10723,16 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>306300</v>
+        <v>401300</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/solano_ii/</t>
+          <t>https://aspect-motors.ru/auto/lifan/solano-2/sedan</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>306300</t>
+          <t>456300</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -10775,7 +10775,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>425300</t>
+          <t>575300</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -10809,16 +10809,16 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>396300</v>
+        <v>491300</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/x60/</t>
+          <t>https://aspect-motors.ru/auto/lifan/x60/wagon</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>396300</t>
+          <t>546300</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -10852,16 +10852,16 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>675300</v>
+        <v>770300</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/x70/</t>
+          <t>https://aspect-motors.ru/auto/lifan/x70/cuv</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>675300</t>
+          <t>825300</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -10895,16 +10895,16 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>1634930</v>
+        <v>1679930</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/livan/s6pro/</t>
+          <t>https://auto-centre-profsouz.ru/auto/livan/s6pro/sedan-1gen</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>1634930</t>
+          <t>1784930</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -10954,16 +10954,16 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>1129900</v>
+        <v>1174900</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/livan/x3pro/</t>
+          <t>https://auto-centre-profsouz.ru/auto/livan/x3pro/suv-1gen</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>1129900</t>
+          <t>1279900</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>1690930</v>
+        <v>1735930</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/livan/x6pro/</t>
+          <t>https://auto-centre-profsouz.ru/auto/livan/x6pro/suv-1gen</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>1690930</t>
+          <t>1840930</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -11533,16 +11533,16 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>1180000</v>
+        <v>1225000</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/moskvich/3/</t>
+          <t>https://auto-centre-profsouz.ru/auto/moskvich/moskvich3/cuv</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>1180000</t>
+          <t>1330000</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>2908000</t>
+          <t>3058000</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -11684,7 +11684,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>3959000</v>
+        <v>4109000</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>3959000</t>
+          <t>4109000</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -11760,16 +11760,16 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1687000</v>
+        <v>1732000</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/nissan/qashqai/</t>
+          <t>https://auto-centre-profsouz.ru/auto/nissan/new-qashqai/2019</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>1687000</t>
+          <t>1837000</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -11852,7 +11852,7 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>1240000</v>
+        <v>1390000</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>1240000</t>
+          <t>1390000</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -11945,7 +11945,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>2202000</t>
+          <t>2352000</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -12037,7 +12037,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>1929900</t>
+          <t>2079900</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -12096,7 +12096,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>1569900</t>
+          <t>1719900</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -12319,7 +12319,7 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>1314000</v>
+        <v>1464000</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -12328,7 +12328,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>1314000</t>
+          <t>1464000</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -12445,7 +12445,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>1058000</t>
+          <t>1208000</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>1164000</v>
+        <v>1314000</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>1164000</t>
+          <t>1314000</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>674000</v>
+        <v>824000</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>674000</t>
+          <t>824000</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>813000</t>
+          <t>963000</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -12714,7 +12714,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>564000</v>
+        <v>714000</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>564000</t>
+          <t>714000</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -12798,7 +12798,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>741000</v>
+        <v>891000</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -12807,7 +12807,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>741000</t>
+          <t>891000</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -13014,7 +13014,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>1255000</t>
+          <t>1405000</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -13064,16 +13064,16 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>1607000</v>
+        <v>1609500</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/skoda/kodiaq/</t>
+          <t>https://aspect-motors.ru/auto/skoda/new-kodiaq/cuv</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>1607000</t>
+          <t>1757000</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -13197,7 +13197,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>1207000</v>
+        <v>1357000</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>1207000</t>
+          <t>1357000</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -13232,7 +13232,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>601000</v>
+        <v>751000</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>601000</t>
+          <t>751000</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -13316,7 +13316,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>2936000</v>
+        <v>3086000</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>2936000</t>
+          <t>3086000</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -13359,7 +13359,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3367000</v>
+        <v>3517000</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -13368,7 +13368,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>3367000</t>
+          <t>3517000</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -13444,7 +13444,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>1599300</t>
+          <t>1749300</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -13495,7 +13495,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>1529000</t>
+          <t>1679000</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -13546,7 +13546,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>1425600</t>
+          <t>1575600</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -13597,7 +13597,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>1564000</t>
+          <t>1714000</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -13812,16 +13812,16 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>3389000</v>
+        <v>3434000</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/tank/300/</t>
+          <t>https://auto-centre-profsouz.ru/auto/tank/300/SUV_5D</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>3389000</t>
+          <t>3539000</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -14086,7 +14086,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>830000</t>
+          <t>980000</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
@@ -14136,7 +14136,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>990000</v>
+        <v>1140000</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>990000</t>
+          <t>1140000</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -14220,7 +14220,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1015000</v>
+        <v>1165000</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>1015000</t>
+          <t>1165000</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
@@ -14370,7 +14370,7 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>958000</v>
+        <v>1108000</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>958000</t>
+          <t>1108000</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -14454,7 +14454,7 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>2173000</v>
+        <v>2323000</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -14463,7 +14463,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>2173000</t>
+          <t>2323000</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -14538,7 +14538,7 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>562400</v>
+        <v>712400</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>562400</t>
+          <t>712400</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -14631,7 +14631,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>2268900</t>
+          <t>2418900</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
@@ -14756,7 +14756,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>1574900</t>
+          <t>1724900</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -14864,7 +14864,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>929600</v>
+        <v>1079600</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -14873,7 +14873,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>929600</t>
+          <t>1079600</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
@@ -14915,7 +14915,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>711600</v>
+        <v>861600</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>711600</t>
+          <t>861600</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">

--- a/xlsx/surgut.xlsx
+++ b/xlsx/surgut.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M322"/>
+  <dimension ref="A1:M323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8813,21 +8813,11 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>387900</v>
+        <v>522900</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/granta-drive-active/granta-drive-active</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>527900</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/lada/granta_drive_active/</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/granta-drive-active/granta-drive-active</t>
         </is>
       </c>
       <c r="H180" t="n">
@@ -8838,22 +8828,6 @@
           <t>https://auto-centre-profsouz.ru/auto/lada/granta-drive-active/granta-drive-active</t>
         </is>
       </c>
-      <c r="J180" t="n">
-        <v>387900</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/lada/granta-drive-active/granta-drive-active</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>827900</v>
-      </c>
-      <c r="M180" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/lada/granta_drive_active/</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -9077,7 +9051,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -9087,30 +9061,48 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Granta Sedan New</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>445900</v>
+        <v>387900</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/sedan</t>
-        </is>
-      </c>
-      <c r="H186" t="n">
-        <v>445900</v>
-      </c>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/sedan</t>
+          <t>https://aspect-motors.ru/auto/lada/granta-drive-active/granta-drive-active</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>527900</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/lada/granta_drive_active/</t>
+        </is>
+      </c>
+      <c r="J186" t="n">
+        <v>387900</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/lada/granta-drive-active/granta-drive-active</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>827900</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -9120,30 +9112,30 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Granta Sport Drive Active Liftback</t>
+          <t>Granta Sedan New</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>980900</v>
+        <v>445900</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/granta-sport/drive-active-liftback-1gen-rest</t>
-        </is>
-      </c>
-      <c r="J187" t="n">
-        <v>980900</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/lada/granta-sport/drive-active-liftback-1gen-rest</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/sedan</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>445900</v>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/sedan</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -9153,30 +9145,30 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Granta Sport Liftback</t>
+          <t>Granta Sport Drive Active Liftback</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1289900</v>
+        <v>980900</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/granta-sport/liftback-1gen-rest</t>
+          <t>https://aspect-motors.ru/auto/lada/granta-sport/drive-active-liftback-1gen-rest</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>1289900</v>
+        <v>980900</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/granta-sport/liftback-1gen-rest</t>
+          <t>https://aspect-motors.ru/auto/lada/granta-sport/drive-active-liftback-1gen-rest</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -9186,30 +9178,30 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Granta Sport Sedan</t>
+          <t>Granta Sport Liftback</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1249900</v>
+        <v>1289900</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/granta-sport/sedan-1gen-rest</t>
+          <t>https://aspect-motors.ru/auto/lada/granta-sport/liftback-1gen-rest</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>1249900</v>
+        <v>1289900</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/granta-sport/sedan-1gen-rest</t>
+          <t>https://aspect-motors.ru/auto/lada/granta-sport/liftback-1gen-rest</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -9219,48 +9211,30 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Granta Sport Sedan</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>302100</v>
+        <v>1249900</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/new-granta/wagon</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>419300</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/lada/granta_universal/</t>
+          <t>https://aspect-motors.ru/auto/lada/granta-sport/sedan-1gen-rest</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>302100</v>
+        <v>1249900</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/new-granta/wagon</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>719300</v>
-      </c>
-      <c r="M190" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/lada/granta_universal/</t>
+          <t>https://aspect-motors.ru/auto/lada/granta-sport/sedan-1gen-rest</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -9270,30 +9244,48 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Granta Universal New</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>414300</v>
+        <v>302100</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/wagon</t>
-        </is>
-      </c>
-      <c r="H191" t="n">
-        <v>414300</v>
-      </c>
-      <c r="I191" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/wagon</t>
+          <t>https://aspect-motors.ru/auto/lada/new-granta/wagon</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>419300</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/lada/granta_universal/</t>
+        </is>
+      </c>
+      <c r="J191" t="n">
+        <v>302100</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/lada/new-granta/wagon</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>719300</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -9303,46 +9295,30 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Granta Universal New</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>444300</v>
+        <v>414300</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/largus/wa</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/wagon</t>
         </is>
       </c>
       <c r="H192" t="n">
-        <v>930900</v>
+        <v>414300</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/largus/wagon</t>
-        </is>
-      </c>
-      <c r="J192" t="n">
-        <v>444300</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/lada/largus/wa</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1300900</v>
-      </c>
-      <c r="M192" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/lada/largus/</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/wagon</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -9352,30 +9328,46 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Largus 7 мест</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>1332900</v>
+        <v>444300</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/largus/wag</t>
+          <t>https://aspect-motors.ru/auto/lada/largus/wa</t>
         </is>
       </c>
       <c r="H193" t="n">
-        <v>1332900</v>
+        <v>930900</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/largus/wag</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/largus/wagon</t>
+        </is>
+      </c>
+      <c r="J193" t="n">
+        <v>444300</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/lada/largus/wa</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1300900</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/lada/largus/</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -9385,46 +9377,30 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Largus Cross</t>
+          <t>Largus 7 мест</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>558900</v>
+        <v>1332900</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/largus/wag%20rest1</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/largus/wag</t>
         </is>
       </c>
       <c r="H194" t="n">
-        <v>1072900</v>
+        <v>1332900</v>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/largus/wag%20rest1</t>
-        </is>
-      </c>
-      <c r="J194" t="n">
-        <v>558900</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/lada/largus/wag%20rest1</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1377900</v>
-      </c>
-      <c r="M194" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/lada/largus_cross/</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/largus/wag</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -9434,32 +9410,46 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Largus Cross</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>1077900</v>
+        <v>558900</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/largus_cross/</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>1077900</t>
-        </is>
-      </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/lada/largus_cross/</t>
+          <t>https://aspect-motors.ru/auto/lada/largus/wag%20rest1</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>1072900</v>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/lada/largus/wag%20rest1</t>
+        </is>
+      </c>
+      <c r="J195" t="n">
+        <v>558900</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/lada/largus/wag%20rest1</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1377900</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -9469,32 +9459,32 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>935900</v>
+        <v>1077900</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/largus/</t>
+          <t>https://autosurgut186.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>935900</t>
+          <t>1077900</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/largus/</t>
+          <t>https://autosurgut186.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -9504,46 +9494,32 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Largus Фургон</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>444300</v>
+        <v>935900</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/largus/van%20rest</t>
-        </is>
-      </c>
-      <c r="H197" t="n">
-        <v>996900</v>
-      </c>
-      <c r="I197" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/largus/van%20rest</t>
-        </is>
-      </c>
-      <c r="J197" t="n">
-        <v>444300</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/lada/largus/van%20rest</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1301900</v>
-      </c>
-      <c r="M197" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/lada/largus_furgon/</t>
+          <t>https://autosurgut186.ru/auto/lada/largus/</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>935900</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/lada/largus/</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -9553,32 +9529,46 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Largus Фургон</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>1001900</v>
+        <v>444300</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/largus_furgon/</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>1001900</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/lada/largus_furgon/</t>
+          <t>https://aspect-motors.ru/auto/lada/largus/van%20rest</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>996900</v>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/lada/largus/van%20rest</t>
+        </is>
+      </c>
+      <c r="J198" t="n">
+        <v>444300</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/lada/largus/van%20rest</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1301900</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -9588,38 +9578,32 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>742900</v>
+        <v>1001900</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-new/cuv</t>
-        </is>
-      </c>
-      <c r="H199" t="n">
-        <v>742900</v>
-      </c>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-new/cuv</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1042900</v>
-      </c>
-      <c r="M199" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/lada/niva/</t>
+          <t>https://autosurgut186.ru/auto/lada/largus_furgon/</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>1001900</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -9629,56 +9613,38 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>350300</v>
+        <v>742900</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/niva-legend/suv</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>529900</t>
-        </is>
-      </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-new/cuv</t>
         </is>
       </c>
       <c r="H200" t="n">
-        <v>524900</v>
+        <v>742900</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/suv</t>
-        </is>
-      </c>
-      <c r="J200" t="n">
-        <v>350300</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/lada/niva-legend/suv</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-new/cuv</t>
         </is>
       </c>
       <c r="L200" t="n">
-        <v>829900</v>
+        <v>1042900</v>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://sibir-morots.ru/auto/lada/niva/</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -9688,56 +9654,56 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>371300</v>
+        <v>350300</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/niva-legend/cuv</t>
+          <t>https://aspect-motors.ru/auto/lada/niva-legend/suv</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>618900</t>
+          <t>529900</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://autosurgut186.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="H201" t="n">
-        <v>613900</v>
+        <v>524900</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/suv</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>371300</v>
+        <v>350300</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/niva-legend/cuv</t>
+          <t>https://aspect-motors.ru/auto/lada/niva-legend/suv</t>
         </is>
       </c>
       <c r="L201" t="n">
-        <v>918900</v>
+        <v>829900</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://sibir-morots.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -9747,30 +9713,56 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Niva Legend Bronto</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>689900</v>
+        <v>371300</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/niva-legend/suv_3d</t>
+          <t>https://aspect-motors.ru/auto/lada/niva-legend/cuv</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>618900</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/lada/4x4_5_dv/</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>613900</v>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>689900</v>
+        <v>371300</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/niva-legend/suv_3d</t>
+          <t>https://aspect-motors.ru/auto/lada/niva-legend/cuv</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>918900</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -9780,30 +9772,30 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Niva Legend Urban 3 двери</t>
+          <t>Niva Legend Bronto</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>592900</v>
+        <v>689900</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv-urban</t>
-        </is>
-      </c>
-      <c r="H203" t="n">
-        <v>592900</v>
-      </c>
-      <c r="I203" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv-urban</t>
+          <t>https://aspect-motors.ru/auto/lada/niva-legend/suv_3d</t>
+        </is>
+      </c>
+      <c r="J203" t="n">
+        <v>689900</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/lada/niva-legend/suv_3d</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>425</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -9813,30 +9805,30 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Niva Legend Urban 5 дверей</t>
+          <t>Niva Legend Urban 3 двери</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>689900</v>
+        <v>592900</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv-urban5</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv-urban</t>
         </is>
       </c>
       <c r="H204" t="n">
-        <v>689900</v>
+        <v>592900</v>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv-urban5</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv-urban</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>426</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -9846,48 +9838,30 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>Niva Legend Urban 5 дверей</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>519000</v>
+        <v>689900</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-new/suv</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>524000</t>
-        </is>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/lada/niva_off-road/</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv-urban5</t>
         </is>
       </c>
       <c r="H205" t="n">
-        <v>519000</v>
+        <v>689900</v>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-new/suv</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>824000</v>
-      </c>
-      <c r="M205" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/lada/niva_off-road/</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv-urban5</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -9897,56 +9871,48 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>365200</v>
+        <v>519000</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/niva-travel/suv</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-new/suv</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>792900</t>
+          <t>524000</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/niva_travel/</t>
+          <t>https://autosurgut186.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
       <c r="H206" t="n">
-        <v>787900</v>
+        <v>519000</v>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-travel/suv</t>
-        </is>
-      </c>
-      <c r="J206" t="n">
-        <v>365200</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/lada/niva-travel/suv</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-new/suv</t>
         </is>
       </c>
       <c r="L206" t="n">
-        <v>1092900</v>
+        <v>824000</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/niva_travel/</t>
+          <t>https://sibir-morots.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -9956,56 +9922,56 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>550300</v>
+        <v>365200</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/vesta/cross</t>
+          <t>https://aspect-motors.ru/auto/lada/niva-travel/suv</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>969900</t>
+          <t>792900</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://autosurgut186.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="H207" t="n">
-        <v>964900</v>
+        <v>787900</v>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/cross</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-travel/suv</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>550300</v>
+        <v>365200</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/vesta/cross</t>
+          <t>https://aspect-motors.ru/auto/lada/niva-travel/suv</t>
         </is>
       </c>
       <c r="L207" t="n">
-        <v>1269900</v>
+        <v>1092900</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://sibir-morots.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -10015,40 +9981,56 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>1242900</v>
+        <v>550300</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_cross/</t>
+          <t>https://aspect-motors.ru/auto/lada/vesta/cross</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>1242900</t>
+          <t>969900</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_cross/</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_cross_1/</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>964900</v>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/cross</t>
+        </is>
+      </c>
+      <c r="J208" t="n">
+        <v>550300</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/lada/vesta/cross</t>
         </is>
       </c>
       <c r="L208" t="n">
-        <v>1733900</v>
+        <v>1269900</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/vesta_cross/</t>
+          <t>https://sibir-morots.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -10058,56 +10040,40 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>485300</v>
+        <v>1242900</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/vesta/sw</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>913900</t>
+          <t>1242900</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_sw_1/</t>
-        </is>
-      </c>
-      <c r="H209" t="n">
-        <v>908900</v>
-      </c>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/sw</t>
-        </is>
-      </c>
-      <c r="J209" t="n">
-        <v>485300</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/lada/vesta/sw</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="L209" t="n">
-        <v>1213900</v>
+        <v>1733900</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://sibir-morots.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -10117,56 +10083,56 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>560000</v>
+        <v>485300</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/vesta/sw-cross</t>
+          <t>https://aspect-motors.ru/auto/lada/vesta/sw</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>1028900</t>
+          <t>913900</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="H210" t="n">
-        <v>1023900</v>
+        <v>908900</v>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/sw-cross</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/sw</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>560000</v>
+        <v>485300</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/vesta/sw-cross</t>
+          <t>https://aspect-motors.ru/auto/lada/vesta/sw</t>
         </is>
       </c>
       <c r="L210" t="n">
-        <v>1328900</v>
+        <v>1213900</v>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://sibir-morots.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -10176,40 +10142,56 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>1211900</v>
+        <v>560000</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://aspect-motors.ru/auto/lada/vesta/sw-cross</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>1211900</t>
+          <t>1028900</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_sw_cross_1/</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>1023900</v>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/sw-cross</t>
+        </is>
+      </c>
+      <c r="J211" t="n">
+        <v>560000</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/lada/vesta/sw-cross</t>
         </is>
       </c>
       <c r="L211" t="n">
-        <v>1853900</v>
+        <v>1328900</v>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://sibir-morots.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -10219,40 +10201,40 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1029900</v>
+        <v>1211900</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_sw/</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>1029900</t>
+          <t>1211900</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_sw/</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="L212" t="n">
-        <v>1639900</v>
+        <v>1853900</v>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/vesta_sw/</t>
+          <t>https://sibir-morots.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -10262,56 +10244,40 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>407900</v>
+        <v>1029900</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/vesta/sedan</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>821900</t>
+          <t>1029900</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_1/</t>
-        </is>
-      </c>
-      <c r="H213" t="n">
-        <v>816900</v>
-      </c>
-      <c r="I213" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/sedan</t>
-        </is>
-      </c>
-      <c r="J213" t="n">
-        <v>407900</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/lada/vesta/sedan</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="L213" t="n">
-        <v>1121900</v>
+        <v>1639900</v>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/vesta_1/</t>
+          <t>https://sibir-morots.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -10321,56 +10287,56 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>537300</v>
+        <v>407900</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/vesta/cng</t>
+          <t>https://aspect-motors.ru/auto/lada/vesta/sedan</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>1016900</t>
+          <t>821900</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_cng/</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="H214" t="n">
-        <v>1011900</v>
+        <v>816900</v>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/cng</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/sedan</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>537300</v>
+        <v>407900</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/vesta/cng</t>
+          <t>https://aspect-motors.ru/auto/lada/vesta/sedan</t>
         </is>
       </c>
       <c r="L214" t="n">
-        <v>1316900</v>
+        <v>1121900</v>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/vesta_cng/</t>
+          <t>https://sibir-morots.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -10380,40 +10346,56 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>939900</v>
+        <v>537300</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta/</t>
+          <t>https://aspect-motors.ru/auto/lada/vesta/cng</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>939900</t>
+          <t>1016900</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta/</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_cng/</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>1011900</v>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/cng</t>
+        </is>
+      </c>
+      <c r="J215" t="n">
+        <v>537300</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/lada/vesta/cng</t>
         </is>
       </c>
       <c r="L215" t="n">
-        <v>1509900</v>
+        <v>1316900</v>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/vesta/</t>
+          <t>https://sibir-morots.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -10423,56 +10405,40 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>570300</v>
+        <v>939900</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/vesta/sport</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>1297900</t>
+          <t>939900</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_sport/</t>
-        </is>
-      </c>
-      <c r="H216" t="n">
-        <v>1292900</v>
-      </c>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/sport</t>
-        </is>
-      </c>
-      <c r="J216" t="n">
-        <v>570300</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/lada/vesta/sport</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="L216" t="n">
-        <v>1597900</v>
+        <v>1509900</v>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/vesta_sport/</t>
+          <t>https://sibir-morots.ru/auto/lada/vesta/</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -10482,30 +10448,56 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Vesta Sportline</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>1269900</v>
+        <v>570300</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/vesta-sportline/sedan-1gen-rest</t>
+          <t>https://aspect-motors.ru/auto/lada/vesta/sport</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>1297900</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/lada/vesta_sport/</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>1292900</v>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/sport</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>1269900</v>
+        <v>570300</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/vesta-sportline/sedan-1gen-rest</t>
+          <t>https://aspect-motors.ru/auto/lada/vesta/sport</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1597900</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -10515,56 +10507,30 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta Sportline</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>409300</v>
+        <v>1269900</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/xray/suv</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>806900</t>
-        </is>
-      </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/lada/xray/</t>
-        </is>
-      </c>
-      <c r="H218" t="n">
-        <v>801900</v>
-      </c>
-      <c r="I218" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/xray/suv</t>
+          <t>https://aspect-motors.ru/auto/lada/vesta-sportline/sedan-1gen-rest</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>409300</v>
+        <v>1269900</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/xray/suv</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1106900</v>
-      </c>
-      <c r="M218" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/lada/xray/</t>
+          <t>https://aspect-motors.ru/auto/lada/vesta-sportline/sedan-1gen-rest</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -10574,99 +10540,115 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>522300</v>
+        <v>409300</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/xray/xray-cross</t>
+          <t>https://aspect-motors.ru/auto/lada/xray/suv</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>949900</t>
+          <t>806900</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/xray_cross/</t>
+          <t>https://autosurgut186.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="H219" t="n">
-        <v>944900</v>
+        <v>801900</v>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/xray/xray-cross</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/xray/suv</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>522300</v>
+        <v>409300</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/xray/xray-cross</t>
+          <t>https://aspect-motors.ru/auto/lada/xray/suv</t>
         </is>
       </c>
       <c r="L219" t="n">
-        <v>1249900</v>
+        <v>1106900</v>
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/xray_cross/</t>
+          <t>https://sibir-morots.ru/auto/lada/xray/</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>650300</v>
+        <v>522300</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/murman/sedan</t>
+          <t>https://aspect-motors.ru/auto/lada/xray/xray-cross</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>705300</t>
+          <t>949900</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/murman/</t>
+          <t>https://autosurgut186.ru/auto/lada/xray_cross/</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>944900</v>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/lada/xray/xray-cross</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>650300</v>
+        <v>522300</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/murman/sedan</t>
+          <t>https://aspect-motors.ru/auto/lada/xray/xray-cross</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1249900</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -10676,40 +10658,40 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>701300</v>
+        <v>650300</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/myway/wagon</t>
+          <t>https://aspect-motors.ru/auto/lifan/murman/sedan</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>756300</t>
+          <t>705300</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/myway/</t>
+          <t>https://autosurgut186.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>701300</v>
+        <v>650300</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/myway/wagon</t>
+          <t>https://aspect-motors.ru/auto/lifan/murman/sedan</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -10719,40 +10701,40 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>401300</v>
+        <v>701300</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/solano-2/sedan</t>
+          <t>https://aspect-motors.ru/auto/lifan/myway/wagon</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>456300</t>
+          <t>756300</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/solano_ii/</t>
+          <t>https://autosurgut186.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>401300</v>
+        <v>701300</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/solano-2/sedan</t>
+          <t>https://aspect-motors.ru/auto/lifan/myway/wagon</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -10762,40 +10744,40 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>420300</v>
+        <v>401300</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/x50/cuv</t>
+          <t>https://aspect-motors.ru/auto/lifan/solano-2/sedan</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>575300</t>
+          <t>456300</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/x50/</t>
+          <t>https://autosurgut186.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>420300</v>
+        <v>401300</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/x50/cuv</t>
+          <t>https://aspect-motors.ru/auto/lifan/solano-2/sedan</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -10805,40 +10787,40 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>491300</v>
+        <v>420300</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/x60/wagon</t>
+          <t>https://aspect-motors.ru/auto/lifan/x50/cuv</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>546300</t>
+          <t>575300</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/x60/</t>
+          <t>https://autosurgut186.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>491300</v>
+        <v>420300</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/x60/wagon</t>
+          <t>https://aspect-motors.ru/auto/lifan/x50/cuv</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -10848,99 +10830,83 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>770300</v>
+        <v>491300</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/x70/cuv</t>
+          <t>https://aspect-motors.ru/auto/lifan/x60/wagon</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>825300</t>
+          <t>546300</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/x70/</t>
+          <t>https://autosurgut186.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>770300</v>
+        <v>491300</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/x70/cuv</t>
+          <t>https://aspect-motors.ru/auto/lifan/x60/wagon</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>1679930</v>
+        <v>770300</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/livan/s6pro/sedan-1gen</t>
+          <t>https://aspect-motors.ru/auto/lifan/x70/cuv</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>1784930</t>
+          <t>825300</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/livan/s6pro/</t>
-        </is>
-      </c>
-      <c r="H226" t="n">
-        <v>1679930</v>
-      </c>
-      <c r="I226" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/livan/s6pro/sedan-1gen</t>
+          <t>https://autosurgut186.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>2059900</v>
+        <v>770300</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/livan/s6pro/sedan-1gen</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>2549900</v>
-      </c>
-      <c r="M226" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/livan/s6pro/</t>
+          <t>https://aspect-motors.ru/auto/lifan/x70/cuv</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -10950,56 +10916,56 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>1174900</v>
+        <v>1679930</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/livan/x3pro/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/livan/s6pro/sedan-1gen</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>1279900</t>
+          <t>1784930</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/livan/x3pro/</t>
+          <t>https://autosurgut186.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="H227" t="n">
-        <v>1174900</v>
+        <v>1679930</v>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/livan/x3pro/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/livan/s6pro/sedan-1gen</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>1389900</v>
+        <v>2059900</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/livan/x3pro/suv</t>
+          <t>https://aspect-motors.ru/auto/livan/s6pro/sedan-1gen</t>
         </is>
       </c>
       <c r="L227" t="n">
-        <v>1879900</v>
+        <v>2549900</v>
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/livan/x3pro/</t>
+          <t>https://sibir-morots.ru/auto/livan/s6pro/</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -11009,97 +10975,115 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>1735930</v>
+        <v>1174900</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/livan/x6pro/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/livan/x3pro/suv-1gen</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>1840930</t>
+          <t>1279900</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/livan/x6pro/</t>
+          <t>https://autosurgut186.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="H228" t="n">
-        <v>1735930</v>
+        <v>1174900</v>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/livan/x6pro/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/livan/x3pro/suv-1gen</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>2139900</v>
+        <v>1389900</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/livan/x6pro/suv-1gen</t>
+          <t>https://aspect-motors.ru/auto/livan/x3pro/suv</t>
         </is>
       </c>
       <c r="L228" t="n">
-        <v>2629900</v>
+        <v>1879900</v>
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/livan/x6pro/</t>
+          <t>https://sibir-morots.ru/auto/livan/x3pro/</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>1630000</v>
+        <v>1735930</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/mg/5/sedan-2gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/livan/x6pro/suv-1gen</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>1840930</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="H229" t="n">
-        <v>1630000</v>
+        <v>1735930</v>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/mg/5/sedan-2gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/livan/x6pro/suv-1gen</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>1679000</v>
+        <v>2139900</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mg/5/sedan</t>
+          <t>https://aspect-motors.ru/auto/livan/x6pro/suv-1gen</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>2629900</v>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/livan/x6pro/</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -11109,38 +11093,38 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>770000</v>
+        <v>1630000</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/mg/6/liftback-2gen-rest</t>
+          <t>https://auto-centre-profsouz.ru/auto/mg/5/sedan-2gen</t>
         </is>
       </c>
       <c r="H230" t="n">
-        <v>770000</v>
+        <v>1630000</v>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/mg/6/liftback-2gen-rest</t>
+          <t>https://auto-centre-profsouz.ru/auto/mg/5/sedan-2gen</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>889000</v>
+        <v>1679000</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mg/6/liftback</t>
+          <t>https://aspect-motors.ru/auto/mg/5/sedan</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -11150,38 +11134,38 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>2319000</v>
+        <v>770000</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mg/hs/suv_5d</t>
+          <t>https://auto-centre-profsouz.ru/auto/mg/6/liftback-2gen-rest</t>
         </is>
       </c>
       <c r="H231" t="n">
-        <v>2550000</v>
+        <v>770000</v>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/mg/hs/suv_5d-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/mg/6/liftback-2gen-rest</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>2319000</v>
+        <v>889000</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mg/hs/suv_5d</t>
+          <t>https://aspect-motors.ru/auto/mg/6/liftback</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -11191,71 +11175,79 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>1780000</v>
+        <v>2319000</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/mg/zs/cuv-2gen-rest</t>
+          <t>https://aspect-motors.ru/auto/mg/hs/suv_5d</t>
         </is>
       </c>
       <c r="H232" t="n">
-        <v>1780000</v>
+        <v>2550000</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/mg/zs/cuv-2gen-rest</t>
+          <t>https://auto-centre-profsouz.ru/auto/mg/hs/suv_5d-1gen</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>1790000</v>
+        <v>2319000</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mg/zs/cuv-2gen-rest</t>
+          <t>https://aspect-motors.ru/auto/mg/hs/suv_5d</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Mazda</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>6 New</t>
+          <t>ZS</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>1493000</v>
+        <v>1780000</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mazda/new-6/2019</t>
+          <t>https://auto-centre-profsouz.ru/auto/mg/zs/cuv-2gen-rest</t>
+        </is>
+      </c>
+      <c r="H233" t="n">
+        <v>1780000</v>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/mg/zs/cuv-2gen-rest</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>1493000</v>
+        <v>1790000</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mazda/new-6/2019</t>
+          <t>https://aspect-motors.ru/auto/mg/zs/cuv-2gen-rest</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>482</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -11265,30 +11257,30 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>CX-30</t>
+          <t>6 New</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>1650000</v>
+        <v>1493000</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mazda/cx-30/cuv</t>
+          <t>https://aspect-motors.ru/auto/mazda/new-6/2019</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>1650000</v>
+        <v>1493000</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mazda/cx-30/cuv</t>
+          <t>https://aspect-motors.ru/auto/mazda/new-6/2019</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -11298,30 +11290,30 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>CX-5</t>
+          <t>CX-30</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>1569000</v>
+        <v>1650000</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mazda/cx5/cuv</t>
+          <t>https://aspect-motors.ru/auto/mazda/cx-30/cuv</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>1569000</v>
+        <v>1650000</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mazda/cx5/cuv</t>
+          <t>https://aspect-motors.ru/auto/mazda/cx-30/cuv</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -11331,63 +11323,63 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>CX-9</t>
+          <t>CX-5</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>2528000</v>
+        <v>1569000</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mazda/cx9/cuv</t>
+          <t>https://aspect-motors.ru/auto/mazda/cx5/cuv</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>2528000</v>
+        <v>1569000</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mazda/cx9/cuv</t>
+          <t>https://aspect-motors.ru/auto/mazda/cx5/cuv</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>479</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Mitsubishi</t>
+          <t>Mazda</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>ASX New</t>
+          <t>CX-9</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>1472000</v>
+        <v>2528000</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mitsubishi/asx-new-2020/cuv</t>
+          <t>https://aspect-motors.ru/auto/mazda/cx9/cuv</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>1472000</v>
+        <v>2528000</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mitsubishi/asx-new-2020/cuv</t>
+          <t>https://aspect-motors.ru/auto/mazda/cx9/cuv</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>496</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -11397,30 +11389,30 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>L200 New</t>
+          <t>ASX New</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>2889000</v>
+        <v>1472000</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mitsubishi/new-l200/2019</t>
+          <t>https://aspect-motors.ru/auto/mitsubishi/asx-new-2020/cuv</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>2889000</v>
+        <v>1472000</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mitsubishi/new-l200/2019</t>
+          <t>https://aspect-motors.ru/auto/mitsubishi/asx-new-2020/cuv</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>501</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -11430,30 +11422,30 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Outlander</t>
+          <t>L200 New</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1549000</v>
+        <v>2889000</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mitsubishi/outlander/outlander-7</t>
+          <t>https://aspect-motors.ru/auto/mitsubishi/new-l200/2019</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>1549000</v>
+        <v>2889000</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mitsubishi/outlander/outlander-7</t>
+          <t>https://aspect-motors.ru/auto/mitsubishi/new-l200/2019</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -11463,30 +11455,30 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Outlander New</t>
+          <t>Outlander</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>2004000</v>
+        <v>1549000</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mitsubishi/outlander-new/suv</t>
+          <t>https://aspect-motors.ru/auto/mitsubishi/outlander/outlander-7</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>2004000</v>
+        <v>1549000</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mitsubishi/outlander-new/suv</t>
+          <t>https://aspect-motors.ru/auto/mitsubishi/outlander/outlander-7</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>503</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -11496,89 +11488,63 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Pajero Sport New</t>
+          <t>Outlander New</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>2959000</v>
+        <v>2004000</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mitsubishi/pajero-sport-new/suv</t>
+          <t>https://aspect-motors.ru/auto/mitsubishi/outlander-new/suv</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>2959000</v>
+        <v>2004000</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mitsubishi/pajero-sport-new/suv</t>
+          <t>https://aspect-motors.ru/auto/mitsubishi/outlander-new/suv</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>507</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Mitsubishi</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Pajero Sport New</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>1225000</v>
+        <v>2959000</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/moskvich/moskvich3/cuv</t>
-        </is>
-      </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>1330000</t>
-        </is>
-      </c>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/moskvich/3/</t>
-        </is>
-      </c>
-      <c r="H242" t="n">
-        <v>1225000</v>
-      </c>
-      <c r="I242" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/moskvich/moskvich3/cuv</t>
+          <t>https://aspect-motors.ru/auto/mitsubishi/pajero-sport-new/suv</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>1280000</v>
+        <v>2959000</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/moskvich/moskvich3/cuv</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>2220000</v>
-      </c>
-      <c r="M242" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/moskvich/3/</t>
+          <t>https://aspect-motors.ru/auto/mitsubishi/pajero-sport-new/suv</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -11588,48 +11554,56 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>1629000</v>
+        <v>1225000</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/moskvich/3e/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/moskvich/moskvich3/cuv</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>3058000</t>
+          <t>1330000</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/moskvich/3e/</t>
+          <t>https://autosurgut186.ru/auto/moskvich/3/</t>
+        </is>
+      </c>
+      <c r="H243" t="n">
+        <v>1225000</v>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/moskvich/moskvich3/cuv</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>1629000</v>
+        <v>1280000</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/moskvich/3e/suv-1gen</t>
+          <t>https://aspect-motors.ru/auto/moskvich/moskvich3/cuv</t>
         </is>
       </c>
       <c r="L243" t="n">
-        <v>3558000</v>
+        <v>2220000</v>
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/moskvich/3e/</t>
+          <t>https://sibir-morots.ru/auto/moskvich/3/</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -11639,81 +11613,89 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>1636000</v>
+        <v>1629000</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/moskvich/moskvich6/liftback-1gen</t>
-        </is>
-      </c>
-      <c r="H244" t="n">
-        <v>1636000</v>
-      </c>
-      <c r="I244" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/moskvich/moskvich6/liftback-1gen</t>
+          <t>https://aspect-motors.ru/auto/moskvich/3e/suv-1gen</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>3058000</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>1846000</v>
+        <v>1629000</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/moskvich/moskvich6/liftback-1gen</t>
+          <t>https://aspect-motors.ru/auto/moskvich/3e/suv-1gen</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>3558000</v>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/moskvich/3e/</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>4109000</v>
+        <v>1636000</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/nissan/murano/</t>
-        </is>
-      </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>4109000</t>
-        </is>
-      </c>
-      <c r="G245" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/nissan/murano/</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>4409000</v>
-      </c>
-      <c r="M245" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/nissan/murano/</t>
+          <t>https://auto-centre-profsouz.ru/auto/moskvich/moskvich6/liftback-1gen</t>
+        </is>
+      </c>
+      <c r="H245" t="n">
+        <v>1636000</v>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/moskvich/moskvich6/liftback-1gen</t>
+        </is>
+      </c>
+      <c r="J245" t="n">
+        <v>1846000</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/moskvich/moskvich6/liftback-1gen</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -11723,30 +11705,40 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Murano New</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>2499000</v>
+        <v>4109000</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/nissan/murano-2020/suv</t>
-        </is>
-      </c>
-      <c r="J246" t="n">
-        <v>2499000</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/nissan/murano-2020/suv</t>
+          <t>https://autosurgut186.ru/auto/nissan/murano/</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>4109000</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/nissan/murano/</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>4409000</v>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/nissan/murano/</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>518</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -11756,48 +11748,30 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>Murano New</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1732000</v>
+        <v>2499000</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/nissan/new-qashqai/2019</t>
-        </is>
-      </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>1837000</t>
-        </is>
-      </c>
-      <c r="G247" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/nissan/qashqai/</t>
-        </is>
-      </c>
-      <c r="H247" t="n">
-        <v>1732000</v>
-      </c>
-      <c r="I247" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/nissan/new-qashqai/2019</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>2337000</v>
-      </c>
-      <c r="M247" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/nissan/qashqai/</t>
+          <t>https://aspect-motors.ru/auto/nissan/murano-2020/suv</t>
+        </is>
+      </c>
+      <c r="J247" t="n">
+        <v>2499000</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/nissan/murano-2020/suv</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -11807,38 +11781,48 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Qashqai New</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>1390000</v>
+        <v>1732000</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/nissan/qashqai-3-res/qashqai-3-res</t>
+          <t>https://auto-centre-profsouz.ru/auto/nissan/new-qashqai/2019</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>1837000</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="H248" t="n">
-        <v>1837000</v>
+        <v>1732000</v>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/nissan/qashqai-3-res/qashqai-3-res</t>
-        </is>
-      </c>
-      <c r="J248" t="n">
-        <v>1390000</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/nissan/qashqai-3-res/qashqai-3-res</t>
+          <t>https://auto-centre-profsouz.ru/auto/nissan/new-qashqai/2019</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>2337000</v>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>521</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -11848,7 +11832,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>Qashqai New</t>
         </is>
       </c>
       <c r="D249" t="n">
@@ -11856,32 +11840,30 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/nissan/terrano/</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>1390000</t>
-        </is>
-      </c>
-      <c r="G249" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/nissan/terrano/</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1690000</v>
-      </c>
-      <c r="M249" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/nissan/terrano/</t>
+          <t>https://aspect-motors.ru/auto/nissan/qashqai-3-res/qashqai-3-res</t>
+        </is>
+      </c>
+      <c r="H249" t="n">
+        <v>1837000</v>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/nissan/qashqai-3-res/qashqai-3-res</t>
+        </is>
+      </c>
+      <c r="J249" t="n">
+        <v>1390000</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/nissan/qashqai-3-res/qashqai-3-res</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -11891,38 +11873,40 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Terrano New</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>669000</v>
+        <v>1390000</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/nissan/terrano-2020/suv</t>
-        </is>
-      </c>
-      <c r="H250" t="n">
-        <v>1285000</v>
-      </c>
-      <c r="I250" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/nissan/terrano-2020/suv</t>
-        </is>
-      </c>
-      <c r="J250" t="n">
-        <v>669000</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/nissan/terrano-2020/suv</t>
+          <t>https://autosurgut186.ru/auto/nissan/terrano/</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>1390000</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/nissan/terrano/</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1690000</v>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/nissan/terrano/</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>519</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -11932,48 +11916,38 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>Terrano New</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>1149000</v>
+        <v>669000</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/nissan/newxtrail/newxtrail</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>2352000</t>
-        </is>
-      </c>
-      <c r="G251" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/nissan/x-trail/</t>
+          <t>https://aspect-motors.ru/auto/nissan/terrano-2020/suv</t>
+        </is>
+      </c>
+      <c r="H251" t="n">
+        <v>1285000</v>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/nissan/terrano-2020/suv</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>1149000</v>
+        <v>669000</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/nissan/newxtrail/newxtrail</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>2762000</v>
-      </c>
-      <c r="M251" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/nissan/x-trail/</t>
+          <t>https://aspect-motors.ru/auto/nissan/terrano-2020/suv</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -11983,97 +11957,89 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>X-trail New</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>1869000</v>
+        <v>1149000</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/nissan/newxtrail/suv-4gen</t>
-        </is>
-      </c>
-      <c r="H252" t="n">
-        <v>2247000</v>
-      </c>
-      <c r="I252" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/nissan/newxtrail/newxtrail</t>
+          <t>https://aspect-motors.ru/auto/nissan/newxtrail/newxtrail</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>2352000</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>1869000</v>
+        <v>1149000</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/nissan/newxtrail/suv-4gen</t>
+          <t>https://aspect-motors.ru/auto/nissan/newxtrail/newxtrail</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>2762000</v>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>524</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>X-trail New</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>1219900</v>
+        <v>1869000</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/omoda/c5/cuv</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>2079900</t>
-        </is>
-      </c>
-      <c r="G253" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/omoda/c5/</t>
+          <t>https://aspect-motors.ru/auto/nissan/newxtrail/suv-4gen</t>
         </is>
       </c>
       <c r="H253" t="n">
-        <v>1974900</v>
+        <v>2247000</v>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/omoda/c5/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/nissan/newxtrail/newxtrail</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>1219900</v>
+        <v>1869000</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/omoda/c5/cuv</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>2679900</v>
-      </c>
-      <c r="M253" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/omoda/c5/</t>
+          <t>https://aspect-motors.ru/auto/nissan/newxtrail/suv-4gen</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -12083,56 +12049,56 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>1469900</v>
+        <v>1219900</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/omoda/s5_/SEDAN</t>
+          <t>https://aspect-motors.ru/auto/omoda/c5/cuv</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>1719900</t>
+          <t>2079900</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/omoda/s5/</t>
+          <t>https://autosurgut186.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="H254" t="n">
-        <v>1614900</v>
+        <v>1974900</v>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/omoda/s5-2023/SEDAN</t>
+          <t>https://auto-centre-profsouz.ru/auto/omoda/c5/cuv</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>1469900</v>
+        <v>1219900</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/omoda/s5_/SEDAN</t>
+          <t>https://aspect-motors.ru/auto/omoda/c5/cuv</t>
         </is>
       </c>
       <c r="L254" t="n">
-        <v>2319900</v>
+        <v>2679900</v>
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/omoda/s5/</t>
+          <t>https://sibir-morots.ru/auto/omoda/c5/</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -12142,104 +12108,130 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>S5 GT</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>2739900</v>
+        <v>1469900</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/omoda/s5-gt/sedan-1gen</t>
+          <t>https://aspect-motors.ru/auto/omoda/s5_/SEDAN</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>1719900</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="H255" t="n">
-        <v>2739900</v>
+        <v>1614900</v>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/omoda/s5-gt/sedan-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/omoda/s5-2023/SEDAN</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>2839900</v>
+        <v>1469900</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/omoda/S5-GT/SEDAN</t>
+          <t>https://aspect-motors.ru/auto/omoda/s5_/SEDAN</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>2319900</v>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/omoda/s5/</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Oting</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Paladin New</t>
+          <t>S5 GT</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>2549000</v>
+        <v>2739900</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/oting/paladin/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/omoda/s5-gt/sedan-1gen</t>
+        </is>
+      </c>
+      <c r="H256" t="n">
+        <v>2739900</v>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/omoda/s5-gt/sedan-1gen</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>2549000</v>
+        <v>2839900</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/oting/paladin/suv-1gen</t>
+          <t>https://aspect-motors.ru/auto/omoda/S5-GT/SEDAN</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>536</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Oting</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>Paladin New</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>344000</v>
+        <v>2549000</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/ravon/nexia/sedan</t>
+          <t>https://aspect-motors.ru/auto/oting/paladin/suv-1gen</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>344000</v>
+        <v>2549000</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/ravon/nexia/sedan</t>
+          <t>https://aspect-motors.ru/auto/oting/paladin/suv-1gen</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -12249,30 +12241,30 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>334000</v>
+        <v>344000</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/ravon/r2/hatchback</t>
+          <t>https://aspect-motors.ru/auto/ravon/nexia/sedan</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>334000</v>
+        <v>344000</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/ravon/r2/hatchback</t>
+          <t>https://aspect-motors.ru/auto/ravon/nexia/sedan</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -12282,73 +12274,63 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>394000</v>
+        <v>334000</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/ravon/r4/sedan</t>
+          <t>https://aspect-motors.ru/auto/ravon/r2/hatchback</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>394000</v>
+        <v>334000</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/ravon/r4/sedan</t>
+          <t>https://aspect-motors.ru/auto/ravon/r2/hatchback</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>1464000</v>
+        <v>394000</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/renault/arkana/</t>
-        </is>
-      </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>1464000</t>
-        </is>
-      </c>
-      <c r="G260" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/renault/arkana/</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1874000</v>
-      </c>
-      <c r="M260" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/renault/arkana/</t>
+          <t>https://aspect-motors.ru/auto/ravon/r4/sedan</t>
+        </is>
+      </c>
+      <c r="J260" t="n">
+        <v>394000</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/ravon/r4/sedan</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -12358,38 +12340,40 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Arkana New</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>938000</v>
+        <v>1464000</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/renault/new-arkana/2019</t>
-        </is>
-      </c>
-      <c r="H261" t="n">
-        <v>1359000</v>
-      </c>
-      <c r="I261" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/renault/new-arkana/2019</t>
-        </is>
-      </c>
-      <c r="J261" t="n">
-        <v>938000</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/renault/new-arkana/2019</t>
+          <t>https://autosurgut186.ru/auto/renault/arkana/</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>1464000</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/renault/arkana/</t>
+        </is>
+      </c>
+      <c r="L261" t="n">
+        <v>1874000</v>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/renault/arkana/</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -12399,30 +12383,38 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Duster</t>
+          <t>Arkana New</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>1618000</v>
+        <v>938000</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/renault/duster/</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1618000</v>
-      </c>
-      <c r="M262" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/renault/duster/</t>
+          <t>https://aspect-motors.ru/auto/renault/new-arkana/2019</t>
+        </is>
+      </c>
+      <c r="H262" t="n">
+        <v>1359000</v>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/renault/new-arkana/2019</t>
+        </is>
+      </c>
+      <c r="J262" t="n">
+        <v>938000</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/renault/new-arkana/2019</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -12432,48 +12424,30 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Duster</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>646000</v>
+        <v>1618000</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/renault/duster-new/cuv</t>
-        </is>
-      </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>1208000</t>
-        </is>
-      </c>
-      <c r="G263" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/renault/duster/</t>
-        </is>
-      </c>
-      <c r="H263" t="n">
-        <v>1103000</v>
-      </c>
-      <c r="I263" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/renault/duster-new/cuv</t>
-        </is>
-      </c>
-      <c r="J263" t="n">
-        <v>646000</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/renault/duster-new/cuv</t>
+          <t>https://sibir-morots.ru/auto/renault/duster/</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1618000</v>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/renault/duster/</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -12483,40 +12457,48 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>1314000</v>
+        <v>646000</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/renault/kaptur/</t>
+          <t>https://aspect-motors.ru/auto/renault/duster-new/cuv</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>1314000</t>
+          <t>1208000</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/renault/kaptur/</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1724000</v>
-      </c>
-      <c r="M264" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/renault/kaptur/</t>
+          <t>https://autosurgut186.ru/auto/renault/duster/</t>
+        </is>
+      </c>
+      <c r="H264" t="n">
+        <v>1103000</v>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/renault/duster-new/cuv</t>
+        </is>
+      </c>
+      <c r="J264" t="n">
+        <v>646000</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/renault/duster-new/cuv</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -12526,38 +12508,40 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Kaptur New</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>896000</v>
+        <v>1314000</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/renault/kaptur-new/cuv</t>
-        </is>
-      </c>
-      <c r="H265" t="n">
-        <v>1209000</v>
-      </c>
-      <c r="I265" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/renault/kaptur-new/cuv</t>
-        </is>
-      </c>
-      <c r="J265" t="n">
-        <v>896000</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/renault/kaptur-new/cuv</t>
+          <t>https://autosurgut186.ru/auto/renault/kaptur/</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>1314000</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/renault/kaptur/</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>1724000</v>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/renault/kaptur/</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>557</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -12567,40 +12551,38 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Kaptur New</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>824000</v>
+        <v>896000</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/renault/logan/</t>
-        </is>
-      </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>824000</t>
-        </is>
-      </c>
-      <c r="G266" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/renault/logan/</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1124000</v>
-      </c>
-      <c r="M266" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/renault/logan/</t>
+          <t>https://aspect-motors.ru/auto/renault/kaptur-new/cuv</t>
+        </is>
+      </c>
+      <c r="H266" t="n">
+        <v>1209000</v>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/renault/kaptur-new/cuv</t>
+        </is>
+      </c>
+      <c r="J266" t="n">
+        <v>896000</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/renault/kaptur-new/cuv</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -12610,38 +12592,40 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Logan New</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>430000</v>
+        <v>824000</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/renault/new-logan/new</t>
-        </is>
-      </c>
-      <c r="H267" t="n">
-        <v>719000</v>
-      </c>
-      <c r="I267" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/renault/new-logan/new</t>
-        </is>
-      </c>
-      <c r="J267" t="n">
-        <v>430000</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/renault/new-logan/new</t>
+          <t>https://autosurgut186.ru/auto/renault/logan/</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>824000</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/renault/logan/</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>1124000</v>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/renault/logan/</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>562</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -12651,56 +12635,38 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Logan New</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>536990</v>
+        <v>430000</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/renault/logan-stepway/sedan</t>
-        </is>
-      </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>963000</t>
-        </is>
-      </c>
-      <c r="G268" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/renault/logan_stepway/</t>
+          <t>https://aspect-motors.ru/auto/renault/new-logan/new</t>
         </is>
       </c>
       <c r="H268" t="n">
-        <v>858000</v>
+        <v>719000</v>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/renault/logan-stepway/sedan</t>
+          <t>https://auto-centre-profsouz.ru/auto/renault/new-logan/new</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>536990</v>
+        <v>430000</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/renault/logan-stepway/sedan</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1301000</v>
-      </c>
-      <c r="M268" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/renault/logan_stepway/</t>
+          <t>https://aspect-motors.ru/auto/renault/new-logan/new</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -12710,40 +12676,56 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>714000</v>
+        <v>536990</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/renault/sandero/</t>
+          <t>https://aspect-motors.ru/auto/renault/logan-stepway/sedan</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>714000</t>
+          <t>963000</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/renault/sandero/</t>
+          <t>https://autosurgut186.ru/auto/renault/logan_stepway/</t>
+        </is>
+      </c>
+      <c r="H269" t="n">
+        <v>858000</v>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/renault/logan-stepway/sedan</t>
+        </is>
+      </c>
+      <c r="J269" t="n">
+        <v>536990</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/renault/logan-stepway/sedan</t>
         </is>
       </c>
       <c r="L269" t="n">
-        <v>1258000</v>
+        <v>1301000</v>
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/renault/sandero/</t>
+          <t>https://sibir-morots.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -12753,38 +12735,40 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Sandero New</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>431000</v>
+        <v>714000</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/renault/new-sandero/new</t>
-        </is>
-      </c>
-      <c r="H270" t="n">
-        <v>609000</v>
-      </c>
-      <c r="I270" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/renault/new-sandero/new</t>
-        </is>
-      </c>
-      <c r="J270" t="n">
-        <v>431000</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/renault/new-sandero/new</t>
+          <t>https://autosurgut186.ru/auto/renault/sandero/</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>714000</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/renault/sandero/</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1258000</v>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/renault/sandero/</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -12794,40 +12778,38 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Sandero New</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>891000</v>
+        <v>431000</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/renault/sandero_stepway/</t>
-        </is>
-      </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>891000</t>
-        </is>
-      </c>
-      <c r="G271" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/renault/sandero_stepway/</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1373000</v>
-      </c>
-      <c r="M271" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/renault/sandero_stepway/</t>
+          <t>https://aspect-motors.ru/auto/renault/new-sandero/new</t>
+        </is>
+      </c>
+      <c r="H271" t="n">
+        <v>609000</v>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/renault/new-sandero/new</t>
+        </is>
+      </c>
+      <c r="J271" t="n">
+        <v>431000</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/renault/new-sandero/new</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -12837,79 +12819,81 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Sandero Stepway New</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>566990</v>
+        <v>891000</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/renault/new-sandero-stepway/stepway</t>
-        </is>
-      </c>
-      <c r="H272" t="n">
-        <v>786000</v>
-      </c>
-      <c r="I272" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/renault/new-sandero-stepway/stepway</t>
-        </is>
-      </c>
-      <c r="J272" t="n">
-        <v>566990</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/renault/new-sandero-stepway/stepway</t>
+          <t>https://autosurgut186.ru/auto/renault/sandero_stepway/</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>891000</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/renault/sandero_stepway/</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1373000</v>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>564</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>Sandero Stepway New</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>1748220</v>
+        <v>566990</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/swm/g01/suv-1gen</t>
+          <t>https://aspect-motors.ru/auto/renault/new-sandero-stepway/stepway</t>
         </is>
       </c>
       <c r="H273" t="n">
-        <v>1938220</v>
+        <v>786000</v>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/swm/g01/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/renault/new-sandero-stepway/stepway</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>1748220</v>
+        <v>566990</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/swm/g01/suv-1gen</t>
+          <t>https://aspect-motors.ru/auto/renault/new-sandero-stepway/stepway</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -12919,38 +12903,38 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>G01F</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>1898340</v>
+        <v>1748220</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/swm/g01f/suv-1gen</t>
+          <t>https://aspect-motors.ru/auto/swm/g01/suv-1gen</t>
         </is>
       </c>
       <c r="H274" t="n">
-        <v>2088340</v>
+        <v>1938220</v>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/swm/g01f/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/swm/g01/suv-1gen</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>1898340</v>
+        <v>1748220</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/swm/g01f/suv-1gen</t>
+          <t>https://aspect-motors.ru/auto/swm/g01/suv-1gen</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -12960,97 +12944,79 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>G05 Pro</t>
+          <t>G01F</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>1935960</v>
+        <v>1898340</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/swm/g05-pro/suv-1gen</t>
+          <t>https://aspect-motors.ru/auto/swm/g01f/suv-1gen</t>
         </is>
       </c>
       <c r="H275" t="n">
-        <v>2125960</v>
+        <v>2088340</v>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/swm/g05-pro/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/swm/g01f/suv-1gen</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>1935960</v>
+        <v>1898340</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/swm/g05-pro/suv-1gen</t>
+          <t>https://aspect-motors.ru/auto/swm/g01f/suv-1gen</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>G05 Pro</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>1066900</v>
+        <v>1935960</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/skoda/karoq/karoq</t>
-        </is>
-      </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>1405000</t>
-        </is>
-      </c>
-      <c r="G276" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/skoda/karoq/</t>
+          <t>https://aspect-motors.ru/auto/swm/g05-pro/suv-1gen</t>
         </is>
       </c>
       <c r="H276" t="n">
-        <v>1300000</v>
+        <v>2125960</v>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/skoda/karoq/karoq</t>
+          <t>https://auto-centre-profsouz.ru/auto/swm/g05-pro/suv-1gen</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>1066900</v>
+        <v>1935960</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/skoda/karoq/karoq</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1705000</v>
-      </c>
-      <c r="M276" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/skoda/karoq/</t>
+          <t>https://aspect-motors.ru/auto/swm/g05-pro/suv-1gen</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -13060,56 +13026,56 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>1609500</v>
+        <v>1066900</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/skoda/new-kodiaq/cuv</t>
+          <t>https://aspect-motors.ru/auto/skoda/karoq/karoq</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>1757000</t>
+          <t>1405000</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/skoda/kodiaq/</t>
+          <t>https://autosurgut186.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="H277" t="n">
-        <v>1757000</v>
+        <v>1300000</v>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/skoda/new-kodiaq/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/skoda/karoq/karoq</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>1609500</v>
+        <v>1066900</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/skoda/new-kodiaq/cuv</t>
+          <t>https://aspect-motors.ru/auto/skoda/karoq/karoq</t>
         </is>
       </c>
       <c r="L277" t="n">
-        <v>3640000</v>
+        <v>1705000</v>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/skoda/kodiaq/</t>
+          <t>https://sibir-morots.ru/auto/skoda/karoq/</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -13119,30 +13085,56 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Octavia</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>1657000</v>
+        <v>1609500</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/skoda/octavia/</t>
+          <t>https://aspect-motors.ru/auto/skoda/new-kodiaq/cuv</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>1757000</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/skoda/kodiaq/</t>
+        </is>
+      </c>
+      <c r="H278" t="n">
+        <v>1757000</v>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/skoda/new-kodiaq/cuv</t>
+        </is>
+      </c>
+      <c r="J278" t="n">
+        <v>1609500</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/skoda/new-kodiaq/cuv</t>
         </is>
       </c>
       <c r="L278" t="n">
-        <v>1657000</v>
+        <v>3640000</v>
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/skoda/octavia/</t>
+          <t>https://sibir-morots.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -13152,38 +13144,30 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Octavia A8</t>
+          <t>Octavia</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>1214000</v>
+        <v>1657000</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/skoda/octavia-a8/2020</t>
-        </is>
-      </c>
-      <c r="H279" t="n">
-        <v>1252000</v>
-      </c>
-      <c r="I279" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/skoda/octavia-a8/2020</t>
-        </is>
-      </c>
-      <c r="J279" t="n">
-        <v>1214000</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/skoda/octavia-a8/2020</t>
+          <t>https://sibir-morots.ru/auto/skoda/octavia/</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>1657000</v>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>580</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -13193,32 +13177,38 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Octavia A8</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>1357000</v>
+        <v>1214000</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/skoda/octavia/</t>
-        </is>
-      </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>1357000</t>
-        </is>
-      </c>
-      <c r="G280" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/skoda/octavia/</t>
+          <t>https://aspect-motors.ru/auto/skoda/octavia-a8/2020</t>
+        </is>
+      </c>
+      <c r="H280" t="n">
+        <v>1252000</v>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/skoda/octavia-a8/2020</t>
+        </is>
+      </c>
+      <c r="J280" t="n">
+        <v>1214000</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/skoda/octavia-a8/2020</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -13228,40 +13218,32 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>751000</v>
+        <v>1357000</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/skoda/rapid/</t>
+          <t>https://autosurgut186.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>751000</t>
+          <t>1357000</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/skoda/rapid/</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1051000</v>
-      </c>
-      <c r="M281" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/skoda/rapid/</t>
+          <t>https://autosurgut186.ru/auto/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -13271,38 +13253,40 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Rapid New</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>570300</v>
+        <v>751000</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/skoda/rapid-new/sedan</t>
-        </is>
-      </c>
-      <c r="H282" t="n">
-        <v>646000</v>
-      </c>
-      <c r="I282" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/skoda/rapid-new/sedan</t>
-        </is>
-      </c>
-      <c r="J282" t="n">
-        <v>570300</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/skoda/rapid-new/sedan</t>
+          <t>https://autosurgut186.ru/auto/skoda/rapid/</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>751000</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/skoda/rapid/</t>
+        </is>
+      </c>
+      <c r="L282" t="n">
+        <v>1051000</v>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/skoda/rapid/</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -13312,40 +13296,38 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Rapid New</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>3086000</v>
+        <v>570300</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/skoda/superb/</t>
-        </is>
-      </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>3086000</t>
-        </is>
-      </c>
-      <c r="G283" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/skoda/superb/</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>3386000</v>
-      </c>
-      <c r="M283" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/skoda/superb/</t>
+          <t>https://aspect-motors.ru/auto/skoda/rapid-new/sedan</t>
+        </is>
+      </c>
+      <c r="H283" t="n">
+        <v>646000</v>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/skoda/rapid-new/sedan</t>
+        </is>
+      </c>
+      <c r="J283" t="n">
+        <v>570300</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/skoda/rapid-new/sedan</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -13355,40 +13337,40 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3517000</v>
+        <v>3086000</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/skoda/superb_combi/</t>
+          <t>https://autosurgut186.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>3517000</t>
+          <t>3086000</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/skoda/superb_combi/</t>
+          <t>https://autosurgut186.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="L284" t="n">
-        <v>3817000</v>
+        <v>3386000</v>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/skoda/superb_combi/</t>
+          <t>https://sibir-morots.ru/auto/skoda/superb/</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -13398,81 +13380,73 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Superb New</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>1830000</v>
+        <v>3517000</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/skoda/superb-new/liftback</t>
-        </is>
-      </c>
-      <c r="J285" t="n">
-        <v>1830000</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/skoda/superb-new/liftback</t>
+          <t>https://autosurgut186.ru/auto/skoda/superb_combi/</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>3517000</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/skoda/superb_combi/</t>
+        </is>
+      </c>
+      <c r="L285" t="n">
+        <v>3817000</v>
+      </c>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>588</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>Superb New</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>1219000</v>
+        <v>1830000</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/solaris/hc/suv-1gen</t>
-        </is>
-      </c>
-      <c r="F286" t="inlineStr">
-        <is>
-          <t>1749300</t>
-        </is>
-      </c>
-      <c r="G286" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/solaris/hc/</t>
+          <t>https://aspect-motors.ru/auto/skoda/superb-new/liftback</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>1219000</v>
+        <v>1830000</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/solaris/hc/suv-1gen</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>2499000</v>
-      </c>
-      <c r="M286" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/solaris/hc/</t>
+          <t>https://aspect-motors.ru/auto/skoda/superb-new/liftback</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -13482,48 +13456,48 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>766000</v>
+        <v>1219000</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/solaris/hs/sedan-1gen</t>
+          <t>https://aspect-motors.ru/auto/solaris/hc/suv-1gen</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>1679000</t>
+          <t>1749300</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/solaris/hs/</t>
+          <t>https://autosurgut186.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>766000</v>
+        <v>1219000</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/solaris/hs/sedan-1gen</t>
+          <t>https://aspect-motors.ru/auto/solaris/hc/suv-1gen</t>
         </is>
       </c>
       <c r="L287" t="n">
-        <v>2010000</v>
+        <v>2499000</v>
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/solaris/hs/</t>
+          <t>https://sibir-morots.ru/auto/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -13533,48 +13507,48 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>729000</v>
+        <v>766000</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/solaris/krs/sedan-1gen</t>
+          <t>https://aspect-motors.ru/auto/solaris/hs/sedan-1gen</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>1575600</t>
+          <t>1679000</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/solaris/krs/</t>
+          <t>https://autosurgut186.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>729000</v>
+        <v>766000</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/solaris/krs/sedan-1gen</t>
+          <t>https://aspect-motors.ru/auto/solaris/hs/sedan-1gen</t>
         </is>
       </c>
       <c r="L288" t="n">
-        <v>2038000</v>
+        <v>2010000</v>
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/solaris/krs/</t>
+          <t>https://sibir-morots.ru/auto/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -13584,155 +13558,173 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>789000</v>
+        <v>729000</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/solaris/krx/hatchback-1gen</t>
+          <t>https://aspect-motors.ru/auto/solaris/krs/sedan-1gen</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>1714000</t>
+          <t>1575600</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/solaris/krx/</t>
+          <t>https://autosurgut186.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>789000</v>
+        <v>729000</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/solaris/krx/hatchback-1gen</t>
+          <t>https://aspect-motors.ru/auto/solaris/krs/sedan-1gen</t>
         </is>
       </c>
       <c r="L289" t="n">
-        <v>2064000</v>
+        <v>2038000</v>
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/solaris/krx/</t>
+          <t>https://sibir-morots.ru/auto/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Soueast</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>DX8S</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>2399900</v>
+        <v>789000</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/soueast/dx8s/cuv-1gen</t>
-        </is>
-      </c>
-      <c r="H290" t="n">
-        <v>2399900</v>
-      </c>
-      <c r="I290" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/soueast/dx8s/cuv-1gen</t>
+          <t>https://aspect-motors.ru/auto/solaris/krx/hatchback-1gen</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>1714000</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>2550000</v>
+        <v>789000</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/soueast/dx8s/dx8s</t>
+          <t>https://aspect-motors.ru/auto/solaris/krx/hatchback-1gen</t>
+        </is>
+      </c>
+      <c r="L290" t="n">
+        <v>2064000</v>
+      </c>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>598</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>SsangYong</t>
+          <t>Soueast</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Actyon</t>
+          <t>DX8S</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>779000</v>
+        <v>2399900</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/ssangyong/actyon/suv</t>
+          <t>https://auto-centre-profsouz.ru/auto/soueast/dx8s/cuv-1gen</t>
+        </is>
+      </c>
+      <c r="H291" t="n">
+        <v>2399900</v>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/soueast/dx8s/cuv-1gen</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>779000</v>
+        <v>2550000</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/ssangyong/actyon/suv</t>
+          <t>https://aspect-motors.ru/auto/soueast/dx8s/dx8s</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>601</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>SsangYong</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Jimny New</t>
+          <t>Actyon</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>1419000</v>
+        <v>779000</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/suzuki/new%20jimny/new%20jimny</t>
+          <t>https://aspect-motors.ru/auto/ssangyong/actyon/suv</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>1419000</v>
+        <v>779000</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/suzuki/new%20jimny/new%20jimny</t>
+          <t>https://aspect-motors.ru/auto/ssangyong/actyon/suv</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>606</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -13742,30 +13734,30 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>SX4</t>
+          <t>Jimny New</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>1109000</v>
+        <v>1419000</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/suzuki/sx4/sedan</t>
+          <t>https://aspect-motors.ru/auto/suzuki/new%20jimny/new%20jimny</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>1109000</v>
+        <v>1419000</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/suzuki/sx4/sedan</t>
+          <t>https://aspect-motors.ru/auto/suzuki/new%20jimny/new%20jimny</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>607</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -13775,89 +13767,63 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Vitara</t>
+          <t>SX4</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>1049000</v>
+        <v>1109000</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/suzuki/vitara/vitara</t>
+          <t>https://aspect-motors.ru/auto/suzuki/sx4/sedan</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>1049000</v>
+        <v>1109000</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/suzuki/vitara/vitara</t>
+          <t>https://aspect-motors.ru/auto/suzuki/sx4/sedan</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>Vitara</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>3434000</v>
+        <v>1049000</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/tank/300/SUV_5D</t>
-        </is>
-      </c>
-      <c r="F295" t="inlineStr">
-        <is>
-          <t>3539000</t>
-        </is>
-      </c>
-      <c r="G295" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/tank/300/</t>
-        </is>
-      </c>
-      <c r="H295" t="n">
-        <v>3434000</v>
-      </c>
-      <c r="I295" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/tank/300/SUV_5D</t>
+          <t>https://aspect-motors.ru/auto/suzuki/vitara/vitara</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>3609000</v>
+        <v>1049000</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/tank/300/SUV_5D</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>4099000</v>
-      </c>
-      <c r="M295" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/tank/300/</t>
+          <t>https://aspect-motors.ru/auto/suzuki/vitara/vitara</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -13867,71 +13833,97 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>4849000</v>
+        <v>3434000</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/tank/500/SUV_5D</t>
+          <t>https://auto-centre-profsouz.ru/auto/tank/300/SUV_5D</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>3539000</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/tank/300/</t>
         </is>
       </c>
       <c r="H296" t="n">
-        <v>4899000</v>
+        <v>3434000</v>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/tank/500/SUV_5D</t>
+          <t>https://auto-centre-profsouz.ru/auto/tank/300/SUV_5D</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>4849000</v>
+        <v>3609000</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/tank/500/SUV_5D</t>
+          <t>https://aspect-motors.ru/auto/tank/300/SUV_5D</t>
+        </is>
+      </c>
+      <c r="L296" t="n">
+        <v>4099000</v>
+      </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/tank/300/</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>CH-R New</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>1789000</v>
+        <v>4849000</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/toyota/c-hr-new/cuv</t>
+          <t>https://aspect-motors.ru/auto/tank/500/SUV_5D</t>
+        </is>
+      </c>
+      <c r="H297" t="n">
+        <v>4899000</v>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/tank/500/SUV_5D</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>1789000</v>
+        <v>4849000</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/toyota/c-hr-new/cuv</t>
+          <t>https://aspect-motors.ru/auto/tank/500/SUV_5D</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>624</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -13941,30 +13933,30 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Camry New</t>
+          <t>CH-R New</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>1712500</v>
+        <v>1789000</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/toyota/camry-new/sed</t>
+          <t>https://aspect-motors.ru/auto/toyota/c-hr-new/cuv</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>1712500</v>
+        <v>1789000</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/toyota/camry-new/sed</t>
+          <t>https://aspect-motors.ru/auto/toyota/c-hr-new/cuv</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>622</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -13974,30 +13966,30 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Corolla New</t>
+          <t>Camry New</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1286000</v>
+        <v>1712500</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/toyota/new-corolla/2019</t>
+          <t>https://aspect-motors.ru/auto/toyota/camry-new/sed</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>1286000</v>
+        <v>1712500</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/toyota/new-corolla/2019</t>
+          <t>https://aspect-motors.ru/auto/toyota/camry-new/sed</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>631</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -14007,30 +13999,30 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Hilux New</t>
+          <t>Corolla New</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>2391000</v>
+        <v>1286000</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/toyota/hilux-new/pickup</t>
+          <t>https://aspect-motors.ru/auto/toyota/new-corolla/2019</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>2391000</v>
+        <v>1286000</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/toyota/hilux-new/pickup</t>
+          <t>https://aspect-motors.ru/auto/toyota/new-corolla/2019</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>628</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -14040,89 +14032,63 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>RAV4 New</t>
+          <t>Hilux New</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>1859000</v>
+        <v>2391000</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/toyota/rav4-new/rav4-new</t>
+          <t>https://aspect-motors.ru/auto/toyota/hilux-new/pickup</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>1859000</v>
+        <v>2391000</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/toyota/rav4-new/rav4-new</t>
+          <t>https://aspect-motors.ru/auto/toyota/hilux-new/pickup</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>632</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>RAV4 New</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>583900</v>
+        <v>1859000</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/uaz/hunter/suv</t>
-        </is>
-      </c>
-      <c r="F302" t="inlineStr">
-        <is>
-          <t>980000</t>
-        </is>
-      </c>
-      <c r="G302" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/uaz/hunter/</t>
-        </is>
-      </c>
-      <c r="H302" t="n">
-        <v>875000</v>
-      </c>
-      <c r="I302" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/uaz/hunter/suv</t>
+          <t>https://aspect-motors.ru/auto/toyota/rav4-new/rav4-new</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>583900</v>
+        <v>1859000</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/uaz/hunter/suv</t>
-        </is>
-      </c>
-      <c r="L302" t="n">
-        <v>1360000</v>
-      </c>
-      <c r="M302" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/uaz/hunter/</t>
+          <t>https://aspect-motors.ru/auto/toyota/rav4-new/rav4-new</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -14132,40 +14098,56 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>1140000</v>
+        <v>583900</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/uaz/patriot/</t>
+          <t>https://aspect-motors.ru/auto/uaz/hunter/suv</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>1140000</t>
+          <t>980000</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/uaz/patriot/</t>
+          <t>https://autosurgut186.ru/auto/uaz/hunter/</t>
+        </is>
+      </c>
+      <c r="H303" t="n">
+        <v>875000</v>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/uaz/hunter/suv</t>
+        </is>
+      </c>
+      <c r="J303" t="n">
+        <v>583900</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/uaz/hunter/suv</t>
         </is>
       </c>
       <c r="L303" t="n">
-        <v>1495000</v>
+        <v>1360000</v>
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/uaz/patriot/</t>
+          <t>https://sibir-morots.ru/auto/uaz/hunter/</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -14175,38 +14157,40 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Patriot New</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>657000</v>
+        <v>1140000</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/uaz/patriot-new/suv</t>
-        </is>
-      </c>
-      <c r="H304" t="n">
-        <v>1035000</v>
-      </c>
-      <c r="I304" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/uaz/patriot-new/suv</t>
-        </is>
-      </c>
-      <c r="J304" t="n">
-        <v>657000</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/uaz/patriot-new/suv</t>
+          <t>https://autosurgut186.ru/auto/uaz/patriot/</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>1140000</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/uaz/patriot/</t>
+        </is>
+      </c>
+      <c r="L304" t="n">
+        <v>1495000</v>
+      </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/uaz/patriot/</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>635</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -14216,40 +14200,38 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Patriot Pickup</t>
+          <t>Patriot New</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1165000</v>
+        <v>657000</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/uaz/patriot_pickup/</t>
-        </is>
-      </c>
-      <c r="F305" t="inlineStr">
-        <is>
-          <t>1165000</t>
-        </is>
-      </c>
-      <c r="G305" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/uaz/patriot_pickup/</t>
-        </is>
-      </c>
-      <c r="L305" t="n">
-        <v>1520000</v>
-      </c>
-      <c r="M305" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://aspect-motors.ru/auto/uaz/patriot-new/suv</t>
+        </is>
+      </c>
+      <c r="H305" t="n">
+        <v>1035000</v>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/uaz/patriot-new/suv</t>
+        </is>
+      </c>
+      <c r="J305" t="n">
+        <v>657000</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/uaz/patriot-new/suv</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -14259,71 +14241,81 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Pickup New</t>
+          <t>Patriot Pickup</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>696500</v>
+        <v>1165000</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/uaz/pickup-new/suv</t>
-        </is>
-      </c>
-      <c r="H306" t="n">
-        <v>1060000</v>
-      </c>
-      <c r="I306" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/uaz/pickup-new/suv</t>
-        </is>
-      </c>
-      <c r="J306" t="n">
-        <v>696500</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/uaz/pickup-new/suv</t>
+          <t>https://autosurgut186.ru/auto/uaz/patriot_pickup/</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>1165000</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/uaz/patriot_pickup/</t>
+        </is>
+      </c>
+      <c r="L306" t="n">
+        <v>1520000</v>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>638</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Arteon</t>
+          <t>Pickup New</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>1949000</v>
+        <v>696500</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/arteon/liftback-1gen-rest</t>
+          <t>https://aspect-motors.ru/auto/uaz/pickup-new/suv</t>
+        </is>
+      </c>
+      <c r="H307" t="n">
+        <v>1060000</v>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/uaz/pickup-new/suv</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>1949000</v>
+        <v>696500</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/arteon/liftback-1gen-rest</t>
+          <t>https://aspect-motors.ru/auto/uaz/pickup-new/suv</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>639</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -14333,30 +14325,30 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Golf New</t>
+          <t>Arteon</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>2302500</v>
+        <v>1949000</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/golf-new/hatch</t>
+          <t>https://aspect-motors.ru/auto/volkswagen/arteon/liftback-1gen-rest</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>2302500</v>
+        <v>1949000</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/golf-new/hatch</t>
+          <t>https://aspect-motors.ru/auto/volkswagen/arteon/liftback-1gen-rest</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>644</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -14366,40 +14358,30 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Golf New</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>1108000</v>
+        <v>2302500</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/volkswagen/jetta/</t>
-        </is>
-      </c>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>1108000</t>
-        </is>
-      </c>
-      <c r="G309" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/volkswagen/jetta/</t>
-        </is>
-      </c>
-      <c r="L309" t="n">
-        <v>1518000</v>
-      </c>
-      <c r="M309" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/volkswagen/jetta/</t>
+          <t>https://aspect-motors.ru/auto/volkswagen/golf-new/hatch</t>
+        </is>
+      </c>
+      <c r="J309" t="n">
+        <v>2302500</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/volkswagen/golf-new/hatch</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -14409,38 +14391,40 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Jetta New</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>1003000</v>
+        <v>1108000</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/volkswagen/jetta-new/sedan</t>
-        </is>
-      </c>
-      <c r="H310" t="n">
-        <v>1003000</v>
-      </c>
-      <c r="I310" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/volkswagen/jetta-new/sedan</t>
-        </is>
-      </c>
-      <c r="J310" t="n">
-        <v>1070300</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/jetta-new/sedan</t>
+          <t>https://autosurgut186.ru/auto/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>1108000</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="L310" t="n">
+        <v>1518000</v>
+      </c>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>646</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -14450,40 +14434,38 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Jetta New</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>2323000</v>
+        <v>1003000</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/volkswagen/passat/</t>
-        </is>
-      </c>
-      <c r="F311" t="inlineStr">
-        <is>
-          <t>2323000</t>
-        </is>
-      </c>
-      <c r="G311" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/volkswagen/passat/</t>
-        </is>
-      </c>
-      <c r="L311" t="n">
-        <v>2733000</v>
-      </c>
-      <c r="M311" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/volkswagen/passat/</t>
+          <t>https://auto-centre-profsouz.ru/auto/volkswagen/jetta-new/sedan</t>
+        </is>
+      </c>
+      <c r="H311" t="n">
+        <v>1003000</v>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/volkswagen/jetta-new/sedan</t>
+        </is>
+      </c>
+      <c r="J311" t="n">
+        <v>1070300</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/volkswagen/jetta-new/sedan</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -14493,38 +14475,40 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Passat New</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>2049000</v>
+        <v>2323000</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/passat-new/sedan</t>
-        </is>
-      </c>
-      <c r="H312" t="n">
-        <v>2218000</v>
-      </c>
-      <c r="I312" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/volkswagen/passat-new/sedan</t>
-        </is>
-      </c>
-      <c r="J312" t="n">
-        <v>2049000</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/passat-new/sedan</t>
+          <t>https://autosurgut186.ru/auto/volkswagen/passat/</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>2323000</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/volkswagen/passat/</t>
+        </is>
+      </c>
+      <c r="L312" t="n">
+        <v>2733000</v>
+      </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>650</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -14534,40 +14518,38 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Passat New</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>712400</v>
+        <v>2049000</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/volkswagen/polo/</t>
-        </is>
-      </c>
-      <c r="F313" t="inlineStr">
-        <is>
-          <t>712400</t>
-        </is>
-      </c>
-      <c r="G313" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/volkswagen/polo/</t>
-        </is>
-      </c>
-      <c r="L313" t="n">
-        <v>1122400</v>
-      </c>
-      <c r="M313" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/volkswagen/polo/</t>
+          <t>https://aspect-motors.ru/auto/volkswagen/passat-new/sedan</t>
+        </is>
+      </c>
+      <c r="H313" t="n">
+        <v>2218000</v>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/volkswagen/passat-new/sedan</t>
+        </is>
+      </c>
+      <c r="J313" t="n">
+        <v>2049000</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/volkswagen/passat-new/sedan</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -14577,38 +14559,40 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Polo New</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>540300</v>
+        <v>712400</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/new-polo/sedan</t>
-        </is>
-      </c>
-      <c r="H314" t="n">
-        <v>607400</v>
-      </c>
-      <c r="I314" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/volkswagen/new-polo/sedan</t>
-        </is>
-      </c>
-      <c r="J314" t="n">
-        <v>540300</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/new-polo/sedan</t>
+          <t>https://autosurgut186.ru/auto/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>712400</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="L314" t="n">
+        <v>1122400</v>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>648</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -14618,56 +14602,38 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Polo New</t>
         </is>
       </c>
       <c r="D315" t="n">
-        <v>1299000</v>
+        <v>540300</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/taos/cuv</t>
-        </is>
-      </c>
-      <c r="F315" t="inlineStr">
-        <is>
-          <t>2418900</t>
-        </is>
-      </c>
-      <c r="G315" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/volkswagen/taos/</t>
+          <t>https://aspect-motors.ru/auto/volkswagen/new-polo/sedan</t>
         </is>
       </c>
       <c r="H315" t="n">
-        <v>2313900</v>
+        <v>607400</v>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/volkswagen/taos/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/volkswagen/new-polo/sedan</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>1299000</v>
+        <v>540300</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/taos/cuv</t>
-        </is>
-      </c>
-      <c r="L315" t="n">
-        <v>2828900</v>
-      </c>
-      <c r="M315" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/volkswagen/taos/</t>
+          <t>https://aspect-motors.ru/auto/volkswagen/new-polo/sedan</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -14677,30 +14643,56 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Teramont New</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>3558500</v>
+        <v>1299000</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/teramont-new/suv</t>
+          <t>https://aspect-motors.ru/auto/volkswagen/taos/cuv</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>2418900</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/volkswagen/taos/</t>
+        </is>
+      </c>
+      <c r="H316" t="n">
+        <v>2313900</v>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/volkswagen/taos/cuv</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>3558500</v>
+        <v>1299000</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/teramont-new/suv</t>
+          <t>https://aspect-motors.ru/auto/volkswagen/taos/cuv</t>
+        </is>
+      </c>
+      <c r="L316" t="n">
+        <v>2828900</v>
+      </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>656</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -14710,30 +14702,30 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Tiguan</t>
+          <t>Teramont New</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>3375900</v>
+        <v>3558500</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="L317" t="n">
-        <v>3375900</v>
-      </c>
-      <c r="M317" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/volkswagen/tiguan/</t>
+          <t>https://aspect-motors.ru/auto/volkswagen/teramont-new/suv</t>
+        </is>
+      </c>
+      <c r="J317" t="n">
+        <v>3558500</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/volkswagen/teramont-new/suv</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -14743,48 +14735,30 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>Tiguan</t>
         </is>
       </c>
       <c r="D318" t="n">
-        <v>1329900</v>
+        <v>3375900</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/tiguan-new/cuv</t>
-        </is>
-      </c>
-      <c r="F318" t="inlineStr">
-        <is>
-          <t>1724900</t>
-        </is>
-      </c>
-      <c r="G318" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="H318" t="n">
-        <v>1619900</v>
-      </c>
-      <c r="I318" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/volkswagen/tiguan-new/cuv</t>
-        </is>
-      </c>
-      <c r="J318" t="n">
-        <v>1329900</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/tiguan-new/cuv</t>
+          <t>https://sibir-morots.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="L318" t="n">
+        <v>3375900</v>
+      </c>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -14794,156 +14768,207 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Touareg New</t>
+          <t>Tiguan New</t>
         </is>
       </c>
       <c r="D319" t="n">
-        <v>5264500</v>
+        <v>1329900</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/touareg-new/suv</t>
+          <t>https://aspect-motors.ru/auto/volkswagen/tiguan-new/cuv</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>1724900</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="H319" t="n">
+        <v>1619900</v>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/volkswagen/tiguan-new/cuv</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>5264500</v>
+        <v>1329900</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/touareg-new/suv</t>
+          <t>https://aspect-motors.ru/auto/volkswagen/tiguan-new/cuv</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>660</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>XCite</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>X-Cross 7 New</t>
+          <t>Touareg New</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>1999000</v>
+        <v>5264500</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/xcite/x-cross-7/suv-1gen</t>
-        </is>
-      </c>
-      <c r="H320" t="n">
-        <v>1999000</v>
-      </c>
-      <c r="I320" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/xcite/x-cross-7/suv-1gen</t>
+          <t>https://aspect-motors.ru/auto/volkswagen/touareg-new/suv</t>
+        </is>
+      </c>
+      <c r="J320" t="n">
+        <v>5264500</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>https://aspect-motors.ru/auto/volkswagen/touareg-new/suv</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>676</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>XCite</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>X-Cross 7 New</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>1079600</v>
+        <v>1999000</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/zotye/coupa/</t>
-        </is>
-      </c>
-      <c r="F321" t="inlineStr">
-        <is>
-          <t>1079600</t>
-        </is>
-      </c>
-      <c r="G321" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/zotye/coupa/</t>
+          <t>https://auto-centre-profsouz.ru/auto/xcite/x-cross-7/suv-1gen</t>
         </is>
       </c>
       <c r="H321" t="n">
-        <v>1084900</v>
+        <v>1999000</v>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/zotye/coupa/coupasuv</t>
-        </is>
-      </c>
-      <c r="L321" t="n">
-        <v>1485640</v>
-      </c>
-      <c r="M321" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/zotye/coupa/</t>
+          <t>https://auto-centre-profsouz.ru/auto/xcite/x-cross-7/suv-1gen</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Coupa</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>1079600</v>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>1079600</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="H322" t="n">
+        <v>1084900</v>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/zotye/coupa/coupasuv</t>
+        </is>
+      </c>
+      <c r="L322" t="n">
+        <v>1485640</v>
+      </c>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
           <t>674</t>
         </is>
       </c>
-      <c r="B322" t="inlineStr">
+      <c r="B323" t="inlineStr">
         <is>
           <t>Zotye</t>
         </is>
       </c>
-      <c r="C322" t="inlineStr">
+      <c r="C323" t="inlineStr">
         <is>
           <t>T600</t>
         </is>
       </c>
-      <c r="D322" t="n">
+      <c r="D323" t="n">
         <v>861600</v>
       </c>
-      <c r="E322" t="inlineStr">
+      <c r="E323" t="inlineStr">
         <is>
           <t>https://autosurgut186.ru/auto/zotye/t600/</t>
         </is>
       </c>
-      <c r="F322" t="inlineStr">
+      <c r="F323" t="inlineStr">
         <is>
           <t>861600</t>
         </is>
       </c>
-      <c r="G322" t="inlineStr">
+      <c r="G323" t="inlineStr">
         <is>
           <t>https://autosurgut186.ru/auto/zotye/t600/</t>
         </is>
       </c>
-      <c r="H322" t="n">
+      <c r="H323" t="n">
         <v>866600</v>
       </c>
-      <c r="I322" t="inlineStr">
+      <c r="I323" t="inlineStr">
         <is>
           <t>https://auto-centre-profsouz.ru/auto/zotye/%D0%A2600/suv</t>
         </is>
       </c>
-      <c r="L322" t="n">
+      <c r="L323" t="n">
         <v>1234000</v>
       </c>
-      <c r="M322" t="inlineStr">
+      <c r="M323" t="inlineStr">
         <is>
           <t>https://sibir-morots.ru/auto/zotye/t600/</t>
         </is>

--- a/xlsx/surgut.xlsx
+++ b/xlsx/surgut.xlsx
@@ -514,7 +514,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3750000</t>
+          <t>3600000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -564,16 +564,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1340000</v>
+        <v>1295000</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/baic/sedan/sedan-1gen</t>
+          <t>https://autosurgut186.ru/auto/baic/u5_plus/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1445000</t>
+          <t>1295000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1495000</v>
+        <v>1450000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/baic/cuv/suv-1gen</t>
+          <t>https://autosurgut186.ru/auto/baic/x35/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1600000</t>
+          <t>1450000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2255000</t>
+          <t>2105000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -922,16 +922,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>935000</v>
+        <v>890000</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/alsvin/sed</t>
+          <t>https://autosurgut186.ru/auto/changan/alsvin/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1040000</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1629900</t>
+          <t>1479900</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1479900</t>
+          <t>1329900</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1140,16 +1140,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1814900</v>
+        <v>1769900</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/cs55plus/cuv</t>
+          <t>https://autosurgut186.ru/auto/changan/cs55_plus/</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1919900</t>
+          <t>1769900</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1759900</t>
+          <t>1609900</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2999900</t>
+          <t>2849900</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3539900</t>
+          <t>3389900</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1514900</v>
+        <v>1469900</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/eado-plus/SEDAN</t>
+          <t>https://autosurgut186.ru/auto/changan/eado_plus/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1619900</t>
+          <t>1469900</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1567,16 +1567,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2724900</v>
+        <v>2679900</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/hunter-plus/plus</t>
+          <t>https://autosurgut186.ru/auto/changan/hunter_plus/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2829900</t>
+          <t>2679900</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1618,16 +1618,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2084900</v>
+        <v>2039900</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/lamore/sedan</t>
+          <t>https://autosurgut186.ru/auto/changan/lamore/</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2189900</t>
+          <t>2039900</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1710,16 +1710,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2824900</v>
+        <v>2779900</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/uni-k/suv</t>
+          <t>https://autosurgut186.ru/auto/changan/uni-k/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2929900</t>
+          <t>2779900</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1769,16 +1769,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2054900</v>
+        <v>2009900</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/UNI-T/SUV_5D</t>
+          <t>https://autosurgut186.ru/auto/changan/uni-t/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2159900</t>
+          <t>2009900</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2149900</t>
+          <t>1999900</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1887,16 +1887,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2095000</v>
+        <v>2050000</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/chery/arrizo-8/sedan</t>
+          <t>https://autosurgut186.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2200000</t>
+          <t>2050000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1099900</t>
+          <t>949900</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2080,7 +2080,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1520000</t>
+          <t>1370000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2130,16 +2130,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>524900</v>
+        <v>479900</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/chery/tiggo-7/2019</t>
+          <t>https://autosurgut186.ru/auto/chery/tiggo_7/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>629900</t>
+          <t>479900</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1970000</t>
+          <t>1820000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2220000</t>
+          <t>2070000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2270000</v>
+        <v>2120000</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2270000</t>
+          <t>2120000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2370000</t>
+          <t>2220000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2830000</t>
+          <t>2680000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3251000</t>
+          <t>3101000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3560000</v>
+        <v>3410000</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3560000</t>
+          <t>3410000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>611900</v>
+        <v>461900</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>611900</t>
+          <t>461900</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>538900</v>
+        <v>388900</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>538900</t>
+          <t>388900</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2763,7 +2763,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>608900</v>
+        <v>458900</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>608900</t>
+          <t>458900</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1329000</v>
+        <v>1179000</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1329000</t>
+          <t>1179000</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2915,7 +2915,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>629000</v>
+        <v>479000</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>629000</t>
+          <t>479000</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2460000</t>
+          <t>2310000</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3355,16 +3355,16 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3585000</v>
+        <v>3540000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/exeed/rx/SUV_5D</t>
+          <t>https://autosurgut186.ru/auto/exeed/rx/</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>3690000</t>
+          <t>3540000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>3660000</t>
+          <t>3510000</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>4700000</t>
+          <t>4550000</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3696,16 +3696,16 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1745000</v>
+        <v>1700000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/faw/bestune-b70/LIFTBACK</t>
+          <t>https://autosurgut186.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1850000</t>
+          <t>1700000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3755,16 +3755,16 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1706000</v>
+        <v>1661000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/faw/bestune-t55/SUV_5D</t>
+          <t>https://autosurgut186.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1811000</t>
+          <t>1661000</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3823,7 +3823,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1570000</t>
+          <t>1420000</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3873,16 +3873,16 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2335000</v>
+        <v>2290000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/faw/bestune-t99/SUV_5D</t>
+          <t>https://autosurgut186.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2440000</t>
+          <t>2290000</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1002000</v>
+        <v>852000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1002000</t>
+          <t>852000</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -4090,7 +4090,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>908000</v>
+        <v>758000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>908000</t>
+          <t>758000</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1649000</t>
+          <t>1499000</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2389000</t>
+          <t>2239000</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4539,16 +4539,16 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1133990</v>
+        <v>1088990</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/geely/Atlas/cuv</t>
+          <t>https://autosurgut186.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1238990</t>
+          <t>1088990</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2344990</t>
+          <t>2194990</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2118990</t>
+          <t>1968990</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4716,7 +4716,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1335990</v>
+        <v>1185990</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1335990</t>
+          <t>1185990</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1729990</t>
+          <t>1579990</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4818,16 +4818,16 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1114990</v>
+        <v>1069990</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/geely/coolray-new/suv-5d</t>
+          <t>https://autosurgut186.ru/auto/geely/coolray/</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1219990</t>
+          <t>1069990</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4910,7 +4910,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1159990</v>
+        <v>1009990</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1159990</t>
+          <t>1009990</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -5010,16 +5010,16 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>614990</v>
+        <v>569990</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/geely/gs/cuv</t>
+          <t>https://autosurgut186.ru/auto/geely/gs/</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>719990</t>
+          <t>569990</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>3574990</t>
+          <t>3424990</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2949990</t>
+          <t>2799990</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>3674990</t>
+          <t>3524990</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -5354,7 +5354,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2289000</t>
+          <t>2139000</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -5413,7 +5413,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2559000</t>
+          <t>2409000</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -5472,7 +5472,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>1689000</t>
+          <t>1539000</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>1739000</t>
+          <t>1589000</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -5655,7 +5655,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1029000</v>
+        <v>879000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>1029000</t>
+          <t>879000</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>3389000</t>
+          <t>3239000</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>1199000</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5849,16 +5849,16 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1134000</v>
+        <v>1089000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/haval/jolion/suv-1gen-rest</t>
+          <t>https://autosurgut186.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>1239000</t>
+          <t>1089000</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5908,16 +5908,16 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1364000</v>
+        <v>1319000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/haval/m6/WAGON_7D</t>
+          <t>https://autosurgut186.ru/auto/haval/m6/</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1469000</t>
+          <t>1319000</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -6108,7 +6108,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>1559000</t>
+          <t>1409000</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1849000</t>
+          <t>1699000</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -6308,7 +6308,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1108000</v>
+        <v>958000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>1108000</t>
+          <t>958000</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>2469000</v>
+        <v>2319000</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2469000</t>
+          <t>2319000</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2449000</t>
+          <t>2299000</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -6602,7 +6602,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1529000</t>
+          <t>1379000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -6734,16 +6734,16 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>694000</v>
+        <v>649000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jac/s3/cuv</t>
+          <t>https://autosurgut186.ru/auto/jac/s3/</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>799000</t>
+          <t>649000</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1179000</t>
+          <t>1029000</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -7008,16 +7008,16 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2739900</v>
+        <v>2589900</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jaecoo/j-7/suv-1gen</t>
+          <t>https://autosurgut186.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2739900</t>
+          <t>2589900</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -7100,16 +7100,16 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1784900</v>
+        <v>1739900</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetour/dashing/suv-1gen</t>
+          <t>https://autosurgut186.ru/auto/jetour/dashing/</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>1889900</t>
+          <t>1739900</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -7201,7 +7201,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2399900</t>
+          <t>2249900</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -7251,16 +7251,16 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>2694900</v>
+        <v>2649900</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetour/x90plus/suv-1gen</t>
+          <t>https://autosurgut186.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2799900</t>
+          <t>2649900</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -7310,16 +7310,16 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>985000</v>
+        <v>940000</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetta/va3/va3</t>
+          <t>https://autosurgut186.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>1090000</t>
+          <t>940000</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -7369,16 +7369,16 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1285000</v>
+        <v>1240000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetta/vs5/vs5</t>
+          <t>https://autosurgut186.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>1240000</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -7428,16 +7428,16 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1444000</v>
+        <v>1399000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetta/vs7/vs7</t>
+          <t>https://autosurgut186.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>1549000</t>
+          <t>1399000</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -7496,7 +7496,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>1645000</t>
+          <t>1495000</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -7546,16 +7546,16 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1526650</v>
+        <v>1481650</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kaiyi/X3/SUV_5D</t>
+          <t>https://autosurgut186.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>1631650</t>
+          <t>1481650</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -7605,16 +7605,16 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1809900</v>
+        <v>1764900</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kaiyi/X3%20Pro/SUV_5D</t>
+          <t>https://autosurgut186.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>1914900</t>
+          <t>1764900</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -7673,7 +7673,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2497900</t>
+          <t>2347900</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -7765,7 +7765,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>1944900</t>
+          <t>1794900</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -7857,7 +7857,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2014900</t>
+          <t>1864900</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -7990,7 +7990,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>1754900</t>
+          <t>1604900</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2434900</t>
+          <t>2284900</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>1034900</t>
+          <t>884900</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -8175,7 +8175,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>967999</v>
+        <v>817999</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>967999</t>
+          <t>817999</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -8260,7 +8260,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>1134900</t>
+          <t>984900</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>1274900</t>
+          <t>1124900</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -8370,7 +8370,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>1659900</t>
+          <t>1509900</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1529900</v>
+        <v>1379900</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>1529900</t>
+          <t>1379900</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -8595,7 +8595,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2549900</t>
+          <t>2399900</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -8678,16 +8678,16 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1004900</v>
+        <v>919900</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/kia/xceed/cuv</t>
+          <t>https://autosurgut186.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>1069900</t>
+          <t>919900</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -10662,16 +10662,16 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>650300</v>
+        <v>555300</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/murman/sedan</t>
+          <t>https://autosurgut186.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>705300</t>
+          <t>555300</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -10705,16 +10705,16 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>701300</v>
+        <v>606300</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/myway/wagon</t>
+          <t>https://autosurgut186.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>756300</t>
+          <t>606300</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>401300</v>
+        <v>306300</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/solano-2/sedan</t>
+          <t>https://autosurgut186.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>456300</t>
+          <t>306300</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -10800,7 +10800,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>575300</t>
+          <t>425300</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -10834,16 +10834,16 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>491300</v>
+        <v>396300</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/x60/wagon</t>
+          <t>https://autosurgut186.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>546300</t>
+          <t>396300</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -10877,16 +10877,16 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>770300</v>
+        <v>675300</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/x70/cuv</t>
+          <t>https://autosurgut186.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>825300</t>
+          <t>675300</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -10920,16 +10920,16 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>1679930</v>
+        <v>1634930</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/livan/s6pro/sedan-1gen</t>
+          <t>https://autosurgut186.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>1784930</t>
+          <t>1634930</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -10979,16 +10979,16 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>1174900</v>
+        <v>1129900</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/livan/x3pro/suv-1gen</t>
+          <t>https://autosurgut186.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>1279900</t>
+          <t>1129900</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -11038,16 +11038,16 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>1735930</v>
+        <v>1690930</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/livan/x6pro/suv-1gen</t>
+          <t>https://autosurgut186.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>1840930</t>
+          <t>1690930</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -11558,16 +11558,16 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>1225000</v>
+        <v>1180000</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/moskvich/moskvich3/cuv</t>
+          <t>https://autosurgut186.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>1330000</t>
+          <t>1180000</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -11626,7 +11626,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>3058000</t>
+          <t>2908000</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>4109000</v>
+        <v>3959000</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>4109000</t>
+          <t>3959000</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -11785,16 +11785,16 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>1732000</v>
+        <v>1687000</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/nissan/new-qashqai/2019</t>
+          <t>https://autosurgut186.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>1837000</t>
+          <t>1687000</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -11877,7 +11877,7 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>1390000</v>
+        <v>1240000</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>1240000</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -11970,7 +11970,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>2352000</t>
+          <t>2202000</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -12062,7 +12062,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>2079900</t>
+          <t>1929900</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>1719900</t>
+          <t>1569900</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -12344,7 +12344,7 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1464000</v>
+        <v>1314000</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>1464000</t>
+          <t>1314000</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -12470,7 +12470,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>1208000</t>
+          <t>1058000</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -12512,7 +12512,7 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1314000</v>
+        <v>1164000</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>1314000</t>
+          <t>1164000</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>824000</v>
+        <v>674000</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>824000</t>
+          <t>674000</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -12689,7 +12689,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>963000</t>
+          <t>813000</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -12739,7 +12739,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>714000</v>
+        <v>564000</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>714000</t>
+          <t>564000</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -12823,7 +12823,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>891000</v>
+        <v>741000</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>891000</t>
+          <t>741000</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -13039,7 +13039,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>1405000</t>
+          <t>1255000</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -13089,16 +13089,16 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>1609500</v>
+        <v>1607000</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/skoda/new-kodiaq/cuv</t>
+          <t>https://autosurgut186.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>1757000</t>
+          <t>1607000</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>1357000</v>
+        <v>1207000</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>1357000</t>
+          <t>1207000</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -13257,7 +13257,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>751000</v>
+        <v>601000</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>751000</t>
+          <t>601000</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -13341,7 +13341,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3086000</v>
+        <v>2936000</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>3086000</t>
+          <t>2936000</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -13384,7 +13384,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>3517000</v>
+        <v>3367000</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -13393,7 +13393,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>3517000</t>
+          <t>3367000</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -13469,7 +13469,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>1749300</t>
+          <t>1599300</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -13520,7 +13520,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>1679000</t>
+          <t>1529000</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -13571,7 +13571,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>1575600</t>
+          <t>1425600</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -13622,7 +13622,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>1714000</t>
+          <t>1564000</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -13837,16 +13837,16 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>3434000</v>
+        <v>3389000</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/tank/300/SUV_5D</t>
+          <t>https://autosurgut186.ru/auto/tank/300/</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>3539000</t>
+          <t>3389000</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -14111,7 +14111,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>980000</t>
+          <t>830000</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -14161,7 +14161,7 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>1140000</v>
+        <v>990000</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>1140000</t>
+          <t>990000</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -14245,7 +14245,7 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>1165000</v>
+        <v>1015000</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>1165000</t>
+          <t>1015000</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -14395,7 +14395,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>1108000</v>
+        <v>958000</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>1108000</t>
+          <t>958000</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
@@ -14479,7 +14479,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>2323000</v>
+        <v>2173000</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>2323000</t>
+          <t>2173000</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>712400</v>
+        <v>562400</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>712400</t>
+          <t>562400</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -14656,7 +14656,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>2418900</t>
+          <t>2268900</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
@@ -14781,7 +14781,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>1724900</t>
+          <t>1574900</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
@@ -14889,7 +14889,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>1079600</v>
+        <v>929600</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>1079600</t>
+          <t>929600</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -14940,7 +14940,7 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>861600</v>
+        <v>711600</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>861600</t>
+          <t>711600</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">

--- a/xlsx/surgut.xlsx
+++ b/xlsx/surgut.xlsx
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1645000</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1645000</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -564,25 +564,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1295000</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/baic/sedan/sedan-1gen</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1295000</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/baic/u5_plus/</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1295000</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/baic/u5_plus/</t>
-        </is>
-      </c>
       <c r="H3" t="n">
-        <v>1340000</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -623,25 +623,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1450000</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/baic/cuv/suv-1gen</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1450000</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/baic/x35/</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1450000</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/baic/x35/</t>
-        </is>
-      </c>
       <c r="H4" t="n">
-        <v>1495000</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -682,11 +682,11 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1990000</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/baic/x55/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/baic/x55/suv-1gen</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2150000</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -741,15 +741,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2110000</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/baic/x7/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/baic/x7/suv-1gen</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2400000</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1335990</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1335990</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -922,25 +922,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>890000</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/changan/alsvin/sed</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>890000</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/changan/alsvin/</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>890000</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/changan/alsvin/</t>
-        </is>
-      </c>
       <c r="H11" t="n">
-        <v>935000</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1289900</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/changan/cs35plusnew/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/changan/cs35plusnew/cuv</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1524900</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1140,25 +1140,25 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1769900</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/changan/cs55plus/cuv</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1769900</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/changan/cs55_plus/</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1769900</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/changan/cs55_plus/</t>
-        </is>
-      </c>
       <c r="H15" t="n">
-        <v>1814900</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1324,11 +1324,11 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1979900</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/changan/cs85coupe/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/changan/cs85coupe/cuv</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2894900</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3309900</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/changan/cs95/suv</t>
+          <t>https://auto-centre-profsouz.ru/auto/changan/cs95/suv</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3434900</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1475,25 +1475,25 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1469900</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/changan/eado-plus/SEDAN</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1469900</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/changan/eado_plus/</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1469900</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/changan/eado_plus/</t>
-        </is>
-      </c>
       <c r="H22" t="n">
-        <v>1514900</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1567,25 +1567,25 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2679900</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/changan/hunter-plus/plus</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2679900</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/changan/hunter_plus/</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2679900</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/changan/hunter_plus/</t>
-        </is>
-      </c>
       <c r="H24" t="n">
-        <v>2724900</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1618,25 +1618,25 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2039900</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/changan/lamore/sedan</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2039900</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/changan/lamore/</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2039900</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/changan/lamore/</t>
-        </is>
-      </c>
       <c r="H25" t="n">
-        <v>2084900</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1710,25 +1710,25 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2779900</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/changan/uni-k/suv</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2779900</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/changan/uni-k/</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2779900</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/changan/uni-k/</t>
-        </is>
-      </c>
       <c r="H27" t="n">
-        <v>2824900</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1769,25 +1769,25 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2009900</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/changan/UNI-T/SUV_5D</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2009900</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/changan/uni-t/</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2009900</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/changan/uni-t/</t>
-        </is>
-      </c>
       <c r="H28" t="n">
-        <v>2054900</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1828,11 +1828,11 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1999900</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/changan/uni-v/liftback</t>
+          <t>https://auto-centre-profsouz.ru/auto/changan/uni-v/liftback</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>2044900</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1887,25 +1887,25 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2050000</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/chery/arrizo-8/sedan</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2050000</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2050000</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/chery/arrizo_8/</t>
-        </is>
-      </c>
       <c r="H30" t="n">
-        <v>2095000</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -2071,11 +2071,11 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>869900</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/chery/tiggo-4-pro/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/chery/tiggo-4-pro/cuv</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1415000</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -2248,11 +2248,11 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1169900</v>
+        <v>0</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/chery/tiggo-7-pro-max/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/chery/tiggo-7-pro-max/cuv</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2266,7 +2266,7 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>2115000</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2409,11 +2409,11 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1169900</v>
+        <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/chery/tiggo-8-pro/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/chery/tiggo-8-pro/cuv</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>2725000</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2468,11 +2468,11 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1873400</v>
+        <v>0</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/chery/tiggo-8-pro-max/tiggo-8-pro-max</t>
+          <t>https://auto-centre-profsouz.ru/auto/chery/tiggo-8-pro-max/tiggo-8-pro-max</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2486,7 +2486,7 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>3146000</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1469900</v>
+        <v>0</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/exeed/lx/suv</t>
+          <t>https://auto-centre-profsouz.ru/auto/exeed/lx/suv</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>2355000</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -3314,15 +3314,15 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1950000</v>
+        <v>0</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/exeed/lxawd/lxawd</t>
+          <t>https://auto-centre-profsouz.ru/auto/exeed/lxawd/lxawd</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>3240000</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -3355,25 +3355,25 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3540000</v>
+        <v>0</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/exeed/rx/SUV_5D</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3540000</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/exeed/rx/</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>3540000</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/exeed/rx/</t>
-        </is>
-      </c>
       <c r="H64" t="n">
-        <v>3585000</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -3414,11 +3414,11 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2749900</v>
+        <v>0</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/exeed/txl2/txl2</t>
+          <t>https://auto-centre-profsouz.ru/auto/exeed/txl/cuv</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>3399900</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -3473,15 +3473,15 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2099900</v>
+        <v>0</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/exeed/txl-new/suv</t>
+          <t>https://auto-centre-profsouz.ru/auto/exeed/txl-new/suv</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>3555000</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -3522,11 +3522,11 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>3009900</v>
+        <v>0</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/exeed/vx/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/exeed/vx/cuv</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3540,7 +3540,7 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>4595000</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -3581,15 +3581,15 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>3749900</v>
+        <v>0</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/exeed/vxle/vxle</t>
+          <t>https://auto-centre-profsouz.ru/auto/exeed/vxle/vxle</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>5090000</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -3622,15 +3622,15 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2789000</v>
+        <v>0</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/exeed/vx-new/suv-1gen-rest</t>
+          <t>https://auto-centre-profsouz.ru/auto/exeed/vx-new/suv-1gen-rest</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -3696,25 +3696,25 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1700000</v>
+        <v>0</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/faw/bestune-b70/LIFTBACK</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1700000</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>1700000</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/faw/bestune_b70/</t>
-        </is>
-      </c>
       <c r="H71" t="n">
-        <v>1745000</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -3755,25 +3755,25 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1661000</v>
+        <v>0</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/faw/bestune-t55/SUV_5D</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1661000</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>1661000</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/faw/bestune_t55/</t>
-        </is>
-      </c>
       <c r="H72" t="n">
-        <v>1706000</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -3814,11 +3814,11 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1359000</v>
+        <v>0</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/faw/bestune-t77/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/faw/bestune-t77/cuv</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>1465000</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -3873,25 +3873,25 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2290000</v>
+        <v>0</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/faw/bestune-t99/SUV_5D</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2290000</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>2290000</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/faw/bestune_t99/</t>
-        </is>
-      </c>
       <c r="H74" t="n">
-        <v>2335000</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -4133,15 +4133,15 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1889000</v>
+        <v>0</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/forthing/t5-evo/suv_5d</t>
+          <t>https://auto-centre-profsouz.ru/auto/forthing/t5-evo/suv-1gen</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>2480000</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -4174,15 +4174,15 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2389000</v>
+        <v>0</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/forthing/yacht/minivan</t>
+          <t>https://auto-centre-profsouz.ru/auto/forthing/yacht/minivan-1gen</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>3490000</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -4598,11 +4598,11 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1529000</v>
+        <v>0</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/geely/Atlas/suv-2gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/geely/Atlas/suv-2gen</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4616,7 +4616,7 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>2239990</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -4657,11 +4657,11 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1618990</v>
+        <v>0</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/geely/atlas-pro/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/geely/atlas-pro/cuv</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4675,7 +4675,7 @@
         </is>
       </c>
       <c r="H92" t="n">
-        <v>2013990</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -4818,25 +4818,25 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1069990</v>
+        <v>0</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/geely/coolray-new/suv-5d</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1069990</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/geely/coolray/</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>1069990</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/geely/coolray/</t>
-        </is>
-      </c>
       <c r="H95" t="n">
-        <v>1114990</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1054990</v>
+        <v>0</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>1054990</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -5069,11 +5069,11 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2259990</v>
+        <v>0</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/geely/monjaro/monjaro</t>
+          <t>https://auto-centre-profsouz.ru/auto/geely/monjaro/monjaro</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5087,7 +5087,7 @@
         </is>
       </c>
       <c r="H100" t="n">
-        <v>3469990</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -5128,15 +5128,15 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>2410000</v>
+        <v>0</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/geely/okavango/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/geely/okavango/suv-1gen</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>2844990</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -5345,11 +5345,11 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1690000</v>
+        <v>0</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/haval/dargo/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/haval/dargo/cuv</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5363,7 +5363,7 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>2184000</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
@@ -5404,11 +5404,11 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1780000</v>
+        <v>0</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/haval/dargo-x/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/haval/dargo-x/cuv</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5422,7 +5422,7 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>2454000</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -5463,11 +5463,11 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1150000</v>
+        <v>0</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/haval/new-f-7/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/haval/new-f-7/cuv</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5481,7 +5481,7 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>1584000</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -5522,11 +5522,11 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1310000</v>
+        <v>0</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/haval/new-f-7-x/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/haval/new-f-7-x/cuv</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5540,7 +5540,7 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>1634000</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
@@ -5614,15 +5614,15 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1980000</v>
+        <v>0</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/haval/h3/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/haval/h3/suv-1gen</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>2099000</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
@@ -5790,11 +5790,11 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>589000</v>
+        <v>0</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/haval/jolion/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/haval/jolion/cuv</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -5808,7 +5808,7 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>1244000</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -5849,25 +5849,25 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1089000</v>
+        <v>0</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/haval/jolion/suv-1gen-rest</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1089000</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/haval/jolion/</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>1089000</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/haval/jolion/</t>
-        </is>
-      </c>
       <c r="H116" t="n">
-        <v>1134000</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -5908,25 +5908,25 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1319000</v>
+        <v>0</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/haval/m6/WAGON_7D</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1319000</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/haval/m6/</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>1319000</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/haval/m6/</t>
-        </is>
-      </c>
       <c r="H117" t="n">
-        <v>1364000</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
@@ -6099,11 +6099,11 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>699300</v>
+        <v>0</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/hyundai/creta-new/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/hyundai/creta-new/cuv</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6117,7 +6117,7 @@
         </is>
       </c>
       <c r="H122" t="n">
-        <v>1454000</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
@@ -6267,15 +6267,15 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>2219000</v>
+        <v>0</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/hyundai/santa-fe-new/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/hyundai/santa-fe-new/cuv</t>
         </is>
       </c>
       <c r="H126" t="n">
-        <v>3669000</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
@@ -6542,11 +6542,11 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1499000</v>
+        <v>0</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/hyundai/tucson-new/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/hyundai/tucson-new/cuv</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6560,7 +6560,7 @@
         </is>
       </c>
       <c r="H133" t="n">
-        <v>2344000</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
@@ -6652,15 +6652,15 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>957000</v>
+        <v>0</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/jac/js4/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/jac/js4/cuv</t>
         </is>
       </c>
       <c r="H135" t="n">
-        <v>1549000</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
@@ -6693,15 +6693,15 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1409000</v>
+        <v>0</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/jac/js6/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/jac/js6/cuv</t>
         </is>
       </c>
       <c r="H136" t="n">
-        <v>2329000</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
@@ -6834,11 +6834,11 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>989000</v>
+        <v>0</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/jac/s7/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/jac/s7/cuv</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="H139" t="n">
-        <v>1074000</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
@@ -7008,25 +7008,25 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2589900</v>
+        <v>0</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/jaecoo/j-7/suv-1gen</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2589900</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>2589900</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/jaecoo/j7/</t>
-        </is>
-      </c>
       <c r="H143" t="n">
-        <v>2739900</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
@@ -7100,25 +7100,25 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1739900</v>
+        <v>0</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/jetour/dashing/suv-1gen</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1739900</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/jetour/dashing/</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>1739900</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/jetour/dashing/</t>
-        </is>
-      </c>
       <c r="H145" t="n">
-        <v>1784900</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
@@ -7192,11 +7192,11 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1899900</v>
+        <v>0</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/jetour/jetour-x70-plus/jetour-x70</t>
+          <t>https://auto-centre-profsouz.ru/auto/jetour/jetour-x70-plus/suv-1gen</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="H147" t="n">
-        <v>2294900</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
@@ -7251,25 +7251,25 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>2649900</v>
+        <v>0</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/jetour/x90plus/suv-1gen</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2649900</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>2649900</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/jetour/x90_plus/</t>
-        </is>
-      </c>
       <c r="H148" t="n">
-        <v>2694900</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
@@ -7310,25 +7310,25 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>940000</v>
+        <v>0</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/jetta/va3/va3</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>940000</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/jetta/va3/</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>940000</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/jetta/va3/</t>
-        </is>
-      </c>
       <c r="H149" t="n">
-        <v>985000</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
@@ -7369,25 +7369,25 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1240000</v>
+        <v>0</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/jetta/vs5/vs5</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1240000</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/jetta/vs5/</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>1240000</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/jetta/vs5/</t>
-        </is>
-      </c>
       <c r="H150" t="n">
-        <v>1285000</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
@@ -7428,25 +7428,25 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1399000</v>
+        <v>0</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/jetta/vs7/vs7</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1399000</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/jetta/vs7/</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>1399000</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/jetta/vs7/</t>
-        </is>
-      </c>
       <c r="H151" t="n">
-        <v>1444000</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
@@ -7487,11 +7487,11 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1269000</v>
+        <v>0</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/kaiyi/e5/e5</t>
+          <t>https://auto-centre-profsouz.ru/auto/kaiyi/e5/e5</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -7505,7 +7505,7 @@
         </is>
       </c>
       <c r="H152" t="n">
-        <v>1540000</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
@@ -7546,25 +7546,25 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1481650</v>
+        <v>0</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/kaiyi/X3/SUV_5D</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1481650</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>1481650</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/kaiyi/x3/</t>
-        </is>
-      </c>
       <c r="H153" t="n">
-        <v>1526650</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
@@ -7605,25 +7605,25 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1764900</v>
+        <v>0</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/kaiyi/X3%20Pro/SUV_5D</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1764900</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>1764900</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/kaiyi/x3_pro/</t>
-        </is>
-      </c>
       <c r="H154" t="n">
-        <v>1809900</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
@@ -7664,11 +7664,11 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>2207900</v>
+        <v>0</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/kaiyi/x7-kunlun/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/kaiyi/x7-kunlun/suv-1gen</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -7682,7 +7682,7 @@
         </is>
       </c>
       <c r="H155" t="n">
-        <v>2392900</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
@@ -7807,15 +7807,15 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>860300</v>
+        <v>0</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/kia/ceed-new/hatch</t>
+          <t>https://auto-centre-profsouz.ru/auto/kia/ceed-new/hatch</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>1839900</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
@@ -7899,15 +7899,15 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>870300</v>
+        <v>0</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/kia/ceed-sw-new/hatch</t>
+          <t>https://auto-centre-profsouz.ru/auto/kia/ceed-sw-new/hatch</t>
         </is>
       </c>
       <c r="H160" t="n">
-        <v>1909900</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
@@ -7981,11 +7981,11 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>870300</v>
+        <v>0</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/kia/cerato-new/sed</t>
+          <t>https://auto-centre-profsouz.ru/auto/kia/cerato-new/sed</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -7999,7 +7999,7 @@
         </is>
       </c>
       <c r="H162" t="n">
-        <v>1649900</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
@@ -8124,11 +8124,11 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>550745</v>
+        <v>0</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/kia/picanto-new/hatch</t>
+          <t>https://auto-centre-profsouz.ru/auto/kia/picanto-new/hatch</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8142,7 +8142,7 @@
         </is>
       </c>
       <c r="H165" t="n">
-        <v>929900</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
@@ -8586,11 +8586,11 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>1949900</v>
+        <v>0</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/kia/sportage-5/suv</t>
+          <t>https://auto-centre-profsouz.ru/auto/kia/sportage-5/suv</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -8604,7 +8604,7 @@
         </is>
       </c>
       <c r="H175" t="n">
-        <v>2444900</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
@@ -9332,15 +9332,15 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>444300</v>
+        <v>0</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/largus/wa</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/largus/wagon</t>
         </is>
       </c>
       <c r="H193" t="n">
-        <v>930900</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
@@ -9381,7 +9381,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>1332900</v>
+        <v>0</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -9389,7 +9389,7 @@
         </is>
       </c>
       <c r="H194" t="n">
-        <v>1332900</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr">
         <is>
@@ -9414,15 +9414,15 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>558900</v>
+        <v>0</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/largus/wag%20rest1</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/largus/wag%20rest1</t>
         </is>
       </c>
       <c r="H195" t="n">
-        <v>1072900</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
@@ -9533,15 +9533,15 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>444300</v>
+        <v>0</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/largus/van%20rest</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/largus/van%20rest</t>
         </is>
       </c>
       <c r="H198" t="n">
-        <v>996900</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
@@ -9658,11 +9658,11 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>350300</v>
+        <v>0</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/niva-legend/suv</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/suv</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -9676,7 +9676,7 @@
         </is>
       </c>
       <c r="H201" t="n">
-        <v>524900</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>
@@ -9717,11 +9717,11 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>371300</v>
+        <v>0</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lada/niva-legend/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -9735,7 +9735,7 @@
         </is>
       </c>
       <c r="H202" t="n">
-        <v>613900</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>592900</v>
+        <v>0</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
         </is>
       </c>
       <c r="H204" t="n">
-        <v>592900</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>689900</v>
+        <v>0</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         </is>
       </c>
       <c r="H205" t="n">
-        <v>689900</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr">
         <is>
@@ -10920,25 +10920,25 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>1634930</v>
+        <v>0</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/livan/s6pro/sedan-1gen</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>1634930</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/livan/s6pro/</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>1634930</t>
-        </is>
-      </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/livan/s6pro/</t>
-        </is>
-      </c>
       <c r="H227" t="n">
-        <v>1679930</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr">
         <is>
@@ -10979,25 +10979,25 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>1129900</v>
+        <v>0</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/livan/x3pro/suv-1gen</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>1129900</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/livan/x3pro/</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>1129900</t>
-        </is>
-      </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/livan/x3pro/</t>
-        </is>
-      </c>
       <c r="H228" t="n">
-        <v>1174900</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr">
         <is>
@@ -11038,25 +11038,25 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>1690930</v>
+        <v>0</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/livan/x6pro/suv-1gen</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>1690930</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/livan/x6pro/</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>1690930</t>
-        </is>
-      </c>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/livan/x6pro/</t>
-        </is>
-      </c>
       <c r="H229" t="n">
-        <v>1735930</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>1630000</v>
+        <v>0</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -11105,7 +11105,7 @@
         </is>
       </c>
       <c r="H230" t="n">
-        <v>1630000</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>770000</v>
+        <v>0</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="H231" t="n">
-        <v>770000</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr">
         <is>
@@ -11179,15 +11179,15 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>2319000</v>
+        <v>0</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/mg/hs/suv_5d</t>
+          <t>https://auto-centre-profsouz.ru/auto/mg/hs/suv_5d-1gen</t>
         </is>
       </c>
       <c r="H232" t="n">
-        <v>2550000</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>
@@ -11220,7 +11220,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>1780000</v>
+        <v>0</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
         </is>
       </c>
       <c r="H233" t="n">
-        <v>1780000</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr">
         <is>
@@ -11558,25 +11558,25 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>1180000</v>
+        <v>0</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/moskvich/moskvich3/cuv</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>1180000</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/moskvich/3/</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>1180000</t>
-        </is>
-      </c>
-      <c r="G243" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/moskvich/3/</t>
-        </is>
-      </c>
       <c r="H243" t="n">
-        <v>1225000</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>1636000</v>
+        <v>0</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -11676,7 +11676,7 @@
         </is>
       </c>
       <c r="H245" t="n">
-        <v>1636000</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr">
         <is>
@@ -11836,15 +11836,15 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>1390000</v>
+        <v>0</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/nissan/qashqai-3-res/qashqai-3-res</t>
+          <t>https://auto-centre-profsouz.ru/auto/nissan/qashqai-3-res/qashqai-3-res</t>
         </is>
       </c>
       <c r="H249" t="n">
-        <v>1837000</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr">
         <is>
@@ -12053,11 +12053,11 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>1219900</v>
+        <v>0</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/omoda/c5/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/omoda/c5/cuv</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="H254" t="n">
-        <v>1974900</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr">
         <is>
@@ -12112,11 +12112,11 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>1469900</v>
+        <v>0</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/omoda/s5_/SEDAN</t>
+          <t>https://auto-centre-profsouz.ru/auto/omoda/s5-2023/SEDAN</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -12130,7 +12130,7 @@
         </is>
       </c>
       <c r="H255" t="n">
-        <v>1614900</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>2739900</v>
+        <v>0</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         </is>
       </c>
       <c r="H256" t="n">
-        <v>2739900</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr">
         <is>
@@ -12461,11 +12461,11 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>646000</v>
+        <v>0</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/renault/duster-new/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/renault/duster-new/cuv</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -12479,7 +12479,7 @@
         </is>
       </c>
       <c r="H264" t="n">
-        <v>1103000</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr">
         <is>
@@ -12907,15 +12907,15 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>1748220</v>
+        <v>0</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/swm/g01/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/swm/g01/suv-1gen</t>
         </is>
       </c>
       <c r="H274" t="n">
-        <v>1938220</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr">
         <is>
@@ -12948,15 +12948,15 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>1898340</v>
+        <v>0</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/swm/g01f/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/swm/g01f/suv-1gen</t>
         </is>
       </c>
       <c r="H275" t="n">
-        <v>2088340</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr">
         <is>
@@ -12989,15 +12989,15 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>1935960</v>
+        <v>0</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/swm/g05-pro/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/swm/g05-pro/suv-1gen</t>
         </is>
       </c>
       <c r="H276" t="n">
-        <v>2125960</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr">
         <is>
@@ -13089,25 +13089,25 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>1607000</v>
+        <v>0</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/skoda/new-kodiaq/cuv</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>1607000</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>1607000</t>
-        </is>
-      </c>
-      <c r="G278" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/skoda/kodiaq/</t>
-        </is>
-      </c>
       <c r="H278" t="n">
-        <v>1757000</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>2399900</v>
+        <v>0</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         </is>
       </c>
       <c r="H291" t="n">
-        <v>2399900</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr">
         <is>
@@ -13837,25 +13837,25 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>3389000</v>
+        <v>0</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/tank/300/SUV_5D</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>3389000</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/tank/300/</t>
         </is>
       </c>
-      <c r="F296" t="inlineStr">
-        <is>
-          <t>3389000</t>
-        </is>
-      </c>
-      <c r="G296" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/tank/300/</t>
-        </is>
-      </c>
       <c r="H296" t="n">
-        <v>3434000</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr">
         <is>
@@ -13896,15 +13896,15 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>4849000</v>
+        <v>0</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/tank/500/SUV_5D</t>
+          <t>https://auto-centre-profsouz.ru/auto/tank/500/SUV_5D</t>
         </is>
       </c>
       <c r="H297" t="n">
-        <v>4899000</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr">
         <is>
@@ -14647,11 +14647,11 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>1299000</v>
+        <v>0</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/volkswagen/taos/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/volkswagen/taos/cuv</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -14665,7 +14665,7 @@
         </is>
       </c>
       <c r="H316" t="n">
-        <v>2313900</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>1999000</v>
+        <v>0</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -14864,7 +14864,7 @@
         </is>
       </c>
       <c r="H321" t="n">
-        <v>1999000</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr">
         <is>

--- a/xlsx/surgut.xlsx
+++ b/xlsx/surgut.xlsx
@@ -514,7 +514,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3600000</t>
+          <t>3750000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -573,7 +573,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1295000</t>
+          <t>1445000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1450000</t>
+          <t>1600000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2105000</t>
+          <t>2255000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>1040000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1479900</t>
+          <t>1629900</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1329900</t>
+          <t>1479900</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1769900</t>
+          <t>1919900</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1609900</t>
+          <t>1759900</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2849900</t>
+          <t>2999900</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3389900</t>
+          <t>3539900</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1469900</t>
+          <t>1619900</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2679900</t>
+          <t>2829900</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2039900</t>
+          <t>2189900</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2779900</t>
+          <t>2929900</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2009900</t>
+          <t>2159900</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1999900</t>
+          <t>2149900</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2050000</t>
+          <t>2200000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>949900</t>
+          <t>1099900</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2080,7 +2080,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1370000</t>
+          <t>1520000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2130,16 +2130,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>479900</v>
+        <v>524900</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/chery/tiggo_7/</t>
+          <t>https://auto-centre-profsouz.ru/auto/chery/tiggo-7/2019</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>479900</t>
+          <t>629900</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1820000</t>
+          <t>1970000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2070000</t>
+          <t>2220000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2120000</v>
+        <v>2270000</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2120000</t>
+          <t>2270000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2220000</t>
+          <t>2370000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2680000</t>
+          <t>2830000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3101000</t>
+          <t>3251000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3410000</v>
+        <v>3560000</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3410000</t>
+          <t>3560000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>461900</v>
+        <v>611900</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>461900</t>
+          <t>611900</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>388900</v>
+        <v>538900</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>388900</t>
+          <t>538900</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2763,7 +2763,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>458900</v>
+        <v>608900</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>458900</t>
+          <t>608900</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1179000</v>
+        <v>1329000</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1179000</t>
+          <t>1329000</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2915,7 +2915,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>479000</v>
+        <v>629000</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>479000</t>
+          <t>629000</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2310000</t>
+          <t>2460000</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>3540000</t>
+          <t>3690000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>3510000</t>
+          <t>3660000</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>4550000</t>
+          <t>4700000</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3705,7 +3705,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1700000</t>
+          <t>1850000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1661000</t>
+          <t>1811000</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3823,7 +3823,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1420000</t>
+          <t>1570000</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3882,7 +3882,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2290000</t>
+          <t>2440000</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>852000</v>
+        <v>1002000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>852000</t>
+          <t>1002000</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -4090,7 +4090,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>758000</v>
+        <v>908000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>758000</t>
+          <t>908000</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -4364,7 +4364,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1499000</t>
+          <t>1649000</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2239000</t>
+          <t>2389000</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4539,16 +4539,16 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1088990</v>
+        <v>1133990</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/geely/atlas_1/</t>
+          <t>https://auto-centre-profsouz.ru/auto/geely/Atlas/cuv</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1088990</t>
+          <t>1238990</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2194990</t>
+          <t>2344990</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1968990</t>
+          <t>2118990</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4716,7 +4716,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1185990</v>
+        <v>1335990</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1185990</t>
+          <t>1335990</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1579990</t>
+          <t>1729990</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1069990</t>
+          <t>1219990</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4910,7 +4910,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1009990</v>
+        <v>1159990</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1009990</t>
+          <t>1159990</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -5010,16 +5010,16 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>569990</v>
+        <v>614990</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/geely/gs/</t>
+          <t>https://auto-centre-profsouz.ru/auto/geely/gs/cuv</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>569990</t>
+          <t>719990</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>3424990</t>
+          <t>3574990</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2799990</t>
+          <t>2949990</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>3524990</t>
+          <t>3674990</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -5354,7 +5354,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2139000</t>
+          <t>2289000</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -5413,7 +5413,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2409000</t>
+          <t>2559000</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -5472,7 +5472,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>1539000</t>
+          <t>1689000</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>1589000</t>
+          <t>1739000</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -5655,7 +5655,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>879000</v>
+        <v>1029000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>879000</t>
+          <t>1029000</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>3239000</t>
+          <t>3389000</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>1199000</t>
+          <t>1349000</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>1089000</t>
+          <t>1239000</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5917,7 +5917,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1319000</t>
+          <t>1469000</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -6108,7 +6108,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>1409000</t>
+          <t>1559000</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1699000</t>
+          <t>1849000</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -6308,7 +6308,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>958000</v>
+        <v>1108000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>958000</t>
+          <t>1108000</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>2319000</v>
+        <v>2469000</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2319000</t>
+          <t>2469000</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2299000</t>
+          <t>2449000</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -6602,7 +6602,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1379000</t>
+          <t>1529000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -6734,16 +6734,16 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>649000</v>
+        <v>694000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/jac/s3/</t>
+          <t>https://auto-centre-profsouz.ru/auto/jac/s3/cuv</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>649000</t>
+          <t>799000</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1029000</t>
+          <t>1179000</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -7017,7 +7017,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2589900</t>
+          <t>2739900</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -7109,7 +7109,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>1739900</t>
+          <t>1889900</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -7201,7 +7201,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2249900</t>
+          <t>2399900</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -7260,7 +7260,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2649900</t>
+          <t>2799900</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -7319,7 +7319,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>940000</t>
+          <t>1090000</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>1240000</t>
+          <t>1390000</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -7437,7 +7437,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>1399000</t>
+          <t>1549000</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -7496,7 +7496,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>1495000</t>
+          <t>1645000</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -7555,7 +7555,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>1481650</t>
+          <t>1631650</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -7614,7 +7614,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>1764900</t>
+          <t>1914900</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -7673,7 +7673,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2347900</t>
+          <t>2497900</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -7765,7 +7765,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>1794900</t>
+          <t>1944900</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -7857,7 +7857,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>1864900</t>
+          <t>2014900</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -7990,7 +7990,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>1604900</t>
+          <t>1754900</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2284900</t>
+          <t>2434900</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>884900</t>
+          <t>1034900</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -8175,7 +8175,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>817999</v>
+        <v>967999</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -8184,7 +8184,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>817999</t>
+          <t>967999</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -8260,7 +8260,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>984900</t>
+          <t>1134900</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>1124900</t>
+          <t>1274900</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -8370,7 +8370,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>1509900</t>
+          <t>1659900</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1379900</v>
+        <v>1529900</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>1379900</t>
+          <t>1529900</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -8595,7 +8595,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2399900</t>
+          <t>2549900</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -8678,16 +8678,16 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>919900</v>
+        <v>1004900</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/kia/xceed/</t>
+          <t>https://aspect-motors.ru/auto/kia/xceed/cuv</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>919900</t>
+          <t>1069900</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -10662,16 +10662,16 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>555300</v>
+        <v>650300</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/murman/</t>
+          <t>https://aspect-motors.ru/auto/lifan/murman/sedan</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>555300</t>
+          <t>705300</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -10705,16 +10705,16 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>606300</v>
+        <v>701300</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/myway/</t>
+          <t>https://aspect-motors.ru/auto/lifan/myway/wagon</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>606300</t>
+          <t>756300</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>306300</v>
+        <v>401300</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/solano_ii/</t>
+          <t>https://aspect-motors.ru/auto/lifan/solano-2/sedan</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>306300</t>
+          <t>456300</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -10800,7 +10800,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>425300</t>
+          <t>575300</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -10834,16 +10834,16 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>396300</v>
+        <v>491300</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/x60/</t>
+          <t>https://aspect-motors.ru/auto/lifan/x60/wagon</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>396300</t>
+          <t>546300</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -10877,16 +10877,16 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>675300</v>
+        <v>770300</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/x70/</t>
+          <t>https://aspect-motors.ru/auto/lifan/x70/cuv</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>675300</t>
+          <t>825300</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -10929,7 +10929,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>1634930</t>
+          <t>1784930</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -10988,7 +10988,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>1129900</t>
+          <t>1279900</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -11047,7 +11047,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>1690930</t>
+          <t>1840930</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -11567,7 +11567,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>1180000</t>
+          <t>1330000</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -11626,7 +11626,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>2908000</t>
+          <t>3058000</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>3959000</v>
+        <v>4109000</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>3959000</t>
+          <t>4109000</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -11785,16 +11785,16 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>1687000</v>
+        <v>1732000</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/nissan/qashqai/</t>
+          <t>https://auto-centre-profsouz.ru/auto/nissan/new-qashqai/2019</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>1687000</t>
+          <t>1837000</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -11877,7 +11877,7 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>1240000</v>
+        <v>1390000</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>1240000</t>
+          <t>1390000</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -11970,7 +11970,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>2202000</t>
+          <t>2352000</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -12062,7 +12062,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>1929900</t>
+          <t>2079900</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>1569900</t>
+          <t>1719900</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -12344,7 +12344,7 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1314000</v>
+        <v>1464000</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -12353,7 +12353,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>1314000</t>
+          <t>1464000</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -12470,7 +12470,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>1058000</t>
+          <t>1208000</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -12512,7 +12512,7 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1164000</v>
+        <v>1314000</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>1164000</t>
+          <t>1314000</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>674000</v>
+        <v>824000</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>674000</t>
+          <t>824000</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -12689,7 +12689,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>813000</t>
+          <t>963000</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -12739,7 +12739,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>564000</v>
+        <v>714000</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>564000</t>
+          <t>714000</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -12823,7 +12823,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>741000</v>
+        <v>891000</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>741000</t>
+          <t>891000</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -13039,7 +13039,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>1255000</t>
+          <t>1405000</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -13098,7 +13098,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>1607000</t>
+          <t>1757000</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>1207000</v>
+        <v>1357000</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>1207000</t>
+          <t>1357000</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -13257,7 +13257,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>601000</v>
+        <v>751000</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>601000</t>
+          <t>751000</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -13341,7 +13341,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>2936000</v>
+        <v>3086000</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -13350,7 +13350,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>2936000</t>
+          <t>3086000</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -13384,7 +13384,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>3367000</v>
+        <v>3517000</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -13393,7 +13393,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>3367000</t>
+          <t>3517000</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -13469,7 +13469,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>1599300</t>
+          <t>1749300</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -13520,7 +13520,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>1529000</t>
+          <t>1679000</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -13571,7 +13571,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>1425600</t>
+          <t>1575600</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -13622,7 +13622,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>1564000</t>
+          <t>1714000</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -13846,7 +13846,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>3389000</t>
+          <t>3539000</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -14111,7 +14111,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>830000</t>
+          <t>980000</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -14161,7 +14161,7 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>990000</v>
+        <v>1140000</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>990000</t>
+          <t>1140000</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -14245,7 +14245,7 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>1015000</v>
+        <v>1165000</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -14254,7 +14254,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>1015000</t>
+          <t>1165000</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -14395,7 +14395,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>958000</v>
+        <v>1108000</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>958000</t>
+          <t>1108000</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
@@ -14479,7 +14479,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>2173000</v>
+        <v>2323000</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>2173000</t>
+          <t>2323000</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>562400</v>
+        <v>712400</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>562400</t>
+          <t>712400</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -14656,7 +14656,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>2268900</t>
+          <t>2418900</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
@@ -14781,7 +14781,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>1574900</t>
+          <t>1724900</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
@@ -14889,7 +14889,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>929600</v>
+        <v>1079600</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>929600</t>
+          <t>1079600</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -14940,7 +14940,7 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>711600</v>
+        <v>861600</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>711600</t>
+          <t>861600</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">

--- a/xlsx/surgut.xlsx
+++ b/xlsx/surgut.xlsx
@@ -514,7 +514,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3750000</t>
+          <t>3600000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -573,7 +573,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1445000</t>
+          <t>1295000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1600000</t>
+          <t>1450000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2255000</t>
+          <t>2105000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1040000</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1629900</t>
+          <t>1479900</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1479900</t>
+          <t>1329900</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1919900</t>
+          <t>1769900</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1759900</t>
+          <t>1609900</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2999900</t>
+          <t>2849900</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3539900</t>
+          <t>3389900</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1619900</t>
+          <t>1469900</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2829900</t>
+          <t>2679900</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2189900</t>
+          <t>2039900</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2929900</t>
+          <t>2779900</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2159900</t>
+          <t>2009900</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2149900</t>
+          <t>1999900</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2200000</t>
+          <t>2050000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1099900</t>
+          <t>949900</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2080,7 +2080,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1520000</t>
+          <t>1370000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2130,16 +2130,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>524900</v>
+        <v>479900</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/chery/tiggo-7/2019</t>
+          <t>https://autosurgut186.ru/auto/chery/tiggo_7/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>629900</t>
+          <t>479900</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1970000</t>
+          <t>1820000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2220000</t>
+          <t>2070000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2270000</v>
+        <v>2120000</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2270000</t>
+          <t>2120000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2370000</t>
+          <t>2220000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2830000</t>
+          <t>2680000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3251000</t>
+          <t>3101000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3560000</v>
+        <v>3410000</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3560000</t>
+          <t>3410000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>611900</v>
+        <v>461900</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>611900</t>
+          <t>461900</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>538900</v>
+        <v>388900</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>538900</t>
+          <t>388900</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2763,7 +2763,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>608900</v>
+        <v>458900</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>608900</t>
+          <t>458900</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1329000</v>
+        <v>1179000</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1329000</t>
+          <t>1179000</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2915,7 +2915,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>629000</v>
+        <v>479000</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>629000</t>
+          <t>479000</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2460000</t>
+          <t>2310000</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>3690000</t>
+          <t>3540000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>3660000</t>
+          <t>3510000</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>4700000</t>
+          <t>4550000</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3705,7 +3705,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1850000</t>
+          <t>1700000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1811000</t>
+          <t>1661000</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3823,7 +3823,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1570000</t>
+          <t>1420000</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3882,7 +3882,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2440000</t>
+          <t>2290000</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1002000</v>
+        <v>852000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1002000</t>
+          <t>852000</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -4090,7 +4090,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>908000</v>
+        <v>758000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>908000</t>
+          <t>758000</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -4364,20 +4364,12 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1649000</t>
+          <t>1499000</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
           <t>https://autosurgut186.ru/auto/gac/gs5/</t>
-        </is>
-      </c>
-      <c r="H86" t="n">
-        <v>1649000</v>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/gac/gs-5/cuv</t>
         </is>
       </c>
       <c r="J86" t="n">
@@ -4423,7 +4415,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2389000</t>
+          <t>2239000</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4539,16 +4531,16 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1133990</v>
+        <v>1088990</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/geely/Atlas/cuv</t>
+          <t>https://autosurgut186.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1238990</t>
+          <t>1088990</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4607,7 +4599,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2344990</t>
+          <t>2194990</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4666,7 +4658,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2118990</t>
+          <t>1968990</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4716,7 +4708,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1335990</v>
+        <v>1185990</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4725,7 +4717,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1335990</t>
+          <t>1185990</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4768,7 +4760,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1729990</t>
+          <t>1579990</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4827,7 +4819,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1219990</t>
+          <t>1069990</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4910,7 +4902,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1159990</v>
+        <v>1009990</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4919,7 +4911,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1159990</t>
+          <t>1009990</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -5010,16 +5002,16 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>614990</v>
+        <v>569990</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/geely/gs/cuv</t>
+          <t>https://autosurgut186.ru/auto/geely/gs/</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>719990</t>
+          <t>569990</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -5078,7 +5070,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>3574990</t>
+          <t>3424990</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -5186,7 +5178,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2949990</t>
+          <t>2799990</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -5303,7 +5295,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>3674990</t>
+          <t>3524990</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -5354,7 +5346,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2289000</t>
+          <t>2139000</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -5413,7 +5405,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2559000</t>
+          <t>2409000</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -5472,7 +5464,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>1689000</t>
+          <t>1539000</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -5531,7 +5523,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>1739000</t>
+          <t>1589000</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -5655,7 +5647,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1029000</v>
+        <v>879000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -5664,7 +5656,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>1029000</t>
+          <t>879000</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5740,7 +5732,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>3389000</t>
+          <t>3239000</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5799,7 +5791,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>1199000</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5858,7 +5850,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>1239000</t>
+          <t>1089000</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -5917,7 +5909,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1469000</t>
+          <t>1319000</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -6108,7 +6100,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>1559000</t>
+          <t>1409000</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -6192,7 +6184,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1849000</t>
+          <t>1699000</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -6308,7 +6300,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1108000</v>
+        <v>958000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -6317,7 +6309,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>1108000</t>
+          <t>958000</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -6392,7 +6384,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>2469000</v>
+        <v>2319000</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -6401,7 +6393,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2469000</t>
+          <t>2319000</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -6551,7 +6543,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2449000</t>
+          <t>2299000</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -6602,7 +6594,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1529000</t>
+          <t>1379000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -6734,16 +6726,16 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>694000</v>
+        <v>649000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jac/s3/cuv</t>
+          <t>https://autosurgut186.ru/auto/jac/s3/</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>799000</t>
+          <t>649000</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -6843,7 +6835,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1179000</t>
+          <t>1029000</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -7017,7 +7009,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2739900</t>
+          <t>2589900</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -7109,7 +7101,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>1889900</t>
+          <t>1739900</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -7201,7 +7193,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2399900</t>
+          <t>2249900</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -7260,7 +7252,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2799900</t>
+          <t>2649900</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -7319,7 +7311,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>1090000</t>
+          <t>940000</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -7378,7 +7370,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>1240000</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -7437,7 +7429,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>1549000</t>
+          <t>1399000</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -7496,7 +7488,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>1645000</t>
+          <t>1495000</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -7555,7 +7547,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>1631650</t>
+          <t>1481650</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -7614,7 +7606,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>1914900</t>
+          <t>1764900</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -7673,7 +7665,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2497900</t>
+          <t>2347900</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -7765,7 +7757,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>1944900</t>
+          <t>1794900</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -7857,7 +7849,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2014900</t>
+          <t>1864900</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -7990,7 +7982,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>1754900</t>
+          <t>1604900</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -8041,7 +8033,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2434900</t>
+          <t>2284900</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -8133,7 +8125,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>1034900</t>
+          <t>884900</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -8175,7 +8167,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>967999</v>
+        <v>817999</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -8184,7 +8176,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>967999</t>
+          <t>817999</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -8260,7 +8252,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>1134900</t>
+          <t>984900</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -8311,7 +8303,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>1274900</t>
+          <t>1124900</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -8370,7 +8362,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>1659900</t>
+          <t>1509900</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -8469,7 +8461,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1529900</v>
+        <v>1379900</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -8478,7 +8470,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>1529900</t>
+          <t>1379900</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -8595,7 +8587,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2549900</t>
+          <t>2399900</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -8678,16 +8670,16 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1004900</v>
+        <v>919900</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/kia/xceed/cuv</t>
+          <t>https://autosurgut186.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>1069900</t>
+          <t>919900</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -10662,16 +10654,16 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>650300</v>
+        <v>555300</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/murman/sedan</t>
+          <t>https://autosurgut186.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>705300</t>
+          <t>555300</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -10705,16 +10697,16 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>701300</v>
+        <v>606300</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/myway/wagon</t>
+          <t>https://autosurgut186.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>756300</t>
+          <t>606300</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -10748,16 +10740,16 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>401300</v>
+        <v>306300</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/solano-2/sedan</t>
+          <t>https://autosurgut186.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>456300</t>
+          <t>306300</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -10800,7 +10792,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>575300</t>
+          <t>425300</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -10834,16 +10826,16 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>491300</v>
+        <v>396300</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/x60/wagon</t>
+          <t>https://autosurgut186.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>546300</t>
+          <t>396300</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -10877,16 +10869,16 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>770300</v>
+        <v>675300</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://aspect-motors.ru/auto/lifan/x70/cuv</t>
+          <t>https://autosurgut186.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>825300</t>
+          <t>675300</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -10929,7 +10921,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>1784930</t>
+          <t>1634930</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -10988,7 +10980,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>1279900</t>
+          <t>1129900</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -11047,7 +11039,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>1840930</t>
+          <t>1690930</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -11567,7 +11559,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>1330000</t>
+          <t>1180000</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -11626,7 +11618,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>3058000</t>
+          <t>2908000</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -11709,7 +11701,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>4109000</v>
+        <v>3959000</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -11718,7 +11710,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>4109000</t>
+          <t>3959000</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -11785,16 +11777,16 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>1732000</v>
+        <v>1687000</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/nissan/new-qashqai/2019</t>
+          <t>https://autosurgut186.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>1837000</t>
+          <t>1687000</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -11877,7 +11869,7 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>1390000</v>
+        <v>1240000</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -11886,7 +11878,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>1240000</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -11970,7 +11962,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>2352000</t>
+          <t>2202000</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -12062,7 +12054,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>2079900</t>
+          <t>1929900</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -12121,7 +12113,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>1719900</t>
+          <t>1569900</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -12344,7 +12336,7 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1464000</v>
+        <v>1314000</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -12353,7 +12345,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>1464000</t>
+          <t>1314000</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -12470,7 +12462,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>1208000</t>
+          <t>1058000</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -12512,7 +12504,7 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1314000</v>
+        <v>1164000</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -12521,7 +12513,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>1314000</t>
+          <t>1164000</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -12596,7 +12588,7 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>824000</v>
+        <v>674000</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -12605,7 +12597,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>824000</t>
+          <t>674000</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -12689,7 +12681,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>963000</t>
+          <t>813000</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -12739,7 +12731,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>714000</v>
+        <v>564000</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -12748,7 +12740,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>714000</t>
+          <t>564000</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -12823,7 +12815,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>891000</v>
+        <v>741000</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -12832,7 +12824,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>891000</t>
+          <t>741000</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -13039,7 +13031,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>1405000</t>
+          <t>1255000</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -13098,7 +13090,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>1757000</t>
+          <t>1607000</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -13222,7 +13214,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>1357000</v>
+        <v>1207000</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -13231,7 +13223,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>1357000</t>
+          <t>1207000</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -13257,7 +13249,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>751000</v>
+        <v>601000</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -13266,7 +13258,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>751000</t>
+          <t>601000</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -13341,7 +13333,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3086000</v>
+        <v>2936000</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -13350,7 +13342,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>3086000</t>
+          <t>2936000</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -13384,7 +13376,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>3517000</v>
+        <v>3367000</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -13393,7 +13385,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>3517000</t>
+          <t>3367000</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -13469,7 +13461,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>1749300</t>
+          <t>1599300</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -13520,7 +13512,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>1679000</t>
+          <t>1529000</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -13571,7 +13563,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>1575600</t>
+          <t>1425600</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -13622,7 +13614,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>1714000</t>
+          <t>1564000</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -13846,7 +13838,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>3539000</t>
+          <t>3389000</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -14111,7 +14103,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>980000</t>
+          <t>830000</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -14161,7 +14153,7 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>1140000</v>
+        <v>990000</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -14170,7 +14162,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>1140000</t>
+          <t>990000</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -14245,7 +14237,7 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>1165000</v>
+        <v>1015000</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -14254,7 +14246,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>1165000</t>
+          <t>1015000</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -14395,7 +14387,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>1108000</v>
+        <v>958000</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -14404,7 +14396,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>1108000</t>
+          <t>958000</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
@@ -14479,7 +14471,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>2323000</v>
+        <v>2173000</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -14488,7 +14480,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>2323000</t>
+          <t>2173000</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
@@ -14563,7 +14555,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>712400</v>
+        <v>562400</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -14572,7 +14564,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>712400</t>
+          <t>562400</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -14656,7 +14648,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>2418900</t>
+          <t>2268900</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
@@ -14781,7 +14773,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>1724900</t>
+          <t>1574900</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
@@ -14889,7 +14881,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>1079600</v>
+        <v>929600</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -14898,7 +14890,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>1079600</t>
+          <t>929600</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -14940,7 +14932,7 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>861600</v>
+        <v>711600</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -14949,7 +14941,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>861600</t>
+          <t>711600</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">

--- a/xlsx/surgut.xlsx
+++ b/xlsx/surgut.xlsx
@@ -7159,11 +7159,21 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>3759000</v>
+        <v>3109000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/jetour/t2/</t>
+          <t>https://autosurgut186.ru/auto/jetour/t2/</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3109000</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/jetour/t2/</t>
         </is>
       </c>
       <c r="L146" t="n">

--- a/xlsx/surgut.xlsx
+++ b/xlsx/surgut.xlsx
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1645000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1645000</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -558,11 +558,11 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1295000</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/baic/sedan/sedan-1gen</t>
+          <t>https://autosurgut186.ru/auto/baic/u5_plus/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1340000</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -611,11 +611,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1450000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/baic/cuv/suv-1gen</t>
+          <t>https://autosurgut186.ru/auto/baic/x35/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1495000</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -664,11 +664,11 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2105000</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/baic/x55/suv-1gen</t>
+          <t>https://autosurgut186.ru/auto/baic/x55/</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2150000</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2400000</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2400000</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1335990</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1335990</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -783,11 +783,11 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>890000</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/alsvin/sed</t>
+          <t>https://autosurgut186.ru/auto/changan/alsvin/</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>935000</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -869,11 +869,11 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1479900</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/cs35plusnew/cuv</t>
+          <t>https://autosurgut186.ru/auto/changan/cs35_plus/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1524900</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -975,11 +975,11 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1769900</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/cs55plus/cuv</t>
+          <t>https://autosurgut186.ru/auto/changan/cs55_plus/</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1814900</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1116,11 +1116,11 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>2849900</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/cs85coupe/cuv</t>
+          <t>https://autosurgut186.ru/auto/changan/cs85_coupe/</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2894900</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1169,11 +1169,11 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>3389900</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/cs95/suv</t>
+          <t>https://autosurgut186.ru/auto/changan/cs95/</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1187,7 +1187,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>3434900</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1222,11 +1222,11 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1469900</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/eado-plus/SEDAN</t>
+          <t>https://autosurgut186.ru/auto/changan/eado_plus/</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1514900</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1275,11 +1275,11 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>2679900</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/hunter-plus/plus</t>
+          <t>https://autosurgut186.ru/auto/changan/hunter_plus/</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2724900</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1328,11 +1328,11 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2039900</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/lamore/sedan</t>
+          <t>https://autosurgut186.ru/auto/changan/lamore/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2084900</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1381,11 +1381,11 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>2779900</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/uni-k/suv</t>
+          <t>https://autosurgut186.ru/auto/changan/uni-k/</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1399,7 +1399,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2824900</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1434,11 +1434,11 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>2009900</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/UNI-T/SUV_5D</t>
+          <t>https://autosurgut186.ru/auto/changan/uni-t/</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2054900</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1487,11 +1487,11 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1999900</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/uni-v/liftback</t>
+          <t>https://autosurgut186.ru/auto/changan/uni-v/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2044900</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1540,11 +1540,11 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>2050000</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/chery/arrizo-8/sedan</t>
+          <t>https://autosurgut186.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2095000</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1646,11 +1646,11 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1370000</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/chery/tiggo-4-pro/cuv</t>
+          <t>https://autosurgut186.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1415000</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1805,11 +1805,11 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>2070000</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/chery/tiggo-7-pro-max/cuv</t>
+          <t>https://autosurgut186.ru/auto/chery/tiggo_7_pro_max_1/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1823,7 +1823,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2115000</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1956,11 +1956,11 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>2680000</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/chery/tiggo-8-pro/cuv</t>
+          <t>https://autosurgut186.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1974,7 +1974,7 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2725000</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -2009,11 +2009,11 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>3101000</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/chery/tiggo-8-pro-max/tiggo-8-pro-max</t>
+          <t>https://autosurgut186.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2027,7 +2027,7 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>3146000</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -2468,11 +2468,11 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>2310000</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/exeed/lx/suv</t>
+          <t>https://autosurgut186.ru/auto/exeed/lx/</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2486,7 +2486,7 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2355000</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>3240000</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>3240000</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2554,11 +2554,11 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>3540000</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/exeed/rx/SUV_5D</t>
+          <t>https://autosurgut186.ru/auto/exeed/rx/</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>3585000</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>3399900</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/exeed/txl/cuv</t>
+          <t>https://sibir-morots.ru/auto/exeed/txl/</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2625,7 +2625,7 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>3399900</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>3555000</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>3555000</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2703,11 +2703,11 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>4550000</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/exeed/vx/cuv</t>
+          <t>https://autosurgut186.ru/auto/exeed/vx/</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>4595000</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>5090000</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>5090000</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2822,11 +2822,11 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>1700000</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/faw/bestune-b70/LIFTBACK</t>
+          <t>https://autosurgut186.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2840,7 +2840,7 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1745000</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -2875,11 +2875,11 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>1661000</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/faw/bestune-t55/SUV_5D</t>
+          <t>https://autosurgut186.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2893,7 +2893,7 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1706000</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -2928,11 +2928,11 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1420000</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/faw/bestune-t77/cuv</t>
+          <t>https://autosurgut186.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1465000</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -2981,11 +2981,11 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>2290000</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/faw/bestune-t99/SUV_5D</t>
+          <t>https://autosurgut186.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2999,7 +2999,7 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2335000</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>2480000</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2480000</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>3490000</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>3490000</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -3493,11 +3493,11 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>2194990</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/geely/Atlas/suv-2gen</t>
+          <t>https://autosurgut186.ru/auto/geely/atlas/</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3511,7 +3511,7 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2239990</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -3546,11 +3546,11 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1968990</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/geely/atlas-pro/cuv</t>
+          <t>https://autosurgut186.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2013990</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -3697,11 +3697,11 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1069990</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/geely/coolray-new/suv-5d</t>
+          <t>https://autosurgut186.ru/auto/geely/coolray/</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3715,7 +3715,7 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1114990</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>1054990</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1054990</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -3924,11 +3924,11 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>3424990</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/geely/monjaro/monjaro</t>
+          <t>https://autosurgut186.ru/auto/geely/monjaro/</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>3469990</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>2844990</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2844990</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -4143,11 +4143,11 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>2139000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/haval/dargo/cuv</t>
+          <t>https://autosurgut186.ru/auto/haval/dargo/</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4161,7 +4161,7 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2184000</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -4196,11 +4196,11 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>2409000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/haval/dargo-x/cuv</t>
+          <t>https://autosurgut186.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4214,7 +4214,7 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2454000</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -4249,11 +4249,11 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1539000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/haval/new-f-7/cuv</t>
+          <t>https://autosurgut186.ru/auto/haval/f7/</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1584000</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -4302,11 +4302,11 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>1589000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/haval/new-f-7-x/cuv</t>
+          <t>https://autosurgut186.ru/auto/haval/f7x/</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4320,7 +4320,7 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1634000</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>2099000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2099000</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -4566,11 +4566,11 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>1199000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/haval/jolion/cuv</t>
+          <t>https://autosurgut186.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4584,7 +4584,7 @@
         </is>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1244000</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -4619,11 +4619,11 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>1089000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/haval/jolion/suv-1gen-rest</t>
+          <t>https://autosurgut186.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4637,7 +4637,7 @@
         </is>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1134000</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -4672,11 +4672,11 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1319000</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/haval/m6/WAGON_7D</t>
+          <t>https://autosurgut186.ru/auto/haval/m6/</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1364000</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -4760,11 +4760,11 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>1409000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/hyundai/creta-new/cuv</t>
+          <t>https://autosurgut186.ru/auto/hyundai/creta/</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1454000</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>3669000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>3669000</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -5105,11 +5105,11 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>2299000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/hyundai/tucson-new/cuv</t>
+          <t>https://autosurgut186.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5123,7 +5123,7 @@
         </is>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2344000</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>1549000</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         </is>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1549000</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>2329000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         </is>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2329000</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -5363,11 +5363,11 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>1029000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jac/s7/cuv</t>
+          <t>https://autosurgut186.ru/auto/jac/s7/</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5381,7 +5381,7 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1074000</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -5459,11 +5459,11 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>2589900</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jaecoo/j-7/suv-1gen</t>
+          <t>https://autosurgut186.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5477,7 +5477,7 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2739900</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
@@ -5557,11 +5557,11 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>1739900</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetour/dashing/suv-1gen</t>
+          <t>https://autosurgut186.ru/auto/jetour/dashing/</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5575,7 +5575,7 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1784900</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
@@ -5655,11 +5655,11 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>2249900</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetour/jetour-x70-plus/suv-1gen</t>
+          <t>https://autosurgut186.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -5673,7 +5673,7 @@
         </is>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2294900</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -5708,11 +5708,11 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>2649900</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetour/x90plus/suv-1gen</t>
+          <t>https://autosurgut186.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2694900</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -5761,11 +5761,11 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>940000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetta/va3/va3</t>
+          <t>https://autosurgut186.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>985000</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -5814,11 +5814,11 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>1240000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetta/vs5/vs5</t>
+          <t>https://autosurgut186.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1285000</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
@@ -5867,11 +5867,11 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>1399000</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetta/vs7/vs7</t>
+          <t>https://autosurgut186.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -5885,7 +5885,7 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1444000</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
@@ -5920,11 +5920,11 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>1495000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kaiyi/e5/e5</t>
+          <t>https://autosurgut186.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -5938,7 +5938,7 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1540000</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
@@ -5973,11 +5973,11 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>1481650</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kaiyi/X3/SUV_5D</t>
+          <t>https://autosurgut186.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -5991,7 +5991,7 @@
         </is>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1526650</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
@@ -6026,11 +6026,11 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>1764900</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kaiyi/X3%20Pro/SUV_5D</t>
+          <t>https://autosurgut186.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1809900</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
@@ -6079,11 +6079,11 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>2347900</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kaiyi/x7-kunlun/suv-1gen</t>
+          <t>https://autosurgut186.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6097,7 +6097,7 @@
         </is>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2392900</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>1839900</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         </is>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1839900</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>1909900</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         </is>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1909900</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
@@ -6347,11 +6347,11 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>1604900</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kia/cerato-new/sed</t>
+          <t>https://autosurgut186.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6365,7 +6365,7 @@
         </is>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1649900</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
@@ -6478,11 +6478,11 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>884900</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kia/picanto-new/hatch</t>
+          <t>https://autosurgut186.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>929900</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
@@ -6902,11 +6902,11 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>2399900</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kia/sportage-5/suv</t>
+          <t>https://autosurgut186.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -6920,7 +6920,7 @@
         </is>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2444900</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
@@ -7433,15 +7433,15 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>930900</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/largus/wagon</t>
+          <t>https://sibir-morots.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>930900</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>1332900</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         </is>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1332900</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
@@ -7509,15 +7509,15 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>1072900</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/largus/wag%20rest1</t>
+          <t>https://sibir-morots.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1072900</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
@@ -7622,15 +7622,15 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>996900</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/largus/van%20rest</t>
+          <t>https://sibir-morots.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>996900</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
@@ -7743,11 +7743,11 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>524900</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/suv</t>
+          <t>https://sibir-morots.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -7761,7 +7761,7 @@
         </is>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>524900</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
@@ -7796,11 +7796,11 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>613900</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv</t>
+          <t>https://sibir-morots.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -7814,7 +7814,7 @@
         </is>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>613900</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>592900</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         </is>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>592900</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>689900</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         </is>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>689900</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
@@ -8835,11 +8835,11 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>1634930</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/livan/s6pro/sedan-1gen</t>
+          <t>https://autosurgut186.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -8853,7 +8853,7 @@
         </is>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>1679930</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
@@ -8888,11 +8888,11 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>1129900</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/livan/x3pro/suv-1gen</t>
+          <t>https://autosurgut186.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -8906,7 +8906,7 @@
         </is>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>1174900</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
@@ -8941,11 +8941,11 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>1690930</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/livan/x6pro/suv-1gen</t>
+          <t>https://autosurgut186.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -8959,7 +8959,7 @@
         </is>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>1735930</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>0</v>
+        <v>1630000</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         </is>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>1630000</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>770000</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         </is>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>770000</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
+        <v>2550000</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         </is>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2550000</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>1780000</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         </is>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>1780000</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
@@ -9126,11 +9126,11 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>0</v>
+        <v>1180000</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/moskvich/moskvich3/cuv</t>
+          <t>https://autosurgut186.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -9144,7 +9144,7 @@
         </is>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>1225000</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
@@ -9224,7 +9224,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>1636000</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -9232,11 +9232,21 @@
         </is>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>1636000</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
           <t>https://auto-centre-profsouz.ru/auto/moskvich/moskvich6/liftback-1gen</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>1700000</t>
+        </is>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/moskvich/6/</t>
         </is>
       </c>
     </row>
@@ -9355,7 +9365,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>1837000</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -9363,7 +9373,7 @@
         </is>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>1837000</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
@@ -9544,11 +9554,11 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0</v>
+        <v>1929900</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/omoda/c5/cuv</t>
+          <t>https://autosurgut186.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -9562,7 +9572,7 @@
         </is>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>1974900</v>
       </c>
       <c r="I203" t="inlineStr">
         <is>
@@ -9597,11 +9607,11 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>0</v>
+        <v>1569900</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/omoda/s5-2023/SEDAN</t>
+          <t>https://autosurgut186.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -9615,7 +9625,7 @@
         </is>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>1614900</v>
       </c>
       <c r="I204" t="inlineStr">
         <is>
@@ -9650,7 +9660,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>0</v>
+        <v>2739900</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -9658,7 +9668,7 @@
         </is>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2739900</v>
       </c>
       <c r="I205" t="inlineStr">
         <is>
@@ -9796,11 +9806,11 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>0</v>
+        <v>1058000</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/renault/duster-new/cuv</t>
+          <t>https://autosurgut186.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -9814,7 +9824,7 @@
         </is>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>1103000</v>
       </c>
       <c r="I209" t="inlineStr">
         <is>
@@ -10204,7 +10214,7 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>1938220</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -10212,7 +10222,7 @@
         </is>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>1938220</v>
       </c>
       <c r="I219" t="inlineStr">
         <is>
@@ -10237,7 +10247,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>0</v>
+        <v>2088340</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -10245,7 +10255,7 @@
         </is>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2088340</v>
       </c>
       <c r="I220" t="inlineStr">
         <is>
@@ -10270,7 +10280,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>0</v>
+        <v>2125960</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -10278,7 +10288,7 @@
         </is>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2125960</v>
       </c>
       <c r="I221" t="inlineStr">
         <is>
@@ -10356,11 +10366,11 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>0</v>
+        <v>1607000</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/skoda/new-kodiaq/cuv</t>
+          <t>https://autosurgut186.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -10374,7 +10384,7 @@
         </is>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>1757000</v>
       </c>
       <c r="I223" t="inlineStr">
         <is>
@@ -10860,7 +10870,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>0</v>
+        <v>2399900</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -10868,7 +10878,7 @@
         </is>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2399900</v>
       </c>
       <c r="I235" t="inlineStr">
         <is>
@@ -10893,11 +10903,11 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>0</v>
+        <v>3389000</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/tank/300/SUV_5D</t>
+          <t>https://autosurgut186.ru/auto/tank/300/</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -10911,7 +10921,7 @@
         </is>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>3434000</v>
       </c>
       <c r="I236" t="inlineStr">
         <is>
@@ -10946,7 +10956,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>0</v>
+        <v>4899000</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -10954,7 +10964,7 @@
         </is>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>4899000</v>
       </c>
       <c r="I237" t="inlineStr">
         <is>
@@ -11422,11 +11432,11 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>0</v>
+        <v>2268900</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/volkswagen/taos/cuv</t>
+          <t>https://autosurgut186.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -11440,7 +11450,7 @@
         </is>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2313900</v>
       </c>
       <c r="I249" t="inlineStr">
         <is>
@@ -11553,7 +11563,7 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>1999000</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -11561,7 +11571,7 @@
         </is>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>1999000</v>
       </c>
       <c r="I252" t="inlineStr">
         <is>

--- a/xlsx/surgut.xlsx
+++ b/xlsx/surgut.xlsx
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1645000</v>
+        <v>1545000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1645000</v>
+        <v>1545000</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -558,25 +558,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1295000</v>
+        <v>1240000</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/baic/sedan/sedan-1gen</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1295000</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/baic/u5_plus/</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1295000</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/baic/u5_plus/</t>
-        </is>
-      </c>
       <c r="H3" t="n">
-        <v>1340000</v>
+        <v>1240000</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -611,25 +611,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1450000</v>
+        <v>1395000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/baic/cuv/suv-1gen</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1450000</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/baic/x35/</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1450000</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/baic/x35/</t>
-        </is>
-      </c>
       <c r="H4" t="n">
-        <v>1495000</v>
+        <v>1395000</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -664,25 +664,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2105000</v>
+        <v>2050000</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/baic/x55/suv-1gen</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2105000</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/baic/x55/</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2105000</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/baic/x55/</t>
-        </is>
-      </c>
       <c r="H5" t="n">
-        <v>2150000</v>
+        <v>2050000</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2400000</v>
+        <v>2300000</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2400000</v>
+        <v>2300000</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1335990</v>
+        <v>1235990</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1335990</v>
+        <v>1235990</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -783,25 +783,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>890000</v>
+        <v>835000</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/changan/alsvin/sed</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>890000</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/changan/alsvin/</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>890000</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/changan/alsvin/</t>
-        </is>
-      </c>
       <c r="H8" t="n">
-        <v>935000</v>
+        <v>835000</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1389900</v>
+        <v>1289900</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1389900</v>
+        <v>1289900</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -869,25 +869,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1479900</v>
+        <v>1424900</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/changan/cs35plusnew/cuv</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1479900</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/changan/cs35_plus/</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1479900</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/changan/cs35_plus/</t>
-        </is>
-      </c>
       <c r="H10" t="n">
-        <v>1524900</v>
+        <v>1424900</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -922,25 +922,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1329900</v>
+        <v>1274900</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/changan/cs55/cuv</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1329900</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/changan/cs55/</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1329900</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/changan/cs55/</t>
-        </is>
-      </c>
       <c r="H11" t="n">
-        <v>1374900</v>
+        <v>1274900</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -975,25 +975,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1769900</v>
+        <v>1714900</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/changan/cs55plus/cuv</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1769900</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/changan/cs55_plus/</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1769900</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/changan/cs55_plus/</t>
-        </is>
-      </c>
       <c r="H12" t="n">
-        <v>1814900</v>
+        <v>1714900</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1063,25 +1063,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1609900</v>
+        <v>1554900</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/changan/cs75fl/cuv</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1609900</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/changan/cs75fl/</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1609900</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/changan/cs75fl/</t>
-        </is>
-      </c>
       <c r="H14" t="n">
-        <v>1654900</v>
+        <v>1554900</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2849900</v>
+        <v>2794900</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/changan/cs85coupe/cuv</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2849900</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/changan/cs85_coupe/</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2849900</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/changan/cs85_coupe/</t>
-        </is>
-      </c>
       <c r="H15" t="n">
-        <v>2894900</v>
+        <v>2794900</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1169,25 +1169,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3389900</v>
+        <v>3334900</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/changan/cs95/suv</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3389900</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/changan/cs95/</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3389900</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/changan/cs95/</t>
-        </is>
-      </c>
       <c r="H16" t="n">
-        <v>3434900</v>
+        <v>3334900</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1222,25 +1222,25 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1469900</v>
+        <v>1414900</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/changan/eado-plus/SEDAN</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1469900</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/changan/eado_plus/</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1469900</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/changan/eado_plus/</t>
-        </is>
-      </c>
       <c r="H17" t="n">
-        <v>1514900</v>
+        <v>1414900</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1275,25 +1275,25 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2679900</v>
+        <v>2624900</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/changan/hunter-plus/plus</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2679900</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/changan/hunter_plus/</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2679900</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/changan/hunter_plus/</t>
-        </is>
-      </c>
       <c r="H18" t="n">
-        <v>2724900</v>
+        <v>2624900</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1328,25 +1328,25 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2039900</v>
+        <v>1984900</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/changan/lamore/sedan</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2039900</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/changan/lamore/</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2039900</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/changan/lamore/</t>
-        </is>
-      </c>
       <c r="H19" t="n">
-        <v>2084900</v>
+        <v>1984900</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1381,25 +1381,25 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2779900</v>
+        <v>2724900</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/changan/uni-k/suv</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2779900</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/changan/uni-k/</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2779900</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/changan/uni-k/</t>
-        </is>
-      </c>
       <c r="H20" t="n">
-        <v>2824900</v>
+        <v>2724900</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1434,25 +1434,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2009900</v>
+        <v>1954900</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/changan/UNI-T/SUV_5D</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2009900</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/changan/uni-t/</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2009900</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/changan/uni-t/</t>
-        </is>
-      </c>
       <c r="H21" t="n">
-        <v>2054900</v>
+        <v>1954900</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1487,25 +1487,25 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1999900</v>
+        <v>1944900</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/changan/uni-v/liftback</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1999900</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/changan/uni-v/</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1999900</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/changan/uni-v/</t>
-        </is>
-      </c>
       <c r="H22" t="n">
-        <v>2044900</v>
+        <v>1944900</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1540,25 +1540,25 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2050000</v>
+        <v>1995000</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/chery/arrizo-8/sedan</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2050000</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2050000</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/chery/arrizo_8/</t>
-        </is>
-      </c>
       <c r="H23" t="n">
-        <v>2095000</v>
+        <v>1995000</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1593,25 +1593,25 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>949900</v>
+        <v>894900</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/chery/tiggo-4/2019</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>949900</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>949900</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/chery/tiggo_4/</t>
-        </is>
-      </c>
       <c r="H24" t="n">
-        <v>994900</v>
+        <v>894900</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1646,25 +1646,25 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1370000</v>
+        <v>1315000</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/chery/tiggo-4-pro/cuv</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1370000</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1370000</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/chery/tiggo_4_pro/</t>
-        </is>
-      </c>
       <c r="H25" t="n">
-        <v>1415000</v>
+        <v>1315000</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1699,25 +1699,25 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>479900</v>
+        <v>424900</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/chery/tiggo-7/2019</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>479900</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/chery/tiggo_7/</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>479900</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/chery/tiggo_7/</t>
-        </is>
-      </c>
       <c r="H26" t="n">
-        <v>524900</v>
+        <v>424900</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1752,25 +1752,25 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1820000</v>
+        <v>1765000</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/chery/tiggo-7-pro/cuv</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1820000</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1820000</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/chery/tiggo_7_pro/</t>
-        </is>
-      </c>
       <c r="H27" t="n">
-        <v>1865000</v>
+        <v>1765000</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1805,25 +1805,25 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2070000</v>
+        <v>2015000</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/chery/tiggo-7-pro-max/cuv</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2070000</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/chery/tiggo_7_pro_max_1/</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2070000</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/chery/tiggo_7_pro_max_1/</t>
-        </is>
-      </c>
       <c r="H28" t="n">
-        <v>2115000</v>
+        <v>2015000</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1903,25 +1903,25 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2220000</v>
+        <v>2165000</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/chery/tiggo-8/crossover</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2220000</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/chery/tiggo_8/</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2220000</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/chery/tiggo_8/</t>
-        </is>
-      </c>
       <c r="H30" t="n">
-        <v>2265000</v>
+        <v>2165000</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1956,25 +1956,25 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2680000</v>
+        <v>2625000</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/chery/tiggo-8-pro/cuv</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2680000</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2680000</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/chery/tiggo_8_pro/</t>
-        </is>
-      </c>
       <c r="H31" t="n">
-        <v>2725000</v>
+        <v>2625000</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -2009,25 +2009,25 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3101000</v>
+        <v>3046000</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/chery/tiggo-8-pro-max/tiggo-8-pro-max</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3101000</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3101000</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/chery/tiggo_8_pro_max_1/</t>
-        </is>
-      </c>
       <c r="H32" t="n">
-        <v>3146000</v>
+        <v>3046000</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1224000</v>
+        <v>1124000</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1224000</v>
+        <v>1124000</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>524000</v>
+        <v>424000</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2443,7 +2443,7 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>524000</v>
+        <v>424000</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2468,25 +2468,25 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2310000</v>
+        <v>2255000</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/exeed/lx/suv</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2310000</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/exeed/lx/</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2310000</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/exeed/lx/</t>
-        </is>
-      </c>
       <c r="H43" t="n">
-        <v>2355000</v>
+        <v>2255000</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3240000</v>
+        <v>3140000</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>3240000</v>
+        <v>3140000</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3540000</v>
+        <v>3485000</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/exeed/rx/SUV_5D</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3540000</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/exeed/rx/</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>3540000</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/exeed/rx/</t>
-        </is>
-      </c>
       <c r="H45" t="n">
-        <v>3585000</v>
+        <v>3485000</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2607,11 +2607,11 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3399900</v>
+        <v>3299900</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/exeed/txl/</t>
+          <t>https://auto-centre-profsouz.ru/auto/exeed/txl/cuv</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2625,7 +2625,7 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>3399900</v>
+        <v>3299900</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>3555000</v>
+        <v>3455000</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>3555000</v>
+        <v>3455000</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2703,25 +2703,25 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>4550000</v>
+        <v>4495000</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/exeed/vx/cuv</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4550000</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/exeed/vx/</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>4550000</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/exeed/vx/</t>
-        </is>
-      </c>
       <c r="H48" t="n">
-        <v>4595000</v>
+        <v>4495000</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>5090000</v>
+        <v>4990000</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>5090000</v>
+        <v>4990000</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>6000000</v>
+        <v>5900000</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>6000000</v>
+        <v>5900000</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2822,25 +2822,25 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1700000</v>
+        <v>1645000</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/faw/bestune-b70/LIFTBACK</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1700000</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>1700000</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/faw/bestune_b70/</t>
-        </is>
-      </c>
       <c r="H51" t="n">
-        <v>1745000</v>
+        <v>1645000</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -2875,25 +2875,25 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1661000</v>
+        <v>1606000</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/faw/bestune-t55/SUV_5D</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1661000</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>1661000</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/faw/bestune_t55/</t>
-        </is>
-      </c>
       <c r="H52" t="n">
-        <v>1706000</v>
+        <v>1606000</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -2928,25 +2928,25 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1420000</v>
+        <v>1365000</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/faw/bestune-t77/cuv</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1420000</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>1420000</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/faw/besturn_t77/</t>
-        </is>
-      </c>
       <c r="H53" t="n">
-        <v>1465000</v>
+        <v>1365000</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -2981,25 +2981,25 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2290000</v>
+        <v>2235000</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/faw/bestune-t99/SUV_5D</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2290000</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>2290000</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/faw/bestune_t99/</t>
-        </is>
-      </c>
       <c r="H54" t="n">
-        <v>2335000</v>
+        <v>2235000</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>803000</v>
+        <v>703000</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>803000</v>
+        <v>703000</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>897000</v>
+        <v>797000</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>897000</v>
+        <v>797000</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -3190,7 +3190,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2480000</v>
+        <v>2380000</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>2480000</v>
+        <v>2380000</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>3490000</v>
+        <v>3390000</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>3490000</v>
+        <v>3390000</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>3399000</v>
+        <v>3299000</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>3399000</v>
+        <v>3299000</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>1649000</v>
+        <v>1549000</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -3405,7 +3405,7 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>2389000</v>
+        <v>2289000</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -3440,25 +3440,25 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1088990</v>
+        <v>1033990</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/geely/Atlas/cuv</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1088990</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>1088990</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/geely/atlas_1/</t>
-        </is>
-      </c>
       <c r="H65" t="n">
-        <v>1133990</v>
+        <v>1033990</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -3493,25 +3493,25 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2194990</v>
+        <v>2139990</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/geely/Atlas/suv-2gen</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2194990</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/geely/atlas/</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>2194990</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/geely/atlas/</t>
-        </is>
-      </c>
       <c r="H66" t="n">
-        <v>2239990</v>
+        <v>2139990</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -3546,25 +3546,25 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1968990</v>
+        <v>1913990</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/geely/atlas-pro/cuv</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1968990</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>1968990</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/geely/atlas_pro/</t>
-        </is>
-      </c>
       <c r="H67" t="n">
-        <v>2013990</v>
+        <v>1913990</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -3644,25 +3644,25 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1579990</v>
+        <v>1524990</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/geely/coolray/cuv</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1579990</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>1579990</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/geely/coolray_1/</t>
-        </is>
-      </c>
       <c r="H69" t="n">
-        <v>1624990</v>
+        <v>1524990</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -3697,25 +3697,25 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1069990</v>
+        <v>1014990</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/geely/coolray-new/suv-5d</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1069990</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/geely/coolray/</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>1069990</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/geely/coolray/</t>
-        </is>
-      </c>
       <c r="H70" t="n">
-        <v>1114990</v>
+        <v>1014990</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1054990</v>
+        <v>954990</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>1054990</v>
+        <v>954990</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -3828,15 +3828,15 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>399990</v>
+        <v>299990</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/geely/emgrand_x7/</t>
+          <t>https://auto-centre-profsouz.ru/auto/geely/emgrand-x-7-new/crossover</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>399990</v>
+        <v>299990</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -3871,25 +3871,25 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>569990</v>
+        <v>514990</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/geely/gs/cuv</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>569990</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/geely/gs/</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>569990</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/geely/gs/</t>
-        </is>
-      </c>
       <c r="H74" t="n">
-        <v>614990</v>
+        <v>514990</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -3924,25 +3924,25 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3424990</v>
+        <v>3369990</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/geely/monjaro/monjaro</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3424990</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/geely/monjaro/</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>3424990</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/geely/monjaro/</t>
-        </is>
-      </c>
       <c r="H75" t="n">
-        <v>3469990</v>
+        <v>3369990</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2844990</v>
+        <v>2744990</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>2844990</v>
+        <v>2744990</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -4055,15 +4055,15 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3299990</v>
+        <v>3199990</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/geely/tugella/</t>
+          <t>https://auto-centre-profsouz.ru/auto/geely/tugella/cuv</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>3299990</v>
+        <v>3199990</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -4143,25 +4143,25 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2139000</v>
+        <v>2084000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/haval/dargo/cuv</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2139000</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/haval/dargo/</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>2139000</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/haval/dargo/</t>
-        </is>
-      </c>
       <c r="H80" t="n">
-        <v>2184000</v>
+        <v>2084000</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -4196,25 +4196,25 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2409000</v>
+        <v>2354000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/haval/dargo-x/cuv</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2409000</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>2409000</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/haval/dargo_x/</t>
-        </is>
-      </c>
       <c r="H81" t="n">
-        <v>2454000</v>
+        <v>2354000</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -4249,25 +4249,25 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1539000</v>
+        <v>1484000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/haval/new-f-7/cuv</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1539000</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/haval/f7/</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>1539000</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/haval/f7/</t>
-        </is>
-      </c>
       <c r="H82" t="n">
-        <v>1584000</v>
+        <v>1484000</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -4302,25 +4302,25 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1589000</v>
+        <v>1534000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/haval/new-f-7-x/cuv</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1589000</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/haval/f7x/</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>1589000</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/haval/f7x/</t>
-        </is>
-      </c>
       <c r="H83" t="n">
-        <v>1634000</v>
+        <v>1534000</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2099000</v>
+        <v>1999000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>2099000</v>
+        <v>1999000</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -4513,25 +4513,25 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>3239000</v>
+        <v>3184000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/haval/h9/suv</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3239000</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/haval/h9/</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>3239000</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/haval/h9/</t>
-        </is>
-      </c>
       <c r="H88" t="n">
-        <v>3284000</v>
+        <v>3184000</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -4566,25 +4566,25 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1199000</v>
+        <v>1144000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/haval/jolion/cuv</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1199000</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>1199000</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/haval/jolion_1/</t>
-        </is>
-      </c>
       <c r="H89" t="n">
-        <v>1244000</v>
+        <v>1144000</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -4619,25 +4619,25 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1089000</v>
+        <v>1034000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/haval/jolion/suv-1gen-rest</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1089000</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/haval/jolion/</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>1089000</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/haval/jolion/</t>
-        </is>
-      </c>
       <c r="H90" t="n">
-        <v>1134000</v>
+        <v>1034000</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -4672,25 +4672,25 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1319000</v>
+        <v>1264000</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/haval/m6/WAGON_7D</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1319000</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/haval/m6/</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>1319000</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/haval/m6/</t>
-        </is>
-      </c>
       <c r="H91" t="n">
-        <v>1364000</v>
+        <v>1264000</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1559000</v>
+        <v>1459000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>1559000</t>
+          <t>1459000</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -4760,25 +4760,25 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1409000</v>
+        <v>1354000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/hyundai/creta-new/cuv</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1409000</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/hyundai/creta/</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>1409000</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/hyundai/creta/</t>
-        </is>
-      </c>
       <c r="H93" t="n">
-        <v>1454000</v>
+        <v>1354000</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1849000</v>
+        <v>1749000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>1849000</t>
+          <t>1749000</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -4838,25 +4838,25 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1699000</v>
+        <v>1644000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/hyundai/elantra-new/sedan</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1699000</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>1699000</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/hyundai/elantra/</t>
-        </is>
-      </c>
       <c r="H95" t="n">
-        <v>1744000</v>
+        <v>1644000</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>3669000</v>
+        <v>3569000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>3669000</v>
+        <v>3569000</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>1108000</t>
+          <t>1008000</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -4959,7 +4959,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1003000</v>
+        <v>903000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="H98" t="n">
-        <v>1003000</v>
+        <v>903000</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>2469000</t>
+          <t>2369000</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2364000</v>
+        <v>2264000</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         </is>
       </c>
       <c r="H100" t="n">
-        <v>2364000</v>
+        <v>2264000</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>2449000</v>
+        <v>2349000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>2449000</t>
+          <t>2349000</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -5105,25 +5105,25 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2299000</v>
+        <v>2244000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/hyundai/tucson-new/cuv</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2299000</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>2299000</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/hyundai/tucson/</t>
-        </is>
-      </c>
       <c r="H102" t="n">
-        <v>2344000</v>
+        <v>2244000</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -5148,25 +5148,25 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1379000</v>
+        <v>1324000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/jac/j7/liftback</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1379000</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/jac/j7/</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>1379000</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/jac/j7/</t>
-        </is>
-      </c>
       <c r="H103" t="n">
-        <v>1424000</v>
+        <v>1324000</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1549000</v>
+        <v>1449000</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         </is>
       </c>
       <c r="H104" t="n">
-        <v>1549000</v>
+        <v>1449000</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>2329000</v>
+        <v>2229000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         </is>
       </c>
       <c r="H105" t="n">
-        <v>2329000</v>
+        <v>2229000</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -5267,25 +5267,25 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>649000</v>
+        <v>594000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/jac/s3/cuv</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>649000</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/jac/s3/</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>649000</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/jac/s3/</t>
-        </is>
-      </c>
       <c r="H106" t="n">
-        <v>694000</v>
+        <v>594000</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
@@ -5320,15 +5320,15 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>539000</v>
+        <v>439000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/jac/s5/</t>
+          <t>https://auto-centre-profsouz.ru/auto/jac/s5/cuv</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>539000</v>
+        <v>439000</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -5363,25 +5363,25 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1029000</v>
+        <v>974000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/jac/s7/cuv</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1029000</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/jac/s7/</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>1029000</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/jac/s7/</t>
-        </is>
-      </c>
       <c r="H108" t="n">
-        <v>1074000</v>
+        <v>974000</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -5416,15 +5416,15 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>2299000</v>
+        <v>2199000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/jac/t6/</t>
+          <t>https://auto-centre-profsouz.ru/auto/jac/t6/2019</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>2299000</v>
+        <v>2199000</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>2739900</v>
+        <v>2639900</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
@@ -5557,25 +5557,25 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1739900</v>
+        <v>1684900</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/jetour/dashing/suv-1gen</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1739900</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/jetour/dashing/</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>1739900</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/jetour/dashing/</t>
-        </is>
-      </c>
       <c r="H112" t="n">
-        <v>1784900</v>
+        <v>1684900</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
@@ -5655,25 +5655,25 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>2249900</v>
+        <v>2194900</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/jetour/jetour-x70-plus/suv-1gen</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2249900</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>2249900</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/jetour/x70_plus/</t>
-        </is>
-      </c>
       <c r="H114" t="n">
-        <v>2294900</v>
+        <v>2194900</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -5708,25 +5708,25 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2649900</v>
+        <v>2594900</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/jetour/x90plus/suv-1gen</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2649900</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>2649900</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/jetour/x90_plus/</t>
-        </is>
-      </c>
       <c r="H115" t="n">
-        <v>2694900</v>
+        <v>2594900</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -5761,25 +5761,25 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>940000</v>
+        <v>885000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/jetta/va3/va3</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>940000</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/jetta/va3/</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>940000</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/jetta/va3/</t>
-        </is>
-      </c>
       <c r="H116" t="n">
-        <v>985000</v>
+        <v>885000</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -5814,25 +5814,25 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1240000</v>
+        <v>1185000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/jetta/vs5/vs5</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1240000</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/jetta/vs5/</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>1240000</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/jetta/vs5/</t>
-        </is>
-      </c>
       <c r="H117" t="n">
-        <v>1285000</v>
+        <v>1185000</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
@@ -5867,25 +5867,25 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1399000</v>
+        <v>1344000</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/jetta/vs7/vs7</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1399000</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/jetta/vs7/</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>1399000</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/jetta/vs7/</t>
-        </is>
-      </c>
       <c r="H118" t="n">
-        <v>1444000</v>
+        <v>1344000</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
@@ -5920,25 +5920,25 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1495000</v>
+        <v>1440000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/kaiyi/e5/e5</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1495000</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>1495000</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/kaiyi/e5/</t>
-        </is>
-      </c>
       <c r="H119" t="n">
-        <v>1540000</v>
+        <v>1440000</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
@@ -5973,25 +5973,25 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1481650</v>
+        <v>1426650</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/kaiyi/X3/SUV_5D</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1481650</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>1481650</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/kaiyi/x3/</t>
-        </is>
-      </c>
       <c r="H120" t="n">
-        <v>1526650</v>
+        <v>1426650</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
@@ -6026,25 +6026,25 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1764900</v>
+        <v>1709900</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/kaiyi/X3%20Pro/SUV_5D</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1764900</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>1764900</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/kaiyi/x3_pro/</t>
-        </is>
-      </c>
       <c r="H121" t="n">
-        <v>1809900</v>
+        <v>1709900</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
@@ -6079,25 +6079,25 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>2347900</v>
+        <v>2292900</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/kaiyi/x7-kunlun/suv-1gen</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2347900</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>2347900</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/kaiyi/x7_kunlun/</t>
-        </is>
-      </c>
       <c r="H122" t="n">
-        <v>2392900</v>
+        <v>2292900</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1134900</v>
+        <v>1034900</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         </is>
       </c>
       <c r="H123" t="n">
-        <v>1134900</v>
+        <v>1034900</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>1839900</t>
+          <t>1739900</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -6185,7 +6185,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1839900</v>
+        <v>1739900</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         </is>
       </c>
       <c r="H124" t="n">
-        <v>1839900</v>
+        <v>1739900</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
@@ -6218,7 +6218,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1504900</v>
+        <v>1404900</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         </is>
       </c>
       <c r="H125" t="n">
-        <v>1504900</v>
+        <v>1404900</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>1909900</t>
+          <t>1809900</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1909900</v>
+        <v>1809900</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         </is>
       </c>
       <c r="H126" t="n">
-        <v>1909900</v>
+        <v>1809900</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1649900</v>
+        <v>1549900</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="H127" t="n">
-        <v>1784900</v>
+        <v>1684900</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>1649900</t>
+          <t>1549900</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -6347,25 +6347,25 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1604900</v>
+        <v>1549900</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/kia/cerato-new/sed</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1604900</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/kia/cerato/</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>1604900</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/kia/cerato/</t>
-        </is>
-      </c>
       <c r="H128" t="n">
-        <v>1649900</v>
+        <v>1549900</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
@@ -6390,25 +6390,25 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>2284900</v>
+        <v>2229900</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
+          <t>https://sibir-morots.ru/auto/kia/k5/</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2284900</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/kia/k5/</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>2284900</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/kia/k5/</t>
-        </is>
-      </c>
       <c r="H129" t="n">
-        <v>2329900</v>
+        <v>2229900</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>2329900</t>
+          <t>2229900</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -6443,7 +6443,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>929900</v>
+        <v>829900</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>929900</t>
+          <t>829900</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -6478,25 +6478,25 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>884900</v>
+        <v>829900</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/kia/picanto-new/hatch</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>884900</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/kia/picanto/</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>884900</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/kia/picanto/</t>
-        </is>
-      </c>
       <c r="H131" t="n">
-        <v>929900</v>
+        <v>829900</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         </is>
       </c>
       <c r="H132" t="n">
-        <v>1208930</v>
+        <v>1108930</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
@@ -6564,7 +6564,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1029900</v>
+        <v>929900</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>1029900</t>
+          <t>929900</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -6599,25 +6599,25 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>984900</v>
+        <v>929900</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/kia/rio-new/sed</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>984900</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/kia/rio/</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>984900</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/kia/rio/</t>
-        </is>
-      </c>
       <c r="H134" t="n">
-        <v>1029900</v>
+        <v>929900</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
@@ -6642,25 +6642,25 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1124900</v>
+        <v>1069900</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
+          <t>https://sibir-morots.ru/auto/kia/rio_x/</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1124900</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/kia/rio_x/</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>1124900</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/kia/rio_x/</t>
-        </is>
-      </c>
       <c r="H135" t="n">
-        <v>1169900</v>
+        <v>1069900</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>1169900</t>
+          <t>1069900</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
@@ -6695,25 +6695,25 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1509900</v>
+        <v>1454900</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
+          <t>https://sibir-morots.ru/auto/kia/seltos/</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1509900</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/kia/seltos/</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>1509900</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/kia/seltos/</t>
-        </is>
-      </c>
       <c r="H136" t="n">
-        <v>1554900</v>
+        <v>1454900</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>1554900</t>
+          <t>1454900</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
@@ -6748,7 +6748,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>3489900</v>
+        <v>3389900</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         </is>
       </c>
       <c r="H137" t="n">
-        <v>3489900</v>
+        <v>3389900</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>3489900</t>
+          <t>3389900</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -6791,26 +6791,26 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1379900</v>
+        <v>1324900</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
+          <t>https://sibir-morots.ru/auto/kia/soul/</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1379900</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/kia/soul/</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>1379900</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/kia/soul/</t>
-        </is>
-      </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>1424900</t>
+          <t>1324900</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
@@ -6836,7 +6836,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1424900</v>
+        <v>1324900</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         </is>
       </c>
       <c r="H139" t="n">
-        <v>1424900</v>
+        <v>1324900</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1349900</v>
+        <v>1249900</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="H140" t="n">
-        <v>1349900</v>
+        <v>1249900</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
@@ -6902,25 +6902,25 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>2399900</v>
+        <v>2344900</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
+          <t>https://sibir-morots.ru/auto/kia/sportage/</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2399900</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/kia/sportage/</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>2399900</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/kia/sportage/</t>
-        </is>
-      </c>
       <c r="H141" t="n">
-        <v>2444900</v>
+        <v>2344900</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>2444900</t>
+          <t>2344900</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
@@ -6990,7 +6990,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>437300</v>
+        <v>337300</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -7008,7 +7008,7 @@
         </is>
       </c>
       <c r="H143" t="n">
-        <v>437300</v>
+        <v>337300</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>437300</t>
+          <t>337300</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
@@ -7043,7 +7043,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>522900</v>
+        <v>422900</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         </is>
       </c>
       <c r="H144" t="n">
-        <v>522900</v>
+        <v>422900</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
@@ -7076,7 +7076,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>473500</v>
+        <v>373500</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>473500</t>
+          <t>373500</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>473500</v>
+        <v>373500</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         </is>
       </c>
       <c r="H146" t="n">
-        <v>473500</v>
+        <v>373500</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>417300</v>
+        <v>317300</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>417300</t>
+          <t>317300</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -7199,7 +7199,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>417300</v>
+        <v>317300</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="H148" t="n">
-        <v>417300</v>
+        <v>317300</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>445900</v>
+        <v>345900</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>445900</t>
+          <t>345900</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -7277,7 +7277,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>522900</v>
+        <v>422900</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>522900</t>
+          <t>422900</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -7322,7 +7322,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>445900</v>
+        <v>345900</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         </is>
       </c>
       <c r="H151" t="n">
-        <v>445900</v>
+        <v>345900</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>414300</v>
+        <v>314300</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>414300</t>
+          <t>314300</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -7400,7 +7400,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>414300</v>
+        <v>314300</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         </is>
       </c>
       <c r="H153" t="n">
-        <v>414300</v>
+        <v>314300</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>930900</v>
+        <v>830900</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         </is>
       </c>
       <c r="H154" t="n">
-        <v>930900</v>
+        <v>830900</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>930900</t>
+          <t>830900</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -7476,7 +7476,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1332900</v>
+        <v>1232900</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         </is>
       </c>
       <c r="H155" t="n">
-        <v>1332900</v>
+        <v>1232900</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1072900</v>
+        <v>972900</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         </is>
       </c>
       <c r="H156" t="n">
-        <v>1072900</v>
+        <v>972900</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>1072900</t>
+          <t>972900</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>996900</v>
+        <v>896900</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         </is>
       </c>
       <c r="H159" t="n">
-        <v>996900</v>
+        <v>896900</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>996900</t>
+          <t>896900</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
@@ -7700,7 +7700,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>742900</v>
+        <v>642900</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         </is>
       </c>
       <c r="H161" t="n">
-        <v>742900</v>
+        <v>642900</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>742900</t>
+          <t>642900</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -7743,7 +7743,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>524900</v>
+        <v>424900</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         </is>
       </c>
       <c r="H162" t="n">
-        <v>524900</v>
+        <v>424900</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
@@ -7770,7 +7770,7 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>524900</t>
+          <t>424900</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>613900</v>
+        <v>513900</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         </is>
       </c>
       <c r="H163" t="n">
-        <v>613900</v>
+        <v>513900</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>613900</t>
+          <t>513900</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -7849,7 +7849,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>592900</v>
+        <v>492900</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         </is>
       </c>
       <c r="H164" t="n">
-        <v>592900</v>
+        <v>492900</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>689900</v>
+        <v>589900</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         </is>
       </c>
       <c r="H165" t="n">
-        <v>689900</v>
+        <v>589900</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>519000</v>
+        <v>419000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         </is>
       </c>
       <c r="H166" t="n">
-        <v>519000</v>
+        <v>419000</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>519000</t>
+          <t>419000</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
@@ -7968,7 +7968,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>787900</v>
+        <v>687900</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="H167" t="n">
-        <v>787900</v>
+        <v>687900</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>787900</t>
+          <t>687900</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>964900</v>
+        <v>864900</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         </is>
       </c>
       <c r="H168" t="n">
-        <v>964900</v>
+        <v>864900</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>964900</t>
+          <t>864900</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -8074,7 +8074,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1242900</v>
+        <v>1142900</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -8093,7 +8093,7 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>1242900</t>
+          <t>1142900</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -8119,7 +8119,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>908900</v>
+        <v>808900</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -8137,7 +8137,7 @@
         </is>
       </c>
       <c r="H170" t="n">
-        <v>908900</v>
+        <v>808900</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>908900</t>
+          <t>808900</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>1023900</v>
+        <v>923900</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         </is>
       </c>
       <c r="H171" t="n">
-        <v>1023900</v>
+        <v>923900</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>1023900</t>
+          <t>923900</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
@@ -8225,7 +8225,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1211900</v>
+        <v>1111900</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>1211900</t>
+          <t>1111900</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
@@ -8270,7 +8270,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>1029900</v>
+        <v>929900</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>1029900</t>
+          <t>929900</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -8315,7 +8315,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>816900</v>
+        <v>716900</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -8333,7 +8333,7 @@
         </is>
       </c>
       <c r="H174" t="n">
-        <v>816900</v>
+        <v>716900</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>816900</t>
+          <t>716900</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
@@ -8368,7 +8368,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>1011900</v>
+        <v>911900</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="H175" t="n">
-        <v>1011900</v>
+        <v>911900</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
@@ -8395,7 +8395,7 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>1011900</t>
+          <t>911900</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>939900</v>
+        <v>839900</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -8440,7 +8440,7 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>939900</t>
+          <t>839900</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1292900</v>
+        <v>1192900</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -8484,7 +8484,7 @@
         </is>
       </c>
       <c r="H177" t="n">
-        <v>1292900</v>
+        <v>1192900</v>
       </c>
       <c r="I177" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>1292900</t>
+          <t>1192900</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
@@ -8519,7 +8519,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>801900</v>
+        <v>701900</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
         </is>
       </c>
       <c r="H178" t="n">
-        <v>801900</v>
+        <v>701900</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>801900</t>
+          <t>701900</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
@@ -8572,7 +8572,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>944900</v>
+        <v>844900</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         </is>
       </c>
       <c r="H179" t="n">
-        <v>944900</v>
+        <v>844900</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>944900</t>
+          <t>844900</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -8835,25 +8835,25 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1634930</v>
+        <v>1579930</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/livan/s6pro/sedan-1gen</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1634930</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/livan/s6pro/</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>1634930</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/livan/s6pro/</t>
-        </is>
-      </c>
       <c r="H186" t="n">
-        <v>1679930</v>
+        <v>1579930</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
@@ -8888,25 +8888,25 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>1129900</v>
+        <v>1074900</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/livan/x3pro/suv-1gen</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1129900</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/livan/x3pro/</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>1129900</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/livan/x3pro/</t>
-        </is>
-      </c>
       <c r="H187" t="n">
-        <v>1174900</v>
+        <v>1074900</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
@@ -8941,25 +8941,25 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1690930</v>
+        <v>1635930</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/livan/x6pro/suv-1gen</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1690930</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/livan/x6pro/</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>1690930</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/livan/x6pro/</t>
-        </is>
-      </c>
       <c r="H188" t="n">
-        <v>1735930</v>
+        <v>1635930</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
@@ -8994,7 +8994,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1630000</v>
+        <v>1530000</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
         </is>
       </c>
       <c r="H189" t="n">
-        <v>1630000</v>
+        <v>1530000</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>770000</v>
+        <v>670000</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         </is>
       </c>
       <c r="H190" t="n">
-        <v>770000</v>
+        <v>670000</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>2550000</v>
+        <v>2450000</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         </is>
       </c>
       <c r="H191" t="n">
-        <v>2550000</v>
+        <v>2450000</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>1780000</v>
+        <v>1680000</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         </is>
       </c>
       <c r="H192" t="n">
-        <v>1780000</v>
+        <v>1680000</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
@@ -9126,25 +9126,25 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>1180000</v>
+        <v>1125000</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/moskvich/moskvich3/cuv</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1180000</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/moskvich/3/</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>1180000</t>
-        </is>
-      </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/moskvich/3/</t>
-        </is>
-      </c>
       <c r="H193" t="n">
-        <v>1225000</v>
+        <v>1125000</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
@@ -9224,7 +9224,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>1636000</v>
+        <v>1536000</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="H195" t="n">
-        <v>1636000</v>
+        <v>1536000</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
@@ -9312,25 +9312,25 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>1687000</v>
+        <v>1632000</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/nissan/new-qashqai/2019</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>1687000</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>1687000</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/nissan/qashqai/</t>
-        </is>
-      </c>
       <c r="H197" t="n">
-        <v>1732000</v>
+        <v>1632000</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>1837000</v>
+        <v>1737000</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         </is>
       </c>
       <c r="H198" t="n">
-        <v>1837000</v>
+        <v>1737000</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
@@ -9443,7 +9443,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>1285000</v>
+        <v>1185000</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="H200" t="n">
-        <v>1285000</v>
+        <v>1185000</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>2247000</v>
+        <v>2147000</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         </is>
       </c>
       <c r="H202" t="n">
-        <v>2247000</v>
+        <v>2147000</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
@@ -9554,25 +9554,25 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>1929900</v>
+        <v>1874900</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/omoda/c5/cuv</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>1929900</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/omoda/c5/</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>1929900</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/omoda/c5/</t>
-        </is>
-      </c>
       <c r="H203" t="n">
-        <v>1974900</v>
+        <v>1874900</v>
       </c>
       <c r="I203" t="inlineStr">
         <is>
@@ -9607,25 +9607,25 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1569900</v>
+        <v>1514900</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/omoda/s5-2023/SEDAN</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>1569900</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/omoda/s5/</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>1569900</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/omoda/s5/</t>
-        </is>
-      </c>
       <c r="H204" t="n">
-        <v>1614900</v>
+        <v>1514900</v>
       </c>
       <c r="I204" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>2739900</v>
+        <v>2639900</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         </is>
       </c>
       <c r="H205" t="n">
-        <v>2739900</v>
+        <v>2639900</v>
       </c>
       <c r="I205" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>1574000</t>
+          <t>1474000</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
@@ -9738,7 +9738,7 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>1359000</v>
+        <v>1259000</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="H207" t="n">
-        <v>1359000</v>
+        <v>1259000</v>
       </c>
       <c r="I207" t="inlineStr">
         <is>
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>1318000</v>
+        <v>1218000</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>1318000</t>
+          <t>1218000</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
@@ -9806,25 +9806,25 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1058000</v>
+        <v>1003000</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/renault/duster-new/cuv</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>1058000</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/renault/duster/</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>1058000</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/renault/duster/</t>
-        </is>
-      </c>
       <c r="H209" t="n">
-        <v>1103000</v>
+        <v>1003000</v>
       </c>
       <c r="I209" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>1424000</t>
+          <t>1324000</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
@@ -9894,7 +9894,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>1209000</v>
+        <v>1109000</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         </is>
       </c>
       <c r="H211" t="n">
-        <v>1209000</v>
+        <v>1109000</v>
       </c>
       <c r="I211" t="inlineStr">
         <is>
@@ -9946,7 +9946,7 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>824000</t>
+          <t>724000</t>
         </is>
       </c>
       <c r="M212" t="inlineStr">
@@ -9972,7 +9972,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>719000</v>
+        <v>619000</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         </is>
       </c>
       <c r="H213" t="n">
-        <v>719000</v>
+        <v>619000</v>
       </c>
       <c r="I213" t="inlineStr">
         <is>
@@ -10005,25 +10005,25 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>813000</v>
+        <v>758000</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/renault/logan-stepway/sedan</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>813000</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>813000</t>
-        </is>
-      </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/renault/logan_stepway/</t>
-        </is>
-      </c>
       <c r="H214" t="n">
-        <v>858000</v>
+        <v>758000</v>
       </c>
       <c r="I214" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>1001000</t>
+          <t>901000</t>
         </is>
       </c>
       <c r="M214" t="inlineStr">
@@ -10077,7 +10077,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>958000</t>
+          <t>858000</t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
@@ -10103,7 +10103,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>609000</v>
+        <v>509000</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         </is>
       </c>
       <c r="H216" t="n">
-        <v>609000</v>
+        <v>509000</v>
       </c>
       <c r="I216" t="inlineStr">
         <is>
@@ -10155,7 +10155,7 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>1073000</t>
+          <t>973000</t>
         </is>
       </c>
       <c r="M217" t="inlineStr">
@@ -10181,7 +10181,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>786000</v>
+        <v>686000</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -10189,7 +10189,7 @@
         </is>
       </c>
       <c r="H218" t="n">
-        <v>786000</v>
+        <v>686000</v>
       </c>
       <c r="I218" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>1938220</v>
+        <v>1838220</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -10222,7 +10222,7 @@
         </is>
       </c>
       <c r="H219" t="n">
-        <v>1938220</v>
+        <v>1838220</v>
       </c>
       <c r="I219" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>2088340</v>
+        <v>1988340</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         </is>
       </c>
       <c r="H220" t="n">
-        <v>2088340</v>
+        <v>1988340</v>
       </c>
       <c r="I220" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2125960</v>
+        <v>2025960</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         </is>
       </c>
       <c r="H221" t="n">
-        <v>2125960</v>
+        <v>2025960</v>
       </c>
       <c r="I221" t="inlineStr">
         <is>
@@ -10313,25 +10313,25 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1255000</v>
+        <v>1200000</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/skoda/karoq/karoq</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>1255000</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/skoda/karoq/</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>1255000</t>
-        </is>
-      </c>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/skoda/karoq/</t>
-        </is>
-      </c>
       <c r="H222" t="n">
-        <v>1300000</v>
+        <v>1200000</v>
       </c>
       <c r="I222" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         </is>
       </c>
       <c r="H223" t="n">
-        <v>1757000</v>
+        <v>1657000</v>
       </c>
       <c r="I223" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1252000</v>
+        <v>1152000</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         </is>
       </c>
       <c r="H225" t="n">
-        <v>1252000</v>
+        <v>1152000</v>
       </c>
       <c r="I225" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>646000</v>
+        <v>546000</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         </is>
       </c>
       <c r="H228" t="n">
-        <v>646000</v>
+        <v>546000</v>
       </c>
       <c r="I228" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>2399900</v>
+        <v>2299900</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -10878,7 +10878,7 @@
         </is>
       </c>
       <c r="H235" t="n">
-        <v>2399900</v>
+        <v>2299900</v>
       </c>
       <c r="I235" t="inlineStr">
         <is>
@@ -10903,25 +10903,25 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>3389000</v>
+        <v>3334000</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/tank/300/SUV_5D</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>3389000</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/tank/300/</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>3389000</t>
-        </is>
-      </c>
-      <c r="G236" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/tank/300/</t>
-        </is>
-      </c>
       <c r="H236" t="n">
-        <v>3434000</v>
+        <v>3334000</v>
       </c>
       <c r="I236" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>4899000</v>
+        <v>4799000</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -10964,7 +10964,7 @@
         </is>
       </c>
       <c r="H237" t="n">
-        <v>4899000</v>
+        <v>4799000</v>
       </c>
       <c r="I237" t="inlineStr">
         <is>
@@ -10989,25 +10989,25 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>830000</v>
+        <v>775000</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/uaz/hunter/suv</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>830000</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/uaz/hunter/</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>830000</t>
-        </is>
-      </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/uaz/hunter/</t>
-        </is>
-      </c>
       <c r="H238" t="n">
-        <v>875000</v>
+        <v>775000</v>
       </c>
       <c r="I238" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>1035000</v>
+        <v>935000</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         </is>
       </c>
       <c r="H240" t="n">
-        <v>1035000</v>
+        <v>935000</v>
       </c>
       <c r="I240" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>1060000</v>
+        <v>960000</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         </is>
       </c>
       <c r="H242" t="n">
-        <v>1060000</v>
+        <v>960000</v>
       </c>
       <c r="I242" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>1003000</v>
+        <v>903000</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="H244" t="n">
-        <v>1003000</v>
+        <v>903000</v>
       </c>
       <c r="I244" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>2218000</v>
+        <v>2118000</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         </is>
       </c>
       <c r="H246" t="n">
-        <v>2218000</v>
+        <v>2118000</v>
       </c>
       <c r="I246" t="inlineStr">
         <is>
@@ -11399,7 +11399,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>607400</v>
+        <v>507400</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         </is>
       </c>
       <c r="H248" t="n">
-        <v>607400</v>
+        <v>507400</v>
       </c>
       <c r="I248" t="inlineStr">
         <is>
@@ -11432,25 +11432,25 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2268900</v>
+        <v>2213900</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/volkswagen/taos/cuv</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>2268900</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>2268900</t>
-        </is>
-      </c>
-      <c r="G249" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/volkswagen/taos/</t>
-        </is>
-      </c>
       <c r="H249" t="n">
-        <v>2313900</v>
+        <v>2213900</v>
       </c>
       <c r="I249" t="inlineStr">
         <is>
@@ -11520,25 +11520,25 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>1574900</v>
+        <v>1519900</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
+          <t>https://auto-centre-profsouz.ru/auto/volkswagen/tiguan-new/cuv</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>1574900</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
           <t>https://autosurgut186.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>1574900</t>
-        </is>
-      </c>
-      <c r="G251" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
       <c r="H251" t="n">
-        <v>1619900</v>
+        <v>1519900</v>
       </c>
       <c r="I251" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>1999000</v>
+        <v>1899000</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="H252" t="n">
-        <v>1999000</v>
+        <v>1899000</v>
       </c>
       <c r="I252" t="inlineStr">
         <is>
@@ -11614,7 +11614,7 @@
         </is>
       </c>
       <c r="H253" t="n">
-        <v>1084900</v>
+        <v>984900</v>
       </c>
       <c r="I253" t="inlineStr">
         <is>
@@ -11667,7 +11667,7 @@
         </is>
       </c>
       <c r="H254" t="n">
-        <v>866600</v>
+        <v>766600</v>
       </c>
       <c r="I254" t="inlineStr">
         <is>

--- a/xlsx/surgut.xlsx
+++ b/xlsx/surgut.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M244"/>
+  <dimension ref="A1:M257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,6 +530,14 @@
           <t>https://auto-centre-profsouz.ru/auto/baic/suv/suv-1gen</t>
         </is>
       </c>
+      <c r="L2" t="n">
+        <v>3650000</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/baic-bj40/</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -573,6 +581,14 @@
           <t>https://auto-centre-profsouz.ru/auto/baic/sedan/sedan-1gen</t>
         </is>
       </c>
+      <c r="L3" t="n">
+        <v>1345000</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/baic-u5-plus/</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -616,6 +632,14 @@
           <t>https://auto-centre-profsouz.ru/auto/baic/cuv/suv-1gen</t>
         </is>
       </c>
+      <c r="L4" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/baic-x35/</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -714,7 +738,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/belgee/x-50/suv-1gen</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/belgee-x50/</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -725,6 +749,14 @@
           <t>https://auto-centre-profsouz.ru/auto/belgee/x-50/suv-1gen</t>
         </is>
       </c>
+      <c r="L7" t="n">
+        <v>1235990</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/belgee-x50/</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -768,6 +800,14 @@
           <t>https://auto-centre-profsouz.ru/auto/changan/alsvin/sed</t>
         </is>
       </c>
+      <c r="L8" t="n">
+        <v>940000</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/shangan-alsvin/</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -786,11 +826,11 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1289900</v>
+        <v>1179900</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/cs35-plus/cs35-plus</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/shangan-cs35plus/</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -801,6 +841,14 @@
           <t>https://auto-centre-profsouz.ru/auto/changan/cs35-plus/cs35-plus</t>
         </is>
       </c>
+      <c r="L9" t="n">
+        <v>1179900</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/shangan-cs35plus/</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -887,6 +935,14 @@
           <t>https://auto-centre-profsouz.ru/auto/changan/cs55/cuv</t>
         </is>
       </c>
+      <c r="L11" t="n">
+        <v>1379900</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/shangan-cs55/</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -930,6 +986,14 @@
           <t>https://auto-centre-profsouz.ru/auto/changan/cs55plus/cuv</t>
         </is>
       </c>
+      <c r="L12" t="n">
+        <v>1819900</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/shangan-cs55plus/</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -973,6 +1037,14 @@
           <t>https://auto-centre-profsouz.ru/auto/changan/cs75fl/cuv</t>
         </is>
       </c>
+      <c r="L13" t="n">
+        <v>1659900</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/shangan-cs75fl/</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1016,6 +1088,14 @@
           <t>https://auto-centre-profsouz.ru/auto/changan/cs85coupe/cuv</t>
         </is>
       </c>
+      <c r="L14" t="n">
+        <v>2899900</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/shangan-cs85coupe/</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1059,6 +1139,14 @@
           <t>https://auto-centre-profsouz.ru/auto/changan/cs95/suv</t>
         </is>
       </c>
+      <c r="L15" t="n">
+        <v>3439900</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/shangan-cs95/</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1102,6 +1190,14 @@
           <t>https://auto-centre-profsouz.ru/auto/changan/eado-plus/SEDAN</t>
         </is>
       </c>
+      <c r="L16" t="n">
+        <v>1519900</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/shangan-eado-plus/</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1231,6 +1327,14 @@
           <t>https://auto-centre-profsouz.ru/auto/changan/uni-k/suv</t>
         </is>
       </c>
+      <c r="L19" t="n">
+        <v>2829900</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/shangan-uni-k/</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1274,6 +1378,14 @@
           <t>https://auto-centre-profsouz.ru/auto/changan/UNI-T/SUV_5D</t>
         </is>
       </c>
+      <c r="L20" t="n">
+        <v>2059900</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/shangan-uni-t/</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1317,6 +1429,14 @@
           <t>https://auto-centre-profsouz.ru/auto/changan/uni-v/liftback</t>
         </is>
       </c>
+      <c r="L21" t="n">
+        <v>2049900</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/shangan-uni-v/</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1403,6 +1523,14 @@
           <t>https://auto-centre-profsouz.ru/auto/chery/tiggo-4/2019</t>
         </is>
       </c>
+      <c r="L23" t="n">
+        <v>999900</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/chery-tiggo-4/</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1481,6 +1609,14 @@
           <t>https://auto-centre-profsouz.ru/auto/chery/tiggo-4-pro/cuv</t>
         </is>
       </c>
+      <c r="L25" t="n">
+        <v>1420000</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/chery-tiggo-4-pro/</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1524,6 +1660,14 @@
           <t>https://auto-centre-profsouz.ru/auto/chery/tiggo-7/2019</t>
         </is>
       </c>
+      <c r="L26" t="n">
+        <v>529900</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/chery-tiggo-7/</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1567,6 +1711,14 @@
           <t>https://auto-centre-profsouz.ru/auto/chery/tiggo-7-pro/cuv</t>
         </is>
       </c>
+      <c r="L27" t="n">
+        <v>1870000</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/chery-tiggo-7-pro/</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1610,6 +1762,14 @@
           <t>https://auto-centre-profsouz.ru/auto/chery/tiggo-7-pro-max/cuv</t>
         </is>
       </c>
+      <c r="L28" t="n">
+        <v>2120000</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/chery-tiggo-7-pro-max/</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1688,6 +1848,14 @@
           <t>https://auto-centre-profsouz.ru/auto/chery/tiggo-8/crossover</t>
         </is>
       </c>
+      <c r="L30" t="n">
+        <v>2270000</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/chery-tiggo-8/</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1731,6 +1899,14 @@
           <t>https://auto-centre-profsouz.ru/auto/chery/tiggo-8-pro/cuv</t>
         </is>
       </c>
+      <c r="L31" t="n">
+        <v>2730000</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/chery-tiggo-8-pro/</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1774,6 +1950,14 @@
           <t>https://auto-centre-profsouz.ru/auto/chery/tiggo-8-pro-max/tiggo-8-pro-max</t>
         </is>
       </c>
+      <c r="L32" t="n">
+        <v>3151000</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/chery-tiggo-8-pro-max/</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2002,11 +2186,11 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>385000</v>
+        <v>327000</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/datsun/mido/hatchback</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/datsun-mi-do/</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -2017,6 +2201,14 @@
           <t>https://auto-centre-profsouz.ru/auto/datsun/mido/hatchback</t>
         </is>
       </c>
+      <c r="L39" t="n">
+        <v>327000</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/datsun-mi-do/</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2035,11 +2227,11 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>365000</v>
+        <v>291000</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/datsun/ondo/sedan</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/datsun-on-do/</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -2050,6 +2242,14 @@
           <t>https://auto-centre-profsouz.ru/auto/datsun/ondo/sedan</t>
         </is>
       </c>
+      <c r="L40" t="n">
+        <v>291000</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/datsun-on-do/</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2083,6 +2283,14 @@
           <t>https://auto-centre-profsouz.ru/auto/dongfeng/580/580</t>
         </is>
       </c>
+      <c r="L41" t="n">
+        <v>1229000</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/dongfeng-580/</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2116,6 +2324,14 @@
           <t>https://auto-centre-profsouz.ru/auto/dongfeng/ax7/suv</t>
         </is>
       </c>
+      <c r="L42" t="n">
+        <v>529000</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/dongfeng-ax7/</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2159,6 +2375,14 @@
           <t>https://auto-centre-profsouz.ru/auto/exeed/lx/suv</t>
         </is>
       </c>
+      <c r="L43" t="n">
+        <v>2360000</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/exeed-lx/</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2181,7 +2405,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/exeed/lxawd/lxawd</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/exeed-lx-1-6-awd/</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -2192,6 +2416,14 @@
           <t>https://auto-centre-profsouz.ru/auto/exeed/lxawd/lxawd</t>
         </is>
       </c>
+      <c r="L44" t="n">
+        <v>3140000</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/exeed-lx-1-6-awd/</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2278,6 +2510,14 @@
           <t>https://auto-centre-profsouz.ru/auto/exeed/txl/cuv</t>
         </is>
       </c>
+      <c r="L46" t="n">
+        <v>3299900</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/exeed-txl/</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2354,6 +2594,14 @@
           <t>https://auto-centre-profsouz.ru/auto/exeed/vx/cuv</t>
         </is>
       </c>
+      <c r="L48" t="n">
+        <v>4600000</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/exeed-vx/</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2376,7 +2624,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/exeed/vxle/vxle</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/exeed-vx-le/</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -2387,6 +2635,14 @@
           <t>https://auto-centre-profsouz.ru/auto/exeed/vxle/vxle</t>
         </is>
       </c>
+      <c r="L49" t="n">
+        <v>4990000</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/exeed-vx-le/</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2506,6 +2762,14 @@
           <t>https://auto-centre-profsouz.ru/auto/faw/bestune-t55/SUV_5D</t>
         </is>
       </c>
+      <c r="L52" t="n">
+        <v>1711000</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/faw-bestune-t55/</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2549,6 +2813,14 @@
           <t>https://auto-centre-profsouz.ru/auto/faw/bestune-t77/cuv</t>
         </is>
       </c>
+      <c r="L53" t="n">
+        <v>1470000</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/faw-bestune-t77/</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2592,6 +2864,14 @@
           <t>https://auto-centre-profsouz.ru/auto/faw/bestune-t99/SUV_5D</t>
         </is>
       </c>
+      <c r="L54" t="n">
+        <v>2340000</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/2427-2/</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2625,6 +2905,14 @@
           <t>https://auto-centre-profsouz.ru/auto/faw/besturn-x80-new/cuv</t>
         </is>
       </c>
+      <c r="L55" t="n">
+        <v>808000</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/faw-besturn-x80/</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2660,6 +2948,14 @@
           <t>https://autosurgut186.ru/auto/faw/x40/</t>
         </is>
       </c>
+      <c r="L56" t="n">
+        <v>902000</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/faw-new-x40/</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2750,7 +3046,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/forthing/t5-evo/suv-1gen</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/forthing-t5-evo/</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -2761,6 +3057,14 @@
           <t>https://auto-centre-profsouz.ru/auto/forthing/t5-evo/suv-1gen</t>
         </is>
       </c>
+      <c r="L59" t="n">
+        <v>2380000</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/forthing-t5-evo/</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2783,7 +3087,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/forthing/yacht/minivan-1gen</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/kupit-forthing/</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -2794,6 +3098,14 @@
           <t>https://auto-centre-profsouz.ru/auto/forthing/yacht/minivan-1gen</t>
         </is>
       </c>
+      <c r="L60" t="n">
+        <v>3390000</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/kupit-forthing/</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2816,7 +3128,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/gac/gn-8/van</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/gac-gn8/</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -2827,6 +3139,14 @@
           <t>https://auto-centre-profsouz.ru/auto/gac/gn-8/van</t>
         </is>
       </c>
+      <c r="L61" t="n">
+        <v>3299000</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/gac-gn8/</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2905,6 +3225,14 @@
           <t>https://auto-centre-profsouz.ru/auto/gac/gs-5/cuv</t>
         </is>
       </c>
+      <c r="L63" t="n">
+        <v>1549000</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/gac-gs5/</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2927,7 +3255,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/gac/gc-8/crossover</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/gac-gs8/</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2948,6 +3276,14 @@
           <t>https://auto-centre-profsouz.ru/auto/gac/gc-8/crossover</t>
         </is>
       </c>
+      <c r="L64" t="n">
+        <v>2289000</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/gac-gs8/</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2991,6 +3327,14 @@
           <t>https://auto-centre-profsouz.ru/auto/geely/Atlas/cuv</t>
         </is>
       </c>
+      <c r="L65" t="n">
+        <v>1138990</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/geely-atlas/</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3077,6 +3421,14 @@
           <t>https://auto-centre-profsouz.ru/auto/geely/atlas-pro/cuv</t>
         </is>
       </c>
+      <c r="L67" t="n">
+        <v>2018990</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/geely-atlas-pro/</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3155,6 +3507,14 @@
           <t>https://auto-centre-profsouz.ru/auto/geely/coolray/cuv</t>
         </is>
       </c>
+      <c r="L69" t="n">
+        <v>1629990</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/geely-coolray/</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3288,7 +3648,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/geely/emgrand-x-7-new/crossover</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/geely-emgrand-x7-new/</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -3299,6 +3659,14 @@
           <t>https://auto-centre-profsouz.ru/auto/geely/emgrand-x-7-new/crossover</t>
         </is>
       </c>
+      <c r="L73" t="n">
+        <v>299990</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/geely-emgrand-x7-new/</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3342,6 +3710,14 @@
           <t>https://auto-centre-profsouz.ru/auto/geely/gs/cuv</t>
         </is>
       </c>
+      <c r="L74" t="n">
+        <v>619990</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/geely-gs/</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3385,6 +3761,14 @@
           <t>https://auto-centre-profsouz.ru/auto/geely/monjaro/monjaro</t>
         </is>
       </c>
+      <c r="L75" t="n">
+        <v>3847990</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/geely-monjaro/</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3475,7 +3859,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/geely/tugella/cuv</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/geely-tugella/</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -3486,6 +3870,14 @@
           <t>https://auto-centre-profsouz.ru/auto/geely/tugella/cuv</t>
         </is>
       </c>
+      <c r="L78" t="n">
+        <v>3199990</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/geely-tugella/</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3564,6 +3956,14 @@
           <t>https://auto-centre-profsouz.ru/auto/haval/dargo/cuv</t>
         </is>
       </c>
+      <c r="L80" t="n">
+        <v>2189000</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/haval-dargo/</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3607,11 +4007,19 @@
           <t>https://auto-centre-profsouz.ru/auto/haval/dargo-x/cuv</t>
         </is>
       </c>
+      <c r="L81" t="n">
+        <v>2459000</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/haval-dargo-x/</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3621,40 +4029,30 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>F7 New</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1300000</v>
+        <v>1589000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/haval/f7/</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>1300000</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/haval/f7/</t>
-        </is>
-      </c>
-      <c r="H82" t="n">
-        <v>1484000</v>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/haval/new-f-7/cuv</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/haval-new-f7/</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1589000</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/haval-new-f7/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3664,40 +4062,40 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>F7x New</t>
+          <t>F7 New</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1460000</v>
+        <v>1300000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/haval/f7x/</t>
+          <t>https://autosurgut186.ru/auto/haval/f7/</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1460000</t>
+          <t>1300000</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/haval/f7x/</t>
+          <t>https://autosurgut186.ru/auto/haval/f7/</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>1534000</v>
+        <v>1484000</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/haval/new-f-7-x/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/haval/new-f-7/cuv</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3707,40 +4105,30 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>F7x</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1999000</v>
+        <v>1639000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/haval/h3/suv-1gen</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>2149000</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/haval/h3/</t>
-        </is>
-      </c>
-      <c r="H84" t="n">
-        <v>1999000</v>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/haval/h3/suv-1gen</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/haval-new-f7x/</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1639000</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/haval-new-f7x/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3750,32 +4138,40 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>F7x New</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1029000</v>
+        <v>1460000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/haval/h5/</t>
+          <t>https://autosurgut186.ru/auto/haval/f7x/</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1029000</t>
+          <t>1460000</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/haval/h5/</t>
+          <t>https://autosurgut186.ru/auto/haval/f7x/</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1534000</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/haval/new-f-7-x/cuv</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3785,40 +4181,40 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2157000</v>
+        <v>1999000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/haval/h9/</t>
+          <t>https://auto-centre-profsouz.ru/auto/haval/h3/suv-1gen</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2157000</t>
+          <t>2149000</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/haval/h9/</t>
+          <t>https://autosurgut186.ru/auto/haval/h3/</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>3184000</v>
+        <v>1999000</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/haval/h9/suv</t>
+          <t>https://auto-centre-profsouz.ru/auto/haval/h3/suv-1gen</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3828,40 +4224,32 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>739000</v>
+        <v>1029000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/haval/jolion_1/</t>
+          <t>https://autosurgut186.ru/auto/haval/h5/</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>739000</t>
+          <t>1029000</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/haval/jolion_1/</t>
-        </is>
-      </c>
-      <c r="H87" t="n">
-        <v>1144000</v>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/haval/jolion/cuv</t>
+          <t>https://autosurgut186.ru/auto/haval/h5/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3871,40 +4259,48 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Jolion New</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>839000</v>
+        <v>2157000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/haval/jolion/</t>
+          <t>https://autosurgut186.ru/auto/haval/h9/</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>839000</t>
+          <t>2157000</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/haval/jolion/</t>
+          <t>https://autosurgut186.ru/auto/haval/h9/</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>1034000</v>
+        <v>3184000</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/haval/jolion/suv-1gen-rest</t>
+          <t>https://auto-centre-profsouz.ru/auto/haval/h9/suv</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>3289000</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/haval-h9/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3914,126 +4310,142 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>M6</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1264000</v>
+        <v>739000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/haval/m6/WAGON_7D</t>
+          <t>https://autosurgut186.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1659000</t>
+          <t>739000</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/haval/m6/</t>
+          <t>https://autosurgut186.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>1264000</v>
+        <v>1144000</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/haval/m6/WAGON_7D</t>
+          <t>https://auto-centre-profsouz.ru/auto/haval/jolion/cuv</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1139000</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/haval-jolion/</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Creta New</t>
+          <t>Jolion New</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>849300</v>
+        <v>839000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/hyundai/creta/</t>
+          <t>https://autosurgut186.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>849300</t>
+          <t>839000</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/hyundai/creta/</t>
+          <t>https://autosurgut186.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>1354000</v>
+        <v>1034000</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/hyundai/creta-new/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/haval/jolion/suv-1gen-rest</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Elantra New</t>
+          <t>M6</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1644000</v>
+        <v>1264000</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/hyundai/elantra-new/sedan</t>
+          <t>https://auto-centre-profsouz.ru/auto/haval/m6/WAGON_7D</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>1655000</t>
+          <t>1659000</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/hyundai/elantra/</t>
+          <t>https://autosurgut186.ru/auto/haval/m6/</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>1644000</v>
+        <v>1264000</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/hyundai/elantra-new/sedan</t>
+          <t>https://auto-centre-profsouz.ru/auto/haval/m6/WAGON_7D</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1369000</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/haval-m6/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4043,30 +4455,30 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Santa Fe New</t>
+          <t>Creta</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>3569000</v>
+        <v>1459000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/hyundai/santa-fe-new/cuv</t>
-        </is>
-      </c>
-      <c r="H92" t="n">
-        <v>3569000</v>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/hyundai/santa-fe-new/cuv</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/hyundai-creta-new/</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1459000</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/hyundai-creta-new/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4076,32 +4488,40 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Creta New</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>653000</v>
+        <v>849300</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/hyundai/solaris/</t>
+          <t>https://autosurgut186.ru/auto/hyundai/creta/</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>653000</t>
+          <t>849300</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/hyundai/solaris/</t>
+          <t>https://autosurgut186.ru/auto/hyundai/creta/</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1354000</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/hyundai/creta-new/cuv</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4111,30 +4531,30 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Solaris New</t>
+          <t>Elantra</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>903000</v>
+        <v>1749000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/hyundai/new-solaris/new-solaris</t>
-        </is>
-      </c>
-      <c r="H94" t="n">
-        <v>903000</v>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/hyundai/new-solaris/new-solaris</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/hyundai-elantra-new/</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1749000</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/hyundai-elantra-new/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4144,32 +4564,40 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Sonata</t>
+          <t>Elantra New</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1280200</v>
+        <v>1644000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/hyundai/sonata/</t>
+          <t>https://auto-centre-profsouz.ru/auto/hyundai/elantra-new/sedan</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1280200</t>
+          <t>1655000</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/hyundai/sonata/</t>
+          <t>https://autosurgut186.ru/auto/hyundai/elantra/</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1644000</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/hyundai/elantra-new/sedan</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4179,30 +4607,30 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Sonata New</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>2264000</v>
+        <v>3569000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/hyundai/sonata-new/2020</t>
-        </is>
-      </c>
-      <c r="H96" t="n">
-        <v>2264000</v>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/hyundai/sonata-new/2020</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/hyundai-new-sonata-2/</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>3569000</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/hyundai-new-sonata-2/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4212,268 +4640,258 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Tucson New</t>
+          <t>Santa Fe New</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1649000</v>
+        <v>3569000</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/hyundai/tucson/</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>1649000</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/hyundai/tucson/</t>
+          <t>https://auto-centre-profsouz.ru/auto/hyundai/santa-fe-new/cuv</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>2244000</v>
+        <v>3569000</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/hyundai/tucson-new/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/hyundai/santa-fe-new/cuv</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>890000</v>
+        <v>653000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/jac/j7/</t>
+          <t>https://autosurgut186.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>653000</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/jac/j7/</t>
-        </is>
-      </c>
-      <c r="H98" t="n">
-        <v>1324000</v>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/jac/j7/liftback</t>
+          <t>https://autosurgut186.ru/auto/hyundai/solaris/</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1008000</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/hyundai-new-solaris-2/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>JS4</t>
+          <t>Solaris New</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1449000</v>
+        <v>903000</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jac/js4/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/hyundai/new-solaris/new-solaris</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>1449000</v>
+        <v>903000</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jac/js4/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/hyundai/new-solaris/new-solaris</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>JS6</t>
+          <t>Sonata</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2229000</v>
+        <v>1280200</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jac/js6/cuv</t>
-        </is>
-      </c>
-      <c r="H100" t="n">
-        <v>2229000</v>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/jac/js6/cuv</t>
+          <t>https://autosurgut186.ru/auto/hyundai/sonata/</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1280200</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/hyundai/sonata/</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>2369000</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/hyundai-new-sonata/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>Sonata New</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>594000</v>
+        <v>2264000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jac/s3/cuv</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>959000</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/jac/s3/</t>
+          <t>https://auto-centre-profsouz.ru/auto/hyundai/sonata-new/2020</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>594000</v>
+        <v>2264000</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jac/s3/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/hyundai/sonata-new/2020</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>Tucson</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>439000</v>
+        <v>2349000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jac/s5/cuv</t>
-        </is>
-      </c>
-      <c r="H102" t="n">
-        <v>439000</v>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/jac/s5/cuv</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/hyundai-tucson-new/</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>2349000</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/hyundai-tucson-new/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>Tucson New</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>974000</v>
+        <v>1649000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jac/s7/cuv</t>
+          <t>https://autosurgut186.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>1139000</t>
+          <t>1649000</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/jac/s7/</t>
+          <t>https://autosurgut186.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>974000</v>
+        <v>2244000</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jac/s7/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/hyundai/tucson-new/cuv</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4483,801 +4901,937 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>2199000</v>
+        <v>890000</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jac/t6/2019</t>
+          <t>https://autosurgut186.ru/auto/jac/j7/</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>890000</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/jac/j7/</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>2199000</v>
+        <v>1324000</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jac/t6/2019</t>
+          <t>https://auto-centre-profsouz.ru/auto/jac/j7/liftback</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1429000</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/jac-j7/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>JS4</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>2166000</v>
+        <v>1449000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/jaecoo/j7/</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>2166000</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/jaecoo/j7/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/jac-js4/</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>2639900</v>
+        <v>1449000</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jaecoo/j-7/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/jac/js4/cuv</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1449000</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/jac-js4/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>JS6</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>3229000</v>
+        <v>2229000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/jaecoo/j8/</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>3229000</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/jaecoo/j8/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/jac-js6/</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2229000</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/jac/js6/cuv</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>2229000</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/jac-js6/</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1684900</v>
+        <v>594000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetour/dashing/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/jac/s3/cuv</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>1999900</t>
+          <t>959000</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/jetour/dashing/</t>
+          <t>https://autosurgut186.ru/auto/jac/s3/</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>1684900</v>
+        <v>594000</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetour/dashing/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/jac/s3/cuv</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>699000</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/jac-s3/</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>2509000</v>
+        <v>439000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/jetour/t2/</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>2509000</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/jetour/t2/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/jac-s5/</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>439000</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/jac/s5/cuv</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>439000</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/jac-s5/</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1959900</v>
+        <v>974000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/jetour/x70_plus/</t>
+          <t>https://auto-centre-profsouz.ru/auto/jac/s7/cuv</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>1959900</t>
+          <t>1139000</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/jetour/x70_plus/</t>
+          <t>https://autosurgut186.ru/auto/jac/s7/</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>2194900</v>
+        <v>974000</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetour/jetour-x70-plus/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/jac/s7/cuv</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1079000</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/jac-s7/</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>2424930</v>
+        <v>2199000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/jetour/x90_plus/</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>2424930</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/jetour/x90_plus/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/jac-t6/</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>2594900</v>
+        <v>2199000</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetour/x90plus/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/jac/t6/2019</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>2199000</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/jac-t6/</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>885000</v>
+        <v>2166000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetta/va3/va3</t>
+          <t>https://autosurgut186.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>1350000</t>
+          <t>2166000</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/jetta/va3/</t>
+          <t>https://autosurgut186.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>885000</v>
+        <v>2639900</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetta/va3/va3</t>
+          <t>https://auto-centre-profsouz.ru/auto/jaecoo/j-7/suv-1gen</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>2639900</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/jaecoo-j7/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1185000</v>
+        <v>3229000</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetta/vs5/vs5</t>
+          <t>https://autosurgut186.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>1650000</t>
+          <t>3229000</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/jetta/vs5/</t>
-        </is>
-      </c>
-      <c r="H112" t="n">
-        <v>1185000</v>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetta/vs5/vs5</t>
+          <t>https://autosurgut186.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1344000</v>
+        <v>1684900</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetta/vs7/vs7</t>
+          <t>https://auto-centre-profsouz.ru/auto/jetour/dashing/suv-1gen</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>1809000</t>
+          <t>1999900</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/jetta/vs7/</t>
+          <t>https://autosurgut186.ru/auto/jetour/dashing/</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>1344000</v>
+        <v>1684900</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetta/vs7/vs7</t>
+          <t>https://auto-centre-profsouz.ru/auto/jetour/dashing/suv-1gen</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1789900</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/jetour-dashing/</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1419000</v>
+        <v>2509000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/kaiyi/e5/</t>
+          <t>https://autosurgut186.ru/auto/jetour/t2/</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1419000</t>
+          <t>2509000</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/kaiyi/e5/</t>
-        </is>
-      </c>
-      <c r="H114" t="n">
-        <v>1440000</v>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/kaiyi/e5/e5</t>
+          <t>https://autosurgut186.ru/auto/jetour/t2/</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>1426650</v>
+        <v>1959900</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kaiyi/X3/SUV_5D</t>
+          <t>https://autosurgut186.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>1716600</t>
+          <t>1959900</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/kaiyi/x3/</t>
+          <t>https://autosurgut186.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>1426650</v>
+        <v>2194900</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kaiyi/X3/SUV_5D</t>
+          <t>https://auto-centre-profsouz.ru/auto/jetour/jetour-x70-plus/suv-1gen</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>2299900</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/jetour-x70-plus/</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1709900</v>
+        <v>2424930</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kaiyi/X3%20Pro/SUV_5D</t>
+          <t>https://autosurgut186.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>1910430</t>
+          <t>2424930</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://autosurgut186.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>1709900</v>
+        <v>2594900</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kaiyi/X3%20Pro/SUV_5D</t>
+          <t>https://auto-centre-profsouz.ru/auto/jetour/x90plus/suv-1gen</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>2699900</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/jetour-x90-plus/</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1876900</v>
+        <v>885000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://auto-centre-profsouz.ru/auto/jetta/va3/va3</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1876900</t>
+          <t>1350000</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://autosurgut186.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>2292900</v>
+        <v>885000</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kaiyi/x7-kunlun/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/jetta/va3/va3</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>990000</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/jetta-va3/</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1010300</v>
+        <v>1185000</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/kia/ceed/</t>
+          <t>https://auto-centre-profsouz.ru/auto/jetta/vs5/vs5</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>1010300</t>
+          <t>1650000</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/kia/ceed/</t>
+          <t>https://autosurgut186.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>1034900</v>
+        <v>1185000</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kia/ceed/hatchback</t>
+          <t>https://auto-centre-profsouz.ru/auto/jetta/vs5/vs5</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1290000</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/jetta-vs5/</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Ceed New</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1739900</v>
+        <v>1344000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kia/ceed-new/hatch</t>
+          <t>https://auto-centre-profsouz.ru/auto/jetta/vs7/vs7</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1809000</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>1739900</v>
+        <v>1344000</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kia/ceed-new/hatch</t>
+          <t>https://auto-centre-profsouz.ru/auto/jetta/vs7/vs7</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1449000</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/jetta-vs7/</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1020300</v>
+        <v>1419000</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/kia/ceed_sw/</t>
+          <t>https://autosurgut186.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>1020300</t>
+          <t>1419000</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/kia/ceed_sw/</t>
+          <t>https://autosurgut186.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>1404900</v>
+        <v>1440000</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kia/new-ceedsw/ceedswnew</t>
+          <t>https://auto-centre-profsouz.ru/auto/kaiyi/e5/e5</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1545000</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/kaiyi-e5/</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Ceed SW New</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1809900</v>
+        <v>1426650</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kia/ceed-sw-new/hatch</t>
+          <t>https://auto-centre-profsouz.ru/auto/kaiyi/X3/SUV_5D</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1716600</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>1809900</v>
+        <v>1426650</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kia/ceed-sw-new/hatch</t>
+          <t>https://auto-centre-profsouz.ru/auto/kaiyi/X3/SUV_5D</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1531650</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/kaiyi-x3/</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Cerato</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1684900</v>
+        <v>1709900</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kia/newcerato/newceratosedan</t>
+          <t>https://auto-centre-profsouz.ru/auto/kaiyi/X3%20Pro/SUV_5D</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1910430</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>1684900</v>
+        <v>1709900</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kia/newcerato/newceratosedan</t>
+          <t>https://auto-centre-profsouz.ru/auto/kaiyi/X3%20Pro/SUV_5D</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1814900</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/kaiyi-x3-pro/</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Cerato New</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1020300</v>
+        <v>1876900</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/kia/cerato/</t>
+          <t>https://autosurgut186.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>1020300</t>
+          <t>1876900</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/kia/cerato/</t>
+          <t>https://autosurgut186.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>1549900</v>
+        <v>2292900</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kia/cerato-new/sed</t>
+          <t>https://auto-centre-profsouz.ru/auto/kaiyi/x7-kunlun/suv-1gen</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -5287,40 +5841,48 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1220300</v>
+        <v>1010300</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/kia/k5/</t>
+          <t>https://autosurgut186.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1220300</t>
+          <t>1010300</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/kia/k5/</t>
+          <t>https://autosurgut186.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>2229900</v>
+        <v>1034900</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kia/k5/sedan</t>
+          <t>https://auto-centre-profsouz.ru/auto/kia/ceed/hatchback</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1844900</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/kia-ceed-new/</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -5330,40 +5892,30 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Picanto New</t>
+          <t>Ceed New</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>700745</v>
+        <v>1739900</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/kia/picanto/</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>700745</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/kia/picanto/</t>
+          <t>https://auto-centre-profsouz.ru/auto/kia/ceed-new/hatch</t>
         </is>
       </c>
       <c r="H125" t="n">
-        <v>829900</v>
+        <v>1739900</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kia/picanto-new/hatch</t>
+          <t>https://auto-centre-profsouz.ru/auto/kia/ceed-new/hatch</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -5373,40 +5925,48 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>ProCeed</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1108930</v>
+        <v>1020300</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kia/pro-ceed/sw</t>
+          <t>https://autosurgut186.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>1458930</t>
+          <t>1020300</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/kia/proceed/</t>
+          <t>https://autosurgut186.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="H126" t="n">
-        <v>1108930</v>
+        <v>1404900</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kia/pro-ceed/sw</t>
+          <t>https://auto-centre-profsouz.ru/auto/kia/new-ceedsw/ceedswnew</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1914900</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/kia-ceed-sw-new/</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -5416,40 +5976,30 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Rio New</t>
+          <t>Ceed SW New</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>660300</v>
+        <v>1809900</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/kia/rio/</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>660300</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/kia/rio/</t>
+          <t>https://auto-centre-profsouz.ru/auto/kia/ceed-sw-new/hatch</t>
         </is>
       </c>
       <c r="H127" t="n">
-        <v>929900</v>
+        <v>1809900</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kia/rio-new/sed</t>
+          <t>https://auto-centre-profsouz.ru/auto/kia/ceed-sw-new/hatch</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -5459,40 +6009,38 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Cerato</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>740300</v>
+        <v>1654900</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/kia/rio_x/</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>740300</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/kia/rio_x/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/kia-cerato-new/</t>
         </is>
       </c>
       <c r="H128" t="n">
-        <v>1069900</v>
+        <v>1684900</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kia/rio-x/hatch</t>
+          <t>https://auto-centre-profsouz.ru/auto/kia/newcerato/newceratosedan</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1654900</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/kia-cerato-new/</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -5502,40 +6050,40 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Cerato New</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1120300</v>
+        <v>1020300</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/kia/seltos/</t>
+          <t>https://autosurgut186.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>1120300</t>
+          <t>1020300</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/kia/seltos/</t>
+          <t>https://autosurgut186.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="H129" t="n">
-        <v>1454900</v>
+        <v>1549900</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kia/seltos/seltos</t>
+          <t>https://auto-centre-profsouz.ru/auto/kia/cerato-new/sed</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -5545,30 +6093,48 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Sorento New</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>3389900</v>
+        <v>1220300</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kia/sorento-new/cuv</t>
+          <t>https://autosurgut186.ru/auto/kia/k5/</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1220300</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="H130" t="n">
-        <v>3389900</v>
+        <v>2229900</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kia/sorento-new/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/kia/k5/sedan</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>2334900</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/kia-k5/</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5578,32 +6144,30 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Picanto</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>721200</v>
+        <v>934900</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/kia/soul/</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>721200</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/kia/soul/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/kia-picanto-new/</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>934900</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/kia-picanto-new/</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5613,30 +6177,40 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Soul New</t>
+          <t>Picanto New</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1324900</v>
+        <v>700745</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kia/new-soul/new</t>
+          <t>https://autosurgut186.ru/auto/kia/picanto/</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>700745</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="H132" t="n">
-        <v>1324900</v>
+        <v>829900</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kia/new-soul/new</t>
+          <t>https://auto-centre-profsouz.ru/auto/kia/picanto-new/hatch</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5646,30 +6220,48 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Sportage</t>
+          <t>ProCeed</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1249900</v>
+        <v>867999</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kia/new-sportage/sportagenew</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/kia-proceed/</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1458930</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/kia/proceed/</t>
         </is>
       </c>
       <c r="H133" t="n">
-        <v>1249900</v>
+        <v>1108930</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kia/new-sportage/sportagenew</t>
+          <t>https://auto-centre-profsouz.ru/auto/kia/pro-ceed/sw</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>867999</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/kia-proceed/</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5679,40 +6271,30 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Sportage 5</t>
+          <t>Rio</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>2099900</v>
+        <v>1034900</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/kia/sportage/</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>2099900</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/kia/sportage/</t>
-        </is>
-      </c>
-      <c r="H134" t="n">
-        <v>2344900</v>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/kia/sportage-5/suv</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/kia-rio-new/</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1034900</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/kia-rio-new/</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5722,347 +6304,411 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>XCeed</t>
+          <t>Rio New</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1154900</v>
+        <v>660300</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/kia/xceed/</t>
+          <t>https://autosurgut186.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>1154900</t>
+          <t>660300</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/kia/xceed/</t>
+          <t>https://autosurgut186.ru/auto/kia/rio/</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>929900</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/kia/rio-new/sed</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>337300</v>
+        <v>740300</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/granta-cross/2019</t>
+          <t>https://autosurgut186.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>437700</t>
+          <t>740300</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/granta_cross/</t>
+          <t>https://autosurgut186.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="H136" t="n">
-        <v>337300</v>
+        <v>1069900</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/granta-cross/2019</t>
+          <t>https://auto-centre-profsouz.ru/auto/kia/rio-x/hatch</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1174900</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/kia-rio-x/</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Granta Drive Active</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>422900</v>
+        <v>1120300</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/granta-drive-active/granta-drive-active</t>
+          <t>https://autosurgut186.ru/auto/kia/seltos/</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1120300</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="H137" t="n">
-        <v>422900</v>
+        <v>1454900</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/granta-drive-active/granta-drive-active</t>
+          <t>https://auto-centre-profsouz.ru/auto/kia/seltos/seltos</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1559900</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/kia-seltos/</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Sorento</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>544950</v>
+        <v>3389900</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/granta_hatchback/</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>544950</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/lada/granta_hatchback/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/kia-sorento-new/</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>3389900</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/kia-sorento-new/</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Granta Hatchback New</t>
+          <t>Sorento New</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>373500</v>
+        <v>3389900</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/hatchback</t>
+          <t>https://auto-centre-profsouz.ru/auto/kia/sorento-new/cuv</t>
         </is>
       </c>
       <c r="H139" t="n">
-        <v>373500</v>
+        <v>3389900</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/hatchback</t>
+          <t>https://auto-centre-profsouz.ru/auto/kia/sorento-new/cuv</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>343700</v>
+        <v>721200</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/granta_liftback/</t>
+          <t>https://autosurgut186.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>343700</t>
+          <t>721200</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/granta_liftback/</t>
+          <t>https://autosurgut186.ru/auto/kia/soul/</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1429900</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/kia-new-soul/</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Granta Liftback New</t>
+          <t>Soul New</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>317300</v>
+        <v>1324900</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/liftback</t>
+          <t>https://auto-centre-profsouz.ru/auto/kia/new-soul/new</t>
         </is>
       </c>
       <c r="H141" t="n">
-        <v>317300</v>
+        <v>1324900</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/liftback</t>
+          <t>https://auto-centre-profsouz.ru/auto/kia/new-soul/new</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Sportage</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>450900</v>
+        <v>1249900</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/granta_sedan/</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>450900</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/lada/granta_sedan/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/kia-sportage/</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>1249900</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/kia/new-sportage/sportagenew</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1249900</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/kia-sportage/</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Sportage 5</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>387900</v>
+        <v>2099900</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/granta_drive_active/</t>
+          <t>https://autosurgut186.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>387900</t>
+          <t>2099900</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/granta_drive_active/</t>
+          <t>https://autosurgut186.ru/auto/kia/sportage/</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>2344900</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/kia/sportage-5/suv</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>2449900</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/kia-sportage-5/</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Granta Sedan New</t>
+          <t>XCeed</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>345900</v>
+        <v>1154900</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/sedan</t>
-        </is>
-      </c>
-      <c r="H144" t="n">
-        <v>345900</v>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/sedan</t>
+          <t>https://autosurgut186.ru/auto/kia/xceed/</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1154900</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/kia/xceed/</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -6072,32 +6718,48 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>351300</v>
+        <v>337300</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/granta_universal/</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/granta-cross/2019</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>351300</t>
+          <t>437700</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/granta_universal/</t>
+          <t>https://autosurgut186.ru/auto/lada/granta_cross/</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>337300</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/lada/granta-cross/2019</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>342300</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-granta-cross-cross/</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -6107,30 +6769,38 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Granta Universal New</t>
+          <t>Granta Drive Active</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>314300</v>
+        <v>422900</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/wagon</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/granta-drive-active/granta-drive-active</t>
         </is>
       </c>
       <c r="H146" t="n">
-        <v>314300</v>
+        <v>422900</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/wagon</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/granta-drive-active/granta-drive-active</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>427900</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-granta-drive-active-drive-active/</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -6140,30 +6810,40 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>830900</v>
+        <v>378500</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/largus/wagon</t>
-        </is>
-      </c>
-      <c r="H147" t="n">
-        <v>830900</v>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/largus/wagon</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-novaya-granta-hetchbek/</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>544950</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/lada/granta_hatchback/</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>378500</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-novaya-granta-hetchbek/</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -6173,30 +6853,30 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Largus 7 мест</t>
+          <t>Granta Hatchback New</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1232900</v>
+        <v>373500</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/largus/wag</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/hatchback</t>
         </is>
       </c>
       <c r="H148" t="n">
-        <v>1232900</v>
+        <v>373500</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/largus/wag</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/hatchback</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -6206,30 +6886,40 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Largus Cross</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>972900</v>
+        <v>322300</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/largus/wag%20rest1</t>
-        </is>
-      </c>
-      <c r="H149" t="n">
-        <v>972900</v>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/largus/wag%20rest1</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-novaya-granta-liftbek/</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>343700</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/lada/granta_liftback/</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>322300</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-novaya-granta-liftbek/</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>415</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -6239,32 +6929,30 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Granta Liftback New</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>695300</v>
+        <v>317300</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/largus_cross/</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>695300</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/lada/largus_cross/</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/liftback</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>317300</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/liftback</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -6274,32 +6962,40 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>555300</v>
+        <v>292300</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/largus/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-novaya-granta-sedan/</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>555300</t>
+          <t>450900</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/largus/</t>
+          <t>https://autosurgut186.ru/auto/lada/granta_sedan/</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>292300</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-novaya-granta-sedan/</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -6309,30 +7005,32 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Largus Фургон</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>896900</v>
+        <v>387900</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/largus/van%20rest</t>
-        </is>
-      </c>
-      <c r="H152" t="n">
-        <v>896900</v>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/largus/van%20rest</t>
+          <t>https://autosurgut186.ru/auto/lada/granta_drive_active/</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>387900</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -6342,32 +7040,30 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Granta Sedan New</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>444300</v>
+        <v>345900</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/largus_furgon/</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>444300</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/lada/largus_furgon/</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/sedan</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>345900</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/sedan</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -6377,30 +7073,40 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>642900</v>
+        <v>319300</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-new/cuv</t>
-        </is>
-      </c>
-      <c r="H154" t="n">
-        <v>642900</v>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-new/cuv</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-novaya-granta-universal/</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>351300</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/lada/granta_universal/</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>319300</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-novaya-granta-universal/</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -6410,40 +7116,30 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Granta Universal New</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>424900</v>
+        <v>314300</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/suv</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>538300</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/wagon</t>
         </is>
       </c>
       <c r="H155" t="n">
-        <v>424900</v>
+        <v>314300</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/suv</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/wagon</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -6453,40 +7149,38 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>513900</v>
+        <v>830900</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>560300</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/largus/wagon</t>
         </is>
       </c>
       <c r="H156" t="n">
-        <v>513900</v>
+        <v>830900</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/largus/wagon</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1200900</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-largus-universal-5-mest/</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -6496,30 +7190,38 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Niva Legend Urban 3 двери</t>
+          <t>Largus 7 мест</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>492900</v>
+        <v>1232900</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv-urban</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-largus-universal-7-mest/</t>
         </is>
       </c>
       <c r="H157" t="n">
-        <v>492900</v>
+        <v>1232900</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv-urban</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/largus/wag</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1232900</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-largus-universal-7-mest/</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -6529,30 +7231,38 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Niva Legend Urban 5 дверей</t>
+          <t>Largus Cross</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>589900</v>
+        <v>972900</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv-urban5</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/largus/wag%20rest1</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>589900</v>
+        <v>972900</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv-urban5</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/largus/wag%20rest1</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>977900</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-largus-cross/</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -6562,40 +7272,32 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>419000</v>
+        <v>695300</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-new/suv</t>
+          <t>https://autosurgut186.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>576800</t>
+          <t>695300</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/niva_off-road/</t>
-        </is>
-      </c>
-      <c r="H159" t="n">
-        <v>419000</v>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-new/suv</t>
+          <t>https://autosurgut186.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -6605,40 +7307,32 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>687900</v>
+        <v>555300</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-travel/suv</t>
+          <t>https://autosurgut186.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>875000</t>
+          <t>555300</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/niva_travel/</t>
-        </is>
-      </c>
-      <c r="H160" t="n">
-        <v>687900</v>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/niva-travel/suv</t>
+          <t>https://autosurgut186.ru/auto/lada/largus/</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -6648,40 +7342,38 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Largus Фургон</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>634700</v>
+        <v>896900</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_cross_1/</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>634700</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/largus/van%20rest</t>
         </is>
       </c>
       <c r="H161" t="n">
-        <v>864900</v>
+        <v>896900</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/cross</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/largus/van%20rest</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>901900</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-largus-furgon/</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -6691,32 +7383,32 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>876700</v>
+        <v>444300</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_cross/</t>
+          <t>https://autosurgut186.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>876700</t>
+          <t>444300</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_cross/</t>
+          <t>https://autosurgut186.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -6726,40 +7418,38 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>612700</v>
+        <v>642900</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_sw_1/</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>612700</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-niva/</t>
         </is>
       </c>
       <c r="H163" t="n">
-        <v>808900</v>
+        <v>642900</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/sw</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-new/cuv</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>642900</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-niva/</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -6769,40 +7459,48 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>727700</v>
+        <v>424900</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/suv</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>727700</t>
+          <t>538300</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://autosurgut186.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="H164" t="n">
-        <v>923900</v>
+        <v>424900</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/sw-cross</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/suv</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>429900</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-niva-legend-3d/</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -6812,32 +7510,48 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>844700</v>
+        <v>513900</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>844700</t>
+          <t>560300</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://autosurgut186.ru/auto/lada/4x4_5_dv/</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>513900</v>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>518900</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-niva-legend-5d/</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>425</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -6847,32 +7561,38 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Niva Legend Urban 3 двери</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>789700</v>
+        <v>492900</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_sw/</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>789700</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_sw/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-niva-legend-urban-3d/</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>492900</v>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv-urban</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>492900</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-niva-legend-urban-3d/</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>426</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -6882,40 +7602,38 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Niva Legend Urban 5 дверей</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>525700</v>
+        <v>589900</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_1/</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>525700</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_1/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-niva-legend-urban-5d/</t>
         </is>
       </c>
       <c r="H167" t="n">
-        <v>716900</v>
+        <v>589900</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/sedan</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv-urban5</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>589900</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-niva-legend-urban-5d/</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -6925,40 +7643,48 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>725700</v>
+        <v>419000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_cng/</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-new/suv</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>725700</t>
+          <t>576800</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_cng/</t>
+          <t>https://autosurgut186.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
       <c r="H168" t="n">
-        <v>911900</v>
+        <v>419000</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/cng</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-new/suv</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>424000</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-niva-off-road/</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -6968,32 +7694,48 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>712700</v>
+        <v>687900</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta/</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-travel/suv</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>712700</t>
+          <t>875000</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta/</t>
+          <t>https://autosurgut186.ru/auto/lada/niva_travel/</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>687900</v>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/lada/niva-travel/suv</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>692900</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-niva-travel/</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -7003,40 +7745,48 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>931700</v>
+        <v>634700</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_sport/</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>931700</t>
+          <t>634700</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/vesta_sport/</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="H170" t="n">
-        <v>1192900</v>
+        <v>864900</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/sport</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/cross</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>869900</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-vesta-cross/</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -7046,40 +7796,32 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>496700</v>
+        <v>876700</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/xray/</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>496700</t>
+          <t>876700</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/xray/</t>
-        </is>
-      </c>
-      <c r="H171" t="n">
-        <v>701900</v>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/xray/suv</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -7089,1313 +7831,1495 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>583700</v>
+        <v>612700</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/xray_cross/</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>583700</t>
+          <t>612700</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lada/xray_cross/</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="H172" t="n">
-        <v>844900</v>
+        <v>808900</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/lada/xray/xray-cross</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/sw</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>813900</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-vesta-sw/</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>800300</v>
+        <v>727700</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/murman/</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>800300</t>
+          <t>727700</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/murman/</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_sw_cross_1/</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>923900</v>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/sw-cross</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>928900</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-vesta-sw-cross/</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>MyWay</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>851300</v>
+        <v>844700</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/myway/</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>851300</t>
+          <t>844700</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/myway/</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>551300</v>
+        <v>789700</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/solano_ii/</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>551300</t>
+          <t>789700</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/solano_ii/</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>570300</v>
+        <v>525700</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/x50/</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>570300</t>
+          <t>525700</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/x50/</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_1/</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>716900</v>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/sedan</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>721900</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-vesta-sedan/</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>641300</v>
+        <v>725700</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/x60/</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>641300</t>
+          <t>725700</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/x60/</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_cng/</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>911900</v>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/cng</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>916900</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-vesta-cng/</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>920300</v>
+        <v>712700</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/x70/</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>920300</t>
+          <t>712700</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/lifan/x70/</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta/</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1579930</v>
+        <v>931700</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/livan/s6pro/sedan-1gen</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>1934930</t>
+          <t>931700</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/livan/s6pro/</t>
+          <t>https://autosurgut186.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="H179" t="n">
-        <v>1579930</v>
+        <v>1192900</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/livan/s6pro/sedan-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/vesta/sport</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1197900</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-vesta-sport/</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1074900</v>
+        <v>496700</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/livan/x3pro/suv-1gen</t>
+          <t>https://autosurgut186.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>1339930</t>
+          <t>496700</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/livan/x3pro/</t>
+          <t>https://autosurgut186.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="H180" t="n">
-        <v>1074900</v>
+        <v>701900</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/livan/x3pro/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/xray/suv</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>706900</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-xray/</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1635930</v>
+        <v>583700</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/livan/x6pro/suv-1gen</t>
+          <t>https://autosurgut186.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>1990930</t>
+          <t>583700</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/livan/x6pro/</t>
+          <t>https://autosurgut186.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="H181" t="n">
-        <v>1635930</v>
+        <v>844900</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/livan/x6pro/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/xray/xray-cross</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>849900</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-xray-cross/</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1530000</v>
+        <v>800300</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/mg/5/sedan-2gen</t>
-        </is>
-      </c>
-      <c r="H182" t="n">
-        <v>1530000</v>
-      </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/mg/5/sedan-2gen</t>
+          <t>https://autosurgut186.ru/auto/lifan/murman/</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>800300</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/lifan/murman/</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>MyWay</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>670000</v>
+        <v>851300</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/mg/6/liftback-2gen-rest</t>
-        </is>
-      </c>
-      <c r="H183" t="n">
-        <v>670000</v>
-      </c>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/mg/6/liftback-2gen-rest</t>
+          <t>https://autosurgut186.ru/auto/lifan/myway/</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>851300</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/lifan/myway/</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>2450000</v>
+        <v>551300</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/mg/hs/suv_5d-1gen</t>
-        </is>
-      </c>
-      <c r="H184" t="n">
-        <v>2450000</v>
-      </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/mg/hs/suv_5d-1gen</t>
+          <t>https://autosurgut186.ru/auto/lifan/solano_ii/</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>551300</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>ZS</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>1680000</v>
+        <v>570300</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/mg/zs/cuv-2gen-rest</t>
-        </is>
-      </c>
-      <c r="H185" t="n">
-        <v>1680000</v>
-      </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/mg/zs/cuv-2gen-rest</t>
+          <t>https://autosurgut186.ru/auto/lifan/x50/</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>570300</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/lifan/x50/</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1125000</v>
+        <v>641300</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/moskvich/moskvich3/cuv</t>
+          <t>https://autosurgut186.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>1430000</t>
+          <t>641300</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/moskvich/3/</t>
-        </is>
-      </c>
-      <c r="H186" t="n">
-        <v>1125000</v>
-      </c>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/moskvich/moskvich3/cuv</t>
+          <t>https://autosurgut186.ru/auto/lifan/x60/</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>2915000</v>
+        <v>920300</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/moskvich/3e/</t>
+          <t>https://autosurgut186.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2915000</t>
+          <t>920300</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/moskvich/3e/</t>
+          <t>https://autosurgut186.ru/auto/lifan/x70/</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1536000</v>
+        <v>1579930</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/moskvich/moskvich6/liftback-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/livan/s6pro/sedan-1gen</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1934930</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="H188" t="n">
-        <v>1536000</v>
+        <v>1579930</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/moskvich/moskvich6/liftback-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/livan/s6pro/sedan-1gen</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Murano</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>2649000</v>
+        <v>1074900</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/nissan/murano/</t>
+          <t>https://auto-centre-profsouz.ru/auto/livan/x3pro/suv-1gen</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2649000</t>
+          <t>1339930</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/nissan/murano/</t>
+          <t>https://autosurgut186.ru/auto/livan/x3pro/</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>1074900</v>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/livan/x3pro/suv-1gen</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1179900</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/livan-x3pro/</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1540000</v>
+        <v>1635930</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/nissan/qashqai/</t>
+          <t>https://auto-centre-profsouz.ru/auto/livan/x6pro/suv-1gen</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>1540000</t>
+          <t>1990930</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/nissan/qashqai/</t>
+          <t>https://autosurgut186.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="H190" t="n">
-        <v>1632000</v>
+        <v>1635930</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/nissan/new-qashqai/2019</t>
+          <t>https://auto-centre-profsouz.ru/auto/livan/x6pro/suv-1gen</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Qashqai New</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>1737000</v>
+        <v>1530000</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/nissan/qashqai-3-res/qashqai-3-res</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/mg-5/</t>
         </is>
       </c>
       <c r="H191" t="n">
-        <v>1737000</v>
+        <v>1530000</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/nissan/qashqai-3-res/qashqai-3-res</t>
+          <t>https://auto-centre-profsouz.ru/auto/mg/5/sedan-2gen</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1530000</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/mg-5/</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>819000</v>
+        <v>670000</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/nissan/terrano/</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>819000</t>
-        </is>
-      </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/nissan/terrano/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/mg-6/</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>670000</v>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/mg/6/liftback-2gen-rest</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>670000</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/mg-6/</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Terrano New</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>1185000</v>
+        <v>2450000</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/nissan/terrano-2020/suv</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/mg-hs/</t>
         </is>
       </c>
       <c r="H193" t="n">
-        <v>1185000</v>
+        <v>2450000</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/nissan/terrano-2020/suv</t>
+          <t>https://auto-centre-profsouz.ru/auto/mg/hs/suv_5d-1gen</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>2450000</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/mg-hs/</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>ZS</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>1299000</v>
+        <v>1680000</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/nissan/x-trail/</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>1299000</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/nissan/x-trail/</t>
+          <t>https://auto-centre-profsouz.ru/auto/mg/zs/cuv-2gen-rest</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>1680000</v>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/mg/zs/cuv-2gen-rest</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>X-trail New</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>2147000</v>
+        <v>1125000</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/nissan/newxtrail/newxtrail</t>
+          <t>https://auto-centre-profsouz.ru/auto/moskvich/moskvich3/cuv</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>1430000</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="H195" t="n">
-        <v>2147000</v>
+        <v>1125000</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/nissan/newxtrail/newxtrail</t>
+          <t>https://auto-centre-profsouz.ru/auto/moskvich/moskvich3/cuv</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1660000</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/moskvich-3/</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>1369900</v>
+        <v>2915000</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/omoda/c5/</t>
+          <t>https://autosurgut186.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>1369900</t>
+          <t>2915000</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/omoda/c5/</t>
-        </is>
-      </c>
-      <c r="H196" t="n">
-        <v>1874900</v>
-      </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/omoda/c5/cuv</t>
+          <t>https://autosurgut186.ru/auto/moskvich/3e/</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>1514900</v>
+        <v>1536000</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/omoda/s5-2023/SEDAN</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>1619900</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/omoda/s5/</t>
+          <t>https://auto-centre-profsouz.ru/auto/moskvich/moskvich6/liftback-1gen</t>
         </is>
       </c>
       <c r="H197" t="n">
-        <v>1514900</v>
+        <v>1536000</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/omoda/s5-2023/SEDAN</t>
+          <t>https://auto-centre-profsouz.ru/auto/moskvich/moskvich6/liftback-1gen</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>S5 GT</t>
+          <t>Murano</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>2639900</v>
+        <v>2649000</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/omoda/s5-gt/sedan-1gen</t>
-        </is>
-      </c>
-      <c r="H198" t="n">
-        <v>2639900</v>
-      </c>
-      <c r="I198" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/omoda/s5-gt/sedan-1gen</t>
+          <t>https://autosurgut186.ru/auto/nissan/murano/</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2649000</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/nissan/murano/</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>1088000</v>
+        <v>1540000</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/renault/arkana/</t>
+          <t>https://autosurgut186.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>1088000</t>
+          <t>1540000</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/renault/arkana/</t>
+          <t>https://autosurgut186.ru/auto/nissan/qashqai/</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>1632000</v>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/nissan/new-qashqai/2019</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1827000</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/nissan-qashqai/</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>521</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Arkana New</t>
+          <t>Qashqai New</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>1259000</v>
+        <v>1737000</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/renault/new-arkana/2019</t>
+          <t>https://auto-centre-profsouz.ru/auto/nissan/qashqai-3-res/qashqai-3-res</t>
         </is>
       </c>
       <c r="H200" t="n">
-        <v>1259000</v>
+        <v>1737000</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/renault/new-arkana/2019</t>
+          <t>https://auto-centre-profsouz.ru/auto/nissan/qashqai-3-res/qashqai-3-res</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>796000</v>
+        <v>819000</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/renault/duster/</t>
+          <t>https://autosurgut186.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>796000</t>
+          <t>819000</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/renault/duster/</t>
-        </is>
-      </c>
-      <c r="H201" t="n">
-        <v>1003000</v>
-      </c>
-      <c r="I201" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/renault/duster-new/cuv</t>
+          <t>https://autosurgut186.ru/auto/nissan/terrano/</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1290000</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/nissan-new-terrano/</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>519</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Terrano New</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>1046000</v>
+        <v>1185000</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/renault/kaptur/</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>1046000</t>
-        </is>
-      </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/renault/kaptur/</t>
+          <t>https://auto-centre-profsouz.ru/auto/nissan/terrano-2020/suv</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>1185000</v>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/nissan/terrano-2020/suv</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Kaptur New</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>1109000</v>
+        <v>1299000</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/renault/kaptur-new/cuv</t>
-        </is>
-      </c>
-      <c r="H203" t="n">
-        <v>1109000</v>
-      </c>
-      <c r="I203" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/renault/kaptur-new/cuv</t>
+          <t>https://autosurgut186.ru/auto/nissan/x-trail/</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>1299000</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/nissan/x-trail/</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>2252000</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/nissan-new-x-trail/</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>524</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>X-trail New</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>580000</v>
+        <v>2147000</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/renault/logan/</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>580000</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/renault/logan/</t>
+          <t>https://auto-centre-profsouz.ru/auto/nissan/newxtrail/newxtrail</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>2147000</v>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/nissan/newxtrail/newxtrail</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Logan New</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>619000</v>
+        <v>1369900</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/renault/new-logan/new</t>
+          <t>https://autosurgut186.ru/auto/omoda/c5/</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>1369900</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="H205" t="n">
-        <v>619000</v>
+        <v>1874900</v>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/renault/new-logan/new</t>
+          <t>https://auto-centre-profsouz.ru/auto/omoda/c5/cuv</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1979900</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/omoda-c5/</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>686990</v>
+        <v>1514900</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/renault/logan_stepway/</t>
+          <t>https://auto-centre-profsouz.ru/auto/omoda/s5-2023/SEDAN</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>686990</t>
+          <t>1619900</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/renault/logan_stepway/</t>
+          <t>https://autosurgut186.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="H206" t="n">
-        <v>758000</v>
+        <v>1514900</v>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/renault/logan-stepway/sedan</t>
+          <t>https://auto-centre-profsouz.ru/auto/omoda/s5-2023/SEDAN</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1619900</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/omoda-s5/</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>S5 GT</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>581000</v>
+        <v>2639900</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/renault/sandero/</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>581000</t>
-        </is>
-      </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/renault/sandero/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/omoda-s5-gt/</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>2639900</v>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/omoda/s5-gt/sedan-1gen</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>2639900</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/omoda-s5-gt/</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -8405,30 +9329,40 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Sandero New</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>509000</v>
+        <v>1088000</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/renault/new-sandero/new</t>
-        </is>
-      </c>
-      <c r="H208" t="n">
-        <v>509000</v>
-      </c>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/renault/new-sandero/new</t>
+          <t>https://autosurgut186.ru/auto/renault/arkana/</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>1088000</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/renault/arkana/</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1364000</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/renault-new-arkana/</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -8438,32 +9372,30 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Arkana New</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>716990</v>
+        <v>1259000</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/renault/sandero_stepway/</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>716990</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/renault/sandero_stepway/</t>
+          <t>https://auto-centre-profsouz.ru/auto/renault/new-arkana/2019</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>1259000</v>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/renault/new-arkana/2019</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -8473,1251 +9405,1868 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Sandero Stepway New</t>
+          <t>Duster</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>686000</v>
+        <v>1108000</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/renault/new-sandero-stepway/stepway</t>
-        </is>
-      </c>
-      <c r="H210" t="n">
-        <v>686000</v>
-      </c>
-      <c r="I210" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/renault/new-sandero-stepway/stepway</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/renault-duster-new/</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1108000</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/renault-duster-new/</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>G01</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>1838220</v>
+        <v>796000</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/swm/g01/suv-1gen</t>
+          <t>https://autosurgut186.ru/auto/renault/duster/</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>796000</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="H211" t="n">
-        <v>1838220</v>
+        <v>1003000</v>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/swm/g01/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/renault/duster-new/cuv</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>G01F</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1988340</v>
+        <v>1046000</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/swm/g01f/suv-1gen</t>
-        </is>
-      </c>
-      <c r="H212" t="n">
-        <v>1988340</v>
-      </c>
-      <c r="I212" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/swm/g01f/suv-1gen</t>
+          <t>https://autosurgut186.ru/auto/renault/kaptur/</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>1046000</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/renault/kaptur/</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1214000</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/renault-kaptur-new/</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>557</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>SWM</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>G05 Pro</t>
+          <t>Kaptur New</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>2025960</v>
+        <v>1109000</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/swm/g05-pro/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/renault/kaptur-new/cuv</t>
         </is>
       </c>
       <c r="H213" t="n">
-        <v>2025960</v>
+        <v>1109000</v>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/swm/g05-pro/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/renault/kaptur-new/cuv</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>1200000</v>
+        <v>580000</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/skoda/karoq/karoq</t>
+          <t>https://autosurgut186.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>1216900</t>
+          <t>580000</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/skoda/karoq/</t>
-        </is>
-      </c>
-      <c r="H214" t="n">
-        <v>1200000</v>
-      </c>
-      <c r="I214" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/skoda/karoq/karoq</t>
+          <t>https://autosurgut186.ru/auto/renault/logan/</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>614000</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/renault-new-logan/</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>562</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Logan New</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>1657000</v>
+        <v>619000</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/skoda/new-kodiaq/cuv</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>2698000</t>
-        </is>
-      </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/skoda/kodiaq/</t>
+          <t>https://auto-centre-profsouz.ru/auto/renault/new-logan/new</t>
         </is>
       </c>
       <c r="H215" t="n">
-        <v>1657000</v>
+        <v>619000</v>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/skoda/new-kodiaq/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/renault/new-logan/new</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Octavia A8</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>1152000</v>
+        <v>686990</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/skoda/octavia-a8/2020</t>
+          <t>https://autosurgut186.ru/auto/renault/logan_stepway/</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>686990</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="H216" t="n">
-        <v>1152000</v>
+        <v>758000</v>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/skoda/octavia-a8/2020</t>
+          <t>https://auto-centre-profsouz.ru/auto/renault/logan-stepway/sedan</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>791000</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/renault-logan-stepway/</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>1364000</v>
+        <v>581000</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/skoda/octavia/</t>
+          <t>https://autosurgut186.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>1364000</t>
+          <t>581000</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/skoda/octavia/</t>
+          <t>https://autosurgut186.ru/auto/renault/sandero/</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>748000</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/renault-new-sandero/</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Sandero New</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>720300</v>
+        <v>509000</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/skoda/rapid/</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>720300</t>
-        </is>
-      </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/skoda/rapid/</t>
+          <t>https://auto-centre-profsouz.ru/auto/renault/new-sandero/new</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>509000</v>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/renault/new-sandero/new</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Rapid New</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>546000</v>
+        <v>716990</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/skoda/rapid-new/sedan</t>
-        </is>
-      </c>
-      <c r="H219" t="n">
-        <v>546000</v>
-      </c>
-      <c r="I219" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/skoda/rapid-new/sedan</t>
+          <t>https://autosurgut186.ru/auto/renault/sandero_stepway/</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>716990</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/renault/sandero_stepway/</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>863000</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/renault-new-sandero-stepway/</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>564</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Sandero Stepway New</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>1980000</v>
+        <v>686000</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/skoda/superb/</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>1980000</t>
-        </is>
-      </c>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/skoda/superb/</t>
+          <t>https://auto-centre-profsouz.ru/auto/renault/new-sandero-stepway/stepway</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>686000</v>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/renault/new-sandero-stepway/stepway</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>G01</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2821900</v>
+        <v>1838220</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/skoda/superb_combi/</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>2821900</t>
-        </is>
-      </c>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/skoda/superb_combi/</t>
+          <t>https://auto-centre-profsouz.ru/auto/swm/g01/suv-1gen</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>1838220</v>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/swm/g01/suv-1gen</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>612</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>G01F</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>2042000</v>
+        <v>1988340</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/solaris/hc/</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>2042000</t>
-        </is>
-      </c>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/solaris/hc/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/swm-g01f/</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>1988340</v>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/swm/g01f/suv-1gen</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1988340</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/swm-g01f/</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>SWM</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>G05 Pro</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>1546000</v>
+        <v>2025960</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/solaris/hs/</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>1546000</t>
-        </is>
-      </c>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/solaris/hs/</t>
+          <t>https://auto-centre-profsouz.ru/auto/swm/g05-pro/suv-1gen</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>2025960</v>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/swm/g05-pro/suv-1gen</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>1609000</v>
+        <v>1200000</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/solaris/krs/</t>
+          <t>https://auto-centre-profsouz.ru/auto/skoda/karoq/karoq</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>1609000</t>
+          <t>1216900</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/solaris/krs/</t>
+          <t>https://autosurgut186.ru/auto/skoda/karoq/</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/skoda/karoq/karoq</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1305000</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/skoda-karoq/</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>Kodiaq</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1726000</v>
+        <v>1657000</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/solaris/krx/</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>1726000</t>
-        </is>
-      </c>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/solaris/krx/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/skoda-kodiaq-new/</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1657000</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/skoda-kodiaq-new/</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Soueast</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>DX8S</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>2299900</v>
+        <v>1657000</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/soueast/dx8s/cuv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/skoda/new-kodiaq/cuv</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>2698000</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="H226" t="n">
-        <v>2299900</v>
+        <v>1657000</v>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/soueast/dx8s/cuv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/skoda/new-kodiaq/cuv</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>580</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>Octavia A8</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>3019300</v>
+        <v>1152000</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/tank/300/</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>3019300</t>
-        </is>
-      </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/tank/300/</t>
+          <t>https://auto-centre-profsouz.ru/auto/skoda/octavia-a8/2020</t>
         </is>
       </c>
       <c r="H227" t="n">
-        <v>3334000</v>
+        <v>1152000</v>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/tank/300/SUV_5D</t>
+          <t>https://auto-centre-profsouz.ru/auto/skoda/octavia-a8/2020</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1257000</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/skoda-octavia-a8/</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>4799000</v>
+        <v>1364000</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/tank/500/SUV_5D</t>
-        </is>
-      </c>
-      <c r="H228" t="n">
-        <v>4799000</v>
-      </c>
-      <c r="I228" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/tank/500/SUV_5D</t>
+          <t>https://autosurgut186.ru/auto/skoda/octavia/</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>1364000</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>775000</v>
+        <v>651000</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/uaz/hunter/suv</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/skoda-rapid-new/</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>1126500</t>
+          <t>720300</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/uaz/hunter/</t>
-        </is>
-      </c>
-      <c r="H229" t="n">
-        <v>775000</v>
-      </c>
-      <c r="I229" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/uaz/hunter/suv</t>
+          <t>https://autosurgut186.ru/auto/skoda/rapid/</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>651000</v>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/skoda-rapid-new/</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Rapid New</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>807000</v>
+        <v>546000</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/uaz/patriot/</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>807000</t>
-        </is>
-      </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/uaz/patriot/</t>
+          <t>https://auto-centre-profsouz.ru/auto/skoda/rapid-new/sedan</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>546000</v>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/skoda/rapid-new/sedan</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Patriot New</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>935000</v>
+        <v>1980000</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/uaz/patriot-new/suv</t>
-        </is>
-      </c>
-      <c r="H231" t="n">
-        <v>935000</v>
-      </c>
-      <c r="I231" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/uaz/patriot-new/suv</t>
+          <t>https://autosurgut186.ru/auto/skoda/superb/</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>1980000</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/skoda/superb/</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Patriot Pickup</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>846500</v>
+        <v>2821900</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://autosurgut186.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>846500</t>
+          <t>2821900</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://autosurgut186.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Pickup New</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>960000</v>
+        <v>2042000</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/uaz/pickup-new/suv</t>
-        </is>
-      </c>
-      <c r="H233" t="n">
-        <v>960000</v>
-      </c>
-      <c r="I233" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/uaz/pickup-new/suv</t>
+          <t>https://autosurgut186.ru/auto/solaris/hc/</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2042000</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>1220300</v>
+        <v>1546000</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/volkswagen/jetta/</t>
+          <t>https://autosurgut186.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>1220300</t>
+          <t>1546000</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/volkswagen/jetta/</t>
+          <t>https://autosurgut186.ru/auto/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Jetta New</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>903000</v>
+        <v>1609000</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/volkswagen/jetta-new/sedan</t>
-        </is>
-      </c>
-      <c r="H235" t="n">
-        <v>903000</v>
-      </c>
-      <c r="I235" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/volkswagen/jetta-new/sedan</t>
+          <t>https://autosurgut186.ru/auto/solaris/krs/</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>1609000</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>2009200</v>
+        <v>1726000</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/volkswagen/passat/</t>
+          <t>https://autosurgut186.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>2009200</t>
+          <t>1726000</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/volkswagen/passat/</t>
+          <t>https://autosurgut186.ru/auto/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>598</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Soueast</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Passat New</t>
+          <t>DX8S</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>2118000</v>
+        <v>2299900</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/volkswagen/passat-new/sedan</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/soueast-dx8s/</t>
         </is>
       </c>
       <c r="H237" t="n">
-        <v>2118000</v>
+        <v>2299900</v>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/volkswagen/passat-new/sedan</t>
+          <t>https://auto-centre-profsouz.ru/auto/soueast/dx8s/cuv-1gen</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>2299900</v>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/soueast-dx8s/</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>690300</v>
+        <v>3019300</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/volkswagen/polo/</t>
+          <t>https://autosurgut186.ru/auto/tank/300/</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>690300</t>
+          <t>3019300</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/volkswagen/polo/</t>
+          <t>https://autosurgut186.ru/auto/tank/300/</t>
+        </is>
+      </c>
+      <c r="H238" t="n">
+        <v>3334000</v>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/tank/300/SUV_5D</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>3439000</v>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/tank-300/</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Polo New</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>507400</v>
+        <v>3439000</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/volkswagen/new-polo/sedan</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/tank-500/</t>
         </is>
       </c>
       <c r="H239" t="n">
-        <v>507400</v>
+        <v>4799000</v>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/volkswagen/new-polo/sedan</t>
+          <t>https://auto-centre-profsouz.ru/auto/tank/500/SUV_5D</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>3439000</v>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/tank-500/</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>2130230</v>
+        <v>775000</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/volkswagen/taos/</t>
+          <t>https://auto-centre-profsouz.ru/auto/uaz/hunter/suv</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>2130230</t>
+          <t>1126500</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/volkswagen/taos/</t>
+          <t>https://autosurgut186.ru/auto/uaz/hunter/</t>
         </is>
       </c>
       <c r="H240" t="n">
-        <v>2213900</v>
+        <v>775000</v>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/volkswagen/taos/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/uaz/hunter/suv</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>880000</v>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/uaz-hunter/</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>1479900</v>
+        <v>807000</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/volkswagen/tiguan/</t>
+          <t>https://autosurgut186.ru/auto/uaz/patriot/</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>1479900</t>
+          <t>807000</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="H241" t="n">
-        <v>1519900</v>
-      </c>
-      <c r="I241" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/volkswagen/tiguan-new/cuv</t>
+          <t>https://autosurgut186.ru/auto/uaz/patriot/</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1040000</v>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/uaz-patriot-new/</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>635</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>XCite</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>X-Cross 7 New</t>
+          <t>Patriot New</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>1899000</v>
+        <v>935000</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/xcite/x-cross-7/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/uaz/patriot-new/suv</t>
         </is>
       </c>
       <c r="H242" t="n">
-        <v>1899000</v>
+        <v>935000</v>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/xcite/x-cross-7/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/uaz/patriot-new/suv</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>Patriot Pickup</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>984900</v>
+        <v>846500</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/zotye/coupa/coupasuv</t>
+          <t>https://autosurgut186.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>985640</t>
+          <t>846500</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>https://autosurgut186.ru/auto/zotye/coupa/</t>
-        </is>
-      </c>
-      <c r="H243" t="n">
-        <v>984900</v>
-      </c>
-      <c r="I243" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/zotye/coupa/coupasuv</t>
+          <t>https://autosurgut186.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
+          <t>637</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>UAZ</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Pickup</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>1065000</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/uaz-pickup-new/</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1065000</v>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/uaz-pickup-new/</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>UAZ</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Pickup New</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>960000</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/uaz/pickup-new/suv</t>
+        </is>
+      </c>
+      <c r="H245" t="n">
+        <v>960000</v>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/uaz/pickup-new/suv</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Jetta</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>1008000</v>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/volkswagen-jetta-new/</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>1220300</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1008000</v>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/volkswagen-jetta-new/</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>646</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Jetta New</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>903000</v>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/volkswagen/jetta-new/sedan</t>
+        </is>
+      </c>
+      <c r="H247" t="n">
+        <v>903000</v>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/volkswagen/jetta-new/sedan</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Passat</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>2009200</v>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/volkswagen/passat/</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>2009200</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/volkswagen/passat/</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>2223000</v>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/volkswagen-passat-new/</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Passat New</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>2118000</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/volkswagen/passat-new/sedan</t>
+        </is>
+      </c>
+      <c r="H249" t="n">
+        <v>2118000</v>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/volkswagen/passat-new/sedan</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Polo</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>612400</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/volkswagen-new-polo/</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>690300</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>612400</v>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/volkswagen-new-polo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>648</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Polo New</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>507400</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/volkswagen/new-polo/sedan</t>
+        </is>
+      </c>
+      <c r="H251" t="n">
+        <v>507400</v>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/volkswagen/new-polo/sedan</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Taos</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>2130230</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/volkswagen/taos/</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>2130230</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/volkswagen/taos/</t>
+        </is>
+      </c>
+      <c r="H252" t="n">
+        <v>2213900</v>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/volkswagen/taos/cuv</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>2318900</v>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/volkswagen-taos/</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Tiguan</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>1624900</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/volkswagen-tiguan-new/</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1624900</v>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/volkswagen-tiguan-new/</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Tiguan New</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>1479900</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>1479900</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="H254" t="n">
+        <v>1519900</v>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/volkswagen/tiguan-new/cuv</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>XCite</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>X-Cross 7 New</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>1899000</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/xcite/x-cross-7/suv-1gen</t>
+        </is>
+      </c>
+      <c r="H255" t="n">
+        <v>1899000</v>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/xcite/x-cross-7/suv-1gen</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Coupa</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>979600</v>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/zotye-coupa/</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>985640</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="H256" t="n">
+        <v>984900</v>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/zotye/coupa/coupasuv</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>979600</v>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/zotye-coupa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
           <t>674</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr">
+      <c r="B257" t="inlineStr">
         <is>
           <t>Zotye</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr">
+      <c r="C257" t="inlineStr">
         <is>
           <t>T600</t>
         </is>
       </c>
-      <c r="D244" t="n">
+      <c r="D257" t="n">
+        <v>761600</v>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/zotye-t600/</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>884000</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/zotye/t600/</t>
+        </is>
+      </c>
+      <c r="H257" t="n">
         <v>766600</v>
       </c>
-      <c r="E244" t="inlineStr">
+      <c r="I257" t="inlineStr">
         <is>
           <t>https://auto-centre-profsouz.ru/auto/zotye/%D0%A2600/suv</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>884000</t>
-        </is>
-      </c>
-      <c r="G244" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/zotye/t600/</t>
-        </is>
-      </c>
-      <c r="H244" t="n">
-        <v>766600</v>
-      </c>
-      <c r="I244" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/zotye/%D0%A2600/suv</t>
+      <c r="L257" t="n">
+        <v>761600</v>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/zotye-t600/</t>
         </is>
       </c>
     </row>

--- a/xlsx/surgut.xlsx
+++ b/xlsx/surgut.xlsx
@@ -534,7 +534,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2631930</t>
+          <t>2781930</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -570,7 +570,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2631930</t>
+          <t>2781930</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1535030</t>
+          <t>1685030</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1535030</t>
+          <t>1685030</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1470000</t>
+          <t>1620000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1470000</t>
+          <t>1620000</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2065000</t>
+          <t>2215000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2065000</t>
+          <t>2215000</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1129000</t>
+          <t>1279000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1129000</t>
+          <t>1279000</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1289900</v>
+        <v>1424900</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/changan/cs35_plus/</t>
+          <t>https://autosalon-hmao.ru/auto/changan/cs35plusnew/cuv</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1289900</t>
+          <t>1439900</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1289900</t>
+          <t>1439900</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>910300</v>
+        <v>1060300</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>910300</t>
+          <t>1060300</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>910300</t>
+          <t>1060300</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1949900</t>
+          <t>2099900</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1949900</t>
+          <t>2099900</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1330300</v>
+        <v>1480300</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1330300</t>
+          <t>1480300</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1330300</t>
+          <t>1480300</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1979900</v>
+        <v>2129900</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1979900</t>
+          <t>2129900</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>1979900</t>
+          <t>2129900</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1473,7 +1473,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2300950</v>
+        <v>2450950</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2300950</t>
+          <t>2450950</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2300950</t>
+          <t>2450950</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1809900</t>
+          <t>1959900</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1809900</t>
+          <t>1959900</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2939900</t>
+          <t>3089900</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2939900</t>
+          <t>3089900</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1757637</v>
+        <v>1907637</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1757637</t>
+          <t>1907637</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>1757637</t>
+          <t>1907637</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1959900</v>
+        <v>2109900</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1959900</t>
+          <t>2109900</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>1959900</t>
+          <t>2109900</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2349900</t>
+          <t>2499900</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2349900</t>
+          <t>2499900</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1999900</t>
+          <t>2149900</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>1999900</t>
+          <t>2149900</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2379930</t>
+          <t>2529930</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2379930</t>
+          <t>2529930</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2081,7 +2081,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>526900</v>
+        <v>676900</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>526900</t>
+          <t>676900</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>526900</t>
+          <t>676900</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2160,7 +2160,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1631000</v>
+        <v>1781000</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1631000</t>
+          <t>1781000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2189,7 +2189,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>1631000</t>
+          <t>1781000</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>869900</v>
+        <v>1019900</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>869900</t>
+          <t>1019900</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>869900</t>
+          <t>1019900</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>850300</t>
+          <t>1000300</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2339,7 +2339,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>850300</t>
+          <t>1000300</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>820300</v>
+        <v>970300</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>820300</t>
+          <t>970300</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>820300</t>
+          <t>970300</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1169900</v>
+        <v>1319900</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1169900</t>
+          <t>1319900</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>1169900</t>
+          <t>1319900</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2531,7 +2531,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1939000</v>
+        <v>2089000</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1939000</t>
+          <t>2089000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>1939000</t>
+          <t>2089000</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2586,7 +2586,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1389900</v>
+        <v>1539900</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1389900</t>
+          <t>1539900</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>1389900</t>
+          <t>1539900</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2665,7 +2665,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1169900</v>
+        <v>1319900</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1169900</t>
+          <t>1319900</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>1169900</t>
+          <t>1319900</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2744,7 +2744,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1873400</v>
+        <v>2023400</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1873400</t>
+          <t>2023400</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>1873400</t>
+          <t>2023400</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2823,7 +2823,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2189000</v>
+        <v>2339000</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2189000</t>
+          <t>2339000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2852,7 +2852,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2189000</t>
+          <t>2339000</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>667730</t>
+          <t>817730</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>667730</t>
+          <t>817730</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>616630</t>
+          <t>766630</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>616630</t>
+          <t>766630</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>665630</t>
+          <t>815630</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -3017,7 +3017,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>665630</t>
+          <t>815630</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1350300</t>
+          <t>1500300</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>1350300</t>
+          <t>1500300</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>710000</t>
+          <t>860000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>710000</t>
+          <t>860000</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3369,7 +3369,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1469900</v>
+        <v>1619900</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1469900</t>
+          <t>1619900</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3414,7 +3414,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>1469900</t>
+          <t>1619900</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3497,7 +3497,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2939000</v>
+        <v>3089000</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2939000</t>
+          <t>3089000</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2939000</t>
+          <t>3089000</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3568,7 +3568,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2099900</v>
+        <v>2249900</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2099900</t>
+          <t>2249900</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2099900</t>
+          <t>2249900</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3698,7 +3698,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3009900</v>
+        <v>3159900</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>3009900</t>
+          <t>3159900</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>3009900</t>
+          <t>3159900</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1838000</t>
+          <t>1988000</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>1838000</t>
+          <t>1988000</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1849000</t>
+          <t>1999000</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>1849000</t>
+          <t>1999000</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4017,16 +4017,16 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1359000</v>
+        <v>1365000</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/faw/besturn_t77/</t>
+          <t>https://autosalon-hmao.ru/auto/faw/bestune-t77/cuv</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1359000</t>
+          <t>1509000</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>1359000</t>
+          <t>1509000</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2065000</v>
+        <v>2215000</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2065000</t>
+          <t>2215000</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2065000</t>
+          <t>2215000</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4224,7 +4224,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>650000</v>
+        <v>800000</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>800000</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>800000</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>879000</t>
+          <t>1029000</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4357,7 +4357,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>879000</t>
+          <t>1029000</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1725000</t>
+          <t>1875000</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -4559,7 +4559,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>1725000</t>
+          <t>1875000</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4585,7 +4585,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1020000</v>
+        <v>1170000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1020000</t>
+          <t>1170000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>1020000</t>
+          <t>1170000</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4673,7 +4673,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2449300</t>
+          <t>2599300</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2449300</t>
+          <t>2599300</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -4752,7 +4752,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1549290</t>
+          <t>1699290</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>1549290</t>
+          <t>1699290</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1957990</v>
+        <v>2107990</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1957990</t>
+          <t>2107990</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4859,7 +4859,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>1957990</t>
+          <t>2107990</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1618990</v>
+        <v>1768990</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1618990</t>
+          <t>1768990</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>1618990</t>
+          <t>1768990</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>1499000</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -5001,7 +5001,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>1499000</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5027,7 +5027,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>772300</v>
+        <v>922300</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>772300</t>
+          <t>922300</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>772300</t>
+          <t>922300</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1115000</t>
+          <t>1265000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -5143,7 +5143,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>1115000</t>
+          <t>1265000</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5218,16 +5218,16 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1040000</v>
+        <v>1159993</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/geely/emgrand/</t>
+          <t>https://sibir-morots.ru/auto/geely/emgrand/</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1040000</t>
+          <t>1190000</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>1040000</t>
+          <t>1190000</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>699890</t>
+          <t>849890</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5377,7 +5377,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>699890</t>
+          <t>849890</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5411,7 +5411,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2159990</v>
+        <v>2309990</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2159990</t>
+          <t>2309990</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2159990</t>
+          <t>2309990</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5541,7 +5541,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1854000</v>
+        <v>2004000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1854000</t>
+          <t>2004000</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>1854000</t>
+          <t>2004000</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5645,7 +5645,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1983990</v>
+        <v>2133990</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>1983990</t>
+          <t>2133990</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5674,7 +5674,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>1983990</t>
+          <t>2133990</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -5700,7 +5700,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1690000</v>
+        <v>1840000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1690000</t>
+          <t>1840000</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5745,7 +5745,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>1690000</t>
+          <t>1840000</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1780000</v>
+        <v>1930000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1780000</t>
+          <t>1930000</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>1780000</t>
+          <t>1930000</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -5891,7 +5891,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1150000</v>
+        <v>1300000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>1150000</t>
+          <t>1300000</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -5928,7 +5928,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>1150000</t>
+          <t>1300000</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1310000</v>
+        <v>1460000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1310000</t>
+          <t>1460000</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>1310000</t>
+          <t>1460000</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1999000</t>
+          <t>2149000</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -6138,7 +6138,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>1999000</t>
+          <t>2149000</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6172,16 +6172,16 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>879000</v>
+        <v>929000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/haval/h5_i/</t>
+          <t>https://sibir-morots.ru/auto/haval/h5/</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>879000</t>
+          <t>1029000</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -6201,7 +6201,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>879000</t>
+          <t>1029000</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6227,7 +6227,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>2219400</v>
+        <v>2369400</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2219400</t>
+          <t>2369400</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2219400</t>
+          <t>2369400</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6307,7 +6307,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>2007000</v>
+        <v>2157000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2007000</t>
+          <t>2157000</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -6352,7 +6352,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2007000</t>
+          <t>2157000</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>589000</v>
+        <v>739000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>589000</t>
+          <t>739000</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -6431,7 +6431,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>589000</t>
+          <t>739000</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -6465,7 +6465,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>689000</v>
+        <v>839000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>689000</t>
+          <t>839000</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -6502,7 +6502,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>689000</t>
+          <t>839000</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1509000</t>
+          <t>1659000</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>1509000</t>
+          <t>1659000</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -6658,7 +6658,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>699300</v>
+        <v>849300</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>699300</t>
+          <t>849300</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>699300</t>
+          <t>849300</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -6762,16 +6762,16 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1505000</v>
+        <v>1644000</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/hyundai/elantra/</t>
+          <t>https://autosalon-hmao.ru/auto/hyundai/elantra-new/sedan</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1505000</t>
+          <t>1655000</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>1505000</t>
+          <t>1655000</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -6897,7 +6897,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>503000</v>
+        <v>653000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>503000</t>
+          <t>653000</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -6934,7 +6934,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>503000</t>
+          <t>653000</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7001,7 +7001,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1130200</v>
+        <v>1280200</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1130200</t>
+          <t>1280200</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>1130200</t>
+          <t>1280200</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1499000</v>
+        <v>1649000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>1499000</t>
+          <t>1649000</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -7175,7 +7175,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>1499000</t>
+          <t>1649000</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -7209,7 +7209,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>740000</v>
+        <v>890000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>740000</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -7254,7 +7254,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>740000</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>809000</t>
+          <t>959000</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -7431,7 +7431,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>809000</t>
+          <t>959000</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>989000</t>
+          <t>1139000</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -7569,7 +7569,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>989000</t>
+          <t>1139000</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -7662,7 +7662,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2016000</v>
+        <v>2166000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -7671,7 +7671,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2016000</t>
+          <t>2166000</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>2016000</t>
+          <t>2166000</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -7741,7 +7741,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3079000</v>
+        <v>3229000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>3079000</t>
+          <t>3229000</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -7770,7 +7770,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>3079000</t>
+          <t>3229000</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -7805,7 +7805,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1849900</t>
+          <t>1999900</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>1849900</t>
+          <t>1999900</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -7875,7 +7875,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>2359000</v>
+        <v>2509000</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2359000</t>
+          <t>2509000</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>2359000</t>
+          <t>2509000</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -7930,7 +7930,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1809900</v>
+        <v>1959900</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>1809900</t>
+          <t>1959900</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>1809900</t>
+          <t>1959900</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -8009,7 +8009,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>2274930</v>
+        <v>2424930</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2274930</t>
+          <t>2424930</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -8054,7 +8054,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>2274930</t>
+          <t>2424930</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -8097,7 +8097,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>1200000</t>
+          <t>1350000</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>1200000</t>
+          <t>1350000</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -8176,7 +8176,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>1500000</t>
+          <t>1650000</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -8212,7 +8212,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>1500000</t>
+          <t>1650000</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -8255,7 +8255,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>1659000</t>
+          <t>1809000</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -8291,7 +8291,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>1659000</t>
+          <t>1809000</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1269000</v>
+        <v>1419000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1269000</t>
+          <t>1419000</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -8370,7 +8370,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>1269000</t>
+          <t>1419000</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -8413,7 +8413,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>1566600</t>
+          <t>1716600</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>1566600</t>
+          <t>1716600</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -8492,7 +8492,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>1760430</t>
+          <t>1910430</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -8528,7 +8528,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>1760430</t>
+          <t>1910430</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -8562,7 +8562,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1726900</v>
+        <v>1876900</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>1726900</t>
+          <t>1876900</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>1726900</t>
+          <t>1876900</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -8633,7 +8633,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>860300</v>
+        <v>1010300</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>860300</t>
+          <t>1010300</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -8678,7 +8678,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>860300</t>
+          <t>1010300</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -8753,7 +8753,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>870300</v>
+        <v>1020300</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>870300</t>
+          <t>1020300</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -8798,7 +8798,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>870300</t>
+          <t>1020300</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>870300</v>
+        <v>1020300</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -8941,7 +8941,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>870300</t>
+          <t>1020300</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -8959,7 +8959,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>870300</t>
+          <t>1020300</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -8993,7 +8993,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1070300</v>
+        <v>1220300</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -9002,7 +9002,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1070300</t>
+          <t>1220300</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -9038,7 +9038,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>1070300</t>
+          <t>1220300</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -9115,7 +9115,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>550745</v>
+        <v>700745</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -9124,7 +9124,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>550745</t>
+          <t>700745</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -9142,7 +9142,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>550745</t>
+          <t>700745</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -9185,7 +9185,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>1308930</t>
+          <t>1458930</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -9211,7 +9211,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>1308930</t>
+          <t>1458930</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -9288,7 +9288,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>510300</v>
+        <v>660300</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>510300</t>
+          <t>660300</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -9315,7 +9315,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>510300</t>
+          <t>660300</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -9349,7 +9349,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>590300</v>
+        <v>740300</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>590300</t>
+          <t>740300</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -9394,7 +9394,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>590300</t>
+          <t>740300</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -9428,7 +9428,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>970300</v>
+        <v>1120300</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -9437,7 +9437,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>970300</t>
+          <t>1120300</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -9473,7 +9473,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>970300</t>
+          <t>1120300</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -9591,7 +9591,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>571200</v>
+        <v>721200</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -9600,7 +9600,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>571200</t>
+          <t>721200</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>571200</t>
+          <t>721200</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -9744,7 +9744,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1949900</v>
+        <v>2099900</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -9753,7 +9753,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>1949900</t>
+          <t>2099900</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -9789,7 +9789,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>1949900</t>
+          <t>2099900</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -9823,7 +9823,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1004900</v>
+        <v>1154900</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -9832,7 +9832,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>1004900</t>
+          <t>1154900</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -9842,7 +9842,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>1004900</t>
+          <t>1154900</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -12153,7 +12153,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>650300</v>
+        <v>800300</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>650300</t>
+          <t>800300</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -12172,7 +12172,7 @@
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>650300</t>
+          <t>800300</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
@@ -12198,7 +12198,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>701300</v>
+        <v>851300</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>701300</t>
+          <t>851300</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -12217,7 +12217,7 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>701300</t>
+          <t>851300</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
@@ -12243,7 +12243,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>401300</v>
+        <v>551300</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -12252,7 +12252,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>401300</t>
+          <t>551300</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -12262,7 +12262,7 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>401300</t>
+          <t>551300</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
@@ -12288,7 +12288,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>420300</v>
+        <v>570300</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -12297,7 +12297,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>420300</t>
+          <t>570300</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -12307,7 +12307,7 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>420300</t>
+          <t>570300</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
@@ -12333,7 +12333,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>491300</v>
+        <v>641300</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>491300</t>
+          <t>641300</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -12352,7 +12352,7 @@
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>491300</t>
+          <t>641300</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
@@ -12378,7 +12378,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>770300</v>
+        <v>920300</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>770300</t>
+          <t>920300</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -12397,7 +12397,7 @@
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>770300</t>
+          <t>920300</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -12432,7 +12432,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>1784930</t>
+          <t>1934930</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -12460,7 +12460,7 @@
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>1784930</t>
+          <t>1934930</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
@@ -12503,7 +12503,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>1189930</t>
+          <t>1339930</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -12539,7 +12539,7 @@
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>1189930</t>
+          <t>1339930</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
@@ -12582,7 +12582,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>1840930</t>
+          <t>1990930</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -12610,7 +12610,7 @@
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>1840930</t>
+          <t>1990930</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
@@ -12841,7 +12841,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>1280000</t>
+          <t>1430000</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -12877,7 +12877,7 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>1280000</t>
+          <t>1430000</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
@@ -12911,7 +12911,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>2765000</v>
+        <v>2915000</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2765000</t>
+          <t>2915000</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -12940,7 +12940,7 @@
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>2765000</t>
+          <t>2915000</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
@@ -13017,7 +13017,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>2499000</v>
+        <v>2649000</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2499000</t>
+          <t>2649000</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -13046,7 +13046,7 @@
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>2499000</t>
+          <t>2649000</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
@@ -13072,7 +13072,7 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>1390000</v>
+        <v>1540000</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>1540000</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -13117,7 +13117,7 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>1540000</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
@@ -13192,7 +13192,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>669000</v>
+        <v>819000</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -13201,7 +13201,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>669000</t>
+          <t>819000</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -13229,7 +13229,7 @@
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>669000</t>
+          <t>819000</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>1149000</v>
+        <v>1299000</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>1149000</t>
+          <t>1299000</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -13333,7 +13333,7 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>1149000</t>
+          <t>1299000</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
@@ -13400,7 +13400,7 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1219900</v>
+        <v>1369900</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -13409,7 +13409,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>1219900</t>
+          <t>1369900</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -13445,7 +13445,7 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>1219900</t>
+          <t>1369900</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
@@ -13479,16 +13479,16 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>1469900</v>
+        <v>1514900</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/omoda/s5/</t>
+          <t>https://autosalon-hmao.ru/auto/omoda/s5-2023/SEDAN</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>1469900</t>
+          <t>1619900</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -13524,7 +13524,7 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>1469900</t>
+          <t>1619900</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>938000</v>
+        <v>1088000</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>938000</t>
+          <t>1088000</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -13644,7 +13644,7 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>938000</t>
+          <t>1088000</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
@@ -13754,7 +13754,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>646000</v>
+        <v>796000</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -13763,7 +13763,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>646000</t>
+          <t>796000</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -13781,7 +13781,7 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>646000</t>
+          <t>796000</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
@@ -13815,7 +13815,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>896000</v>
+        <v>1046000</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>896000</t>
+          <t>1046000</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -13852,7 +13852,7 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>896000</t>
+          <t>1046000</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
@@ -13919,7 +13919,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>430000</v>
+        <v>580000</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>430000</t>
+          <t>580000</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -13956,7 +13956,7 @@
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>430000</t>
+          <t>580000</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
@@ -14023,7 +14023,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>536990</v>
+        <v>686990</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>536990</t>
+          <t>686990</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -14068,7 +14068,7 @@
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>536990</t>
+          <t>686990</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -14102,7 +14102,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>431000</v>
+        <v>581000</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>431000</t>
+          <t>581000</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -14139,7 +14139,7 @@
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>431000</t>
+          <t>581000</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -14206,7 +14206,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>566990</v>
+        <v>716990</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -14215,7 +14215,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>566990</t>
+          <t>716990</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -14243,7 +14243,7 @@
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>566990</t>
+          <t>716990</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -14441,16 +14441,16 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>1066900</v>
+        <v>1200000</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/skoda/karoq/</t>
+          <t>https://autosalon-hmao.ru/auto/skoda/karoq/karoq</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>1066900</t>
+          <t>1216900</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -14486,7 +14486,7 @@
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>1066900</t>
+          <t>1216900</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
@@ -14562,7 +14562,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>2548000</t>
+          <t>2698000</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -14590,7 +14590,7 @@
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>2548000</t>
+          <t>2698000</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -14708,7 +14708,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>1214000</v>
+        <v>1364000</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>1214000</t>
+          <t>1364000</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -14727,7 +14727,7 @@
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>1214000</t>
+          <t>1364000</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
@@ -14753,16 +14753,16 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>570300</v>
+        <v>651000</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/skoda/rapid/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/skoda-rapid-new/</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>570300</t>
+          <t>720300</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -14790,7 +14790,7 @@
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>570300</t>
+          <t>720300</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
@@ -14857,7 +14857,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>1830000</v>
+        <v>1980000</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>1830000</t>
+          <t>1980000</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -14886,7 +14886,7 @@
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>1830000</t>
+          <t>1980000</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -14912,7 +14912,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>2671900</v>
+        <v>2821900</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -14921,7 +14921,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>2671900</t>
+          <t>2821900</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -14941,7 +14941,7 @@
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>2671900</t>
+          <t>2821900</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -14976,7 +14976,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>1892000</t>
+          <t>2042000</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -14996,7 +14996,7 @@
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>1892000</t>
+          <t>2042000</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -15022,7 +15022,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1396000</v>
+        <v>1546000</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>1396000</t>
+          <t>1546000</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -15051,7 +15051,7 @@
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>1396000</t>
+          <t>1546000</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -15077,16 +15077,16 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>1459000</v>
+        <v>1475600</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/solaris/krs/</t>
+          <t>https://sibir-morots.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>1459000</t>
+          <t>1609000</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -15106,7 +15106,7 @@
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>1459000</t>
+          <t>1609000</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -15132,16 +15132,16 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>1576000</v>
+        <v>1614000</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/solaris/krx/</t>
+          <t>https://sibir-morots.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>1576000</t>
+          <t>1726000</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -15161,7 +15161,7 @@
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>1576000</t>
+          <t>1726000</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -15236,7 +15236,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>2869300</v>
+        <v>3019300</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>2869300</t>
+          <t>3019300</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -15281,7 +15281,7 @@
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>2869300</t>
+          <t>3019300</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -15373,7 +15373,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>976500</t>
+          <t>1126500</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -15409,7 +15409,7 @@
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>976500</t>
+          <t>1126500</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -15443,7 +15443,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>657000</v>
+        <v>807000</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -15452,7 +15452,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>657000</t>
+          <t>807000</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -15480,7 +15480,7 @@
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>657000</t>
+          <t>807000</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
@@ -15547,7 +15547,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>696500</v>
+        <v>846500</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>696500</t>
+          <t>846500</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -15576,7 +15576,7 @@
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>696500</t>
+          <t>846500</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -15685,7 +15685,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>1070300</t>
+          <t>1220300</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -15713,7 +15713,7 @@
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>1070300</t>
+          <t>1220300</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -15780,7 +15780,7 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>1859200</v>
+        <v>2009200</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>1859200</t>
+          <t>2009200</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>1859200</t>
+          <t>2009200</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -15884,16 +15884,16 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>540300</v>
+        <v>612400</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/volkswagen/polo/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/volkswagen-new-polo/</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>540300</t>
+          <t>690300</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -15921,7 +15921,7 @@
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>540300</t>
+          <t>690300</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -15988,7 +15988,7 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>1980230</v>
+        <v>2130230</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -15997,7 +15997,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>1980230</t>
+          <t>2130230</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -16033,7 +16033,7 @@
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>1980230</t>
+          <t>2130230</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -16110,7 +16110,7 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>1329900</v>
+        <v>1479900</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>1329900</t>
+          <t>1479900</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -16137,7 +16137,7 @@
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>1329900</t>
+          <t>1479900</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -16212,16 +16212,16 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>835640</v>
+        <v>979600</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/zotye/coupa/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/zotye-coupa/</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>835640</t>
+          <t>985640</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -16257,7 +16257,7 @@
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>835640</t>
+          <t>985640</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -16283,16 +16283,16 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>734000</v>
+        <v>761600</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/zotye/t600/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/zotye-t600/</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>734000</t>
+          <t>884000</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -16328,7 +16328,7 @@
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>734000</t>
+          <t>884000</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">

--- a/xlsx/surgut.xlsx
+++ b/xlsx/surgut.xlsx
@@ -534,7 +534,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2781930</t>
+          <t>2631930</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -570,7 +570,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2781930</t>
+          <t>2631930</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1685030</t>
+          <t>1535030</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1685030</t>
+          <t>1535030</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1620000</t>
+          <t>1470000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1620000</t>
+          <t>1470000</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2215000</t>
+          <t>2065000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2215000</t>
+          <t>2065000</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1279000</t>
+          <t>1129000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1279000</t>
+          <t>1129000</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1424900</v>
+        <v>1289900</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/changan/cs35plusnew/cuv</t>
+          <t>https://autocentersurgut186.ru/auto/changan/cs35_plus/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1439900</t>
+          <t>1289900</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1439900</t>
+          <t>1289900</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1060300</v>
+        <v>910300</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1060300</t>
+          <t>910300</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1060300</t>
+          <t>910300</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2099900</t>
+          <t>1949900</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2099900</t>
+          <t>1949900</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1480300</v>
+        <v>1330300</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1480300</t>
+          <t>1330300</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1480300</t>
+          <t>1330300</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2129900</v>
+        <v>1979900</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2129900</t>
+          <t>1979900</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2129900</t>
+          <t>1979900</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1473,7 +1473,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2450950</v>
+        <v>2300950</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2450950</t>
+          <t>2300950</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2450950</t>
+          <t>2300950</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1959900</t>
+          <t>1809900</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1959900</t>
+          <t>1809900</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3089900</t>
+          <t>2939900</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>3089900</t>
+          <t>2939900</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1907637</v>
+        <v>1757637</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1907637</t>
+          <t>1757637</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>1907637</t>
+          <t>1757637</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2109900</v>
+        <v>1959900</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2109900</t>
+          <t>1959900</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2109900</t>
+          <t>1959900</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2499900</t>
+          <t>2349900</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2499900</t>
+          <t>2349900</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2149900</t>
+          <t>1999900</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2149900</t>
+          <t>1999900</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2529930</t>
+          <t>2379930</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2529930</t>
+          <t>2379930</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2081,7 +2081,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>676900</v>
+        <v>526900</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>676900</t>
+          <t>526900</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>676900</t>
+          <t>526900</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2160,7 +2160,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1781000</v>
+        <v>1631000</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2169,19 +2169,19 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>1631000</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/chery/tiggo_4/</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
           <t>1781000</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/chery/tiggo_4/</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>1781000</t>
-        </is>
-      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>https://sibir-morots.ru/auto/chery/tiggo_4_new/</t>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>1781000</t>
+          <t>1631000</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1019900</v>
+        <v>869900</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1019900</t>
+          <t>869900</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>1019900</t>
+          <t>869900</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1000300</t>
+          <t>850300</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2339,7 +2339,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>1000300</t>
+          <t>850300</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>970300</v>
+        <v>820300</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>970300</t>
+          <t>820300</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>970300</t>
+          <t>820300</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1319900</v>
+        <v>1169900</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1319900</t>
+          <t>1169900</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>1319900</t>
+          <t>1169900</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2531,7 +2531,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2089000</v>
+        <v>1939000</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2089000</t>
+          <t>1939000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2089000</t>
+          <t>1939000</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2586,7 +2586,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1539900</v>
+        <v>1389900</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1539900</t>
+          <t>1389900</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>1539900</t>
+          <t>1389900</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2665,7 +2665,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1319900</v>
+        <v>1169900</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1319900</t>
+          <t>1169900</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>1319900</t>
+          <t>1169900</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2744,7 +2744,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2023400</v>
+        <v>1873400</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2023400</t>
+          <t>1873400</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2023400</t>
+          <t>1873400</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2823,7 +2823,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2339000</v>
+        <v>2189000</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2339000</t>
+          <t>2189000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2852,7 +2852,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2339000</t>
+          <t>2189000</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>817730</t>
+          <t>667730</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>817730</t>
+          <t>667730</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>766630</t>
+          <t>616630</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>766630</t>
+          <t>616630</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>815630</t>
+          <t>665630</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -3017,7 +3017,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>815630</t>
+          <t>665630</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1500300</t>
+          <t>1350300</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>1500300</t>
+          <t>1350300</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>860000</t>
+          <t>710000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>860000</t>
+          <t>710000</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3369,7 +3369,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1619900</v>
+        <v>1469900</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1619900</t>
+          <t>1469900</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3414,7 +3414,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>1619900</t>
+          <t>1469900</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3497,7 +3497,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3089000</v>
+        <v>2939000</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>3089000</t>
+          <t>2939000</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>3089000</t>
+          <t>2939000</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3568,7 +3568,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2249900</v>
+        <v>2099900</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2249900</t>
+          <t>2099900</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2249900</t>
+          <t>2099900</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3698,7 +3698,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3159900</v>
+        <v>3009900</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>3159900</t>
+          <t>3009900</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>3159900</t>
+          <t>3009900</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1988000</t>
+          <t>1838000</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>1988000</t>
+          <t>1838000</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1999000</t>
+          <t>1849000</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>1999000</t>
+          <t>1849000</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4017,16 +4017,16 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1365000</v>
+        <v>1359000</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/faw/bestune-t77/cuv</t>
+          <t>https://autocentersurgut186.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1509000</t>
+          <t>1359000</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>1509000</t>
+          <t>1359000</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2215000</v>
+        <v>2065000</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2215000</t>
+          <t>2065000</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2215000</t>
+          <t>2065000</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4224,7 +4224,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>800000</v>
+        <v>650000</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>800000</t>
+          <t>650000</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>800000</t>
+          <t>650000</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1029000</t>
+          <t>879000</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4357,7 +4357,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>1029000</t>
+          <t>879000</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1875000</t>
+          <t>1725000</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -4559,7 +4559,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>1875000</t>
+          <t>1725000</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4585,7 +4585,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1170000</v>
+        <v>1020000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1170000</t>
+          <t>1020000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>1170000</t>
+          <t>1020000</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4673,7 +4673,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2599300</t>
+          <t>2449300</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2599300</t>
+          <t>2449300</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -4752,7 +4752,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1699290</t>
+          <t>1549290</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>1699290</t>
+          <t>1549290</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2107990</v>
+        <v>1957990</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2107990</t>
+          <t>1957990</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4859,7 +4859,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2107990</t>
+          <t>1957990</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1768990</v>
+        <v>1618990</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1768990</t>
+          <t>1618990</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>1768990</t>
+          <t>1618990</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1499000</t>
+          <t>1349000</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -5001,7 +5001,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>1499000</t>
+          <t>1349000</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5027,7 +5027,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>922300</v>
+        <v>772300</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>922300</t>
+          <t>772300</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>922300</t>
+          <t>772300</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1265000</t>
+          <t>1115000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -5143,7 +5143,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>1265000</t>
+          <t>1115000</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5218,36 +5218,36 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1159993</v>
+        <v>1040000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
+          <t>https://autocentersurgut186.ru/auto/geely/emgrand/</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1040000</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/geely/emgrand/</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>1159993</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
           <t>https://sibir-morots.ru/auto/geely/emgrand/</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>1190000</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/geely/emgrand/</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>1159993</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/geely/emgrand/</t>
-        </is>
-      </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>1190000</t>
+          <t>1040000</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>849890</t>
+          <t>699890</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5377,7 +5377,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>849890</t>
+          <t>699890</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5411,7 +5411,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2309990</v>
+        <v>2159990</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2309990</t>
+          <t>2159990</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2309990</t>
+          <t>2159990</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5541,7 +5541,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2004000</v>
+        <v>1854000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2004000</t>
+          <t>1854000</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2004000</t>
+          <t>1854000</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5645,7 +5645,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2133990</v>
+        <v>1983990</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2133990</t>
+          <t>1983990</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5674,7 +5674,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2133990</t>
+          <t>1983990</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -5700,7 +5700,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1840000</v>
+        <v>1690000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1840000</t>
+          <t>1690000</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5745,7 +5745,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>1840000</t>
+          <t>1690000</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1930000</v>
+        <v>1780000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1930000</t>
+          <t>1780000</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>1930000</t>
+          <t>1780000</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -5891,7 +5891,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1300000</v>
+        <v>1150000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>1300000</t>
+          <t>1150000</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -5928,7 +5928,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>1300000</t>
+          <t>1150000</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1460000</v>
+        <v>1310000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1460000</t>
+          <t>1310000</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>1460000</t>
+          <t>1310000</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2149000</t>
+          <t>1999000</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -6138,7 +6138,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2149000</t>
+          <t>1999000</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6172,36 +6172,36 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>929000</v>
+        <v>879000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
+          <t>https://autocentersurgut186.ru/auto/haval/h5_i/</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>879000</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/haval/h5_i/</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>929000</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
           <t>https://sibir-morots.ru/auto/haval/h5/</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>1029000</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/haval/h5_i/</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>929000</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/haval/h5/</t>
-        </is>
-      </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>1029000</t>
+          <t>879000</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6227,7 +6227,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>2369400</v>
+        <v>2219400</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -6236,17 +6236,35 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
+          <t>2219400</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/haval/h5/</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
           <t>2369400</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/haval/h5/</t>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/haval/h5_new/</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>3199000</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>https://avtosalon-profsouz.ru/new_auto/novyj-haval-h5/</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2369400</t>
+          <t>2219400</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6307,7 +6325,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>2157000</v>
+        <v>2007000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -6316,7 +6334,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2157000</t>
+          <t>2007000</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -6352,7 +6370,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2157000</t>
+          <t>2007000</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -6386,7 +6404,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>739000</v>
+        <v>589000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -6395,7 +6413,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>739000</t>
+          <t>589000</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -6431,7 +6449,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>739000</t>
+          <t>589000</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -6465,7 +6483,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>839000</v>
+        <v>689000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -6474,7 +6492,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>839000</t>
+          <t>689000</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -6502,7 +6520,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>839000</t>
+          <t>689000</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -6545,7 +6563,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1659000</t>
+          <t>1509000</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -6581,7 +6599,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>1659000</t>
+          <t>1509000</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -6658,7 +6676,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>849300</v>
+        <v>699300</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -6667,7 +6685,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>849300</t>
+          <t>699300</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -6685,7 +6703,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>849300</t>
+          <t>699300</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -6762,16 +6780,16 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1644000</v>
+        <v>1505000</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/hyundai/elantra-new/sedan</t>
+          <t>https://autocentersurgut186.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1655000</t>
+          <t>1505000</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -6789,7 +6807,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>1655000</t>
+          <t>1505000</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -6897,7 +6915,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>653000</v>
+        <v>503000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -6906,7 +6924,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>653000</t>
+          <t>503000</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -6934,7 +6952,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>653000</t>
+          <t>503000</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7001,7 +7019,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1280200</v>
+        <v>1130200</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -7010,7 +7028,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1280200</t>
+          <t>1130200</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -7038,7 +7056,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>1280200</t>
+          <t>1130200</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7148,7 +7166,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1649000</v>
+        <v>1499000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -7157,7 +7175,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>1649000</t>
+          <t>1499000</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -7175,7 +7193,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>1649000</t>
+          <t>1499000</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -7209,7 +7227,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>890000</v>
+        <v>740000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -7218,7 +7236,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>740000</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -7254,7 +7272,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>740000</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -7395,7 +7413,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>959000</t>
+          <t>809000</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -7431,7 +7449,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>959000</t>
+          <t>809000</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -7533,7 +7551,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>1139000</t>
+          <t>989000</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -7569,7 +7587,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>1139000</t>
+          <t>989000</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -7662,7 +7680,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2166000</v>
+        <v>2016000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -7671,7 +7689,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2166000</t>
+          <t>2016000</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -7707,7 +7725,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>2166000</t>
+          <t>2016000</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -7741,7 +7759,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3229000</v>
+        <v>3079000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -7750,7 +7768,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>3229000</t>
+          <t>3079000</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -7770,7 +7788,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>3229000</t>
+          <t>3079000</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -7805,7 +7823,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1999900</t>
+          <t>1849900</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -7841,7 +7859,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>1999900</t>
+          <t>1849900</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -7875,7 +7893,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>2509000</v>
+        <v>2359000</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -7884,7 +7902,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2509000</t>
+          <t>2359000</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -7904,7 +7922,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>2509000</t>
+          <t>2359000</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -7930,7 +7948,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1959900</v>
+        <v>1809900</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -7939,7 +7957,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>1959900</t>
+          <t>1809900</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -7975,7 +7993,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>1959900</t>
+          <t>1809900</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -8009,7 +8027,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>2424930</v>
+        <v>2274930</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -8018,7 +8036,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2424930</t>
+          <t>2274930</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -8054,7 +8072,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>2424930</t>
+          <t>2274930</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -8097,7 +8115,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>1350000</t>
+          <t>1200000</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -8133,7 +8151,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>1350000</t>
+          <t>1200000</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -8176,7 +8194,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>1650000</t>
+          <t>1500000</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -8212,7 +8230,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>1650000</t>
+          <t>1500000</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -8255,7 +8273,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>1809000</t>
+          <t>1659000</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -8291,7 +8309,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>1809000</t>
+          <t>1659000</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -8325,7 +8343,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1419000</v>
+        <v>1269000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -8334,7 +8352,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1419000</t>
+          <t>1269000</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -8370,7 +8388,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>1419000</t>
+          <t>1269000</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -8413,7 +8431,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>1716600</t>
+          <t>1566600</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -8449,7 +8467,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>1716600</t>
+          <t>1566600</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -8492,7 +8510,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>1910430</t>
+          <t>1760430</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -8528,7 +8546,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>1910430</t>
+          <t>1760430</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -8562,7 +8580,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1876900</v>
+        <v>1726900</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -8571,7 +8589,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>1876900</t>
+          <t>1726900</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -8599,7 +8617,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>1876900</t>
+          <t>1726900</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -8633,7 +8651,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1010300</v>
+        <v>860300</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -8642,7 +8660,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>1010300</t>
+          <t>860300</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -8678,7 +8696,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>1010300</t>
+          <t>860300</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -8753,7 +8771,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1020300</v>
+        <v>870300</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -8762,7 +8780,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>1020300</t>
+          <t>870300</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -8798,7 +8816,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>1020300</t>
+          <t>870300</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -8932,7 +8950,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1020300</v>
+        <v>870300</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -8941,7 +8959,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>1020300</t>
+          <t>870300</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -8959,7 +8977,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>1020300</t>
+          <t>870300</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -8993,7 +9011,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1220300</v>
+        <v>1070300</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -9002,7 +9020,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1220300</t>
+          <t>1070300</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -9038,7 +9056,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>1220300</t>
+          <t>1070300</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -9115,7 +9133,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>700745</v>
+        <v>550745</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -9124,7 +9142,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>700745</t>
+          <t>550745</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -9142,7 +9160,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>700745</t>
+          <t>550745</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -9185,7 +9203,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>1458930</t>
+          <t>1308930</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -9211,7 +9229,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>1458930</t>
+          <t>1308930</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -9288,7 +9306,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>660300</v>
+        <v>510300</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -9297,7 +9315,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>660300</t>
+          <t>510300</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -9315,7 +9333,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>660300</t>
+          <t>510300</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -9349,7 +9367,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>740300</v>
+        <v>590300</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -9358,7 +9376,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>740300</t>
+          <t>590300</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -9394,7 +9412,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>740300</t>
+          <t>590300</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -9428,7 +9446,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1120300</v>
+        <v>970300</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -9437,7 +9455,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>1120300</t>
+          <t>970300</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -9473,7 +9491,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>1120300</t>
+          <t>970300</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -9591,7 +9609,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>721200</v>
+        <v>571200</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -9600,7 +9618,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>721200</t>
+          <t>571200</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -9628,7 +9646,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>721200</t>
+          <t>571200</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -9744,7 +9762,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>2099900</v>
+        <v>1949900</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -9753,7 +9771,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2099900</t>
+          <t>1949900</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -9789,7 +9807,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>2099900</t>
+          <t>1949900</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -9823,7 +9841,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1154900</v>
+        <v>1004900</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -9832,7 +9850,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>1154900</t>
+          <t>1004900</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -9842,7 +9860,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>1154900</t>
+          <t>1004900</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -12153,7 +12171,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>800300</v>
+        <v>650300</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -12162,7 +12180,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>800300</t>
+          <t>650300</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -12172,7 +12190,7 @@
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>800300</t>
+          <t>650300</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
@@ -12198,7 +12216,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>851300</v>
+        <v>701300</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -12207,7 +12225,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>851300</t>
+          <t>701300</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -12217,7 +12235,7 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>851300</t>
+          <t>701300</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
@@ -12243,7 +12261,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>551300</v>
+        <v>401300</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -12252,7 +12270,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>551300</t>
+          <t>401300</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -12262,7 +12280,7 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>551300</t>
+          <t>401300</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
@@ -12288,7 +12306,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>570300</v>
+        <v>420300</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -12297,7 +12315,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>570300</t>
+          <t>420300</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -12307,7 +12325,7 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>570300</t>
+          <t>420300</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
@@ -12333,7 +12351,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>641300</v>
+        <v>491300</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -12342,7 +12360,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>641300</t>
+          <t>491300</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -12352,7 +12370,7 @@
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>641300</t>
+          <t>491300</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
@@ -12378,7 +12396,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>920300</v>
+        <v>770300</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -12387,7 +12405,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>920300</t>
+          <t>770300</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -12397,7 +12415,7 @@
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>920300</t>
+          <t>770300</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -12432,7 +12450,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>1934930</t>
+          <t>1784930</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -12460,7 +12478,7 @@
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>1934930</t>
+          <t>1784930</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
@@ -12503,7 +12521,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>1339930</t>
+          <t>1189930</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -12539,7 +12557,7 @@
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>1339930</t>
+          <t>1189930</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
@@ -12582,7 +12600,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>1990930</t>
+          <t>1840930</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -12610,7 +12628,7 @@
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>1990930</t>
+          <t>1840930</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
@@ -12841,7 +12859,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>1430000</t>
+          <t>1280000</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -12877,7 +12895,7 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>1430000</t>
+          <t>1280000</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
@@ -12911,7 +12929,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>2915000</v>
+        <v>2765000</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -12920,7 +12938,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2915000</t>
+          <t>2765000</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -12940,7 +12958,7 @@
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>2915000</t>
+          <t>2765000</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
@@ -13017,7 +13035,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>2649000</v>
+        <v>2499000</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -13026,7 +13044,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2649000</t>
+          <t>2499000</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -13046,7 +13064,7 @@
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>2649000</t>
+          <t>2499000</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
@@ -13072,7 +13090,7 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>1540000</v>
+        <v>1390000</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -13081,7 +13099,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>1540000</t>
+          <t>1390000</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -13117,7 +13135,7 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>1540000</t>
+          <t>1390000</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
@@ -13192,7 +13210,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>819000</v>
+        <v>669000</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -13201,7 +13219,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>819000</t>
+          <t>669000</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -13229,7 +13247,7 @@
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>819000</t>
+          <t>669000</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
@@ -13296,7 +13314,7 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>1299000</v>
+        <v>1149000</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -13305,7 +13323,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>1299000</t>
+          <t>1149000</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -13333,7 +13351,7 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>1299000</t>
+          <t>1149000</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
@@ -13400,7 +13418,7 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1369900</v>
+        <v>1219900</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -13409,7 +13427,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>1369900</t>
+          <t>1219900</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -13445,7 +13463,7 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>1369900</t>
+          <t>1219900</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
@@ -13479,16 +13497,16 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>1514900</v>
+        <v>1469900</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/omoda/s5-2023/SEDAN</t>
+          <t>https://autocentersurgut186.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>1619900</t>
+          <t>1469900</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -13524,7 +13542,7 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>1619900</t>
+          <t>1469900</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
@@ -13607,7 +13625,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1088000</v>
+        <v>938000</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -13616,7 +13634,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>1088000</t>
+          <t>938000</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -13644,7 +13662,7 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>1088000</t>
+          <t>938000</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
@@ -13754,7 +13772,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>796000</v>
+        <v>646000</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -13763,7 +13781,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>796000</t>
+          <t>646000</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -13781,7 +13799,7 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>796000</t>
+          <t>646000</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
@@ -13815,7 +13833,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>1046000</v>
+        <v>896000</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -13824,7 +13842,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>1046000</t>
+          <t>896000</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -13852,7 +13870,7 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>1046000</t>
+          <t>896000</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
@@ -13919,7 +13937,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>580000</v>
+        <v>430000</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -13928,7 +13946,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>580000</t>
+          <t>430000</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -13956,7 +13974,7 @@
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>580000</t>
+          <t>430000</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
@@ -14023,7 +14041,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>686990</v>
+        <v>536990</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -14032,7 +14050,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>686990</t>
+          <t>536990</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -14068,7 +14086,7 @@
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>686990</t>
+          <t>536990</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -14102,7 +14120,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>581000</v>
+        <v>431000</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -14111,7 +14129,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>581000</t>
+          <t>431000</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -14139,7 +14157,7 @@
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>581000</t>
+          <t>431000</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -14206,7 +14224,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>716990</v>
+        <v>566990</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -14215,7 +14233,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>716990</t>
+          <t>566990</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -14243,7 +14261,7 @@
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>716990</t>
+          <t>566990</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -14441,16 +14459,16 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>1200000</v>
+        <v>1066900</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/skoda/karoq/karoq</t>
+          <t>https://autocentersurgut186.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>1216900</t>
+          <t>1066900</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -14486,7 +14504,7 @@
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>1216900</t>
+          <t>1066900</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
@@ -14562,7 +14580,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>2698000</t>
+          <t>2548000</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -14590,7 +14608,7 @@
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>2698000</t>
+          <t>2548000</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -14708,7 +14726,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>1364000</v>
+        <v>1214000</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -14717,7 +14735,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>1364000</t>
+          <t>1214000</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -14727,7 +14745,7 @@
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>1364000</t>
+          <t>1214000</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
@@ -14753,16 +14771,16 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>651000</v>
+        <v>570300</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/skoda-rapid-new/</t>
+          <t>https://autocentersurgut186.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>720300</t>
+          <t>570300</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -14790,7 +14808,7 @@
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>720300</t>
+          <t>570300</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
@@ -14857,7 +14875,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>1980000</v>
+        <v>1830000</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -14866,7 +14884,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>1980000</t>
+          <t>1830000</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -14886,7 +14904,7 @@
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>1980000</t>
+          <t>1830000</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -14912,7 +14930,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>2821900</v>
+        <v>2671900</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -14921,7 +14939,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>2821900</t>
+          <t>2671900</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -14941,7 +14959,7 @@
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>2821900</t>
+          <t>2671900</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -14976,7 +14994,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>2042000</t>
+          <t>1892000</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -14996,7 +15014,7 @@
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>2042000</t>
+          <t>1892000</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -15022,7 +15040,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1546000</v>
+        <v>1396000</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -15031,7 +15049,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>1546000</t>
+          <t>1396000</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -15051,7 +15069,7 @@
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>1546000</t>
+          <t>1396000</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -15077,36 +15095,36 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>1475600</v>
+        <v>1459000</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
+          <t>https://autocentersurgut186.ru/auto/solaris/krs/</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>1459000</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/solaris/krs/</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>1475600</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
           <t>https://sibir-morots.ru/auto/solaris/krs/</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>1609000</t>
-        </is>
-      </c>
-      <c r="G240" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/solaris/krs/</t>
-        </is>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>1475600</t>
-        </is>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/solaris/krs/</t>
-        </is>
-      </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>1609000</t>
+          <t>1459000</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -15132,36 +15150,36 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>1614000</v>
+        <v>1576000</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
+          <t>https://autocentersurgut186.ru/auto/solaris/krx/</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>1576000</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/solaris/krx/</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>1614000</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
           <t>https://sibir-morots.ru/auto/solaris/krx/</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>1726000</t>
-        </is>
-      </c>
-      <c r="G241" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/solaris/krx/</t>
-        </is>
-      </c>
-      <c r="J241" t="inlineStr">
-        <is>
-          <t>1614000</t>
-        </is>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/solaris/krx/</t>
-        </is>
-      </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>1726000</t>
+          <t>1576000</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -15236,7 +15254,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3019300</v>
+        <v>2869300</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -15245,7 +15263,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>3019300</t>
+          <t>2869300</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -15281,7 +15299,7 @@
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>3019300</t>
+          <t>2869300</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -15373,7 +15391,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>1126500</t>
+          <t>976500</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -15409,7 +15427,7 @@
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>1126500</t>
+          <t>976500</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -15443,7 +15461,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>807000</v>
+        <v>657000</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -15452,7 +15470,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>807000</t>
+          <t>657000</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -15480,7 +15498,7 @@
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>807000</t>
+          <t>657000</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
@@ -15547,7 +15565,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>846500</v>
+        <v>696500</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -15556,7 +15574,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>846500</t>
+          <t>696500</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -15576,7 +15594,7 @@
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>846500</t>
+          <t>696500</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -15685,7 +15703,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>1220300</t>
+          <t>1070300</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -15713,7 +15731,7 @@
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>1220300</t>
+          <t>1070300</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -15780,7 +15798,7 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>2009200</v>
+        <v>1859200</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -15789,7 +15807,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>2009200</t>
+          <t>1859200</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -15817,7 +15835,7 @@
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>2009200</t>
+          <t>1859200</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -15884,16 +15902,16 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>612400</v>
+        <v>540300</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/volkswagen-new-polo/</t>
+          <t>https://autocentersurgut186.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>690300</t>
+          <t>540300</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -15921,7 +15939,7 @@
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>690300</t>
+          <t>540300</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -15988,7 +16006,7 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>2130230</v>
+        <v>1980230</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -15997,7 +16015,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>2130230</t>
+          <t>1980230</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -16033,7 +16051,7 @@
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>2130230</t>
+          <t>1980230</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -16110,7 +16128,7 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>1479900</v>
+        <v>1329900</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -16119,7 +16137,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>1479900</t>
+          <t>1329900</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -16137,7 +16155,7 @@
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>1479900</t>
+          <t>1329900</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -16212,16 +16230,16 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>979600</v>
+        <v>835640</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/zotye-coupa/</t>
+          <t>https://autocentersurgut186.ru/auto/zotye/coupa/</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>985640</t>
+          <t>835640</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -16257,7 +16275,7 @@
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>985640</t>
+          <t>835640</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -16283,16 +16301,16 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>761600</v>
+        <v>734000</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/zotye-t600/</t>
+          <t>https://autocentersurgut186.ru/auto/zotye/t600/</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>884000</t>
+          <t>734000</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -16328,7 +16346,7 @@
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>884000</t>
+          <t>734000</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">

--- a/xlsx/surgut.xlsx
+++ b/xlsx/surgut.xlsx
@@ -529,7 +529,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/baic/suv/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/baic/suv/suv-1gen</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1545000</v>
+        <v>3875000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/baic/sedan/sedan-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/baic/sedan/sedan-1gen</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1240000</v>
+        <v>2080000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/baic/cuv/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/baic/cuv/suv-1gen</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1395000</v>
+        <v>1875000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/baic/x55/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/baic/x55/suv-1gen</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2050000</v>
+        <v>2970000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/baic/x7/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/baic/x7/suv-1gen</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2300000</v>
+        <v>3100000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/belgee/x-50/suv-1gen</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/belgee-x50/</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1235990</v>
+        <v>1985990</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/changan/alsvin/sed</t>
+          <t>https://auto-centre-profsouz.ru/auto/changan/alsvin/sed</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>835000</v>
+        <v>1750000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1289900</v>
+        <v>1989900</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1424900</v>
+        <v>2339900</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1274900</v>
+        <v>2189900</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/changan/cs55plus/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/changan/cs55plus/cuv</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1714900</v>
+        <v>2629900</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1554900</v>
+        <v>2469900</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2794900</v>
+        <v>3709900</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3334900</v>
+        <v>4349900</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/changan/eado-plus/SEDAN</t>
+          <t>https://auto-centre-profsouz.ru/auto/changan/eado-plus/SEDAN</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1414900</v>
+        <v>2329900</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/changan/hunter-plus/plus</t>
+          <t>https://auto-centre-profsouz.ru/auto/changan/hunter-plus/plus</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2624900</v>
+        <v>3429900</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1984900</v>
+        <v>2789900</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>2724900</v>
+        <v>3639900</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/changan/UNI-T/SUV_5D</t>
+          <t>https://auto-centre-profsouz.ru/auto/changan/UNI-T/SUV_5D</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1954900</v>
+        <v>2869900</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/changan/uni-v/liftback</t>
+          <t>https://auto-centre-profsouz.ru/auto/changan/uni-v/liftback</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1944900</v>
+        <v>2859900</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/chery/arrizo-8/sedan</t>
+          <t>https://auto-centre-profsouz.ru/auto/chery/arrizo-8/sedan</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1995000</v>
+        <v>2950000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>894900</v>
+        <v>1699900</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>1315000</v>
+        <v>2120000</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/chery/tiggo-7/2019</t>
+          <t>https://auto-centre-profsouz.ru/auto/chery/tiggo-7/2019</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2348,7 +2348,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>424900</v>
+        <v>1229900</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1765000</v>
+        <v>2570000</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>2015000</v>
+        <v>2720000</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>2165000</v>
+        <v>2600000</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>2625000</v>
+        <v>3430000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3046000</v>
+        <v>3851000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>385000</v>
+        <v>539000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>365000</v>
+        <v>516000</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/dongfeng/580/580</t>
+          <t>https://auto-centre-profsouz.ru/auto/dongfeng/580/580</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -3295,7 +3295,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1124000</v>
+        <v>1929000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/dongfeng/ax7/suv</t>
+          <t>https://auto-centre-profsouz.ru/auto/dongfeng/ax7/suv</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>424000</v>
+        <v>1229000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>2255000</v>
+        <v>3060000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/exeed/lxawd/lxawd</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/exeed-lx-1-6-awd/</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3140000</v>
+        <v>3840000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3485000</v>
+        <v>4750000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3299900</v>
+        <v>3999900</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/exeed/txl-new/suv</t>
+          <t>https://auto-centre-profsouz.ru/auto/exeed/txl-new/suv</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -3673,7 +3673,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3455000</v>
+        <v>4260000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>4495000</v>
+        <v>5300000</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/exeed/vxle/vxle</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/exeed-vx-le/</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -3801,7 +3801,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>4990000</v>
+        <v>5690000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/exeed/vx-new/suv-1gen-rest</t>
+          <t>https://auto-centre-profsouz.ru/auto/exeed/vx-new/suv-1gen-rest</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -3842,7 +3842,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>5900000</v>
+        <v>6050000</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/faw/bestune-b70/LIFTBACK</t>
+          <t>https://auto-centre-profsouz.ru/auto/faw/bestune-b70/LIFTBACK</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1645000</v>
+        <v>2450000</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/faw/bestune-t55/SUV_5D</t>
+          <t>https://auto-centre-profsouz.ru/auto/faw/bestune-t55/SUV_5D</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1606000</v>
+        <v>2411000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1365000</v>
+        <v>2864000</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>2235000</v>
+        <v>3040000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/faw/besturn-x80-new/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/faw/besturn-x80-new/cuv</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -4199,7 +4199,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>703000</v>
+        <v>1508000</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/faw/new-x40/2019</t>
+          <t>https://auto-centre-profsouz.ru/auto/faw/new-x40/2019</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -4303,7 +4303,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>797000</v>
+        <v>1602000</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/forthing/t5-evo/suv-1gen</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/forthing-t5-evo/</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>2380000</v>
+        <v>3080000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/forthing/yacht/minivan-1gen</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/kupit-forthing/</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -4456,7 +4456,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3390000</v>
+        <v>4090000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/gac/gn-8/van</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/gac-gn8/</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -4505,7 +4505,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3299000</v>
+        <v>3399000</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1549000</v>
+        <v>2249000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/gac/gc-8/crossover</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/gac-gs8/</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4718,7 +4718,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>2289000</v>
+        <v>2989000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/geely/Atlas/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/geely/Atlas/cuv</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1033990</v>
+        <v>1838990</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>2139990</v>
+        <v>3124190</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>1913990</v>
+        <v>2306990</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>1524990</v>
+        <v>1994990</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/geely/coolray-new/suv-5d</t>
+          <t>https://auto-centre-profsouz.ru/auto/geely/coolray-new/suv-5d</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1014990</v>
+        <v>2463190</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/geely/emgrand/sedan-2gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/geely/emgrand/sedan-2gen</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -5193,7 +5193,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>954990</v>
+        <v>1807190</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/geely/emgrand-x-7-new/crossover</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/geely-emgrand-x7-new/</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -5307,7 +5307,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>299990</v>
+        <v>999990</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/geely/gs/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/geely/gs/cuv</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -5386,7 +5386,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>514990</v>
+        <v>1319990</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3369990</v>
+        <v>3876990</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/geely/okavango/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/geely/okavango/suv-1gen</t>
         </is>
       </c>
       <c r="H77" t="n">
@@ -5516,7 +5516,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>2744990</v>
+        <v>3200000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/geely/tugella/cuv</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/geely-tugella/</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -5620,7 +5620,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3199990</v>
+        <v>3319990</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>2084000</v>
+        <v>3049000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>2354000</v>
+        <v>3349000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>1484000</v>
+        <v>2399000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -6041,7 +6041,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>1534000</v>
+        <v>2499000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/haval/h3/suv-1gen</t>
+          <t>https://autocentersurgut186.ru/auto/haval/h3/</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -6147,7 +6147,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>1999000</v>
+        <v>2599000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3184000</v>
+        <v>4099000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>1144000</v>
+        <v>1949000</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>1034000</v>
+        <v>1999000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/haval/m6/WAGON_7D</t>
+          <t>https://auto-centre-profsouz.ru/auto/haval/m6/WAGON_7D</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -6608,7 +6608,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>1264000</v>
+        <v>2179000</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>1354000</v>
+        <v>1859000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>1644000</v>
+        <v>2149000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/hyundai/santa-fe-new/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/hyundai/santa-fe-new/cuv</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -6890,7 +6890,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3569000</v>
+        <v>3969000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/hyundai/new-solaris/new-solaris</t>
+          <t>https://auto-centre-profsouz.ru/auto/hyundai/new-solaris/new-solaris</t>
         </is>
       </c>
       <c r="H103" t="n">
@@ -6994,7 +6994,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>903000</v>
+        <v>1408000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/hyundai/sonata-new/2020</t>
+          <t>https://auto-centre-profsouz.ru/auto/hyundai/sonata-new/2020</t>
         </is>
       </c>
       <c r="H105" t="n">
@@ -7098,7 +7098,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>2264000</v>
+        <v>2769000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>2244000</v>
+        <v>2749000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>1324000</v>
+        <v>2599000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/jac/js4/cuv</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/jac-js4/</t>
         </is>
       </c>
       <c r="H109" t="n">
@@ -7330,7 +7330,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>1449000</v>
+        <v>2149000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/jac/js6/cuv</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/jac-js6/</t>
         </is>
       </c>
       <c r="H110" t="n">
@@ -7379,7 +7379,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>2229000</v>
+        <v>2399000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/jac/s3/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/jac/s3/cuv</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -7458,7 +7458,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>594000</v>
+        <v>1399000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/jac/s5/cuv</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/jac-s5/</t>
         </is>
       </c>
       <c r="H112" t="n">
@@ -7517,7 +7517,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>439000</v>
+        <v>1139000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/jac/s7/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/jac/s7/cuv</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>974000</v>
+        <v>1779000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/jac/t6/2019</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/jac-t6/</t>
         </is>
       </c>
       <c r="H114" t="n">
@@ -7655,7 +7655,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>2199000</v>
+        <v>2899000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>2639900</v>
+        <v>3339900</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/jetour/dashing/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/jetour/dashing/suv-1gen</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -7868,7 +7868,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>1684900</v>
+        <v>2489900</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>2194900</v>
+        <v>2999900</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -8081,7 +8081,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>2594900</v>
+        <v>3399900</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/jetta/va3/va3</t>
+          <t>https://auto-centre-profsouz.ru/auto/jetta/va3/va3</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -8160,7 +8160,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>885000</v>
+        <v>1690000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/jetta/vs5/vs5</t>
+          <t>https://auto-centre-profsouz.ru/auto/jetta/vs5/vs5</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -8239,7 +8239,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>1185000</v>
+        <v>1990000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/jetta/vs7/vs7</t>
+          <t>https://auto-centre-profsouz.ru/auto/jetta/vs7/vs7</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -8318,7 +8318,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>1344000</v>
+        <v>2149000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>1440000</v>
+        <v>2245000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -8426,7 +8426,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/kaiyi/X3/SUV_5D</t>
+          <t>https://auto-centre-profsouz.ru/auto/kaiyi/X3/SUV_5D</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -8476,7 +8476,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>1426650</v>
+        <v>2231650</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/kaiyi/X3%20Pro/SUV_5D</t>
+          <t>https://auto-centre-profsouz.ru/auto/kaiyi/X3%20Pro/SUV_5D</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -8555,7 +8555,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>1709900</v>
+        <v>2514900</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>2292900</v>
+        <v>2997900</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>1034900</v>
+        <v>1134900</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/kia/ceed-new/hatch</t>
+          <t>https://auto-centre-profsouz.ru/auto/kia/ceed-new/hatch</t>
         </is>
       </c>
       <c r="H129" t="n">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>1739900</v>
+        <v>2244900</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>1404900</v>
+        <v>1504900</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/kia/ceed-sw-new/hatch</t>
+          <t>https://auto-centre-profsouz.ru/auto/kia/ceed-sw-new/hatch</t>
         </is>
       </c>
       <c r="H131" t="n">
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>1809900</v>
+        <v>2314900</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>1684900</v>
+        <v>2084900</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>1549900</v>
+        <v>2054900</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -9065,7 +9065,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>2229900</v>
+        <v>2734900</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>829900</v>
+        <v>1334900</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -9238,7 +9238,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>1108930</v>
+        <v>967999</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>929900</v>
+        <v>1434900</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>1069900</v>
+        <v>1574900</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -9500,7 +9500,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>1454900</v>
+        <v>1959900</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/kia/sorento-new/cuv</t>
+          <t>https://sibir-morots.ru/auto/kia/sorento/</t>
         </is>
       </c>
       <c r="H143" t="n">
@@ -9584,7 +9584,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3389900</v>
+        <v>3789900</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/kia/new-soul/new</t>
+          <t>https://auto-centre-profsouz.ru/auto/kia/new-soul/new</t>
         </is>
       </c>
       <c r="H145" t="n">
@@ -9688,7 +9688,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>1324900</v>
+        <v>1829900</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/kia/new-sportage/sportagenew</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/kia-sportage/</t>
         </is>
       </c>
       <c r="H146" t="n">
@@ -9737,7 +9737,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>1249900</v>
+        <v>1649900</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>2344900</v>
+        <v>2849900</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/lada/granta-cross/2019</t>
+          <t>https://sibir-morots.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -9940,7 +9940,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>337300</v>
+        <v>742300</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -9969,7 +9969,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/lada/granta-drive-active/granta-drive-active</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/granta-drive-active/granta-drive-active</t>
         </is>
       </c>
       <c r="H150" t="n">
@@ -9989,7 +9989,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>422900</v>
+        <v>940900</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/lada/new-granta/hatchback</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/hatchback</t>
         </is>
       </c>
       <c r="H152" t="n">
@@ -10093,7 +10093,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>373500</v>
+        <v>778500</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/lada/new-granta/liftback</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/liftback</t>
         </is>
       </c>
       <c r="H154" t="n">
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>317300</v>
+        <v>768900</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/lada/new-granta/sedan</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/sedan</t>
         </is>
       </c>
       <c r="H157" t="n">
@@ -10356,7 +10356,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>345900</v>
+        <v>699900</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -10448,7 +10448,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/lada/new-granta/wagon</t>
+          <t>https://auto-centre-profsouz.ru/auto/lada/new-granta/wagon</t>
         </is>
       </c>
       <c r="H159" t="n">
@@ -10460,7 +10460,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>314300</v>
+        <v>785500</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/lada/largus/wagon</t>
+          <t>https://sibir-morots.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="H160" t="n">
@@ -10519,7 +10519,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>830900</v>
+        <v>1300900</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -10548,7 +10548,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/lada/largus/wag</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-largus-universal-7-mest/</t>
         </is>
       </c>
       <c r="H161" t="n">
@@ -10568,7 +10568,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>1232900</v>
+        <v>1332900</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/lada/largus/wag%20rest1</t>
+          <t>https://sibir-morots.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="H162" t="n">
@@ -10627,7 +10627,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>972900</v>
+        <v>1377900</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/lada/largus/van%20rest</t>
+          <t>https://sibir-morots.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="H165" t="n">
@@ -10776,7 +10776,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>896900</v>
+        <v>1301900</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -10850,7 +10850,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/lada/niva-new/cuv</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-niva/</t>
         </is>
       </c>
       <c r="H167" t="n">
@@ -10880,7 +10880,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>642900</v>
+        <v>1042900</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/lada/niva-legend/suv</t>
+          <t>https://sibir-morots.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -10959,7 +10959,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>424900</v>
+        <v>829900</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/lada/niva-legend/cuv</t>
+          <t>https://sibir-morots.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -11038,7 +11038,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>513900</v>
+        <v>918900</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -11067,7 +11067,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/lada/niva-legend/cuv-urban</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-niva-legend-urban-3d/</t>
         </is>
       </c>
       <c r="H170" t="n">
@@ -11087,7 +11087,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>492900</v>
+        <v>892900</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/lada/niva-legend/cuv-urban5</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/lada-niva-legend-urban-5d/</t>
         </is>
       </c>
       <c r="H171" t="n">
@@ -11136,7 +11136,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>589900</v>
+        <v>989900</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/lada/niva-new/suv</t>
+          <t>https://sibir-morots.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -11215,7 +11215,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>419000</v>
+        <v>824000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/lada/niva-travel/suv</t>
+          <t>https://sibir-morots.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -11294,7 +11294,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>687900</v>
+        <v>1092900</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>864900</v>
+        <v>1269900</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>808900</v>
+        <v>1213900</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>923900</v>
+        <v>1328900</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>716900</v>
+        <v>1121900</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>911900</v>
+        <v>1316900</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>1192900</v>
+        <v>1597900</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>701900</v>
+        <v>1106900</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>844900</v>
+        <v>1249900</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/livan/s6pro/sedan-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/livan/s6pro/sedan-1gen</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>1579930</v>
+        <v>2549900</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -12516,7 +12516,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/livan/x3pro/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/livan/x3pro/suv-1gen</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -12566,7 +12566,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>1074900</v>
+        <v>1889900</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/livan/x6pro/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/livan/x6pro/suv-1gen</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -12637,7 +12637,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>1635930</v>
+        <v>2629900</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/mg/5/sedan-2gen</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/mg-5/</t>
         </is>
       </c>
       <c r="H195" t="n">
@@ -12686,7 +12686,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>1530000</v>
+        <v>2243000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/mg/6/liftback-2gen-rest</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/mg-6/</t>
         </is>
       </c>
       <c r="H196" t="n">
@@ -12735,7 +12735,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>670000</v>
+        <v>2489000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/mg/hs/suv_5d-1gen</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/mg-hs/</t>
         </is>
       </c>
       <c r="H197" t="n">
@@ -12784,7 +12784,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>2450000</v>
+        <v>2859000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/mg/zs/cuv-2gen-rest</t>
+          <t>https://auto-centre-profsouz.ru/auto/mg/zs/cuv-2gen-rest</t>
         </is>
       </c>
       <c r="H198" t="n">
@@ -12825,7 +12825,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>1680000</v>
+        <v>2280000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/moskvich/moskvich3/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/moskvich/moskvich3/cuv</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -12904,7 +12904,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>1125000</v>
+        <v>1700000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/moskvich/moskvich6/liftback-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/moskvich/moskvich6/liftback-1gen</t>
         </is>
       </c>
       <c r="H201" t="n">
@@ -13010,7 +13010,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>1536000</v>
+        <v>2200000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>1632000</v>
+        <v>2337000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/nissan/qashqai-3-res/qashqai-3-res</t>
+          <t>https://auto-centre-profsouz.ru/auto/nissan/qashqai-3-res/qashqai-3-res</t>
         </is>
       </c>
       <c r="H204" t="n">
@@ -13185,7 +13185,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>1737000</v>
+        <v>2337000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -13277,7 +13277,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/nissan/terrano-2020/suv</t>
+          <t>https://auto-centre-profsouz.ru/auto/nissan/terrano-2020/suv</t>
         </is>
       </c>
       <c r="H206" t="n">
@@ -13289,7 +13289,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>1185000</v>
+        <v>1690000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/nissan/newxtrail/newxtrail</t>
+          <t>https://auto-centre-profsouz.ru/auto/nissan/newxtrail/newxtrail</t>
         </is>
       </c>
       <c r="H208" t="n">
@@ -13393,7 +13393,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>2147000</v>
+        <v>2762000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>1874900</v>
+        <v>2279900</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -13551,7 +13551,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>1514900</v>
+        <v>2249900</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/omoda/s5-gt/sedan-1gen</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/omoda-s5-gt/</t>
         </is>
       </c>
       <c r="H211" t="n">
@@ -13600,7 +13600,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>2639900</v>
+        <v>2759900</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/renault/new-arkana/2019</t>
+          <t>https://auto-centre-profsouz.ru/auto/renault/new-arkana/2019</t>
         </is>
       </c>
       <c r="H213" t="n">
@@ -13704,7 +13704,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>1259000</v>
+        <v>1874000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -13808,7 +13808,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>1003000</v>
+        <v>1618000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/renault/kaptur-new/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/renault/kaptur-new/cuv</t>
         </is>
       </c>
       <c r="H217" t="n">
@@ -13912,7 +13912,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>1109000</v>
+        <v>1724000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/renault/new-logan/new</t>
+          <t>https://auto-centre-profsouz.ru/auto/renault/new-logan/new</t>
         </is>
       </c>
       <c r="H219" t="n">
@@ -14016,7 +14016,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>619000</v>
+        <v>1124000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>758000</v>
+        <v>1301000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/renault/new-sandero/new</t>
+          <t>https://auto-centre-profsouz.ru/auto/renault/new-sandero/new</t>
         </is>
       </c>
       <c r="H222" t="n">
@@ -14199,7 +14199,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>509000</v>
+        <v>1258000</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/renault/new-sandero-stepway/stepway</t>
+          <t>https://auto-centre-profsouz.ru/auto/renault/new-sandero-stepway/stepway</t>
         </is>
       </c>
       <c r="H224" t="n">
@@ -14303,7 +14303,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>686000</v>
+        <v>1373000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -14332,7 +14332,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/swm/g01/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/swm/g01/suv-1gen</t>
         </is>
       </c>
       <c r="H225" t="n">
@@ -14344,7 +14344,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>1838220</v>
+        <v>2438220</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/swm/g01f/suv-1gen</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/swm-g01f/</t>
         </is>
       </c>
       <c r="H226" t="n">
@@ -14393,7 +14393,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>1988340</v>
+        <v>2588340</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -14422,7 +14422,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/swm/g05-pro/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/swm/g05-pro/suv-1gen</t>
         </is>
       </c>
       <c r="H227" t="n">
@@ -14434,7 +14434,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>2025960</v>
+        <v>2625960</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>1200000</v>
+        <v>1705000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/skoda/new-kodiaq/cuv</t>
+          <t>https://auto-centre-profsouz.ru/auto/skoda/new-kodiaq/cuv</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -14617,7 +14617,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>1657000</v>
+        <v>2057000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/skoda/octavia-a8/2020</t>
+          <t>https://auto-centre-profsouz.ru/auto/skoda/octavia-a8/2020</t>
         </is>
       </c>
       <c r="H232" t="n">
@@ -14701,7 +14701,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>1152000</v>
+        <v>1657000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/skoda/rapid-new/sedan</t>
+          <t>https://auto-centre-profsouz.ru/auto/skoda/rapid-new/sedan</t>
         </is>
       </c>
       <c r="H235" t="n">
@@ -14850,7 +14850,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>546000</v>
+        <v>1051000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>2299900</v>
+        <v>2225000</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>2299900</v>
+        <v>2225000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>3334000</v>
+        <v>4199000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>4799000</v>
+        <v>6499000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -15386,7 +15386,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/uaz/hunter/suv</t>
+          <t>https://auto-centre-profsouz.ru/auto/uaz/hunter/suv</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -15436,7 +15436,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>775000</v>
+        <v>1007000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/uaz/patriot-new/suv</t>
+          <t>https://auto-centre-profsouz.ru/auto/uaz/patriot-new/suv</t>
         </is>
       </c>
       <c r="H247" t="n">
@@ -15540,7 +15540,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>935000</v>
+        <v>1134000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/uaz/pickup-new/suv</t>
+          <t>https://auto-centre-profsouz.ru/auto/uaz/pickup-new/suv</t>
         </is>
       </c>
       <c r="H250" t="n">
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>960000</v>
+        <v>1159000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/volkswagen/jetta-new/sedan</t>
+          <t>https://auto-centre-profsouz.ru/auto/volkswagen/jetta-new/sedan</t>
         </is>
       </c>
       <c r="H252" t="n">
@@ -15773,7 +15773,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>903000</v>
+        <v>1518000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/volkswagen/passat-new/sedan</t>
+          <t>https://auto-centre-profsouz.ru/auto/volkswagen/passat-new/sedan</t>
         </is>
       </c>
       <c r="H254" t="n">
@@ -15877,7 +15877,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>2118000</v>
+        <v>2733000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/volkswagen/new-polo/sedan</t>
+          <t>https://auto-centre-profsouz.ru/auto/volkswagen/new-polo/sedan</t>
         </is>
       </c>
       <c r="H256" t="n">
@@ -15981,7 +15981,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>507400</v>
+        <v>1385900</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>2213900</v>
+        <v>2828900</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -16164,7 +16164,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>1519900</v>
+        <v>2134900</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>https://autosalon-hmao.ru/auto/xcite/x-cross-7/suv-1gen</t>
+          <t>https://auto-centre-profsouz.ru/auto/xcite/x-cross-7/suv-1gen</t>
         </is>
       </c>
       <c r="H260" t="n">
@@ -16205,7 +16205,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>1899000</v>
+        <v>2499000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>

--- a/xlsx/surgut.xlsx
+++ b/xlsx/surgut.xlsx
@@ -534,7 +534,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2631930</t>
+          <t>2781930</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -570,7 +570,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2631930</t>
+          <t>2781930</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1535030</t>
+          <t>1685030</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1535030</t>
+          <t>1685030</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1470000</t>
+          <t>1620000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1470000</t>
+          <t>1620000</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2065000</t>
+          <t>2215000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2065000</t>
+          <t>2215000</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>1499000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>1499000</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -953,7 +953,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1695714</v>
+        <v>1845714</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1695714</t>
+          <t>1845714</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1695714</t>
+          <t>1845714</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1129000</t>
+          <t>1279000</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1129000</t>
+          <t>1279000</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1136,16 +1136,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1289900</v>
+        <v>1424900</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/changan/cs35_plus/</t>
+          <t>https://auto-centre-profsouz.ru/auto/changan/cs35plusnew/cuv</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1289900</t>
+          <t>1439900</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1289900</t>
+          <t>1439900</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>910300</v>
+        <v>1060300</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>910300</t>
+          <t>1060300</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>910300</t>
+          <t>1060300</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1949900</t>
+          <t>2099900</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1949900</t>
+          <t>2099900</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1400,7 +1400,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1330300</v>
+        <v>1480300</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1330300</t>
+          <t>1480300</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>1330300</t>
+          <t>1480300</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1479,7 +1479,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1979900</v>
+        <v>2129900</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1979900</t>
+          <t>2129900</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>1979900</t>
+          <t>2129900</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2300950</v>
+        <v>2450950</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2300950</t>
+          <t>2450950</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2300950</t>
+          <t>2450950</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1809900</t>
+          <t>1959900</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1809900</t>
+          <t>1959900</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2939900</t>
+          <t>3089900</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2939900</t>
+          <t>3089900</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1757637</v>
+        <v>1907637</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1757637</t>
+          <t>1907637</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>1757637</t>
+          <t>1907637</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1959900</v>
+        <v>2109900</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1959900</t>
+          <t>2109900</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>1959900</t>
+          <t>2109900</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2349900</t>
+          <t>2499900</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2349900</t>
+          <t>2499900</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1999900</t>
+          <t>2149900</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>1999900</t>
+          <t>2149900</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2379930</t>
+          <t>2529930</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2379930</t>
+          <t>2529930</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>526900</v>
+        <v>676900</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>526900</t>
+          <t>676900</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>526900</t>
+          <t>676900</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2245,7 +2245,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1631000</v>
+        <v>1781000</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1631000</t>
+          <t>1781000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>1631000</t>
+          <t>1781000</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2300,7 +2300,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>869900</v>
+        <v>1019900</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>869900</t>
+          <t>1019900</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>869900</t>
+          <t>1019900</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>850300</t>
+          <t>1000300</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>850300</t>
+          <t>1000300</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2458,7 +2458,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>820300</v>
+        <v>970300</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>820300</t>
+          <t>970300</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>820300</t>
+          <t>970300</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2537,7 +2537,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1169900</v>
+        <v>1319900</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1169900</t>
+          <t>1319900</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2582,7 +2582,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>1169900</t>
+          <t>1319900</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2616,7 +2616,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1939000</v>
+        <v>2089000</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1939000</t>
+          <t>2089000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2645,7 +2645,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>1939000</t>
+          <t>2089000</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1389900</v>
+        <v>1539900</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1389900</t>
+          <t>1539900</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>1389900</t>
+          <t>1539900</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1169900</v>
+        <v>1319900</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1169900</t>
+          <t>1319900</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>1169900</t>
+          <t>1319900</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2829,7 +2829,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1873400</v>
+        <v>2023400</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1873400</t>
+          <t>2023400</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>1873400</t>
+          <t>2023400</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2189000</v>
+        <v>2339000</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2189000</t>
+          <t>2339000</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2189000</t>
+          <t>2339000</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2972,7 +2972,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>667730</t>
+          <t>817730</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>667730</t>
+          <t>817730</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>616630</t>
+          <t>766630</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>616630</t>
+          <t>766630</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>665630</t>
+          <t>815630</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>665630</t>
+          <t>815630</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1350300</t>
+          <t>1500300</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3157,7 +3157,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>1350300</t>
+          <t>1500300</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>710000</t>
+          <t>860000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3212,7 +3212,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>710000</t>
+          <t>860000</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1469900</v>
+        <v>1619900</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1469900</t>
+          <t>1619900</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>1469900</t>
+          <t>1619900</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2939000</v>
+        <v>3089000</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2939000</t>
+          <t>3089000</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3619,7 +3619,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2939000</t>
+          <t>3089000</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3653,7 +3653,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2099900</v>
+        <v>2249900</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2099900</t>
+          <t>2249900</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2099900</t>
+          <t>2249900</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3009900</v>
+        <v>3159900</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>3009900</t>
+          <t>3159900</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>3009900</t>
+          <t>3159900</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1838000</t>
+          <t>1988000</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>1838000</t>
+          <t>1988000</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4032,7 +4032,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1849000</t>
+          <t>1999000</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>1849000</t>
+          <t>1999000</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4102,16 +4102,16 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1359000</v>
+        <v>1365000</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/faw/besturn_t77/</t>
+          <t>https://auto-centre-profsouz.ru/auto/faw/bestune-t77/cuv</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1359000</t>
+          <t>1509000</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>1359000</t>
+          <t>1509000</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4181,7 +4181,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2065000</v>
+        <v>2215000</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -4190,7 +4190,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2065000</t>
+          <t>2215000</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -4226,7 +4226,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2065000</t>
+          <t>2215000</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4309,7 +4309,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>650000</v>
+        <v>800000</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>800000</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -4346,7 +4346,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>800000</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4422,7 +4422,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>879000</t>
+          <t>1029000</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4442,7 +4442,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>879000</t>
+          <t>1029000</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1725000</t>
+          <t>1875000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>1725000</t>
+          <t>1875000</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4670,7 +4670,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1020000</v>
+        <v>1170000</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1020000</t>
+          <t>1170000</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4715,7 +4715,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>1020000</t>
+          <t>1170000</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -4758,7 +4758,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2449300</t>
+          <t>2599300</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4794,7 +4794,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2449300</t>
+          <t>2599300</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -4837,7 +4837,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1549290</t>
+          <t>1699290</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>1549290</t>
+          <t>1699290</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -4907,7 +4907,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1957990</v>
+        <v>2107990</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1957990</t>
+          <t>2107990</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4944,7 +4944,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>1957990</t>
+          <t>2107990</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1618990</v>
+        <v>1768990</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1618990</t>
+          <t>1768990</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -5023,7 +5023,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>1618990</t>
+          <t>1768990</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>772300</v>
+        <v>922300</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>772300</t>
+          <t>922300</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>772300</t>
+          <t>922300</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5145,7 +5145,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1115000</t>
+          <t>1265000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -5173,7 +5173,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>1115000</t>
+          <t>1265000</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5248,16 +5248,16 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1040000</v>
+        <v>1159993</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/geely/emgrand/</t>
+          <t>https://sibir-morots.ru/auto/geely/emgrand/</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1040000</t>
+          <t>1190000</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -5277,7 +5277,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>1040000</t>
+          <t>1190000</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5371,7 +5371,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>699890</t>
+          <t>849890</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5407,7 +5407,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>699890</t>
+          <t>849890</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5441,7 +5441,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2159990</v>
+        <v>2309990</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2159990</t>
+          <t>2309990</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -5486,7 +5486,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2159990</t>
+          <t>2309990</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1854000</v>
+        <v>2004000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1854000</t>
+          <t>2004000</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5590,7 +5590,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>1854000</t>
+          <t>2004000</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5675,7 +5675,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1983990</v>
+        <v>2133990</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>1983990</t>
+          <t>2133990</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>1983990</t>
+          <t>2133990</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -5730,7 +5730,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1690000</v>
+        <v>1840000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1690000</t>
+          <t>1840000</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>1690000</t>
+          <t>1840000</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -5809,7 +5809,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1780000</v>
+        <v>1930000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -5818,7 +5818,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1780000</t>
+          <t>1930000</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5854,7 +5854,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>1780000</t>
+          <t>1930000</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1150000</v>
+        <v>1300000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>1150000</t>
+          <t>1300000</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -5958,7 +5958,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>1150000</t>
+          <t>1300000</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6025,7 +6025,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1310000</v>
+        <v>1460000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1310000</t>
+          <t>1460000</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -6062,7 +6062,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>1310000</t>
+          <t>1460000</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6135,12 +6135,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/haval/h3/</t>
+          <t>https://auto-centre-profsouz.ru/auto/haval/h3/suv-1gen</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1999000</t>
+          <t>2149000</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -6168,7 +6168,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>1999000</t>
+          <t>2149000</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6235,16 +6235,16 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>879000</v>
+        <v>929000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/haval/h5_i/</t>
+          <t>https://sibir-morots.ru/auto/haval/h5/</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>879000</t>
+          <t>1029000</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>879000</t>
+          <t>1029000</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6290,7 +6290,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2219400</v>
+        <v>2369400</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2219400</t>
+          <t>2369400</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -6327,7 +6327,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2219400</t>
+          <t>2369400</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -6388,7 +6388,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2007000</v>
+        <v>2157000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2007000</t>
+          <t>2157000</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -6433,7 +6433,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2007000</t>
+          <t>2157000</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -6467,7 +6467,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>589000</v>
+        <v>739000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -6476,7 +6476,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>589000</t>
+          <t>739000</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>589000</t>
+          <t>739000</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>689000</v>
+        <v>839000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -6555,7 +6555,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>689000</t>
+          <t>839000</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>689000</t>
+          <t>839000</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1509000</t>
+          <t>1659000</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -6662,7 +6662,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>1509000</t>
+          <t>1659000</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -6739,7 +6739,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>699300</v>
+        <v>849300</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>699300</t>
+          <t>849300</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -6766,7 +6766,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>699300</t>
+          <t>849300</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -6843,16 +6843,16 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1505000</v>
+        <v>1644000</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/hyundai/elantra/</t>
+          <t>https://auto-centre-profsouz.ru/auto/hyundai/elantra-new/sedan</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>1505000</t>
+          <t>1655000</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -6870,7 +6870,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>1505000</t>
+          <t>1655000</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -6978,7 +6978,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>503000</v>
+        <v>653000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -6987,7 +6987,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>503000</t>
+          <t>653000</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -7015,7 +7015,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>503000</t>
+          <t>653000</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -7082,7 +7082,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1130200</v>
+        <v>1280200</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>1130200</t>
+          <t>1280200</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -7119,7 +7119,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>1130200</t>
+          <t>1280200</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1499000</v>
+        <v>1649000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>1499000</t>
+          <t>1649000</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -7256,7 +7256,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>1499000</t>
+          <t>1649000</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -7290,7 +7290,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>740000</v>
+        <v>890000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>740000</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -7335,7 +7335,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>740000</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>809000</t>
+          <t>959000</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -7512,7 +7512,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>809000</t>
+          <t>959000</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -7614,7 +7614,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>989000</t>
+          <t>1139000</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -7650,7 +7650,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>989000</t>
+          <t>1139000</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -7743,7 +7743,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2016000</v>
+        <v>2166000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2016000</t>
+          <t>2166000</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -7788,7 +7788,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>2016000</t>
+          <t>2166000</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>3079000</v>
+        <v>3229000</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>3079000</t>
+          <t>3229000</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>3079000</t>
+          <t>3229000</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -7886,7 +7886,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>1849900</t>
+          <t>1999900</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -7922,7 +7922,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>1849900</t>
+          <t>1999900</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -7956,7 +7956,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>2359000</v>
+        <v>2509000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2359000</t>
+          <t>2509000</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>2359000</t>
+          <t>2509000</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1809900</v>
+        <v>1959900</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>1809900</t>
+          <t>1959900</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>1809900</t>
+          <t>1959900</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -8090,7 +8090,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>2274930</v>
+        <v>2424930</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -8099,7 +8099,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2274930</t>
+          <t>2424930</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -8135,7 +8135,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>2274930</t>
+          <t>2424930</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -8178,7 +8178,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>1200000</t>
+          <t>1350000</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -8214,7 +8214,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>1200000</t>
+          <t>1350000</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -8257,7 +8257,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>1500000</t>
+          <t>1650000</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -8293,7 +8293,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>1500000</t>
+          <t>1650000</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -8336,7 +8336,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1659000</t>
+          <t>1809000</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>1659000</t>
+          <t>1809000</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -8406,7 +8406,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1269000</v>
+        <v>1419000</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>1269000</t>
+          <t>1419000</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -8451,7 +8451,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>1269000</t>
+          <t>1419000</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -8494,7 +8494,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>1566600</t>
+          <t>1716600</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -8530,7 +8530,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>1566600</t>
+          <t>1716600</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -8573,7 +8573,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>1760430</t>
+          <t>1910430</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>1760430</t>
+          <t>1910430</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -8643,7 +8643,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1726900</v>
+        <v>1876900</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>1726900</t>
+          <t>1876900</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>1726900</t>
+          <t>1876900</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -8714,7 +8714,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>860300</v>
+        <v>1010300</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -8723,20 +8723,12 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>860300</t>
+          <t>1010300</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
           <t>https://autosurgut186.ru/auto/kia/ceed/</t>
-        </is>
-      </c>
-      <c r="H129" t="n">
-        <v>1034900</v>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/kia/ceed/hatchback</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -8759,7 +8751,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>860300</t>
+          <t>1010300</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -8834,7 +8826,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>870300</v>
+        <v>1020300</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -8843,7 +8835,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>870300</t>
+          <t>1020300</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -8879,7 +8871,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>870300</t>
+          <t>1020300</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -9013,7 +9005,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>870300</v>
+        <v>1020300</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -9022,7 +9014,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>870300</t>
+          <t>1020300</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -9040,7 +9032,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>870300</t>
+          <t>1020300</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -9074,7 +9066,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1070300</v>
+        <v>1220300</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -9083,7 +9075,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>1070300</t>
+          <t>1220300</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -9119,7 +9111,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>1070300</t>
+          <t>1220300</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -9196,7 +9188,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>550745</v>
+        <v>700745</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -9205,7 +9197,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>550745</t>
+          <t>700745</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -9223,7 +9215,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>550745</t>
+          <t>700745</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -9266,7 +9258,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>1308930</t>
+          <t>1458930</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -9292,7 +9284,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>1308930</t>
+          <t>1458930</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -9369,7 +9361,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>510300</v>
+        <v>660300</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -9378,7 +9370,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>510300</t>
+          <t>660300</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -9396,7 +9388,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>510300</t>
+          <t>660300</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -9430,7 +9422,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>590300</v>
+        <v>740300</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -9439,7 +9431,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>590300</t>
+          <t>740300</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -9475,7 +9467,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>590300</t>
+          <t>740300</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -9509,7 +9501,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>970300</v>
+        <v>1120300</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -9518,7 +9510,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>970300</t>
+          <t>1120300</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -9554,7 +9546,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>970300</t>
+          <t>1120300</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -9672,7 +9664,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>571200</v>
+        <v>721200</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -9681,7 +9673,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>571200</t>
+          <t>721200</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -9709,7 +9701,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>571200</t>
+          <t>721200</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -9825,7 +9817,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1949900</v>
+        <v>2099900</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -9834,7 +9826,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>1949900</t>
+          <t>2099900</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -9870,7 +9862,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>1949900</t>
+          <t>2099900</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -9904,7 +9896,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1004900</v>
+        <v>1154900</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -9913,7 +9905,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>1004900</t>
+          <t>1154900</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -9923,7 +9915,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>1004900</t>
+          <t>1154900</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -12234,7 +12226,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>650300</v>
+        <v>800300</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -12243,7 +12235,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>650300</t>
+          <t>800300</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -12253,7 +12245,7 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>650300</t>
+          <t>800300</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
@@ -12279,7 +12271,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>701300</v>
+        <v>851300</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -12288,7 +12280,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>701300</t>
+          <t>851300</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -12298,7 +12290,7 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>701300</t>
+          <t>851300</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
@@ -12324,7 +12316,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>401300</v>
+        <v>551300</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -12333,7 +12325,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>401300</t>
+          <t>551300</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -12343,7 +12335,7 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>401300</t>
+          <t>551300</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
@@ -12369,7 +12361,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>420300</v>
+        <v>570300</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -12378,7 +12370,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>420300</t>
+          <t>570300</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -12388,7 +12380,7 @@
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>420300</t>
+          <t>570300</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
@@ -12414,7 +12406,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>491300</v>
+        <v>641300</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -12423,7 +12415,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>491300</t>
+          <t>641300</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -12433,7 +12425,7 @@
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>491300</t>
+          <t>641300</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -12459,7 +12451,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>770300</v>
+        <v>920300</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -12468,7 +12460,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>770300</t>
+          <t>920300</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -12478,7 +12470,7 @@
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>770300</t>
+          <t>920300</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
@@ -12513,7 +12505,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>1784930</t>
+          <t>1934930</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -12541,7 +12533,7 @@
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>1784930</t>
+          <t>1934930</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
@@ -12584,7 +12576,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>1189930</t>
+          <t>1339930</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -12620,7 +12612,7 @@
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>1189930</t>
+          <t>1339930</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
@@ -12663,7 +12655,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>1840930</t>
+          <t>1990930</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -12691,7 +12683,7 @@
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>1840930</t>
+          <t>1990930</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
@@ -12922,7 +12914,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>1280000</t>
+          <t>1430000</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -12958,7 +12950,7 @@
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>1280000</t>
+          <t>1430000</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
@@ -12992,7 +12984,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>2765000</v>
+        <v>2915000</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -13001,7 +12993,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2765000</t>
+          <t>2915000</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -13021,7 +13013,7 @@
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>2765000</t>
+          <t>2915000</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -13098,7 +13090,7 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>2499000</v>
+        <v>2649000</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -13107,7 +13099,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2499000</t>
+          <t>2649000</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -13127,7 +13119,7 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>2499000</t>
+          <t>2649000</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
@@ -13153,7 +13145,7 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1390000</v>
+        <v>1540000</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -13162,7 +13154,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>1540000</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -13198,7 +13190,7 @@
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>1540000</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
@@ -13273,7 +13265,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>669000</v>
+        <v>819000</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -13282,7 +13274,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>669000</t>
+          <t>819000</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -13310,7 +13302,7 @@
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>669000</t>
+          <t>819000</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
@@ -13377,7 +13369,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>1149000</v>
+        <v>1299000</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -13386,7 +13378,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>1149000</t>
+          <t>1299000</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -13414,7 +13406,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>1149000</t>
+          <t>1299000</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -13481,7 +13473,7 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>1219900</v>
+        <v>1369900</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -13490,7 +13482,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>1219900</t>
+          <t>1369900</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -13526,7 +13518,7 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>1219900</t>
+          <t>1369900</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
@@ -13560,16 +13552,16 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>1469900</v>
+        <v>1514900</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/omoda/s5/</t>
+          <t>https://auto-centre-profsouz.ru/auto/omoda/s5-2023/SEDAN</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>1469900</t>
+          <t>1619900</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -13605,7 +13597,7 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>1469900</t>
+          <t>1619900</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
@@ -13688,7 +13680,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>938000</v>
+        <v>1088000</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -13697,7 +13689,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>938000</t>
+          <t>1088000</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -13725,7 +13717,7 @@
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>938000</t>
+          <t>1088000</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -13835,7 +13827,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>646000</v>
+        <v>796000</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -13844,7 +13836,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>646000</t>
+          <t>796000</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -13862,7 +13854,7 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>646000</t>
+          <t>796000</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
@@ -13896,7 +13888,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>896000</v>
+        <v>1046000</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -13905,7 +13897,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>896000</t>
+          <t>1046000</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -13933,7 +13925,7 @@
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>896000</t>
+          <t>1046000</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
@@ -14000,7 +13992,7 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>430000</v>
+        <v>580000</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -14009,7 +14001,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>430000</t>
+          <t>580000</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -14037,7 +14029,7 @@
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>430000</t>
+          <t>580000</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -14104,7 +14096,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>536990</v>
+        <v>686990</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -14113,7 +14105,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>536990</t>
+          <t>686990</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -14149,7 +14141,7 @@
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>536990</t>
+          <t>686990</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -14183,7 +14175,7 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>431000</v>
+        <v>581000</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -14192,7 +14184,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>431000</t>
+          <t>581000</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -14220,7 +14212,7 @@
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>431000</t>
+          <t>581000</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
@@ -14287,7 +14279,7 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>566990</v>
+        <v>716990</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -14296,7 +14288,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>566990</t>
+          <t>716990</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -14324,7 +14316,7 @@
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>566990</t>
+          <t>716990</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
@@ -14522,16 +14514,16 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>1066900</v>
+        <v>1200000</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/skoda/karoq/</t>
+          <t>https://auto-centre-profsouz.ru/auto/skoda/karoq/karoq</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>1066900</t>
+          <t>1216900</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -14567,7 +14559,7 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>1066900</t>
+          <t>1216900</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -14643,7 +14635,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>2548000</t>
+          <t>2698000</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -14671,7 +14663,7 @@
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>2548000</t>
+          <t>2698000</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -14789,7 +14781,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>1214000</v>
+        <v>1364000</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -14798,7 +14790,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>1214000</t>
+          <t>1364000</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -14808,7 +14800,7 @@
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>1214000</t>
+          <t>1364000</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
@@ -14834,16 +14826,16 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>570300</v>
+        <v>651000</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/skoda/rapid/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/skoda-rapid-new/</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>570300</t>
+          <t>720300</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -14871,7 +14863,7 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>570300</t>
+          <t>720300</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -14938,7 +14930,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>1830000</v>
+        <v>1980000</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -14947,7 +14939,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>1830000</t>
+          <t>1980000</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -14967,7 +14959,7 @@
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>1830000</t>
+          <t>1980000</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -14993,7 +14985,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>2671900</v>
+        <v>2821900</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -15002,7 +14994,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>2671900</t>
+          <t>2821900</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -15022,7 +15014,7 @@
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>2671900</t>
+          <t>2821900</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -15057,7 +15049,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>1892000</t>
+          <t>2042000</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -15077,7 +15069,7 @@
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>1892000</t>
+          <t>2042000</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -15103,7 +15095,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>1396000</v>
+        <v>1546000</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -15112,7 +15104,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>1396000</t>
+          <t>1546000</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -15132,7 +15124,7 @@
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>1396000</t>
+          <t>1546000</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -15158,16 +15150,16 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>1459000</v>
+        <v>1475600</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/solaris/krs/</t>
+          <t>https://sibir-morots.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>1459000</t>
+          <t>1609000</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -15187,7 +15179,7 @@
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>1459000</t>
+          <t>1609000</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -15213,16 +15205,16 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>1576000</v>
+        <v>1614000</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/solaris/krx/</t>
+          <t>https://sibir-morots.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>1576000</t>
+          <t>1726000</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -15242,7 +15234,7 @@
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>1576000</t>
+          <t>1726000</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
@@ -15317,7 +15309,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>2869300</v>
+        <v>3019300</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -15326,7 +15318,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>2869300</t>
+          <t>3019300</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -15362,7 +15354,7 @@
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>2869300</t>
+          <t>3019300</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
@@ -15454,7 +15446,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>976500</t>
+          <t>1126500</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -15490,7 +15482,7 @@
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>976500</t>
+          <t>1126500</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
@@ -15524,7 +15516,7 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>657000</v>
+        <v>807000</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -15533,7 +15525,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>657000</t>
+          <t>807000</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -15561,7 +15553,7 @@
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>657000</t>
+          <t>807000</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -15628,7 +15620,7 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>696500</v>
+        <v>846500</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -15637,7 +15629,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>696500</t>
+          <t>846500</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -15657,7 +15649,7 @@
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>696500</t>
+          <t>846500</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -15766,7 +15758,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>1070300</t>
+          <t>1220300</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -15794,7 +15786,7 @@
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>1070300</t>
+          <t>1220300</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -15861,7 +15853,7 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>1859200</v>
+        <v>2009200</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -15870,7 +15862,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>1859200</t>
+          <t>2009200</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -15898,7 +15890,7 @@
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>1859200</t>
+          <t>2009200</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -15965,16 +15957,16 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>540300</v>
+        <v>612400</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/volkswagen/polo/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/volkswagen-new-polo/</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>540300</t>
+          <t>690300</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -16002,7 +15994,7 @@
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>540300</t>
+          <t>690300</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -16069,7 +16061,7 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>1980230</v>
+        <v>2130230</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -16078,7 +16070,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>1980230</t>
+          <t>2130230</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -16114,7 +16106,7 @@
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>1980230</t>
+          <t>2130230</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
@@ -16191,7 +16183,7 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>1329900</v>
+        <v>1479900</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -16200,7 +16192,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>1329900</t>
+          <t>1479900</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -16218,7 +16210,7 @@
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>1329900</t>
+          <t>1479900</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -16293,16 +16285,16 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>835640</v>
+        <v>979600</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/zotye/coupa/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/zotye-coupa/</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>835640</t>
+          <t>985640</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -16338,7 +16330,7 @@
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>835640</t>
+          <t>985640</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
@@ -16364,16 +16356,16 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>734000</v>
+        <v>761600</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/zotye/t600/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/zotye-t600/</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>734000</t>
+          <t>884000</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -16409,7 +16401,7 @@
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>734000</t>
+          <t>884000</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">

--- a/xlsx/surgut.xlsx
+++ b/xlsx/surgut.xlsx
@@ -8731,6 +8731,14 @@
           <t>https://autosurgut186.ru/auto/kia/ceed/</t>
         </is>
       </c>
+      <c r="H129" t="n">
+        <v>1034900</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/kia/ceed/hatchback</t>
+        </is>
+      </c>
       <c r="J129" t="inlineStr">
         <is>
           <t>1739900</t>
@@ -8742,11 +8750,11 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1844900</v>
+        <v>1034900</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/kia-ceed-new/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/kia-ceed/</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
@@ -8862,11 +8870,11 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>1914900</v>
+        <v>1404900</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/kia-ceed-sw-new/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/kia-ceed-sw/</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -12932,7 +12940,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>1720000</t>
+          <t>1200000</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">

--- a/xlsx/surgut.xlsx
+++ b/xlsx/surgut.xlsx
@@ -534,7 +534,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2631930</t>
+          <t>2781930</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -570,7 +570,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2631930</t>
+          <t>2781930</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1535030</t>
+          <t>1685030</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1535030</t>
+          <t>1685030</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1470000</t>
+          <t>1620000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1470000</t>
+          <t>1620000</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2065000</t>
+          <t>2215000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2065000</t>
+          <t>2215000</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>1499000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1349000</t>
+          <t>1499000</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1695714</v>
+        <v>1845714</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1695714</t>
+          <t>1845714</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1695714</t>
+          <t>1845714</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1129000</t>
+          <t>1279000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1129000</t>
+          <t>1279000</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1289900</v>
+        <v>1439900</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1289900</t>
+          <t>1439900</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1289900</t>
+          <t>1439900</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1224,7 +1224,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>910300</v>
+        <v>1060300</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>910300</t>
+          <t>1060300</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>910300</t>
+          <t>1060300</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1949900</t>
+          <t>2099900</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1949900</t>
+          <t>2099900</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1330300</v>
+        <v>1480300</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1330300</t>
+          <t>1480300</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>1330300</t>
+          <t>1480300</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1979900</v>
+        <v>2129900</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1979900</t>
+          <t>2129900</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1979900</t>
+          <t>2129900</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2300950</v>
+        <v>2450950</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2300950</t>
+          <t>2450950</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2300950</t>
+          <t>2450950</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1809900</t>
+          <t>1959900</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>1809900</t>
+          <t>1959900</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2939900</t>
+          <t>3089900</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2939900</t>
+          <t>3089900</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1757637</v>
+        <v>1907637</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1757637</t>
+          <t>1907637</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>1757637</t>
+          <t>1907637</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1959900</v>
+        <v>2109900</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1959900</t>
+          <t>2109900</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>1959900</t>
+          <t>2109900</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2349900</t>
+          <t>2499900</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2349900</t>
+          <t>2499900</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1999900</t>
+          <t>2149900</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>1999900</t>
+          <t>2149900</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2379930</t>
+          <t>2529930</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2379930</t>
+          <t>2529930</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>526900</v>
+        <v>676900</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>526900</t>
+          <t>676900</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>526900</t>
+          <t>676900</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1631000</v>
+        <v>1781000</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1631000</t>
+          <t>1781000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>1631000</t>
+          <t>1781000</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>869900</v>
+        <v>1019900</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>869900</t>
+          <t>1019900</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>869900</t>
+          <t>1019900</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>850300</t>
+          <t>1000300</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>850300</t>
+          <t>1000300</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>820300</v>
+        <v>970300</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>820300</t>
+          <t>970300</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>820300</t>
+          <t>970300</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1169900</v>
+        <v>1319900</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1169900</t>
+          <t>1319900</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>1169900</t>
+          <t>1319900</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1939000</v>
+        <v>2089000</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1939000</t>
+          <t>2089000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>1939000</t>
+          <t>2089000</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1389900</v>
+        <v>1539900</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1389900</t>
+          <t>1539900</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>1389900</t>
+          <t>1539900</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1169900</v>
+        <v>1319900</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1169900</t>
+          <t>1319900</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>1169900</t>
+          <t>1319900</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1873400</v>
+        <v>2023400</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1873400</t>
+          <t>2023400</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>1873400</t>
+          <t>2023400</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2189000</v>
+        <v>2339000</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2189000</t>
+          <t>2339000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2189000</t>
+          <t>2339000</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2989,7 +2989,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>667730</t>
+          <t>817730</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>667730</t>
+          <t>817730</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3044,7 +3044,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>616630</t>
+          <t>766630</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>616630</t>
+          <t>766630</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>665630</t>
+          <t>815630</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>665630</t>
+          <t>815630</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3154,7 +3154,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1350300</t>
+          <t>1500300</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3174,7 +3174,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>1350300</t>
+          <t>1500300</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>710000</t>
+          <t>860000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>710000</t>
+          <t>860000</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3636,7 +3636,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1469900</v>
+        <v>1619900</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1469900</t>
+          <t>1619900</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>1469900</t>
+          <t>1619900</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -3764,7 +3764,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2939000</v>
+        <v>3089000</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2939000</t>
+          <t>3089000</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2939000</t>
+          <t>3089000</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2099900</v>
+        <v>2249900</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2099900</t>
+          <t>2249900</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2099900</t>
+          <t>2249900</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -3949,7 +3949,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3009900</v>
+        <v>3159900</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>3009900</t>
+          <t>3159900</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3994,7 +3994,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>3009900</t>
+          <t>3159900</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4127,7 +4127,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1838000</t>
+          <t>1988000</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4155,7 +4155,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>1838000</t>
+          <t>1988000</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1849000</t>
+          <t>1999000</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4234,7 +4234,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>1849000</t>
+          <t>1999000</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4268,16 +4268,16 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1359000</v>
+        <v>1365000</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/faw/besturn_t77/</t>
+          <t>https://auto-centre-profsouz.ru/auto/faw/bestune-t77/cuv</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1359000</t>
+          <t>1509000</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>1359000</t>
+          <t>1509000</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4347,7 +4347,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2065000</v>
+        <v>2215000</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2065000</t>
+          <t>2215000</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2065000</t>
+          <t>2215000</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4475,16 +4475,16 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>650000</v>
+        <v>797000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/faw/x40/</t>
+          <t>https://auto-centre-profsouz.ru/auto/faw/new-x40/2019</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>800000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>650000</t>
+          <t>800000</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4563,7 +4563,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>879000</t>
+          <t>1029000</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4583,7 +4583,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>879000</t>
+          <t>1029000</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1725000</t>
+          <t>1875000</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>1725000</t>
+          <t>1875000</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -4844,7 +4844,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1020000</v>
+        <v>1170000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1020000</t>
+          <t>1170000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -4889,7 +4889,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>1020000</t>
+          <t>1170000</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2449300</t>
+          <t>2599300</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4968,7 +4968,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2449300</t>
+          <t>2599300</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5011,7 +5011,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1549290</t>
+          <t>1699290</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>1549290</t>
+          <t>1699290</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5081,7 +5081,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1957990</v>
+        <v>2107990</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>1957990</t>
+          <t>2107990</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -5118,7 +5118,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>1957990</t>
+          <t>2107990</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1618990</v>
+        <v>1768990</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1618990</t>
+          <t>1768990</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5197,7 +5197,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>1618990</t>
+          <t>1768990</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5264,7 +5264,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>772300</v>
+        <v>922300</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>772300</t>
+          <t>922300</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5309,7 +5309,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>772300</t>
+          <t>922300</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1115000</t>
+          <t>1265000</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>1115000</t>
+          <t>1265000</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5455,16 +5455,16 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1040000</v>
+        <v>1159993</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/geely/emgrand/</t>
+          <t>https://sibir-morots.ru/auto/geely/emgrand/</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>1040000</t>
+          <t>1190000</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5484,7 +5484,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>1040000</t>
+          <t>1190000</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -5578,7 +5578,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>699890</t>
+          <t>849890</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5614,7 +5614,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>699890</t>
+          <t>849890</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -5648,7 +5648,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2159990</v>
+        <v>2309990</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2159990</t>
+          <t>2309990</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -5693,7 +5693,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2159990</t>
+          <t>2309990</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -5778,7 +5778,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1854000</v>
+        <v>2004000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1854000</t>
+          <t>2004000</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -5805,7 +5805,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>1854000</t>
+          <t>2004000</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1983990</v>
+        <v>2133990</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1983990</t>
+          <t>2133990</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -5952,7 +5952,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>1983990</t>
+          <t>2133990</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -5978,7 +5978,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1690000</v>
+        <v>1840000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1690000</t>
+          <t>1840000</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -6023,7 +6023,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>1690000</t>
+          <t>1840000</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6057,7 +6057,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1780000</v>
+        <v>1930000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1780000</t>
+          <t>1930000</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -6102,7 +6102,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>1780000</t>
+          <t>1930000</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6185,7 +6185,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1150000</v>
+        <v>1300000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1150000</t>
+          <t>1300000</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>1150000</t>
+          <t>1300000</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -6289,7 +6289,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1310000</v>
+        <v>1460000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1310000</t>
+          <t>1460000</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -6318,7 +6318,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>1310000</t>
+          <t>1460000</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -6383,12 +6383,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/haval/h3/</t>
+          <t>https://auto-centre-profsouz.ru/auto/haval/h3/suv-1gen</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1999000</t>
+          <t>2149000</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>1999000</t>
+          <t>2149000</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -6483,16 +6483,16 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>879000</v>
+        <v>929000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/haval/h5_i/</t>
+          <t>https://sibir-morots.ru/auto/haval/h5/</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>879000</t>
+          <t>1029000</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>879000</t>
+          <t>1029000</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -6538,7 +6538,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2219400</v>
+        <v>2369400</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2219400</t>
+          <t>2369400</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2219400</t>
+          <t>2369400</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -6636,7 +6636,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>2007000</v>
+        <v>2157000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2007000</t>
+          <t>2157000</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2007000</t>
+          <t>2157000</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>589000</v>
+        <v>739000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>589000</t>
+          <t>739000</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>589000</t>
+          <t>739000</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -6794,7 +6794,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>689000</v>
+        <v>839000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>689000</t>
+          <t>839000</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>689000</t>
+          <t>839000</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -6874,7 +6874,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1509000</t>
+          <t>1659000</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>1509000</t>
+          <t>1659000</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>699300</v>
+        <v>849300</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>699300</t>
+          <t>849300</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -7022,7 +7022,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>699300</t>
+          <t>849300</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -7107,7 +7107,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1505000</v>
+        <v>1655000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>1505000</t>
+          <t>1655000</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -7126,7 +7126,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>1505000</t>
+          <t>1655000</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -7201,7 +7201,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>503000</v>
+        <v>653000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>503000</t>
+          <t>653000</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>503000</t>
+          <t>653000</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1130200</v>
+        <v>1280200</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>1130200</t>
+          <t>1280200</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -7325,7 +7325,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>1130200</t>
+          <t>1280200</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -7418,7 +7418,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1499000</v>
+        <v>1649000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>1499000</t>
+          <t>1649000</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -7437,7 +7437,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>1499000</t>
+          <t>1649000</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -7463,7 +7463,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>740000</v>
+        <v>890000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>740000</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -7508,7 +7508,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>740000</t>
+          <t>890000</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -7682,7 +7682,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>809000</t>
+          <t>959000</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -7718,7 +7718,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>809000</t>
+          <t>959000</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -7820,7 +7820,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>989000</t>
+          <t>1139000</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>989000</t>
+          <t>1139000</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -8015,7 +8015,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>2016000</v>
+        <v>2166000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -8024,7 +8024,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2016000</t>
+          <t>2166000</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -8060,7 +8060,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>2016000</t>
+          <t>2166000</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -8094,7 +8094,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3079000</v>
+        <v>3229000</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>3079000</t>
+          <t>3229000</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>3079000</t>
+          <t>3229000</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -8166,7 +8166,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>1849900</t>
+          <t>1999900</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -8202,7 +8202,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>1849900</t>
+          <t>1999900</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -8236,7 +8236,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>2359000</v>
+        <v>2509000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2359000</t>
+          <t>2509000</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -8265,7 +8265,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>2359000</t>
+          <t>2509000</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -8357,7 +8357,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1809900</v>
+        <v>1959900</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>1809900</t>
+          <t>1959900</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -8402,7 +8402,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>1809900</t>
+          <t>1959900</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -8436,7 +8436,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>2274930</v>
+        <v>2424930</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2274930</t>
+          <t>2424930</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -8481,7 +8481,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>2274930</t>
+          <t>2424930</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -8524,7 +8524,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>1200000</t>
+          <t>1350000</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -8560,7 +8560,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>1200000</t>
+          <t>1350000</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -8603,7 +8603,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>1500000</t>
+          <t>1650000</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -8639,7 +8639,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>1500000</t>
+          <t>1650000</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -8682,7 +8682,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1659000</t>
+          <t>1809000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -8718,7 +8718,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>1659000</t>
+          <t>1809000</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -8752,7 +8752,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1269000</v>
+        <v>1419000</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>1269000</t>
+          <t>1419000</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -8797,7 +8797,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>1269000</t>
+          <t>1419000</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -8840,7 +8840,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>1566600</t>
+          <t>1716600</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -8876,7 +8876,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>1566600</t>
+          <t>1716600</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -8919,7 +8919,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>1760430</t>
+          <t>1910430</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -8955,7 +8955,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>1760430</t>
+          <t>1910430</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -8989,7 +8989,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1726900</v>
+        <v>1876900</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>1726900</t>
+          <t>1876900</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -9026,7 +9026,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>1726900</t>
+          <t>1876900</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -9060,7 +9060,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>860300</v>
+        <v>1010300</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>860300</t>
+          <t>1010300</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -9105,7 +9105,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>860300</t>
+          <t>1010300</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -9139,7 +9139,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>870300</v>
+        <v>1020300</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>870300</t>
+          <t>1020300</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -9184,7 +9184,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>870300</t>
+          <t>1020300</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -9277,7 +9277,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>870300</v>
+        <v>1020300</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>870300</t>
+          <t>1020300</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -9296,7 +9296,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>870300</t>
+          <t>1020300</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -9322,7 +9322,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1070300</v>
+        <v>1220300</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>1070300</t>
+          <t>1220300</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>1070300</t>
+          <t>1220300</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -9460,7 +9460,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>550745</v>
+        <v>700745</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>550745</t>
+          <t>700745</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -9479,7 +9479,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>550745</t>
+          <t>700745</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -9514,7 +9514,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>1308930</t>
+          <t>1458930</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>1308930</t>
+          <t>1458930</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -9633,7 +9633,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>510300</v>
+        <v>660300</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>510300</t>
+          <t>660300</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -9652,7 +9652,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>510300</t>
+          <t>660300</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -9678,7 +9678,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>590300</v>
+        <v>740300</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>590300</t>
+          <t>740300</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -9715,7 +9715,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>590300</t>
+          <t>740300</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -9782,7 +9782,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>970300</v>
+        <v>1120300</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>970300</t>
+          <t>1120300</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>970300</t>
+          <t>1120300</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -9945,7 +9945,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>571200</v>
+        <v>721200</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>571200</t>
+          <t>721200</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -9990,7 +9990,7 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>571200</t>
+          <t>721200</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -10073,7 +10073,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1949900</v>
+        <v>2099900</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>1949900</t>
+          <t>2099900</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -10118,7 +10118,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>1949900</t>
+          <t>2099900</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -10152,7 +10152,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1004900</v>
+        <v>1154900</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -10161,7 +10161,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>1004900</t>
+          <t>1154900</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -10171,7 +10171,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>1004900</t>
+          <t>1154900</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -12482,7 +12482,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>650300</v>
+        <v>800300</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>650300</t>
+          <t>800300</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -12501,7 +12501,7 @@
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>650300</t>
+          <t>800300</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
@@ -12527,7 +12527,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>701300</v>
+        <v>851300</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>701300</t>
+          <t>851300</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -12546,7 +12546,7 @@
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>701300</t>
+          <t>851300</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
@@ -12572,7 +12572,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>401300</v>
+        <v>551300</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>401300</t>
+          <t>551300</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -12591,7 +12591,7 @@
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>401300</t>
+          <t>551300</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
@@ -12617,7 +12617,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>420300</v>
+        <v>570300</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>420300</t>
+          <t>570300</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -12636,7 +12636,7 @@
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>420300</t>
+          <t>570300</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
@@ -12662,7 +12662,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>491300</v>
+        <v>641300</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>491300</t>
+          <t>641300</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -12681,7 +12681,7 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>491300</t>
+          <t>641300</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
@@ -12707,7 +12707,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>770300</v>
+        <v>920300</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>770300</t>
+          <t>920300</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -12726,7 +12726,7 @@
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>770300</t>
+          <t>920300</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
@@ -12761,7 +12761,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>1784930</t>
+          <t>1934930</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -12789,7 +12789,7 @@
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>1784930</t>
+          <t>1934930</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -12832,7 +12832,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>1189930</t>
+          <t>1339930</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -12868,7 +12868,7 @@
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>1189930</t>
+          <t>1339930</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
@@ -12911,7 +12911,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>1840930</t>
+          <t>1990930</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -12939,7 +12939,7 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>1840930</t>
+          <t>1990930</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
@@ -13170,7 +13170,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>1280000</t>
+          <t>1430000</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -13206,7 +13206,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>1280000</t>
+          <t>1430000</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -13240,7 +13240,7 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>2765000</v>
+        <v>2915000</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2765000</t>
+          <t>2915000</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -13269,7 +13269,7 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>2765000</t>
+          <t>2915000</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>2499000</v>
+        <v>2649000</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2499000</t>
+          <t>2649000</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -13375,7 +13375,7 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>2499000</t>
+          <t>2649000</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
@@ -13401,7 +13401,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1390000</v>
+        <v>1540000</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>1540000</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -13446,7 +13446,7 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>1540000</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>669000</v>
+        <v>819000</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>669000</t>
+          <t>819000</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -13566,7 +13566,7 @@
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>669000</t>
+          <t>819000</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
@@ -13600,7 +13600,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>1149000</v>
+        <v>1299000</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>1149000</t>
+          <t>1299000</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -13645,7 +13645,7 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>1149000</t>
+          <t>1299000</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
@@ -13679,7 +13679,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>1219900</v>
+        <v>1369900</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>1219900</t>
+          <t>1369900</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -13724,7 +13724,7 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>1219900</t>
+          <t>1369900</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
@@ -13758,16 +13758,16 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>1469900</v>
+        <v>1514900</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/omoda/s5/</t>
+          <t>https://auto-centre-profsouz.ru/auto/omoda/s5-2023/SEDAN</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>1469900</t>
+          <t>1619900</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -13803,7 +13803,7 @@
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>1469900</t>
+          <t>1619900</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
@@ -13886,7 +13886,7 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>938000</v>
+        <v>1088000</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>938000</t>
+          <t>1088000</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -13931,7 +13931,7 @@
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>938000</t>
+          <t>1088000</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -14024,7 +14024,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>646000</v>
+        <v>796000</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>646000</t>
+          <t>796000</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -14043,7 +14043,7 @@
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>646000</t>
+          <t>796000</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -14069,7 +14069,7 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>896000</v>
+        <v>1046000</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>896000</t>
+          <t>1046000</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -14114,7 +14114,7 @@
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>896000</t>
+          <t>1046000</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
@@ -14148,7 +14148,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>430000</v>
+        <v>580000</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>430000</t>
+          <t>580000</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -14193,7 +14193,7 @@
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>430000</t>
+          <t>580000</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -14227,7 +14227,7 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>536990</v>
+        <v>686990</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>536990</t>
+          <t>686990</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -14272,7 +14272,7 @@
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>536990</t>
+          <t>686990</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
@@ -14306,16 +14306,16 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>431000</v>
+        <v>509000</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/renault/sandero/</t>
+          <t>https://auto-centre-profsouz.ru/auto/renault/new-sandero/new</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>431000</t>
+          <t>581000</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -14351,7 +14351,7 @@
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>431000</t>
+          <t>581000</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -14385,16 +14385,16 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>566990</v>
+        <v>686000</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/renault/sandero_stepway/</t>
+          <t>https://auto-centre-profsouz.ru/auto/renault/new-sandero-stepway/stepway</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>566990</t>
+          <t>716990</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -14430,7 +14430,7 @@
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>566990</t>
+          <t>716990</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -14595,16 +14595,16 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>1066900</v>
+        <v>1200000</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/skoda/karoq/</t>
+          <t>https://auto-centre-profsouz.ru/auto/skoda/karoq/karoq</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>1066900</t>
+          <t>1216900</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -14640,7 +14640,7 @@
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>1066900</t>
+          <t>1216900</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -14723,7 +14723,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>2548000</v>
+        <v>2698000</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>2548000</t>
+          <t>2698000</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -14752,7 +14752,7 @@
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>2548000</t>
+          <t>2698000</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -14862,7 +14862,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>1214000</v>
+        <v>1364000</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>1214000</t>
+          <t>1364000</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -14881,7 +14881,7 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>1214000</t>
+          <t>1364000</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -14916,7 +14916,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>570300</t>
+          <t>720300</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -14952,7 +14952,7 @@
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>570300</t>
+          <t>720300</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -14986,7 +14986,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>1830000</v>
+        <v>1980000</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>1830000</t>
+          <t>1980000</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -15015,7 +15015,7 @@
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>1830000</t>
+          <t>1980000</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -15041,7 +15041,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>2671900</v>
+        <v>2821900</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>2671900</t>
+          <t>2821900</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -15070,7 +15070,7 @@
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>2671900</t>
+          <t>2821900</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -15105,7 +15105,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>1892000</t>
+          <t>2042000</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -15125,7 +15125,7 @@
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>1892000</t>
+          <t>2042000</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -15151,7 +15151,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>1396000</v>
+        <v>1546000</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>1396000</t>
+          <t>1546000</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -15180,7 +15180,7 @@
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>1396000</t>
+          <t>1546000</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -15206,16 +15206,16 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>1459000</v>
+        <v>1475600</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/solaris/krs/</t>
+          <t>https://sibir-morots.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>1459000</t>
+          <t>1609000</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -15235,7 +15235,7 @@
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>1459000</t>
+          <t>1609000</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>1576000</v>
+        <v>1614000</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/solaris/krx/</t>
+          <t>https://sibir-morots.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>1576000</t>
+          <t>1726000</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -15290,7 +15290,7 @@
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>1576000</t>
+          <t>1726000</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
@@ -15365,7 +15365,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>2869300</v>
+        <v>3019300</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>2869300</t>
+          <t>3019300</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -15410,7 +15410,7 @@
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>2869300</t>
+          <t>3019300</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
@@ -15535,7 +15535,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>976500</t>
+          <t>1126500</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -15571,7 +15571,7 @@
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>976500</t>
+          <t>1126500</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -15605,7 +15605,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>657000</v>
+        <v>807000</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -15614,7 +15614,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>657000</t>
+          <t>807000</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -15650,7 +15650,7 @@
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>657000</t>
+          <t>807000</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -15684,7 +15684,7 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>696500</v>
+        <v>846500</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>696500</t>
+          <t>846500</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -15713,7 +15713,7 @@
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>696500</t>
+          <t>846500</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -15797,7 +15797,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>1070300</t>
+          <t>1220300</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -15833,7 +15833,7 @@
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>1070300</t>
+          <t>1220300</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -15867,7 +15867,7 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>1859200</v>
+        <v>2009200</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>1859200</t>
+          <t>2009200</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -15912,7 +15912,7 @@
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>1859200</t>
+          <t>2009200</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -15955,7 +15955,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>540300</t>
+          <t>690300</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -15991,7 +15991,7 @@
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>540300</t>
+          <t>690300</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -16025,7 +16025,7 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>1980230</v>
+        <v>2130230</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>1980230</t>
+          <t>2130230</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -16070,7 +16070,7 @@
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>1980230</t>
+          <t>2130230</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -16163,7 +16163,7 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>1329900</v>
+        <v>1479900</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>1329900</t>
+          <t>1479900</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -16182,7 +16182,7 @@
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>1329900</t>
+          <t>1479900</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -16249,16 +16249,16 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>835640</v>
+        <v>979600</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/zotye/coupa/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/zotye-coupa/</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>835640</t>
+          <t>985640</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -16294,7 +16294,7 @@
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>835640</t>
+          <t>985640</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
@@ -16320,16 +16320,16 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>734000</v>
+        <v>761600</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/zotye/t600/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/zotye-t600/</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>734000</t>
+          <t>884000</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -16365,7 +16365,7 @@
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>734000</t>
+          <t>884000</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">

--- a/xlsx/surgut.xlsx
+++ b/xlsx/surgut.xlsx
@@ -534,7 +534,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2781930</t>
+          <t>1695000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -570,7 +570,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2781930</t>
+          <t>1695000</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1685030</t>
+          <t>1390000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1685030</t>
+          <t>1390000</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1620000</t>
+          <t>1545000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1620000</t>
+          <t>1545000</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2215000</t>
+          <t>2200000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2215000</t>
+          <t>2200000</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1499000</t>
+          <t>1385990</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1499000</t>
+          <t>1385990</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1279000</t>
+          <t>900000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1279000</t>
+          <t>900000</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2099900</t>
+          <t>1864900</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2099900</t>
+          <t>1864900</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1959900</t>
+          <t>1564900</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>1959900</t>
+          <t>1564900</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3089900</t>
+          <t>2774900</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>3089900</t>
+          <t>2774900</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2499900</t>
+          <t>2104900</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2499900</t>
+          <t>2104900</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2149900</t>
+          <t>2094900</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2149900</t>
+          <t>2094900</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2529930</t>
+          <t>2145000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2529930</t>
+          <t>2145000</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1000300</t>
+          <t>574900</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>1000300</t>
+          <t>574900</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2989,7 +2989,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>817730</t>
+          <t>661900</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>817730</t>
+          <t>661900</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3044,7 +3044,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>766630</t>
+          <t>588900</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>766630</t>
+          <t>588900</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>815630</t>
+          <t>658900</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>815630</t>
+          <t>658900</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3154,7 +3154,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1500300</t>
+          <t>1274000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3174,7 +3174,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>1500300</t>
+          <t>1274000</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>860000</t>
+          <t>574000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>860000</t>
+          <t>574000</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -4127,7 +4127,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1988000</t>
+          <t>1795000</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4155,7 +4155,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>1988000</t>
+          <t>1795000</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1999000</t>
+          <t>1756000</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4234,7 +4234,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>1999000</t>
+          <t>1756000</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4563,7 +4563,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1029000</t>
+          <t>853000</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4583,7 +4583,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>1029000</t>
+          <t>853000</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1875000</t>
+          <t>1849000</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>1875000</t>
+          <t>1849000</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2599300</t>
+          <t>2439000</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4968,7 +4968,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2599300</t>
+          <t>2439000</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5011,7 +5011,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1699290</t>
+          <t>1183990</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>1699290</t>
+          <t>1183990</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1265000</t>
+          <t>1164990</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>1265000</t>
+          <t>1164990</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5455,36 +5455,36 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1159993</v>
+        <v>1104990</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
+          <t>https://autocentersurgut186.ru/auto/geely/emgrand/</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1104990</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/geely/emgrand/</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>1159993</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
           <t>https://sibir-morots.ru/auto/geely/emgrand/</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>1190000</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/geely/emgrand/</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>1159993</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/geely/emgrand/</t>
-        </is>
-      </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>1190000</t>
+          <t>1104990</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -5578,7 +5578,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>849890</t>
+          <t>664990</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5614,7 +5614,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>849890</t>
+          <t>664990</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6874,7 +6874,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1659000</t>
+          <t>1414000</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>1659000</t>
+          <t>1414000</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7682,7 +7682,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>959000</t>
+          <t>744000</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -7718,7 +7718,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>959000</t>
+          <t>744000</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -7820,7 +7820,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>1139000</t>
+          <t>1124000</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>1139000</t>
+          <t>1124000</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -8166,7 +8166,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>1999900</t>
+          <t>1834900</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -8202,7 +8202,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>1999900</t>
+          <t>1834900</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -8524,7 +8524,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>1350000</t>
+          <t>1035000</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -8560,7 +8560,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>1350000</t>
+          <t>1035000</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -8603,7 +8603,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>1650000</t>
+          <t>1335000</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -8639,7 +8639,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>1650000</t>
+          <t>1335000</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -8682,7 +8682,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1809000</t>
+          <t>1494000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -8718,7 +8718,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>1809000</t>
+          <t>1494000</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -8840,7 +8840,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>1716600</t>
+          <t>1576650</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -8876,7 +8876,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>1716600</t>
+          <t>1576650</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -8919,7 +8919,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>1910430</t>
+          <t>1859900</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -8955,7 +8955,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>1910430</t>
+          <t>1859900</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -9514,7 +9514,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>1458930</t>
+          <t>1017999</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>1458930</t>
+          <t>1017999</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -10201,12 +10201,12 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/granta_cross/</t>
+          <t>https://autocentersurgut186.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>437700</t>
+          <t>337300</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -10242,7 +10242,7 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>437700</t>
+          <t>337300</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
@@ -10329,12 +10329,12 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/granta_hatchback/</t>
+          <t>https://autocentersurgut186.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>544950</t>
+          <t>373500</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -10362,7 +10362,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>544950</t>
+          <t>373500</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -10433,12 +10433,12 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/granta_liftback/</t>
+          <t>https://autocentersurgut186.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>343700</t>
+          <t>317300</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -10466,7 +10466,7 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>343700</t>
+          <t>317300</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -10537,12 +10537,12 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/lada-novaya-granta-sedan/</t>
+          <t>https://autocentersurgut186.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>450900</t>
+          <t>292300</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -10570,7 +10570,7 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>450900</t>
+          <t>292300</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -10696,12 +10696,12 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/granta_universal/</t>
+          <t>https://autocentersurgut186.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>351300</t>
+          <t>314300</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -10729,7 +10729,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>351300</t>
+          <t>314300</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -11220,12 +11220,12 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://autocentersurgut186.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>538300</t>
+          <t>424900</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -11261,7 +11261,7 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>538300</t>
+          <t>424900</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
@@ -11299,12 +11299,12 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://autocentersurgut186.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>560300</t>
+          <t>513900</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -11340,7 +11340,7 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>560300</t>
+          <t>513900</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -11476,12 +11476,12 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/niva_off-road/</t>
+          <t>https://autocentersurgut186.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>576800</t>
+          <t>419000</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -11517,7 +11517,7 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>576800</t>
+          <t>419000</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
@@ -11555,12 +11555,12 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://sibir-morots.ru/auto/lada/niva_travel/</t>
+          <t>https://autocentersurgut186.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>875000</t>
+          <t>687900</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -11596,7 +11596,7 @@
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>875000</t>
+          <t>687900</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -12761,7 +12761,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>1934930</t>
+          <t>1729930</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -12789,7 +12789,7 @@
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>1934930</t>
+          <t>1729930</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -12832,7 +12832,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>1339930</t>
+          <t>1224900</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -12868,7 +12868,7 @@
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>1339930</t>
+          <t>1224900</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
@@ -12911,7 +12911,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>1990930</t>
+          <t>1785930</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -12939,7 +12939,7 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>1990930</t>
+          <t>1785930</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
@@ -13170,7 +13170,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>1430000</t>
+          <t>1275000</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -13206,7 +13206,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>1430000</t>
+          <t>1275000</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -14723,7 +14723,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>2698000</v>
+        <v>1807000</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>2698000</t>
+          <t>1807000</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -14752,7 +14752,7 @@
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>2698000</t>
+          <t>1807000</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -14862,7 +14862,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>1364000</v>
+        <v>1302000</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>1364000</t>
+          <t>1302000</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -14881,7 +14881,7 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>1364000</t>
+          <t>1302000</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -14916,7 +14916,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>720300</t>
+          <t>696000</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -14952,7 +14952,7 @@
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>720300</t>
+          <t>696000</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -15105,7 +15105,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>2042000</t>
+          <t>1799300</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -15125,7 +15125,7 @@
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>2042000</t>
+          <t>1799300</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -15535,7 +15535,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>1126500</t>
+          <t>925000</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -15571,7 +15571,7 @@
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>1126500</t>
+          <t>925000</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -15797,7 +15797,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>1220300</t>
+          <t>1053000</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -15833,7 +15833,7 @@
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>1220300</t>
+          <t>1053000</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -15955,7 +15955,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>690300</t>
+          <t>657400</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -15991,7 +15991,7 @@
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>690300</t>
+          <t>657400</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">

--- a/xlsx/surgut.xlsx
+++ b/xlsx/surgut.xlsx
@@ -529,12 +529,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/baic/suv/suv-1gen</t>
+          <t>https://autocentersurgut186.ru/auto/baic/bj40/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1695000</t>
+          <t>1545000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -570,7 +570,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1695000</t>
+          <t>1545000</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -641,12 +641,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/baic/sedan/sedan-1gen</t>
+          <t>https://autocentersurgut186.ru/auto/baic/u5_plus/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>1240000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>1240000</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/baic/cuv/suv-1gen</t>
+          <t>https://autocentersurgut186.ru/auto/baic/x35/</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1545000</t>
+          <t>1395000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1545000</t>
+          <t>1395000</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -799,12 +799,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/baic/x55/suv-1gen</t>
+          <t>https://autocentersurgut186.ru/auto/baic/x55/</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2200000</t>
+          <t>2050000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2200000</t>
+          <t>2050000</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -911,12 +911,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/belgee-x50/</t>
+          <t>https://autocentersurgut186.ru/auto/belgee/x50/</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1385990</t>
+          <t>1235990</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1385990</t>
+          <t>1235990</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1845714</v>
+        <v>1695714</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -995,19 +995,19 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>1695714</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/belgee/x70/</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>1845714</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/belgee/x70/</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>1845714</t>
-        </is>
-      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>https://sibir-morots.ru/auto/belgee/x70/</t>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1845714</t>
+          <t>1695714</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1041,16 +1041,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>835000</v>
+        <v>750000</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/alsvin/sed</t>
+          <t>https://autocentersurgut186.ru/auto/changan/alsvin/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>900000</t>
+          <t>750000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>900000</t>
+          <t>750000</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1439900</v>
+        <v>1289900</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1439900</t>
+          <t>1289900</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1439900</t>
+          <t>1289900</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1224,7 +1224,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1060300</v>
+        <v>910300</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1060300</t>
+          <t>910300</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1060300</t>
+          <t>910300</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/cs55plus/cuv</t>
+          <t>https://autocentersurgut186.ru/auto/changan/cs55_plus/</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1864900</t>
+          <t>1714900</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1864900</t>
+          <t>1714900</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1480300</v>
+        <v>1330300</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1480300</t>
+          <t>1330300</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>1480300</t>
+          <t>1330300</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2129900</v>
+        <v>1979900</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2129900</t>
+          <t>1979900</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2129900</t>
+          <t>1979900</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2450950</v>
+        <v>2300950</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2450950</t>
+          <t>2300950</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2450950</t>
+          <t>2300950</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1658,12 +1658,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/eado-plus/SEDAN</t>
+          <t>https://autocentersurgut186.ru/auto/changan/eado_plus/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1564900</t>
+          <t>1414900</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>1564900</t>
+          <t>1414900</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1737,12 +1737,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/hunter-plus/plus</t>
+          <t>https://autocentersurgut186.ru/auto/changan/hunter_plus/</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2774900</t>
+          <t>2624900</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2774900</t>
+          <t>2624900</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1907637</v>
+        <v>1757637</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1907637</t>
+          <t>1757637</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>1907637</t>
+          <t>1757637</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2109900</v>
+        <v>1959900</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2109900</t>
+          <t>1959900</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2109900</t>
+          <t>1959900</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1958,12 +1958,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/UNI-T/SUV_5D</t>
+          <t>https://autocentersurgut186.ru/auto/changan/uni-t/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2104900</t>
+          <t>1954900</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2104900</t>
+          <t>1954900</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2037,12 +2037,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/changan/uni-v/liftback</t>
+          <t>https://autocentersurgut186.ru/auto/changan/uni-v/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2094900</t>
+          <t>1944900</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2094900</t>
+          <t>1944900</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2116,12 +2116,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/chery/arrizo-8/sedan</t>
+          <t>https://autocentersurgut186.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2145000</t>
+          <t>1995000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2145000</t>
+          <t>1995000</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>676900</v>
+        <v>526900</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>676900</t>
+          <t>526900</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>676900</t>
+          <t>526900</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1781000</v>
+        <v>1631000</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2271,19 +2271,19 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>1631000</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/chery/tiggo_4/</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
           <t>1781000</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/chery/tiggo_4/</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>1781000</t>
-        </is>
-      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>https://sibir-morots.ru/auto/chery/tiggo_4_new/</t>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>1781000</t>
+          <t>1631000</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1019900</v>
+        <v>869900</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1019900</t>
+          <t>869900</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>1019900</t>
+          <t>869900</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2400,12 +2400,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/chery/tiggo-7/2019</t>
+          <t>https://autocentersurgut186.ru/auto/chery/tiggo_7/</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>574900</t>
+          <t>424900</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>574900</t>
+          <t>424900</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>970300</v>
+        <v>820300</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>970300</t>
+          <t>820300</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>970300</t>
+          <t>820300</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1319900</v>
+        <v>1169900</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1319900</t>
+          <t>1169900</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>1319900</t>
+          <t>1169900</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2089000</v>
+        <v>1939000</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2089000</t>
+          <t>1939000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2089000</t>
+          <t>1939000</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1539900</v>
+        <v>1389900</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1539900</t>
+          <t>1389900</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>1539900</t>
+          <t>1389900</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1319900</v>
+        <v>1169900</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1319900</t>
+          <t>1169900</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>1319900</t>
+          <t>1169900</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2023400</v>
+        <v>1873400</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2023400</t>
+          <t>1873400</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2023400</t>
+          <t>1873400</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2339000</v>
+        <v>2189000</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2339000</t>
+          <t>2189000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2339000</t>
+          <t>2189000</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2984,32 +2984,32 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
+          <t>https://autocentersurgut186.ru/auto/chevrolet/cobalt/</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>511900</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/chevrolet/cobalt/</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>511900</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
           <t>https://sibir-morots.ru/auto/chevrolet/cobalt/</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>661900</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/chevrolet/cobalt/</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="N37" t="inlineStr">
         <is>
           <t>511900</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/chevrolet/cobalt/</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>661900</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3039,32 +3039,32 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
+          <t>https://autocentersurgut186.ru/auto/chevrolet/nexia/</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>438900</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/chevrolet/nexia/</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>438900</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
           <t>https://sibir-morots.ru/auto/chevrolet/nexia/</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>588900</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/chevrolet/nexia/</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="N38" t="inlineStr">
         <is>
           <t>438900</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/chevrolet/nexia/</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>588900</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3094,32 +3094,32 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
+          <t>https://autocentersurgut186.ru/auto/chevrolet/spark/</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>508900</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/chevrolet/spark/</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>508900</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
           <t>https://sibir-morots.ru/auto/chevrolet/spark/</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>658900</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/chevrolet/spark/</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="N39" t="inlineStr">
         <is>
           <t>508900</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/chevrolet/spark/</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>658900</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3145,36 +3145,36 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1229000</v>
+        <v>1124000</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
+          <t>https://autocentersurgut186.ru/auto/dfm/580/</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1124000</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/dfm/580/</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>1229000</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
           <t>https://sibir-morots.ru/auto/dfm/580/</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1274000</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/dfm/580/</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>1229000</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/dfm/580/</t>
-        </is>
-      </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>1274000</t>
+          <t>1124000</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3200,36 +3200,36 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>529000</v>
+        <v>424000</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
+          <t>https://autocentersurgut186.ru/auto/dfm/ax7/</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>424000</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/dfm/ax7/</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>529000</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
           <t>https://sibir-morots.ru/auto/dfm/ax7/</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>574000</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/dfm/ax7/</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>529000</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/dfm/ax7/</t>
-        </is>
-      </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>574000</t>
+          <t>424000</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3636,7 +3636,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1619900</v>
+        <v>1469900</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1619900</t>
+          <t>1469900</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>1619900</t>
+          <t>1469900</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -3764,7 +3764,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>3089000</v>
+        <v>2939000</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>3089000</t>
+          <t>2939000</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>3089000</t>
+          <t>2939000</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2249900</v>
+        <v>2099900</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2249900</t>
+          <t>2099900</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2249900</t>
+          <t>2099900</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -3949,7 +3949,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3159900</v>
+        <v>3009900</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>3159900</t>
+          <t>3009900</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3994,7 +3994,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>3159900</t>
+          <t>3009900</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4122,12 +4122,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/faw/bestune-b70/LIFTBACK</t>
+          <t>https://autocentersurgut186.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1795000</t>
+          <t>1645000</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4155,7 +4155,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>1795000</t>
+          <t>1645000</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4193,12 +4193,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/faw/bestune-t55/SUV_5D</t>
+          <t>https://autocentersurgut186.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1756000</t>
+          <t>1606000</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4234,7 +4234,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>1756000</t>
+          <t>1606000</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4268,16 +4268,16 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1365000</v>
+        <v>1359000</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/faw/bestune-t77/cuv</t>
+          <t>https://autocentersurgut186.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1509000</t>
+          <t>1359000</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>1509000</t>
+          <t>1359000</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4347,7 +4347,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2215000</v>
+        <v>2065000</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2215000</t>
+          <t>2065000</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2215000</t>
+          <t>2065000</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4475,16 +4475,16 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>797000</v>
+        <v>650000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/faw/new-x40/2019</t>
+          <t>https://autocentersurgut186.ru/auto/faw/x40/</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>800000</t>
+          <t>650000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>800000</t>
+          <t>650000</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4554,36 +4554,36 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>808000</v>
+        <v>703000</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
+          <t>https://autocentersurgut186.ru/auto/faw/x80/</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>703000</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/faw/x80/</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>808000</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
           <t>https://sibir-morots.ru/auto/faw/x80/</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>853000</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/faw/x80/</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>808000</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/faw/x80/</t>
-        </is>
-      </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>853000</t>
+          <t>703000</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -4760,32 +4760,32 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
+          <t>https://autocentersurgut186.ru/auto/gac/gs3/</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1699000</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/gac/gs3/</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>1699000</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
           <t>https://sibir-morots.ru/auto/gac/gs3/</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>1849000</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/gac/gs3/</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
+      <c r="N69" t="inlineStr">
         <is>
           <t>1699000</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/gac/gs3/</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>1849000</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -4844,7 +4844,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1170000</v>
+        <v>1020000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1170000</t>
+          <t>1020000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -4889,7 +4889,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>1170000</t>
+          <t>1020000</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -4927,12 +4927,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/gac-gs8/</t>
+          <t>https://autocentersurgut186.ru/auto/gac/gs8/</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2439000</t>
+          <t>2289000</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4968,7 +4968,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2439000</t>
+          <t>2289000</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5006,12 +5006,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/geely/Atlas/cuv</t>
+          <t>https://autocentersurgut186.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1183990</t>
+          <t>1033990</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>1183990</t>
+          <t>1033990</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5081,7 +5081,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2107990</v>
+        <v>1957990</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2107990</t>
+          <t>1957990</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -5118,7 +5118,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2107990</t>
+          <t>1957990</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1768990</v>
+        <v>1618990</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1768990</t>
+          <t>1618990</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5197,7 +5197,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>1768990</t>
+          <t>1618990</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5264,7 +5264,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>922300</v>
+        <v>772300</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>922300</t>
+          <t>772300</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5309,7 +5309,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>922300</t>
+          <t>772300</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5347,12 +5347,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/geely/coolray-new/suv-5d</t>
+          <t>https://autocentersurgut186.ru/auto/geely/coolray/</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1164990</t>
+          <t>1014990</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>1164990</t>
+          <t>1014990</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5455,7 +5455,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1104990</v>
+        <v>954990</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>1104990</t>
+          <t>954990</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5484,7 +5484,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>1104990</t>
+          <t>954990</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -5573,12 +5573,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/geely/gs/cuv</t>
+          <t>https://autocentersurgut186.ru/auto/geely/gs/</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>664990</t>
+          <t>514990</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5614,7 +5614,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>664990</t>
+          <t>514990</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -5648,7 +5648,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2309990</v>
+        <v>2159990</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2309990</t>
+          <t>2159990</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -5693,7 +5693,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2309990</t>
+          <t>2159990</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -5778,7 +5778,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2004000</v>
+        <v>1854000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2004000</t>
+          <t>1854000</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -5805,7 +5805,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2004000</t>
+          <t>1854000</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2133990</v>
+        <v>1983990</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2133990</t>
+          <t>1983990</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -5952,7 +5952,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2133990</t>
+          <t>1983990</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -5978,7 +5978,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1840000</v>
+        <v>1690000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1840000</t>
+          <t>1690000</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -6023,7 +6023,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>1840000</t>
+          <t>1690000</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6057,7 +6057,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1930000</v>
+        <v>1780000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1930000</t>
+          <t>1780000</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -6102,7 +6102,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>1930000</t>
+          <t>1780000</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6185,7 +6185,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1300000</v>
+        <v>1150000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1300000</t>
+          <t>1150000</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>1300000</t>
+          <t>1150000</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -6289,7 +6289,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1460000</v>
+        <v>1310000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1460000</t>
+          <t>1310000</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -6318,7 +6318,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>1460000</t>
+          <t>1310000</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -6383,12 +6383,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/haval/h3/suv-1gen</t>
+          <t>https://autocentersurgut186.ru/auto/haval/h3/</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2149000</t>
+          <t>1999000</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2149000</t>
+          <t>1999000</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -6483,36 +6483,36 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>929000</v>
+        <v>879000</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
+          <t>https://autocentersurgut186.ru/auto/haval/h5_i/</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>879000</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/haval/h5_i/</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>929000</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
           <t>https://sibir-morots.ru/auto/haval/h5/</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>1029000</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/haval/h5_i/</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>929000</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/haval/h5/</t>
-        </is>
-      </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>1029000</t>
+          <t>879000</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -6538,7 +6538,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2369400</v>
+        <v>2219400</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2369400</t>
+          <t>2219400</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2369400</t>
+          <t>2219400</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -6636,7 +6636,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>2157000</v>
+        <v>2007000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2157000</t>
+          <t>2007000</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2157000</t>
+          <t>2007000</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>739000</v>
+        <v>589000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>739000</t>
+          <t>589000</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>739000</t>
+          <t>589000</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -6794,7 +6794,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>839000</v>
+        <v>689000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>839000</t>
+          <t>689000</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>839000</t>
+          <t>689000</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -6869,12 +6869,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/haval/m6/WAGON_7D</t>
+          <t>https://autocentersurgut186.ru/auto/haval/m6/</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1414000</t>
+          <t>1264000</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>1414000</t>
+          <t>1264000</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>849300</v>
+        <v>699300</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>849300</t>
+          <t>699300</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -7022,7 +7022,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>849300</t>
+          <t>699300</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -7107,7 +7107,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1655000</v>
+        <v>1505000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>1655000</t>
+          <t>1505000</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -7126,7 +7126,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>1655000</t>
+          <t>1505000</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -7201,7 +7201,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>653000</v>
+        <v>503000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>653000</t>
+          <t>503000</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>653000</t>
+          <t>503000</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1280200</v>
+        <v>1130200</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>1280200</t>
+          <t>1130200</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -7325,7 +7325,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>1280200</t>
+          <t>1130200</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -7418,7 +7418,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1649000</v>
+        <v>1499000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>1649000</t>
+          <t>1499000</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -7437,7 +7437,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>1649000</t>
+          <t>1499000</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -7463,7 +7463,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>890000</v>
+        <v>740000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>740000</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -7508,7 +7508,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>740000</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -7677,12 +7677,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jac/s3/cuv</t>
+          <t>https://autocentersurgut186.ru/auto/jac/s3/</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>744000</t>
+          <t>594000</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -7718,7 +7718,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>744000</t>
+          <t>594000</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -7815,12 +7815,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jac/s7/cuv</t>
+          <t>https://autocentersurgut186.ru/auto/jac/s7/</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>1124000</t>
+          <t>974000</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>1124000</t>
+          <t>974000</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -8015,7 +8015,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>2166000</v>
+        <v>2016000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -8024,7 +8024,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2166000</t>
+          <t>2016000</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -8060,7 +8060,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>2166000</t>
+          <t>2016000</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -8094,7 +8094,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3229000</v>
+        <v>3079000</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>3229000</t>
+          <t>3079000</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>3229000</t>
+          <t>3079000</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -8161,12 +8161,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetour/dashing/suv-1gen</t>
+          <t>https://autocentersurgut186.ru/auto/jetour/dashing/</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>1834900</t>
+          <t>1684900</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -8202,7 +8202,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>1834900</t>
+          <t>1684900</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -8236,7 +8236,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>2509000</v>
+        <v>2359000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -8245,7 +8245,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2509000</t>
+          <t>2359000</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -8265,7 +8265,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>2509000</t>
+          <t>2359000</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -8357,7 +8357,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1959900</v>
+        <v>1809900</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>1959900</t>
+          <t>1809900</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -8402,7 +8402,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>1959900</t>
+          <t>1809900</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -8436,7 +8436,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>2424930</v>
+        <v>2274930</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2424930</t>
+          <t>2274930</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -8481,7 +8481,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>2424930</t>
+          <t>2274930</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -8519,12 +8519,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetta/va3/va3</t>
+          <t>https://autocentersurgut186.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>1035000</t>
+          <t>885000</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -8560,7 +8560,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>1035000</t>
+          <t>885000</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -8598,12 +8598,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetta/vs5/vs5</t>
+          <t>https://autocentersurgut186.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>1335000</t>
+          <t>1185000</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -8639,7 +8639,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>1335000</t>
+          <t>1185000</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -8677,12 +8677,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/jetta/vs7/vs7</t>
+          <t>https://autocentersurgut186.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1494000</t>
+          <t>1344000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -8718,7 +8718,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>1494000</t>
+          <t>1344000</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -8752,7 +8752,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1419000</v>
+        <v>1269000</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>1419000</t>
+          <t>1269000</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -8797,7 +8797,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>1419000</t>
+          <t>1269000</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -8835,12 +8835,12 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kaiyi/X3/SUV_5D</t>
+          <t>https://autocentersurgut186.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>1576650</t>
+          <t>1426650</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -8876,7 +8876,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>1576650</t>
+          <t>1426650</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -8914,12 +8914,12 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/kaiyi/X3%20Pro/SUV_5D</t>
+          <t>https://autocentersurgut186.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>1859900</t>
+          <t>1709900</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -8955,7 +8955,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>1859900</t>
+          <t>1709900</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -8989,7 +8989,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1876900</v>
+        <v>1726900</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>1876900</t>
+          <t>1726900</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -9026,7 +9026,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>1876900</t>
+          <t>1726900</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -9060,7 +9060,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1010300</v>
+        <v>860300</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1010300</t>
+          <t>860300</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -9105,7 +9105,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>1010300</t>
+          <t>860300</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -9139,7 +9139,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1020300</v>
+        <v>870300</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>1020300</t>
+          <t>870300</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -9184,7 +9184,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>1020300</t>
+          <t>870300</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -9277,7 +9277,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1020300</v>
+        <v>870300</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>1020300</t>
+          <t>870300</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -9296,7 +9296,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>1020300</t>
+          <t>870300</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -9322,7 +9322,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1220300</v>
+        <v>1070300</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>1220300</t>
+          <t>1070300</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>1220300</t>
+          <t>1070300</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -9460,7 +9460,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>700745</v>
+        <v>550745</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>700745</t>
+          <t>550745</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -9479,7 +9479,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>700745</t>
+          <t>550745</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -9509,12 +9509,12 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/kia-proceed/</t>
+          <t>https://autocentersurgut186.ru/auto/kia/proceed/</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>1017999</t>
+          <t>867999</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>1017999</t>
+          <t>867999</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -9633,7 +9633,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>660300</v>
+        <v>510300</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>660300</t>
+          <t>510300</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -9652,7 +9652,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>660300</t>
+          <t>510300</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -9678,7 +9678,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>740300</v>
+        <v>590300</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>740300</t>
+          <t>590300</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -9715,7 +9715,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>740300</t>
+          <t>590300</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -9782,7 +9782,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1120300</v>
+        <v>970300</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -9791,7 +9791,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>1120300</t>
+          <t>970300</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>1120300</t>
+          <t>970300</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -9945,7 +9945,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>721200</v>
+        <v>571200</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -9954,7 +9954,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>721200</t>
+          <t>571200</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -9990,7 +9990,7 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>721200</t>
+          <t>571200</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -10073,7 +10073,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>2099900</v>
+        <v>1949900</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2099900</t>
+          <t>1949900</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -10118,7 +10118,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>2099900</t>
+          <t>1949900</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -10152,7 +10152,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1154900</v>
+        <v>1004900</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -10161,7 +10161,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>1154900</t>
+          <t>1004900</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -10171,7 +10171,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>1154900</t>
+          <t>1004900</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -12482,7 +12482,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>800300</v>
+        <v>650300</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>800300</t>
+          <t>650300</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -12501,7 +12501,7 @@
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>800300</t>
+          <t>650300</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
@@ -12527,7 +12527,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>851300</v>
+        <v>701300</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>851300</t>
+          <t>701300</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -12546,7 +12546,7 @@
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>851300</t>
+          <t>701300</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
@@ -12572,7 +12572,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>551300</v>
+        <v>401300</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -12581,7 +12581,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>551300</t>
+          <t>401300</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -12591,7 +12591,7 @@
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>551300</t>
+          <t>401300</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
@@ -12617,7 +12617,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>570300</v>
+        <v>420300</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>570300</t>
+          <t>420300</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -12636,7 +12636,7 @@
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>570300</t>
+          <t>420300</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
@@ -12662,7 +12662,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>641300</v>
+        <v>491300</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>641300</t>
+          <t>491300</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -12681,7 +12681,7 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>641300</t>
+          <t>491300</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
@@ -12707,7 +12707,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>920300</v>
+        <v>770300</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>920300</t>
+          <t>770300</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -12726,7 +12726,7 @@
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>920300</t>
+          <t>770300</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
@@ -12756,12 +12756,12 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/livan/s6pro/sedan-1gen</t>
+          <t>https://autocentersurgut186.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>1729930</t>
+          <t>1579930</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -12789,7 +12789,7 @@
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>1729930</t>
+          <t>1579930</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -12827,12 +12827,12 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/livan/x3pro/suv-1gen</t>
+          <t>https://autocentersurgut186.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>1224900</t>
+          <t>1074900</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -12868,7 +12868,7 @@
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>1224900</t>
+          <t>1074900</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
@@ -12906,12 +12906,12 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/livan/x6pro/suv-1gen</t>
+          <t>https://autocentersurgut186.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>1785930</t>
+          <t>1635930</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -12939,7 +12939,7 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>1785930</t>
+          <t>1635930</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
@@ -13165,12 +13165,12 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/moskvich/moskvich3/cuv</t>
+          <t>https://autocentersurgut186.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>1275000</t>
+          <t>1125000</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -13206,7 +13206,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>1275000</t>
+          <t>1125000</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -13240,7 +13240,7 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>2915000</v>
+        <v>2765000</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2915000</t>
+          <t>2765000</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -13269,7 +13269,7 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>2915000</t>
+          <t>2765000</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>2649000</v>
+        <v>2499000</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2649000</t>
+          <t>2499000</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -13375,7 +13375,7 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>2649000</t>
+          <t>2499000</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
@@ -13401,7 +13401,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1540000</v>
+        <v>1390000</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>1540000</t>
+          <t>1390000</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -13446,7 +13446,7 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>1540000</t>
+          <t>1390000</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>819000</v>
+        <v>669000</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>819000</t>
+          <t>669000</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -13566,7 +13566,7 @@
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>819000</t>
+          <t>669000</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
@@ -13600,7 +13600,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>1299000</v>
+        <v>1149000</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -13609,7 +13609,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>1299000</t>
+          <t>1149000</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -13645,7 +13645,7 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>1299000</t>
+          <t>1149000</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
@@ -13679,7 +13679,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>1369900</v>
+        <v>1219900</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>1369900</t>
+          <t>1219900</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -13724,7 +13724,7 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>1369900</t>
+          <t>1219900</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
@@ -13758,16 +13758,16 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>1514900</v>
+        <v>1469900</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/omoda/s5-2023/SEDAN</t>
+          <t>https://autocentersurgut186.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>1619900</t>
+          <t>1469900</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -13803,7 +13803,7 @@
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>1619900</t>
+          <t>1469900</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
@@ -13886,7 +13886,7 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>1088000</v>
+        <v>938000</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>1088000</t>
+          <t>938000</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -13931,7 +13931,7 @@
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>1088000</t>
+          <t>938000</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -14024,7 +14024,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>796000</v>
+        <v>646000</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>796000</t>
+          <t>646000</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -14043,7 +14043,7 @@
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>796000</t>
+          <t>646000</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -14069,7 +14069,7 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1046000</v>
+        <v>896000</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>1046000</t>
+          <t>896000</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -14114,7 +14114,7 @@
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>1046000</t>
+          <t>896000</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
@@ -14148,7 +14148,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>580000</v>
+        <v>430000</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>580000</t>
+          <t>430000</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -14193,7 +14193,7 @@
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>580000</t>
+          <t>430000</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -14227,7 +14227,7 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>686990</v>
+        <v>536990</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>686990</t>
+          <t>536990</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -14272,7 +14272,7 @@
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>686990</t>
+          <t>536990</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
@@ -14306,16 +14306,16 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>509000</v>
+        <v>431000</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/renault/new-sandero/new</t>
+          <t>https://autocentersurgut186.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>581000</t>
+          <t>431000</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -14351,7 +14351,7 @@
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>581000</t>
+          <t>431000</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -14385,16 +14385,16 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>686000</v>
+        <v>566990</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/renault/new-sandero-stepway/stepway</t>
+          <t>https://autocentersurgut186.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>716990</t>
+          <t>566990</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -14430,7 +14430,7 @@
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>716990</t>
+          <t>566990</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -14595,16 +14595,16 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>1200000</v>
+        <v>1066900</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/skoda/karoq/karoq</t>
+          <t>https://autocentersurgut186.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>1216900</t>
+          <t>1066900</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -14640,7 +14640,7 @@
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>1216900</t>
+          <t>1066900</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -14723,7 +14723,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>1807000</v>
+        <v>1657000</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>1807000</t>
+          <t>1657000</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -14752,7 +14752,7 @@
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>1807000</t>
+          <t>1657000</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -14862,7 +14862,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>1302000</v>
+        <v>1152000</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>1302000</t>
+          <t>1152000</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -14881,7 +14881,7 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>1302000</t>
+          <t>1152000</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -14911,12 +14911,12 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/skoda/rapid-new/sedan</t>
+          <t>https://autocentersurgut186.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>696000</t>
+          <t>546000</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -14952,7 +14952,7 @@
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>696000</t>
+          <t>546000</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -14986,7 +14986,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>1980000</v>
+        <v>1830000</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>1980000</t>
+          <t>1830000</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -15015,7 +15015,7 @@
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>1980000</t>
+          <t>1830000</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -15041,7 +15041,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>2821900</v>
+        <v>2671900</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>2821900</t>
+          <t>2671900</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -15070,7 +15070,7 @@
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>2821900</t>
+          <t>2671900</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -15100,32 +15100,32 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
+          <t>https://autocentersurgut186.ru/auto/solaris/hc/</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>1649300</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/solaris/hc/</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>1649300</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
           <t>https://sibir-morots.ru/auto/solaris/hc/</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>1799300</t>
-        </is>
-      </c>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/solaris/hc/</t>
-        </is>
-      </c>
-      <c r="J239" t="inlineStr">
+      <c r="N239" t="inlineStr">
         <is>
           <t>1649300</t>
-        </is>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/solaris/hc/</t>
-        </is>
-      </c>
-      <c r="N239" t="inlineStr">
-        <is>
-          <t>1799300</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -15151,7 +15151,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>1546000</v>
+        <v>1396000</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>1546000</t>
+          <t>1396000</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -15180,7 +15180,7 @@
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>1546000</t>
+          <t>1396000</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -15206,36 +15206,36 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>1475600</v>
+        <v>1459000</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
+          <t>https://autocentersurgut186.ru/auto/solaris/krs/</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>1459000</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/solaris/krs/</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>1475600</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
           <t>https://sibir-morots.ru/auto/solaris/krs/</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>1609000</t>
-        </is>
-      </c>
-      <c r="G241" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/solaris/krs/</t>
-        </is>
-      </c>
-      <c r="J241" t="inlineStr">
-        <is>
-          <t>1475600</t>
-        </is>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/solaris/krs/</t>
-        </is>
-      </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>1609000</t>
+          <t>1459000</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -15261,36 +15261,36 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>1614000</v>
+        <v>1576000</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
+          <t>https://autocentersurgut186.ru/auto/solaris/krx/</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>1576000</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/solaris/krx/</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>1614000</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
           <t>https://sibir-morots.ru/auto/solaris/krx/</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>1726000</t>
-        </is>
-      </c>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/solaris/krx/</t>
-        </is>
-      </c>
-      <c r="J242" t="inlineStr">
-        <is>
-          <t>1614000</t>
-        </is>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/solaris/krx/</t>
-        </is>
-      </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>1726000</t>
+          <t>1576000</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
@@ -15365,7 +15365,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>3019300</v>
+        <v>2869300</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>3019300</t>
+          <t>2869300</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -15410,7 +15410,7 @@
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>3019300</t>
+          <t>2869300</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
@@ -15530,12 +15530,12 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/uaz/hunter/suv</t>
+          <t>https://autocentersurgut186.ru/auto/uaz/hunter/</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>925000</t>
+          <t>775000</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -15571,7 +15571,7 @@
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>925000</t>
+          <t>775000</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -15605,7 +15605,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>807000</v>
+        <v>657000</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -15614,7 +15614,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>807000</t>
+          <t>657000</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -15650,7 +15650,7 @@
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>807000</t>
+          <t>657000</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -15684,7 +15684,7 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>846500</v>
+        <v>696500</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>846500</t>
+          <t>696500</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -15713,7 +15713,7 @@
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>846500</t>
+          <t>696500</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -15792,12 +15792,12 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/volkswagen/jetta-new/sedan</t>
+          <t>https://autocentersurgut186.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>1053000</t>
+          <t>903000</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -15833,7 +15833,7 @@
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>1053000</t>
+          <t>903000</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -15867,7 +15867,7 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2009200</v>
+        <v>1859200</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>2009200</t>
+          <t>1859200</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -15912,7 +15912,7 @@
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>2009200</t>
+          <t>1859200</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -15950,12 +15950,12 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>https://auto-centre-profsouz.ru/auto/volkswagen/new-polo/sedan</t>
+          <t>https://autocentersurgut186.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>657400</t>
+          <t>507400</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -15991,7 +15991,7 @@
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>657400</t>
+          <t>507400</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -16025,7 +16025,7 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>2130230</v>
+        <v>1980230</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>2130230</t>
+          <t>1980230</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -16070,7 +16070,7 @@
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>2130230</t>
+          <t>1980230</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -16163,7 +16163,7 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>1479900</v>
+        <v>1329900</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -16172,7 +16172,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>1479900</t>
+          <t>1329900</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -16182,7 +16182,7 @@
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>1479900</t>
+          <t>1329900</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -16249,16 +16249,16 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>979600</v>
+        <v>835640</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/zotye-coupa/</t>
+          <t>https://autocentersurgut186.ru/auto/zotye/coupa/</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>985640</t>
+          <t>835640</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -16294,7 +16294,7 @@
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>985640</t>
+          <t>835640</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
@@ -16320,16 +16320,16 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>761600</v>
+        <v>734000</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/zotye-t600/</t>
+          <t>https://autocentersurgut186.ru/auto/zotye/t600/</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>884000</t>
+          <t>734000</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -16365,7 +16365,7 @@
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>884000</t>
+          <t>734000</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">

--- a/xlsx/surgut.xlsx
+++ b/xlsx/surgut.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1695000</t>
+          <t>1545000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -590,7 +590,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1695000</t>
+          <t>1545000</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>1240000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>1240000</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1545000</t>
+          <t>1395000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1545000</t>
+          <t>1395000</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2200000</t>
+          <t>2050000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2200000</t>
+          <t>2050000</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1385990</t>
+          <t>1235990</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1385990</t>
+          <t>1235990</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1845714</v>
+        <v>1695714</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1071,19 +1071,19 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>1695714</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/belgee/x70/</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>1845714</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/belgee/x70/</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>1845714</t>
-        </is>
-      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>https://sibir-morots.ru/auto/belgee/x70/</t>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1845714</t>
+          <t>1695714</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1117,16 +1117,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>835000</v>
+        <v>750000</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/changan/alsvin/sed</t>
+          <t>https://autocentersurgut186.ru/auto/changan/alsvin/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>900000</t>
+          <t>750000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>900000</t>
+          <t>750000</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1261,7 +1261,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1439900</v>
+        <v>1424900</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1439900</t>
+          <t>1424900</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1439900</t>
+          <t>1424900</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1316,16 +1316,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1060300</v>
+        <v>1274900</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/changan/cs55/</t>
+          <t>https://profcouz-autosurgut.ru/auto/changan/cs55/cuv</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1060300</t>
+          <t>1274900</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1060300</t>
+          <t>1274900</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1864900</t>
+          <t>1714900</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1864900</t>
+          <t>1714900</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1480300</v>
+        <v>1554900</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/changan/cs75fl/</t>
+          <t>https://profcouz-autosurgut.ru/auto/changan/cs75fl/cuv</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1480300</t>
+          <t>1554900</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>1480300</t>
+          <t>1554900</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2129900</v>
+        <v>2794900</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/changan/cs85_coupe/</t>
+          <t>https://profcouz-autosurgut.ru/auto/changan/cs85coupe/cuv</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2129900</t>
+          <t>2794900</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2129900</t>
+          <t>2794900</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1699,16 +1699,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2450950</v>
+        <v>3334900</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/changan/cs95/</t>
+          <t>https://profcouz-autosurgut.ru/auto/changan/cs95/suv</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2450950</t>
+          <t>3334900</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2450950</t>
+          <t>3334900</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1564900</t>
+          <t>1414900</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>1564900</t>
+          <t>1414900</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2774900</t>
+          <t>2624900</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2774900</t>
+          <t>2624900</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1907637</v>
+        <v>1984000</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1907637</t>
+          <t>1984000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>1907637</t>
+          <t>1984000</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2031,16 +2031,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2109900</v>
+        <v>2724900</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/changan/uni-k/</t>
+          <t>https://profcouz-autosurgut.ru/auto/changan/uni-k/suv</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2109900</t>
+          <t>2724900</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2109900</t>
+          <t>2724900</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2104900</t>
+          <t>1954900</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2104900</t>
+          <t>1954900</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2094900</t>
+          <t>1944900</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2094900</t>
+          <t>1944900</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2145000</t>
+          <t>1995000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2145000</t>
+          <t>1995000</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2371,16 +2371,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>676900</v>
+        <v>894900</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/chery/tiggo_4_i_restailing/</t>
+          <t>https://profcouz-autosurgut.ru/auto/chery/tiggo-4/2019</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>676900</t>
+          <t>894900</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>676900</t>
+          <t>894900</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2462,24 +2462,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/chery/tiggo_4/</t>
+          <t>https://sibir-morots.ru/auto/chery/tiggo_4_new/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>2330000</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/chery/tiggo_4/</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
           <t>1781000</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/chery/tiggo_4/</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>1781000</t>
-        </is>
-      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>https://sibir-morots.ru/auto/chery/tiggo_4_new/</t>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>1781000</t>
+          <t>2330000</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2513,16 +2513,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1019900</v>
+        <v>1315000</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/chery/tiggo_4_pro/</t>
+          <t>https://profcouz-autosurgut.ru/auto/chery/tiggo-4-pro/cuv</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1019900</t>
+          <t>1315000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>1019900</t>
+          <t>1315000</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>574900</t>
+          <t>424900</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2645,7 +2645,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>574900</t>
+          <t>424900</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2687,16 +2687,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>970300</v>
+        <v>1765000</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/chery/tiggo_7_pro/</t>
+          <t>https://profcouz-autosurgut.ru/auto/chery/tiggo-7-pro/cuv</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>970300</t>
+          <t>1765000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>970300</t>
+          <t>1765000</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2774,16 +2774,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1319900</v>
+        <v>2015000</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/chery/tiggo_7_pro_max_1/</t>
+          <t>https://profcouz-autosurgut.ru/auto/chery/tiggo-7-pro-max/cuv</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1319900</t>
+          <t>2015000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>1319900</t>
+          <t>2015000</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2861,7 +2861,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2089000</v>
+        <v>2170000</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2089000</t>
+          <t>2170000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2089000</t>
+          <t>2170000</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2916,16 +2916,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1539900</v>
+        <v>2165000</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/chery/tiggo_8/</t>
+          <t>https://profcouz-autosurgut.ru/auto/chery/tiggo-8/crossover</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1539900</t>
+          <t>2165000</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>1539900</t>
+          <t>2165000</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -3003,16 +3003,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1319900</v>
+        <v>2625000</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/chery/tiggo_8_pro/</t>
+          <t>https://profcouz-autosurgut.ru/auto/chery/tiggo-8-pro/cuv</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1319900</t>
+          <t>2625000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>1319900</t>
+          <t>2625000</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -3090,16 +3090,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2023400</v>
+        <v>3046000</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/chery/tiggo_8_pro_max_1/</t>
+          <t>https://profcouz-autosurgut.ru/auto/chery/tiggo-8-pro-max/tiggo-8-pro-max</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2023400</t>
+          <t>3046000</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2023400</t>
+          <t>3046000</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -3177,7 +3177,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2339000</v>
+        <v>3046000</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2339000</t>
+          <t>3046000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2339000</t>
+          <t>3046000</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -3236,32 +3236,32 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
+          <t>https://autocentersurgut186.ru/auto/chevrolet/cobalt/</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>511900</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/chevrolet/cobalt/</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>511900</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
           <t>https://sibir-morots.ru/auto/chevrolet/cobalt/</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>661900</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/chevrolet/cobalt/</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="N37" t="inlineStr">
         <is>
           <t>511900</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/chevrolet/cobalt/</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>661900</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3291,32 +3291,32 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
+          <t>https://autocentersurgut186.ru/auto/chevrolet/nexia/</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>438900</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/chevrolet/nexia/</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>438900</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
           <t>https://sibir-morots.ru/auto/chevrolet/nexia/</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>588900</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/chevrolet/nexia/</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="N38" t="inlineStr">
         <is>
           <t>438900</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/chevrolet/nexia/</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>588900</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3346,32 +3346,32 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
+          <t>https://autocentersurgut186.ru/auto/chevrolet/spark/</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>508900</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/chevrolet/spark/</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>508900</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
           <t>https://sibir-morots.ru/auto/chevrolet/spark/</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>658900</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/chevrolet/spark/</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="N39" t="inlineStr">
         <is>
           <t>508900</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/chevrolet/spark/</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>658900</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3397,36 +3397,36 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1229000</v>
+        <v>1124000</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
+          <t>https://autocentersurgut186.ru/auto/dfm/580/</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1124000</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/dfm/580/</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>1229000</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
           <t>https://sibir-morots.ru/auto/dfm/580/</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1274000</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/dfm/580/</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>1229000</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/dfm/580/</t>
-        </is>
-      </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>1274000</t>
+          <t>1124000</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3452,36 +3452,36 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>529000</v>
+        <v>424000</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
+          <t>https://autocentersurgut186.ru/auto/dfm/ax7/</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>424000</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/dfm/ax7/</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>529000</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
           <t>https://sibir-morots.ru/auto/dfm/ax7/</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>574000</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/dfm/ax7/</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>529000</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/dfm/ax7/</t>
-        </is>
-      </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>574000</t>
+          <t>424000</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3960,16 +3960,16 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1619900</v>
+        <v>2255000</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/exeed/lx/</t>
+          <t>https://profcouz-autosurgut.ru/auto/exeed/lx/suv</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1619900</t>
+          <t>2255000</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -4005,7 +4005,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>1619900</t>
+          <t>2255000</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4104,16 +4104,16 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>3089000</v>
+        <v>3485000</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/exeed/rx/</t>
+          <t>https://profcouz-autosurgut.ru/auto/exeed/rx/SUV_5D</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>3089000</t>
+          <t>3485000</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>3089000</t>
+          <t>3485000</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4183,16 +4183,16 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2249900</v>
+        <v>3299900</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/exeed/txl/</t>
+          <t>https://profcouz-autosurgut.ru/auto/exeed/txl/cuv</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2249900</t>
+          <t>3455000</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2249900</t>
+          <t>3455000</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4305,16 +4305,16 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3159900</v>
+        <v>4495000</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/exeed/vx/</t>
+          <t>https://profcouz-autosurgut.ru/auto/exeed/vx/cuv</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>3159900</t>
+          <t>4495000</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>3159900</t>
+          <t>4495000</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4507,7 +4507,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1795000</t>
+          <t>1645000</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4535,7 +4535,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>1795000</t>
+          <t>1645000</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4586,7 +4586,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1756000</t>
+          <t>1606000</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>1756000</t>
+          <t>1606000</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4673,7 +4673,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1509000</t>
+          <t>1365000</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>1509000</t>
+          <t>1365000</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4751,16 +4751,16 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2215000</v>
+        <v>2235000</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/faw/bestune_t99/</t>
+          <t>https://profcouz-autosurgut.ru/auto/faw/bestune-t99/SUV_5D</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2215000</t>
+          <t>2235000</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4796,7 +4796,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2215000</t>
+          <t>2235000</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>800000</t>
+          <t>797000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4940,7 +4940,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>800000</t>
+          <t>797000</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4982,36 +4982,36 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>808000</v>
+        <v>703000</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
+          <t>https://autocentersurgut186.ru/auto/faw/x80/</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>703000</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/faw/x80/</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>808000</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
           <t>https://sibir-morots.ru/auto/faw/x80/</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>853000</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/faw/x80/</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>808000</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/faw/x80/</t>
-        </is>
-      </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>853000</t>
+          <t>703000</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5212,32 +5212,32 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
+          <t>https://autocentersurgut186.ru/auto/gac/gs3/</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1699000</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/gac/gs3/</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>1699000</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
           <t>https://sibir-morots.ru/auto/gac/gs3/</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>1849000</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/gac/gs3/</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
+      <c r="N69" t="inlineStr">
         <is>
           <t>1699000</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/gac/gs3/</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>1849000</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5304,16 +5304,16 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1170000</v>
+        <v>1549000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/gac/gs5/</t>
+          <t>https://profcouz-autosurgut.ru/auto/gac/gs-5/cuv</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1170000</t>
+          <t>1549000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -5349,7 +5349,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>1170000</t>
+          <t>1549000</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5400,7 +5400,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2439000</t>
+          <t>2289000</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -5436,7 +5436,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2439000</t>
+          <t>2289000</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5487,7 +5487,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1183990</t>
+          <t>1033990</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>1183990</t>
+          <t>1033990</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5565,16 +5565,16 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2107990</v>
+        <v>2139990</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/geely/atlas/</t>
+          <t>https://profcouz-autosurgut.ru/auto/geely/Atlas/suv-2gen</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2107990</t>
+          <t>2139990</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2107990</t>
+          <t>2139990</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5644,16 +5644,16 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1768990</v>
+        <v>1913990</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/geely/atlas_pro/</t>
+          <t>https://profcouz-autosurgut.ru/auto/geely/atlas-pro/cuv</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1768990</t>
+          <t>1913990</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>1768990</t>
+          <t>1913990</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5772,16 +5772,16 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>922300</v>
+        <v>1524990</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/geely/coolray_1/</t>
+          <t>https://profcouz-autosurgut.ru/auto/geely/coolray/cuv</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>922300</t>
+          <t>1524990</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5817,7 +5817,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>922300</t>
+          <t>1524990</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5868,7 +5868,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1164990</t>
+          <t>1014990</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>1164990</t>
+          <t>1014990</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5987,7 +5987,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1104990</v>
+        <v>954990</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>1104990</t>
+          <t>954990</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -6016,7 +6016,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>1104990</t>
+          <t>954990</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>664990</t>
+          <t>514990</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>664990</t>
+          <t>514990</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6196,16 +6196,16 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2309990</v>
+        <v>3369990</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/geely/monjaro/</t>
+          <t>https://profcouz-autosurgut.ru/auto/geely/monjaro/monjaro</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2309990</t>
+          <t>3369990</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2309990</t>
+          <t>3369990</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2004000</v>
+        <v>2744990</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2004000</t>
+          <t>2744990</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -6369,7 +6369,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2004000</t>
+          <t>2744990</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6511,7 +6511,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2133990</v>
+        <v>3574990</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2133990</t>
+          <t>3574990</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -6540,7 +6540,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2133990</t>
+          <t>3574990</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6566,16 +6566,16 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1840000</v>
+        <v>2084000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/haval/dargo/</t>
+          <t>https://profcouz-autosurgut.ru/auto/haval/dargo/cuv</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1840000</t>
+          <t>2084000</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -6611,7 +6611,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>1840000</t>
+          <t>2084000</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6653,16 +6653,16 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1930000</v>
+        <v>2354000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/haval/dargo_x/</t>
+          <t>https://profcouz-autosurgut.ru/auto/haval/dargo-x/cuv</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1930000</t>
+          <t>2354000</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -6698,7 +6698,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>1930000</t>
+          <t>2354000</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6797,7 +6797,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1300000</v>
+        <v>1484000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1300000</t>
+          <t>1484000</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -6826,7 +6826,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>1300000</t>
+          <t>1484000</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -6909,7 +6909,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1460000</v>
+        <v>1534000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1460000</t>
+          <t>1534000</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -6938,7 +6938,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>1460000</t>
+          <t>1534000</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7008,7 +7008,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2149000</t>
+          <t>1999000</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -7036,7 +7036,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2149000</t>
+          <t>1999000</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7115,32 +7115,32 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
+          <t>https://autocentersurgut186.ru/auto/haval/h5_i/</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>929000</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/haval/h5_i/</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>929000</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
           <t>https://sibir-morots.ru/auto/haval/h5/</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>1029000</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/haval/h5_i/</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
+      <c r="N98" t="inlineStr">
         <is>
           <t>929000</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/haval/h5/</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>1029000</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7264,16 +7264,16 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>2157000</v>
+        <v>3184000</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/haval/h9/</t>
+          <t>https://profcouz-autosurgut.ru/auto/haval/h9/suv</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2157000</t>
+          <t>3184000</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2157000</t>
+          <t>3184000</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7351,16 +7351,16 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>739000</v>
+        <v>1139000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/haval/jolion_1/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/haval-jolion/</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>739000</t>
+          <t>1144000</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -7396,7 +7396,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>739000</t>
+          <t>1144000</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7438,16 +7438,16 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>839000</v>
+        <v>1034000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/haval/jolion/</t>
+          <t>https://profcouz-autosurgut.ru/auto/haval/jolion/suv-1gen-rest</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>839000</t>
+          <t>1034000</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -7475,7 +7475,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>839000</t>
+          <t>1034000</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -7526,7 +7526,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1414000</t>
+          <t>1264000</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -7562,7 +7562,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>1414000</t>
+          <t>1264000</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>849300</v>
+        <v>1354000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>849300</t>
+          <t>1354000</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -7690,7 +7690,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>849300</t>
+          <t>1354000</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -7783,7 +7783,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1655000</v>
+        <v>1644000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>1655000</t>
+          <t>1644000</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -7802,7 +7802,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>1655000</t>
+          <t>1644000</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -7885,16 +7885,16 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>653000</v>
+        <v>903000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/hyundai/solaris/</t>
+          <t>https://profcouz-autosurgut.ru/auto/hyundai/new-solaris/new-solaris</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>653000</t>
+          <t>903000</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>653000</t>
+          <t>903000</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -7972,16 +7972,16 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1280200</v>
+        <v>2264000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/hyundai/sonata/</t>
+          <t>https://profcouz-autosurgut.ru/auto/hyundai/sonata-new/2020</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>1280200</t>
+          <t>2264000</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -8017,7 +8017,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>1280200</t>
+          <t>2264000</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8126,7 +8126,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1649000</v>
+        <v>2244000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>1649000</t>
+          <t>2244000</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -8145,7 +8145,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>1649000</t>
+          <t>2244000</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -8171,16 +8171,16 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>890000</v>
+        <v>1324000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/jac/j7/</t>
+          <t>https://profcouz-autosurgut.ru/auto/jac/j7/liftback</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>1324000</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -8216,7 +8216,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>1324000</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -8422,7 +8422,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>744000</t>
+          <t>594000</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -8458,7 +8458,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>744000</t>
+          <t>594000</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>1124000</t>
+          <t>974000</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -8612,7 +8612,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>1124000</t>
+          <t>974000</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -8803,16 +8803,16 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>2166000</v>
+        <v>2639900</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/jaecoo/j7/</t>
+          <t>https://profcouz-autosurgut.ru/auto/jaecoo/j-7/suv-1gen</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2166000</t>
+          <t>2639900</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>2166000</t>
+          <t>2639900</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -8890,7 +8890,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3229000</v>
+        <v>3849000</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>3229000</t>
+          <t>3849000</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -8927,7 +8927,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>3229000</t>
+          <t>3849000</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -8970,7 +8970,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>1834900</t>
+          <t>1684900</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -9006,7 +9006,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>1834900</t>
+          <t>1684900</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -9048,7 +9048,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>2509000</v>
+        <v>3159000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -9057,7 +9057,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2509000</t>
+          <t>3159000</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -9077,7 +9077,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>2509000</t>
+          <t>3159000</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9185,16 +9185,16 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1959900</v>
+        <v>2194900</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/jetour/x70_plus/</t>
+          <t>https://profcouz-autosurgut.ru/auto/jetour/jetour-x70-plus/suv-1gen</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>1959900</t>
+          <t>2194900</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>1959900</t>
+          <t>2194900</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -9272,16 +9272,16 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>2424930</v>
+        <v>2594900</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/jetour/x90_plus/</t>
+          <t>https://profcouz-autosurgut.ru/auto/jetour/x90plus/suv-1gen</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2424930</t>
+          <t>2594900</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -9317,7 +9317,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>2424930</t>
+          <t>2594900</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -9368,7 +9368,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>1035000</t>
+          <t>885000</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -9404,7 +9404,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>1035000</t>
+          <t>885000</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -9455,7 +9455,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>1335000</t>
+          <t>1185000</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -9491,7 +9491,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>1335000</t>
+          <t>1185000</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -9542,7 +9542,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1494000</t>
+          <t>1344000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -9578,7 +9578,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>1494000</t>
+          <t>1344000</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -9620,16 +9620,16 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1419000</v>
+        <v>1440000</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/kaiyi/e5/</t>
+          <t>https://profcouz-autosurgut.ru/auto/kaiyi/e5/e5</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>1419000</t>
+          <t>1440000</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -9665,7 +9665,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>1419000</t>
+          <t>1440000</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -9716,7 +9716,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>1576650</t>
+          <t>1426650</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -9752,7 +9752,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>1576650</t>
+          <t>1426650</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -9803,7 +9803,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>1859900</t>
+          <t>1709900</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -9839,7 +9839,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>1859900</t>
+          <t>1709900</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -9881,16 +9881,16 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1876900</v>
+        <v>2292900</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://profcouz-autosurgut.ru/auto/kaiyi/x7-kunlun/suv-1gen</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>1876900</t>
+          <t>2292900</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -9918,7 +9918,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>1876900</t>
+          <t>2292900</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -9960,16 +9960,16 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1010300</v>
+        <v>1034900</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/kia/ceed/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/kia-ceed/</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1010300</t>
+          <t>1739900</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -10005,7 +10005,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>1010300</t>
+          <t>1739900</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -10047,16 +10047,16 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1020300</v>
+        <v>1404900</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/kia/ceed_sw/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/kia-ceed-sw/</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>1020300</t>
+          <t>1809900</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -10092,7 +10092,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>1020300</t>
+          <t>1809900</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10201,7 +10201,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1020300</v>
+        <v>1549900</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>1020300</t>
+          <t>1549900</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -10220,7 +10220,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>1020300</t>
+          <t>1549900</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -10246,16 +10246,16 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1220300</v>
+        <v>2229900</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/kia/k5/</t>
+          <t>https://profcouz-autosurgut.ru/auto/kia/k5/sedan</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>1220300</t>
+          <t>2229900</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -10291,7 +10291,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>1220300</t>
+          <t>2229900</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -10400,7 +10400,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>700745</v>
+        <v>829900</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>700745</t>
+          <t>829900</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -10419,7 +10419,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>700745</t>
+          <t>829900</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -10449,12 +10449,12 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/kia-proceed/</t>
+          <t>https://autocentersurgut186.ru/auto/kia/proceed/</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>1017999</t>
+          <t>867999</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -10480,7 +10480,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>1017999</t>
+          <t>867999</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -10589,7 +10589,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>660300</v>
+        <v>929900</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>660300</t>
+          <t>929900</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -10608,7 +10608,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>660300</t>
+          <t>929900</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -10634,7 +10634,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>740300</v>
+        <v>1069900</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -10643,7 +10643,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>740300</t>
+          <t>1069900</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -10671,7 +10671,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>740300</t>
+          <t>1069900</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -10746,16 +10746,16 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1120300</v>
+        <v>1454900</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/kia/seltos/</t>
+          <t>https://profcouz-autosurgut.ru/auto/kia/seltos/seltos</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>1120300</t>
+          <t>1454900</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -10791,7 +10791,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>1120300</t>
+          <t>1454900</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -10925,16 +10925,16 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>721200</v>
+        <v>1324900</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/kia/soul/</t>
+          <t>https://profcouz-autosurgut.ru/auto/kia/new-soul/new</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>721200</t>
+          <t>1324900</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -10970,7 +10970,7 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>721200</t>
+          <t>1324900</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -11069,16 +11069,16 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>2099900</v>
+        <v>2344900</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/kia/sportage/</t>
+          <t>https://profcouz-autosurgut.ru/auto/kia/sportage-5/suv</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2099900</t>
+          <t>2344900</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -11114,7 +11114,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>2099900</t>
+          <t>2344900</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -11156,7 +11156,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1154900</v>
+        <v>1004900</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>1154900</t>
+          <t>1004900</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -11175,7 +11175,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>1154900</t>
+          <t>1004900</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>387900</v>
+        <v>422900</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>387900</t>
+          <t>422900</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -11825,7 +11825,7 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>387900</t>
+          <t>422900</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -12367,7 +12367,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>695300</v>
+        <v>866340</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>695300</t>
+          <t>866340</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -12386,7 +12386,7 @@
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>695300</t>
+          <t>866340</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -12412,7 +12412,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>555300</v>
+        <v>597600</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>555300</t>
+          <t>597600</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -12431,7 +12431,7 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>555300</t>
+          <t>597600</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
@@ -12524,7 +12524,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>444300</v>
+        <v>896900</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>444300</t>
+          <t>896900</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -12543,7 +12543,7 @@
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>444300</t>
+          <t>896900</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
@@ -13188,16 +13188,16 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>634700</v>
+        <v>864900</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://profcouz-autosurgut.ru/auto/lada/vesta/cross</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>634700</t>
+          <t>864900</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -13233,7 +13233,7 @@
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>634700</t>
+          <t>864900</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
@@ -13283,7 +13283,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>876700</v>
+        <v>1047540</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>876700</t>
+          <t>1047540</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -13312,7 +13312,7 @@
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>876700</t>
+          <t>1047540</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
@@ -13338,16 +13338,16 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>612700</v>
+        <v>808900</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://profcouz-autosurgut.ru/auto/lada/vesta/sw</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>612700</t>
+          <t>808900</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -13383,7 +13383,7 @@
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>612700</t>
+          <t>808900</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
@@ -13433,16 +13433,16 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>727700</v>
+        <v>923900</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://profcouz-autosurgut.ru/auto/lada/vesta/sw-cross</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>727700</t>
+          <t>923900</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -13478,7 +13478,7 @@
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>727700</t>
+          <t>923900</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
@@ -13528,7 +13528,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>844700</v>
+        <v>1111900</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>844700</t>
+          <t>1111900</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -13557,7 +13557,7 @@
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>844700</t>
+          <t>1111900</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
@@ -13583,7 +13583,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>789700</v>
+        <v>929900</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -13592,7 +13592,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>789700</t>
+          <t>929900</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -13612,7 +13612,7 @@
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>789700</t>
+          <t>929900</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
@@ -13671,16 +13671,16 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>525700</v>
+        <v>716900</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/lada/vesta_1/</t>
+          <t>https://profcouz-autosurgut.ru/auto/lada/vesta/sedan</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>525700</t>
+          <t>716900</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -13716,7 +13716,7 @@
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>525700</t>
+          <t>716900</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
@@ -13766,16 +13766,16 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>725700</v>
+        <v>790140</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/lada/vesta_cng/</t>
+          <t>https://ruauto-s.ru/#models</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>725700</t>
+          <t>790140</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -13811,7 +13811,7 @@
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>725700</t>
+          <t>790140</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -13861,7 +13861,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>712700</v>
+        <v>743940</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>712700</t>
+          <t>743940</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -13890,7 +13890,7 @@
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>712700</t>
+          <t>743940</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
@@ -13916,16 +13916,16 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>931700</v>
+        <v>1192900</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/lada/vesta_sport/</t>
+          <t>https://profcouz-autosurgut.ru/auto/lada/vesta/sport</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>931700</t>
+          <t>1192900</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -13961,7 +13961,7 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>931700</t>
+          <t>1192900</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
@@ -14036,16 +14036,16 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>496700</v>
+        <v>664140</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/lada/xray/</t>
+          <t>https://ruauto-s.ru/#models</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>496700</t>
+          <t>664140</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -14081,7 +14081,7 @@
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>496700</t>
+          <t>664140</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
@@ -14131,16 +14131,16 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>583700</v>
+        <v>749940</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/lada/xray_cross/</t>
+          <t>https://ruauto-s.ru/#models</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>583700</t>
+          <t>749940</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -14176,7 +14176,7 @@
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>583700</t>
+          <t>749940</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>800300</v>
+        <v>650300</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -14235,7 +14235,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>800300</t>
+          <t>650300</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -14245,7 +14245,7 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>800300</t>
+          <t>650300</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>851300</v>
+        <v>701300</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>851300</t>
+          <t>701300</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -14290,7 +14290,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>851300</t>
+          <t>701300</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -14316,7 +14316,7 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>551300</v>
+        <v>401300</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>551300</t>
+          <t>401300</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -14335,7 +14335,7 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>551300</t>
+          <t>401300</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
@@ -14361,7 +14361,7 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>570300</v>
+        <v>420300</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>570300</t>
+          <t>420300</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -14380,7 +14380,7 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>570300</t>
+          <t>420300</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
@@ -14406,7 +14406,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>641300</v>
+        <v>491300</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>641300</t>
+          <t>491300</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -14425,7 +14425,7 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>641300</t>
+          <t>491300</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
@@ -14451,7 +14451,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>920300</v>
+        <v>770300</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>920300</t>
+          <t>770300</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -14470,7 +14470,7 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>920300</t>
+          <t>770300</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
@@ -14505,7 +14505,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>1729930</t>
+          <t>1579930</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -14533,7 +14533,7 @@
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>1729930</t>
+          <t>1579930</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>1224900</t>
+          <t>1074900</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -14620,7 +14620,7 @@
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>1224900</t>
+          <t>1074900</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
@@ -14671,7 +14671,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>1785930</t>
+          <t>1635930</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -14699,7 +14699,7 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>1785930</t>
+          <t>1635930</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
@@ -14970,7 +14970,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>1275000</t>
+          <t>1125000</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -15006,7 +15006,7 @@
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>1275000</t>
+          <t>1125000</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -15048,7 +15048,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>2915000</v>
+        <v>2958000</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -15057,7 +15057,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2915000</t>
+          <t>2958000</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -15077,7 +15077,7 @@
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>2915000</t>
+          <t>2958000</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -15162,7 +15162,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>2649000</v>
+        <v>4009000</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2649000</t>
+          <t>4009000</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -15191,7 +15191,7 @@
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>2649000</t>
+          <t>4009000</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -15217,16 +15217,16 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>1540000</v>
+        <v>1632000</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/nissan/qashqai/</t>
+          <t>https://profcouz-autosurgut.ru/auto/nissan/new-qashqai/2019</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>1540000</t>
+          <t>1632000</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -15262,7 +15262,7 @@
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>1540000</t>
+          <t>1632000</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
@@ -15353,16 +15353,16 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>819000</v>
+        <v>1185000</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/nissan/terrano/</t>
+          <t>https://profcouz-autosurgut.ru/auto/nissan/terrano-2020/suv</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>819000</t>
+          <t>1185000</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -15398,7 +15398,7 @@
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>819000</t>
+          <t>1185000</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -15440,16 +15440,16 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>1299000</v>
+        <v>2147000</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/nissan/x-trail/</t>
+          <t>https://profcouz-autosurgut.ru/auto/nissan/newxtrail/newxtrail</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>1299000</t>
+          <t>2147000</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -15485,7 +15485,7 @@
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>1299000</t>
+          <t>2147000</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
@@ -15527,16 +15527,16 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>1369900</v>
+        <v>1874900</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/omoda/c5/</t>
+          <t>https://profcouz-autosurgut.ru/auto/omoda/c5/cuv</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>1369900</t>
+          <t>1874900</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -15572,7 +15572,7 @@
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>1369900</t>
+          <t>1874900</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
@@ -15623,7 +15623,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>1619900</t>
+          <t>1514900</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -15659,7 +15659,7 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>1619900</t>
+          <t>1514900</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -15758,16 +15758,16 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>1088000</v>
+        <v>1259000</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/renault/arkana/</t>
+          <t>https://profcouz-autosurgut.ru/auto/renault/new-arkana/2019</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>1088000</t>
+          <t>1259000</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -15803,7 +15803,7 @@
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>1088000</t>
+          <t>1259000</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -15912,7 +15912,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>796000</v>
+        <v>1003000</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>796000</t>
+          <t>1003000</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -15931,7 +15931,7 @@
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>796000</t>
+          <t>1003000</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
@@ -15957,16 +15957,16 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>1046000</v>
+        <v>1109000</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/renault/kaptur/</t>
+          <t>https://profcouz-autosurgut.ru/auto/renault/kaptur-new/cuv</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>1046000</t>
+          <t>1109000</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -16002,7 +16002,7 @@
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>1046000</t>
+          <t>1109000</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
@@ -16044,16 +16044,16 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>580000</v>
+        <v>614000</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/renault/logan/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/renault-new-logan/</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>580000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -16089,7 +16089,7 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>580000</t>
+          <t>619000</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -16131,16 +16131,16 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>686990</v>
+        <v>758000</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/renault/logan_stepway/</t>
+          <t>https://profcouz-autosurgut.ru/auto/renault/logan-stepway/sedan</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>686990</t>
+          <t>758000</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -16176,7 +16176,7 @@
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>686990</t>
+          <t>758000</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -16227,7 +16227,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>581000</t>
+          <t>509000</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -16263,7 +16263,7 @@
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>581000</t>
+          <t>509000</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -16314,7 +16314,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>716990</t>
+          <t>686000</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -16350,7 +16350,7 @@
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>716990</t>
+          <t>686000</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -16556,7 +16556,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>1216900</t>
+          <t>1200000</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>1216900</t>
+          <t>1200000</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
@@ -16691,7 +16691,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>1807000</v>
+        <v>1657000</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>1807000</t>
+          <t>1657000</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -16720,7 +16720,7 @@
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>1807000</t>
+          <t>1657000</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
@@ -16838,7 +16838,7 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1302000</v>
+        <v>1152000</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -16847,7 +16847,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>1302000</t>
+          <t>1152000</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -16857,7 +16857,7 @@
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>1302000</t>
+          <t>1152000</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -16892,7 +16892,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>696000</t>
+          <t>546000</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -16928,7 +16928,7 @@
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>696000</t>
+          <t>546000</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -16970,7 +16970,7 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>1980000</v>
+        <v>2986000</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>1980000</t>
+          <t>2986000</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -16999,7 +16999,7 @@
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>1980000</t>
+          <t>2986000</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -17025,7 +17025,7 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>2821900</v>
+        <v>3417000</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>2821900</t>
+          <t>3417000</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -17054,7 +17054,7 @@
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>2821900</t>
+          <t>3417000</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -17084,32 +17084,32 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
+          <t>https://autocentersurgut186.ru/auto/solaris/hc/</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>1649300</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/solaris/hc/</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>1649300</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
           <t>https://sibir-morots.ru/auto/solaris/hc/</t>
         </is>
       </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>1799300</t>
-        </is>
-      </c>
-      <c r="G251" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/solaris/hc/</t>
-        </is>
-      </c>
-      <c r="J251" t="inlineStr">
+      <c r="N251" t="inlineStr">
         <is>
           <t>1649300</t>
-        </is>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/solaris/hc/</t>
-        </is>
-      </c>
-      <c r="N251" t="inlineStr">
-        <is>
-          <t>1799300</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -17135,7 +17135,7 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>1546000</v>
+        <v>1579000</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>1546000</t>
+          <t>1579000</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -17164,7 +17164,7 @@
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>1546000</t>
+          <t>1579000</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -17194,32 +17194,32 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
+          <t>https://autocentersurgut186.ru/auto/solaris/krs/</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>1475600</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/solaris/krs/</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>1475600</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
           <t>https://sibir-morots.ru/auto/solaris/krs/</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>1609000</t>
-        </is>
-      </c>
-      <c r="G253" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/solaris/krs/</t>
-        </is>
-      </c>
-      <c r="J253" t="inlineStr">
+      <c r="N253" t="inlineStr">
         <is>
           <t>1475600</t>
-        </is>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/solaris/krs/</t>
-        </is>
-      </c>
-      <c r="N253" t="inlineStr">
-        <is>
-          <t>1609000</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -17249,32 +17249,32 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
+          <t>https://autocentersurgut186.ru/auto/solaris/krx/</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>1614000</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/solaris/krx/</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>1614000</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
           <t>https://sibir-morots.ru/auto/solaris/krx/</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>1726000</t>
-        </is>
-      </c>
-      <c r="G254" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/solaris/krx/</t>
-        </is>
-      </c>
-      <c r="J254" t="inlineStr">
+      <c r="N254" t="inlineStr">
         <is>
           <t>1614000</t>
-        </is>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/solaris/krx/</t>
-        </is>
-      </c>
-      <c r="N254" t="inlineStr">
-        <is>
-          <t>1726000</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -17357,16 +17357,16 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>3019300</v>
+        <v>3334000</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/tank/300/</t>
+          <t>https://profcouz-autosurgut.ru/auto/tank/300/SUV_5D</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>3019300</t>
+          <t>3334000</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -17402,7 +17402,7 @@
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>3019300</t>
+          <t>3334000</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -17551,7 +17551,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>925000</t>
+          <t>775000</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -17587,7 +17587,7 @@
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>925000</t>
+          <t>775000</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -17629,16 +17629,16 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>807000</v>
+        <v>935000</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/uaz/patriot/</t>
+          <t>https://profcouz-autosurgut.ru/auto/uaz/patriot-new/suv</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>807000</t>
+          <t>935000</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -17674,7 +17674,7 @@
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>807000</t>
+          <t>935000</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -17716,7 +17716,7 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>846500</v>
+        <v>960000</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>846500</t>
+          <t>960000</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -17745,7 +17745,7 @@
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>846500</t>
+          <t>960000</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -17837,7 +17837,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>1053000</t>
+          <t>903000</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -17873,7 +17873,7 @@
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>1053000</t>
+          <t>903000</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
@@ -17915,16 +17915,16 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>2009200</v>
+        <v>2118000</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/volkswagen/passat/</t>
+          <t>https://profcouz-autosurgut.ru/auto/volkswagen/passat-new/sedan</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>2009200</t>
+          <t>2118000</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -17960,7 +17960,7 @@
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>2009200</t>
+          <t>2118000</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -18011,7 +18011,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>657400</t>
+          <t>507400</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -18047,7 +18047,7 @@
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>657400</t>
+          <t>507400</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -18089,16 +18089,16 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>2130230</v>
+        <v>2213900</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/volkswagen/taos/</t>
+          <t>https://profcouz-autosurgut.ru/auto/volkswagen/taos/cuv</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>2130230</t>
+          <t>2213900</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -18134,7 +18134,7 @@
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>2130230</t>
+          <t>2213900</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -18243,7 +18243,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1479900</v>
+        <v>1519900</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>1479900</t>
+          <t>1519900</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -18262,7 +18262,7 @@
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>1479900</t>
+          <t>1519900</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
@@ -18341,12 +18341,12 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/zotye-coupa/</t>
+          <t>https://autocentersurgut186.ru/auto/zotye/coupa/</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>985640</t>
+          <t>979600</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -18382,7 +18382,7 @@
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>985640</t>
+          <t>979600</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
@@ -18420,12 +18420,12 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/zotye-t600/</t>
+          <t>https://autocentersurgut186.ru/auto/zotye/t600/</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>884000</t>
+          <t>761600</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -18461,7 +18461,7 @@
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>884000</t>
+          <t>761600</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">

--- a/xlsx/surgut.xlsx
+++ b/xlsx/surgut.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1545000</t>
+          <t>1695000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -590,7 +590,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1545000</t>
+          <t>1695000</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1240000</t>
+          <t>1390000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1240000</t>
+          <t>1390000</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1395000</t>
+          <t>1545000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1395000</t>
+          <t>1545000</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2050000</t>
+          <t>2200000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2050000</t>
+          <t>2200000</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1235990</t>
+          <t>1385990</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1235990</t>
+          <t>1385990</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1695714</v>
+        <v>1845714</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1695714</t>
+          <t>1845714</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1695714</t>
+          <t>1845714</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1117,16 +1117,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>750000</v>
+        <v>835000</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/changan/alsvin/</t>
+          <t>https://profcouz-autosurgut.ru/auto/changan/alsvin/sed</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>750000</t>
+          <t>900000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>750000</t>
+          <t>900000</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1261,7 +1261,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1424900</v>
+        <v>1574900</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1424900</t>
+          <t>1574900</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1424900</t>
+          <t>1574900</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1274900</t>
+          <t>1424900</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1274900</t>
+          <t>1424900</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1714900</t>
+          <t>1864900</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1714900</t>
+          <t>1864900</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1554900</t>
+          <t>1704900</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>1554900</t>
+          <t>1704900</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2794900</t>
+          <t>2944900</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2794900</t>
+          <t>2944900</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3334900</t>
+          <t>3484900</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>3334900</t>
+          <t>3484900</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1414900</t>
+          <t>1564900</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>1414900</t>
+          <t>1564900</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2624900</t>
+          <t>2774900</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2624900</t>
+          <t>2774900</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1952,16 +1952,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1984000</v>
+        <v>1984900</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/changan/lamore/</t>
+          <t>https://profcouz-autosurgut.ru/auto/changan/lamore/sedan</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1984000</t>
+          <t>2134000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>1984000</t>
+          <t>2134000</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2724900</t>
+          <t>2874900</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2724900</t>
+          <t>2874900</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1954900</t>
+          <t>2104900</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>1954900</t>
+          <t>2104900</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1944900</t>
+          <t>2094900</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>1944900</t>
+          <t>2094900</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1995000</t>
+          <t>2145000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>1995000</t>
+          <t>2145000</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>894900</t>
+          <t>1044900</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>894900</t>
+          <t>1044900</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2330000</t>
+          <t>2480000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2330000</t>
+          <t>2480000</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1315000</t>
+          <t>1465000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>1315000</t>
+          <t>1465000</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>424900</t>
+          <t>574900</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2645,7 +2645,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>424900</t>
+          <t>574900</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1765000</t>
+          <t>1915000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>1765000</t>
+          <t>1915000</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2783,7 +2783,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2015000</t>
+          <t>2165000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2015000</t>
+          <t>2165000</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2865,24 +2865,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/chery/tiggo_7_pro_max/</t>
+          <t>https://sibir-morots.ru/auto/chery/tiggo_7_pro_max_new/</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>2320000</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/chery/tiggo_7_pro_max/</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
           <t>2170000</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/chery/tiggo_7_pro_max/</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>2170000</t>
-        </is>
-      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>https://sibir-morots.ru/auto/chery/tiggo_7_pro_max_new/</t>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2170000</t>
+          <t>2320000</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2165000</t>
+          <t>2315000</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2165000</t>
+          <t>2315000</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2625000</t>
+          <t>2775000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2625000</t>
+          <t>2775000</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3046000</t>
+          <t>3196000</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>3046000</t>
+          <t>3196000</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -3177,7 +3177,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3046000</v>
+        <v>3196000</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>3046000</t>
+          <t>3196000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>3046000</t>
+          <t>3196000</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -3236,24 +3236,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/chevrolet/cobalt/</t>
+          <t>https://sibir-morots.ru/auto/chevrolet/cobalt/</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>661900</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/chevrolet/cobalt/</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
           <t>511900</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/chevrolet/cobalt/</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>511900</t>
-        </is>
-      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>https://sibir-morots.ru/auto/chevrolet/cobalt/</t>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>511900</t>
+          <t>661900</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3291,24 +3291,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/chevrolet/nexia/</t>
+          <t>https://sibir-morots.ru/auto/chevrolet/nexia/</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>588900</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/chevrolet/nexia/</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
           <t>438900</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/chevrolet/nexia/</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>438900</t>
-        </is>
-      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>https://sibir-morots.ru/auto/chevrolet/nexia/</t>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>438900</t>
+          <t>588900</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3346,24 +3346,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/chevrolet/spark/</t>
+          <t>https://sibir-morots.ru/auto/chevrolet/spark/</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>658900</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/chevrolet/spark/</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
           <t>508900</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/chevrolet/spark/</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>508900</t>
-        </is>
-      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>https://sibir-morots.ru/auto/chevrolet/spark/</t>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>508900</t>
+          <t>658900</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3397,16 +3397,16 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1124000</v>
+        <v>1229000</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/dfm/580/</t>
+          <t>https://sibir-morots.ru/auto/dfm/580/</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1124000</t>
+          <t>1274000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>1124000</t>
+          <t>1274000</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3452,16 +3452,16 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>424000</v>
+        <v>529000</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/dfm/ax7/</t>
+          <t>https://sibir-morots.ru/auto/dfm/ax7/</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>424000</t>
+          <t>574000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>424000</t>
+          <t>574000</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3969,7 +3969,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2255000</t>
+          <t>2405000</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -4005,7 +4005,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2255000</t>
+          <t>2405000</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>3485000</t>
+          <t>3635000</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>3485000</t>
+          <t>3635000</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4192,7 +4192,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>3455000</t>
+          <t>3605000</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>3455000</t>
+          <t>3605000</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>4495000</t>
+          <t>4645000</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>4495000</t>
+          <t>4645000</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4507,7 +4507,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1645000</t>
+          <t>1795000</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4535,7 +4535,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>1645000</t>
+          <t>1795000</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4586,7 +4586,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1606000</t>
+          <t>1756000</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>1606000</t>
+          <t>1756000</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4673,7 +4673,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1365000</t>
+          <t>1515000</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>1365000</t>
+          <t>1515000</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2235000</t>
+          <t>2385000</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4796,7 +4796,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2235000</t>
+          <t>2385000</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>797000</t>
+          <t>947000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4940,7 +4940,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>797000</t>
+          <t>947000</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4982,16 +4982,16 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>703000</v>
+        <v>808000</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/faw/x80/</t>
+          <t>https://sibir-morots.ru/auto/faw/x80/</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>703000</t>
+          <t>853000</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -5011,7 +5011,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>703000</t>
+          <t>853000</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5212,24 +5212,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/gac/gs3/</t>
+          <t>https://sibir-morots.ru/auto/gac/gs3/</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
+          <t>1849000</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/gac/gs3/</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
           <t>1699000</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/gac/gs3/</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>1699000</t>
-        </is>
-      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>https://sibir-morots.ru/auto/gac/gs3/</t>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>1699000</t>
+          <t>1849000</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5313,7 +5313,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1549000</t>
+          <t>1699000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -5349,7 +5349,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>1549000</t>
+          <t>1699000</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5400,7 +5400,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2289000</t>
+          <t>2439000</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -5436,7 +5436,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2289000</t>
+          <t>2439000</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5487,7 +5487,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1033990</t>
+          <t>1183990</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>1033990</t>
+          <t>1183990</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5574,7 +5574,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2139990</t>
+          <t>2289990</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2139990</t>
+          <t>2289990</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5653,7 +5653,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1913990</t>
+          <t>2063990</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>1913990</t>
+          <t>2063990</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1524990</t>
+          <t>1674990</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5817,7 +5817,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>1524990</t>
+          <t>1674990</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5868,7 +5868,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1014990</t>
+          <t>1164990</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>1014990</t>
+          <t>1164990</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5987,7 +5987,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>954990</v>
+        <v>1104990</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -5996,7 +5996,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>954990</t>
+          <t>1104990</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -6016,7 +6016,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>954990</t>
+          <t>1104990</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>514990</t>
+          <t>664990</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>514990</t>
+          <t>664990</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>3369990</t>
+          <t>3519990</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>3369990</t>
+          <t>3519990</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2744990</v>
+        <v>2894990</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2744990</t>
+          <t>2894990</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -6369,7 +6369,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2744990</t>
+          <t>2894990</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6515,24 +6515,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/geely/tugella/</t>
+          <t>https://sibir-morots.ru/auto/geely/tugella_new/</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t>3724990</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/geely/tugella/</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
           <t>3574990</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/geely/tugella/</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>3574990</t>
-        </is>
-      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>https://sibir-morots.ru/auto/geely/tugella_new/</t>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>3574990</t>
+          <t>3724990</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2084000</t>
+          <t>2234000</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -6611,7 +6611,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2084000</t>
+          <t>2234000</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6662,7 +6662,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2354000</t>
+          <t>2504000</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -6698,7 +6698,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2354000</t>
+          <t>2504000</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6797,7 +6797,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1484000</v>
+        <v>1634000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1484000</t>
+          <t>1634000</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -6826,7 +6826,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>1484000</t>
+          <t>1634000</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -6909,7 +6909,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1534000</v>
+        <v>1684000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1534000</t>
+          <t>1684000</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -6938,7 +6938,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>1534000</t>
+          <t>1684000</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7008,7 +7008,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1999000</t>
+          <t>2149000</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -7036,7 +7036,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>1999000</t>
+          <t>2149000</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7115,24 +7115,24 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/haval/h5_i/</t>
+          <t>https://sibir-morots.ru/auto/haval/h5/</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
+          <t>1079000</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/haval/h5_i/</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
           <t>929000</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/haval/h5_i/</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>929000</t>
-        </is>
-      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>https://sibir-morots.ru/auto/haval/h5/</t>
@@ -7140,7 +7140,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>929000</t>
+          <t>1079000</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7170,12 +7170,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/haval/h5/</t>
+          <t>https://sibir-morots.ru/auto/haval/h5_new/</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2369400</t>
+          <t>2519400</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2369400</t>
+          <t>2519400</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>3184000</t>
+          <t>3334000</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>3184000</t>
+          <t>3334000</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7360,7 +7360,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>1144000</t>
+          <t>1294000</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -7396,7 +7396,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>1144000</t>
+          <t>1294000</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7447,7 +7447,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>1034000</t>
+          <t>1184000</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -7475,7 +7475,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>1034000</t>
+          <t>1184000</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -7526,7 +7526,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1264000</t>
+          <t>1414000</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -7562,7 +7562,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>1264000</t>
+          <t>1414000</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1354000</v>
+        <v>1504000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>1354000</t>
+          <t>1504000</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -7690,7 +7690,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>1354000</t>
+          <t>1504000</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -7783,7 +7783,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1644000</v>
+        <v>1794000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>1644000</t>
+          <t>1794000</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -7802,7 +7802,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>1644000</t>
+          <t>1794000</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -7894,7 +7894,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>903000</t>
+          <t>1053000</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>903000</t>
+          <t>1053000</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -7981,7 +7981,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2264000</t>
+          <t>2414000</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -8017,7 +8017,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>2264000</t>
+          <t>2414000</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8126,7 +8126,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>2244000</v>
+        <v>2394000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2244000</t>
+          <t>2394000</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -8145,7 +8145,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>2244000</t>
+          <t>2394000</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -8180,7 +8180,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1324000</t>
+          <t>1474000</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -8216,7 +8216,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>1324000</t>
+          <t>1474000</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -8422,7 +8422,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>594000</t>
+          <t>744000</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -8458,7 +8458,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>594000</t>
+          <t>744000</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>974000</t>
+          <t>1124000</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -8612,7 +8612,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>974000</t>
+          <t>1124000</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -8812,7 +8812,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2639900</t>
+          <t>2789900</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>2639900</t>
+          <t>2789900</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -8894,12 +8894,12 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/jaecoo/j8/</t>
+          <t>https://sibir-morots.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>3849000</t>
+          <t>3999000</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -8927,7 +8927,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>3849000</t>
+          <t>3999000</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -8970,7 +8970,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>1684900</t>
+          <t>1834900</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -9006,7 +9006,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>1684900</t>
+          <t>1834900</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -9052,24 +9052,24 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/jetour/t2/</t>
+          <t>https://sibir-morots.ru/auto/jetour/t2/</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
+          <t>3309000</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/jetour/t2/</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
           <t>3159000</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/jetour/t2/</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>3159000</t>
-        </is>
-      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>https://sibir-morots.ru/auto/jetour/t2/</t>
@@ -9077,7 +9077,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>3159000</t>
+          <t>3309000</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9194,7 +9194,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2194900</t>
+          <t>2344900</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>2194900</t>
+          <t>2344900</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -9281,7 +9281,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2594900</t>
+          <t>2744900</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -9317,7 +9317,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>2594900</t>
+          <t>2744900</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -9368,7 +9368,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>885000</t>
+          <t>1035000</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -9404,7 +9404,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>885000</t>
+          <t>1035000</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -9455,7 +9455,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>1185000</t>
+          <t>1335000</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -9491,7 +9491,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>1185000</t>
+          <t>1335000</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -9542,7 +9542,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1344000</t>
+          <t>1494000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -9578,7 +9578,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>1344000</t>
+          <t>1494000</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -9629,7 +9629,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>1440000</t>
+          <t>1590000</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -9665,7 +9665,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>1440000</t>
+          <t>1590000</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -9716,7 +9716,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>1426650</t>
+          <t>1576650</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -9752,7 +9752,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>1426650</t>
+          <t>1576650</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -9803,7 +9803,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>1709900</t>
+          <t>1859900</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -9839,7 +9839,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>1709900</t>
+          <t>1859900</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -9890,7 +9890,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2292900</t>
+          <t>2442900</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -9918,7 +9918,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>2292900</t>
+          <t>2442900</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -9969,7 +9969,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1739900</t>
+          <t>1889900</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -10005,7 +10005,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>1739900</t>
+          <t>1889900</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -10056,7 +10056,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>1809900</t>
+          <t>1959900</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -10092,7 +10092,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>1809900</t>
+          <t>1959900</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10201,7 +10201,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1549900</v>
+        <v>1699900</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>1549900</t>
+          <t>1699900</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -10220,7 +10220,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>1549900</t>
+          <t>1699900</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -10255,7 +10255,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2229900</t>
+          <t>2379900</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -10291,7 +10291,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>2229900</t>
+          <t>2379900</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -10400,7 +10400,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>829900</v>
+        <v>979900</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>829900</t>
+          <t>979900</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -10419,7 +10419,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>829900</t>
+          <t>979900</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -10449,12 +10449,12 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/kia/proceed/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/kia-proceed/</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>867999</t>
+          <t>1017999</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -10480,7 +10480,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>867999</t>
+          <t>1017999</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -10589,7 +10589,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>929900</v>
+        <v>1079900</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>929900</t>
+          <t>1079900</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -10608,7 +10608,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>929900</t>
+          <t>1079900</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -10638,12 +10638,12 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/kia/rio_x/</t>
+          <t>https://sibir-morots.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>1069900</t>
+          <t>1219900</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -10671,7 +10671,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>1069900</t>
+          <t>1219900</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -10755,7 +10755,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>1454900</t>
+          <t>1604900</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -10791,7 +10791,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>1454900</t>
+          <t>1604900</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -10934,7 +10934,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>1324900</t>
+          <t>1474900</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -10970,7 +10970,7 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>1324900</t>
+          <t>1474900</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -11078,7 +11078,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2344900</t>
+          <t>2494900</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -11114,7 +11114,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>2344900</t>
+          <t>2494900</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -11156,7 +11156,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1004900</v>
+        <v>1154900</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>1004900</t>
+          <t>1154900</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -11175,7 +11175,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>1004900</t>
+          <t>1154900</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>650300</v>
+        <v>800300</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -14235,7 +14235,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>650300</t>
+          <t>800300</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -14245,7 +14245,7 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>650300</t>
+          <t>800300</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>701300</v>
+        <v>851300</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>701300</t>
+          <t>851300</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -14290,7 +14290,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>701300</t>
+          <t>851300</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -14316,7 +14316,7 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>401300</v>
+        <v>551300</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>401300</t>
+          <t>551300</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -14335,7 +14335,7 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>401300</t>
+          <t>551300</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
@@ -14361,7 +14361,7 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>420300</v>
+        <v>570300</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>420300</t>
+          <t>570300</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -14380,7 +14380,7 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>420300</t>
+          <t>570300</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
@@ -14406,7 +14406,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>491300</v>
+        <v>641300</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>491300</t>
+          <t>641300</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -14425,7 +14425,7 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>491300</t>
+          <t>641300</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
@@ -14451,7 +14451,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>770300</v>
+        <v>920300</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>770300</t>
+          <t>920300</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -14470,7 +14470,7 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>770300</t>
+          <t>920300</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
@@ -14505,7 +14505,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>1579930</t>
+          <t>1729930</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -14533,7 +14533,7 @@
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>1579930</t>
+          <t>1729930</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>1074900</t>
+          <t>1224900</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -14620,7 +14620,7 @@
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>1074900</t>
+          <t>1224900</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
@@ -14671,7 +14671,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>1635930</t>
+          <t>1785930</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -14699,7 +14699,7 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>1635930</t>
+          <t>1785930</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
@@ -14970,7 +14970,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>1125000</t>
+          <t>1275000</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -15006,7 +15006,7 @@
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>1125000</t>
+          <t>1275000</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -15052,24 +15052,24 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/moskvich/3e/</t>
+          <t>https://sibir-morots.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
+          <t>3108000</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/moskvich/3e/</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
           <t>2958000</t>
         </is>
       </c>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/moskvich/3e/</t>
-        </is>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>2958000</t>
-        </is>
-      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>https://sibir-morots.ru/auto/moskvich/3e/</t>
@@ -15077,7 +15077,7 @@
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>2958000</t>
+          <t>3108000</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -15166,24 +15166,24 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/nissan/murano/</t>
+          <t>https://sibir-morots.ru/auto/nissan/murano/</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
+          <t>4159000</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/nissan/murano/</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
           <t>4009000</t>
         </is>
       </c>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/nissan/murano/</t>
-        </is>
-      </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>4009000</t>
-        </is>
-      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>https://sibir-morots.ru/auto/nissan/murano/</t>
@@ -15191,7 +15191,7 @@
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>4009000</t>
+          <t>4159000</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -15226,7 +15226,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>1632000</t>
+          <t>1782000</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -15262,7 +15262,7 @@
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>1632000</t>
+          <t>1782000</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
@@ -15362,7 +15362,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>1185000</t>
+          <t>1335000</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -15398,7 +15398,7 @@
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>1185000</t>
+          <t>1335000</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -15449,7 +15449,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>2147000</t>
+          <t>2297000</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -15485,7 +15485,7 @@
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>2147000</t>
+          <t>2297000</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
@@ -15536,7 +15536,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>1874900</t>
+          <t>2024900</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -15572,7 +15572,7 @@
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>1874900</t>
+          <t>2024900</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
@@ -15623,7 +15623,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>1514900</t>
+          <t>1664900</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -15659,7 +15659,7 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>1514900</t>
+          <t>1664900</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -15767,7 +15767,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>1259000</t>
+          <t>1409000</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -15803,7 +15803,7 @@
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>1259000</t>
+          <t>1409000</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -15912,7 +15912,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>1003000</v>
+        <v>1153000</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -15921,7 +15921,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>1003000</t>
+          <t>1153000</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -15931,7 +15931,7 @@
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>1003000</t>
+          <t>1153000</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
@@ -15966,7 +15966,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>1109000</t>
+          <t>1259000</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -16002,7 +16002,7 @@
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>1109000</t>
+          <t>1259000</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
@@ -16053,7 +16053,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>769000</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -16089,7 +16089,7 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>769000</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -16140,7 +16140,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>758000</t>
+          <t>908000</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -16176,7 +16176,7 @@
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>758000</t>
+          <t>908000</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -16227,7 +16227,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>509000</t>
+          <t>659000</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -16263,7 +16263,7 @@
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>509000</t>
+          <t>659000</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -16314,7 +16314,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>686000</t>
+          <t>836000</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -16350,7 +16350,7 @@
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>686000</t>
+          <t>836000</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -16556,7 +16556,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>1200000</t>
+          <t>1350000</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>1200000</t>
+          <t>1350000</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
@@ -16691,7 +16691,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>1657000</v>
+        <v>1807000</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>1657000</t>
+          <t>1807000</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -16720,7 +16720,7 @@
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>1657000</t>
+          <t>1807000</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
@@ -16838,7 +16838,7 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1152000</v>
+        <v>1302000</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -16847,7 +16847,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>1152000</t>
+          <t>1302000</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -16857,7 +16857,7 @@
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>1152000</t>
+          <t>1302000</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -16892,7 +16892,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>546000</t>
+          <t>696000</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -16928,7 +16928,7 @@
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>546000</t>
+          <t>696000</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -16974,24 +16974,24 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/skoda/superb/</t>
+          <t>https://sibir-morots.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
+          <t>3136000</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/skoda/superb/</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
           <t>2986000</t>
         </is>
       </c>
-      <c r="G249" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/skoda/superb/</t>
-        </is>
-      </c>
-      <c r="J249" t="inlineStr">
-        <is>
-          <t>2986000</t>
-        </is>
-      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>https://sibir-morots.ru/auto/skoda/superb/</t>
@@ -16999,7 +16999,7 @@
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>2986000</t>
+          <t>3136000</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -17029,24 +17029,24 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/skoda/superb_combi/</t>
+          <t>https://sibir-morots.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
+          <t>3567000</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/skoda/superb_combi/</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
           <t>3417000</t>
         </is>
       </c>
-      <c r="G250" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/skoda/superb_combi/</t>
-        </is>
-      </c>
-      <c r="J250" t="inlineStr">
-        <is>
-          <t>3417000</t>
-        </is>
-      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>https://sibir-morots.ru/auto/skoda/superb_combi/</t>
@@ -17054,7 +17054,7 @@
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>3417000</t>
+          <t>3567000</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -17084,24 +17084,24 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/solaris/hc/</t>
+          <t>https://sibir-morots.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
+          <t>1799300</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/solaris/hc/</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
           <t>1649300</t>
         </is>
       </c>
-      <c r="G251" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/solaris/hc/</t>
-        </is>
-      </c>
-      <c r="J251" t="inlineStr">
-        <is>
-          <t>1649300</t>
-        </is>
-      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>https://sibir-morots.ru/auto/solaris/hc/</t>
@@ -17109,7 +17109,7 @@
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>1649300</t>
+          <t>1799300</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -17139,24 +17139,24 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/solaris/hs/</t>
+          <t>https://sibir-morots.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
+          <t>1729000</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/solaris/hs/</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
           <t>1579000</t>
         </is>
       </c>
-      <c r="G252" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/solaris/hs/</t>
-        </is>
-      </c>
-      <c r="J252" t="inlineStr">
-        <is>
-          <t>1579000</t>
-        </is>
-      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>https://sibir-morots.ru/auto/solaris/hs/</t>
@@ -17164,7 +17164,7 @@
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>1579000</t>
+          <t>1729000</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -17194,24 +17194,24 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/solaris/krs/</t>
+          <t>https://sibir-morots.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
+          <t>1625600</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/solaris/krs/</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
           <t>1475600</t>
         </is>
       </c>
-      <c r="G253" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/solaris/krs/</t>
-        </is>
-      </c>
-      <c r="J253" t="inlineStr">
-        <is>
-          <t>1475600</t>
-        </is>
-      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>https://sibir-morots.ru/auto/solaris/krs/</t>
@@ -17219,7 +17219,7 @@
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>1475600</t>
+          <t>1625600</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -17249,24 +17249,24 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/solaris/krx/</t>
+          <t>https://sibir-morots.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
+          <t>1764000</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/solaris/krx/</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
           <t>1614000</t>
         </is>
       </c>
-      <c r="G254" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/solaris/krx/</t>
-        </is>
-      </c>
-      <c r="J254" t="inlineStr">
-        <is>
-          <t>1614000</t>
-        </is>
-      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>https://sibir-morots.ru/auto/solaris/krx/</t>
@@ -17274,7 +17274,7 @@
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>1614000</t>
+          <t>1764000</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -17366,7 +17366,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>3334000</t>
+          <t>3484000</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -17402,7 +17402,7 @@
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>3334000</t>
+          <t>3484000</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -17551,7 +17551,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>775000</t>
+          <t>925000</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -17587,7 +17587,7 @@
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>775000</t>
+          <t>925000</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -17638,7 +17638,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>935000</t>
+          <t>1085000</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -17674,7 +17674,7 @@
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>935000</t>
+          <t>1085000</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -17716,7 +17716,7 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>960000</v>
+        <v>1110000</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>960000</t>
+          <t>1110000</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -17745,7 +17745,7 @@
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>960000</t>
+          <t>1110000</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -17837,7 +17837,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>903000</t>
+          <t>1053000</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -17873,7 +17873,7 @@
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>903000</t>
+          <t>1053000</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
@@ -17924,7 +17924,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>2118000</t>
+          <t>2268000</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -17960,7 +17960,7 @@
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>2118000</t>
+          <t>2268000</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -18011,7 +18011,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>507400</t>
+          <t>657400</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -18047,7 +18047,7 @@
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>507400</t>
+          <t>657400</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -18098,7 +18098,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>2213900</t>
+          <t>2363900</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -18134,7 +18134,7 @@
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>2213900</t>
+          <t>2363900</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -18243,7 +18243,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1519900</v>
+        <v>1669900</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>1519900</t>
+          <t>1669900</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -18262,7 +18262,7 @@
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>1519900</t>
+          <t>1669900</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
@@ -18341,12 +18341,12 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/zotye/coupa/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/zotye-coupa/</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>979600</t>
+          <t>1129600</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -18382,7 +18382,7 @@
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>979600</t>
+          <t>1129600</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
@@ -18420,12 +18420,12 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>https://autocentersurgut186.ru/auto/zotye/t600/</t>
+          <t>https://avtosalon-profsouz.ru/new_auto/zotye-t600/</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>761600</t>
+          <t>911600</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -18461,7 +18461,7 @@
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>761600</t>
+          <t>911600</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">

--- a/xlsx/surgut.xlsx
+++ b/xlsx/surgut.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U271"/>
+  <dimension ref="A1:W271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +527,16 @@
           <t>ruauto-s.ru</t>
         </is>
       </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>fast-autodealer.ru_price</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>fast-autodealer.ru</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -580,14 +590,6 @@
           <t>https://sibir-morots.ru/auto/baic/bj40/</t>
         </is>
       </c>
-      <c r="L2" t="n">
-        <v>3650000</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/baic-bj40/</t>
-        </is>
-      </c>
       <c r="N2" t="inlineStr">
         <is>
           <t>1695000</t>
@@ -614,6 +616,14 @@
           <t>https://profcouz-autosurgut.ru/auto/baic/suv/suv-1gen</t>
         </is>
       </c>
+      <c r="V2" t="n">
+        <v>1778600</v>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/baic-bj40/</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -673,11 +683,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1240000</v>
+        <v>813100</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/baic/sedan/sedan-1gen</t>
+          <t>https://fast-autodealer.ru/new_auto/baic-u5-plus/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -708,14 +718,6 @@
           <t>https://sibir-morots.ru/auto/baic/u5_plus/</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1345000</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/baic-u5-plus/</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>1390000</t>
@@ -742,6 +744,14 @@
           <t>https://profcouz-autosurgut.ru/auto/baic/sedan/sedan-1gen</t>
         </is>
       </c>
+      <c r="V4" t="n">
+        <v>813100</v>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/baic-u5-plus/</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -795,14 +805,6 @@
           <t>https://sibir-morots.ru/auto/baic/x35/</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/baic-x35/</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>1545000</t>
@@ -829,6 +831,14 @@
           <t>https://profcouz-autosurgut.ru/auto/baic/cuv/suv-1gen</t>
         </is>
       </c>
+      <c r="V5" t="n">
+        <v>1479600</v>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/baic-x35/</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1010,14 +1020,6 @@
           <t>https://sibir-morots.ru/auto/belgee/x50/</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1235990</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/belgee-x50/</t>
-        </is>
-      </c>
       <c r="N8" t="inlineStr">
         <is>
           <t>1385990</t>
@@ -1044,6 +1046,14 @@
           <t>https://profcouz-autosurgut.ru/auto/belgee/x-50/suv-1gen</t>
         </is>
       </c>
+      <c r="V8" t="n">
+        <v>1243200</v>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/belgee-x50/</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1117,11 +1127,11 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>835000</v>
+        <v>755100</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/changan/alsvin/sed</t>
+          <t>https://fast-autodealer.ru/new_auto/shangan-alsvin/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1152,14 +1162,6 @@
           <t>https://sibir-morots.ru/auto/changan/alsvin/</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>940000</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/shangan-alsvin/</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr">
         <is>
           <t>900000</t>
@@ -1186,6 +1188,14 @@
           <t>https://profcouz-autosurgut.ru/auto/changan/alsvin/sed</t>
         </is>
       </c>
+      <c r="V10" t="n">
+        <v>755100</v>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/shangan-alsvin/</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1204,11 +1214,11 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1179900</v>
+        <v>668400</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/shangan-cs35plus/</t>
+          <t>https://fast-autodealer.ru/new_auto/shangan-cs35plus/</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1219,14 +1229,6 @@
           <t>https://auto-centre-profsouz.ru/auto/changan/cs35-plus/cs35-plus</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1179900</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/shangan-cs35plus/</t>
-        </is>
-      </c>
       <c r="P11" t="n">
         <v>1989900</v>
       </c>
@@ -1243,6 +1245,14 @@
           <t>https://profcouz-autosurgut.ru/auto/changan/cs35-plus/cs35-plus</t>
         </is>
       </c>
+      <c r="V11" t="n">
+        <v>668400</v>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/shangan-cs35plus/</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1316,11 +1326,11 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1274900</v>
+        <v>658400</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/changan/cs55/cuv</t>
+          <t>https://fast-autodealer.ru/new_auto/shangan-cs55/</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1351,14 +1361,6 @@
           <t>https://sibir-morots.ru/auto/changan/cs55/</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1379900</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/shangan-cs55/</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr">
         <is>
           <t>1424900</t>
@@ -1385,6 +1387,14 @@
           <t>https://profcouz-autosurgut.ru/auto/changan/cs55/cuv</t>
         </is>
       </c>
+      <c r="V13" t="n">
+        <v>658400</v>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/shangan-cs55/</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1403,11 +1413,11 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1714900</v>
+        <v>1198100</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/changan/cs55plus/cuv</t>
+          <t>https://fast-autodealer.ru/new_auto/shangan-cs55plus/</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1438,14 +1448,6 @@
           <t>https://sibir-morots.ru/auto/changan/cs55_plus/</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1819900</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/shangan-cs55plus/</t>
-        </is>
-      </c>
       <c r="N14" t="inlineStr">
         <is>
           <t>1864900</t>
@@ -1472,6 +1474,14 @@
           <t>https://profcouz-autosurgut.ru/auto/changan/cs55plus/cuv</t>
         </is>
       </c>
+      <c r="V14" t="n">
+        <v>1198100</v>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/shangan-cs55plus/</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1525,11 +1535,11 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1554900</v>
+        <v>968400</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/changan/cs75fl/cuv</t>
+          <t>https://fast-autodealer.ru/new_auto/shangan-cs75fl/</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1560,14 +1570,6 @@
           <t>https://sibir-morots.ru/auto/changan/cs75fl/</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1659900</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/shangan-cs75fl/</t>
-        </is>
-      </c>
       <c r="N16" t="inlineStr">
         <is>
           <t>1704900</t>
@@ -1594,6 +1596,14 @@
           <t>https://profcouz-autosurgut.ru/auto/changan/cs75fl/cuv</t>
         </is>
       </c>
+      <c r="V16" t="n">
+        <v>968400</v>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/shangan-cs75fl/</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1647,14 +1657,6 @@
           <t>https://sibir-morots.ru/auto/changan/cs85_coupe/</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>2899900</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/shangan-cs85coupe/</t>
-        </is>
-      </c>
       <c r="N17" t="inlineStr">
         <is>
           <t>2944900</t>
@@ -1699,11 +1701,11 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3334900</v>
+        <v>1878800</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/changan/cs95/suv</t>
+          <t>https://fast-autodealer.ru/new_auto/shangan-cs95/</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1734,14 +1736,6 @@
           <t>https://sibir-morots.ru/auto/changan/cs95/</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>3439900</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/shangan-cs95/</t>
-        </is>
-      </c>
       <c r="N18" t="inlineStr">
         <is>
           <t>3484900</t>
@@ -1768,6 +1762,14 @@
           <t>https://profcouz-autosurgut.ru/auto/changan/cs95/suv</t>
         </is>
       </c>
+      <c r="V18" t="n">
+        <v>1878800</v>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/shangan-cs95/</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1821,14 +1823,6 @@
           <t>https://sibir-morots.ru/auto/changan/eado_plus/</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1519900</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/shangan-eado-plus/</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr">
         <is>
           <t>1564900</t>
@@ -1855,6 +1849,14 @@
           <t>https://profcouz-autosurgut.ru/auto/changan/eado-plus/SEDAN</t>
         </is>
       </c>
+      <c r="V19" t="n">
+        <v>2857500</v>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/shangan-eado-plus/</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2031,11 +2033,11 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2724900</v>
+        <v>2072600</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/changan/uni-k/suv</t>
+          <t>https://fast-autodealer.ru/new_auto/shangan-uni-k/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2066,14 +2068,6 @@
           <t>https://sibir-morots.ru/auto/changan/uni-k/</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>2829900</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/shangan-uni-k/</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr">
         <is>
           <t>2874900</t>
@@ -2100,6 +2094,14 @@
           <t>https://profcouz-autosurgut.ru/auto/changan/uni-k/suv</t>
         </is>
       </c>
+      <c r="V22" t="n">
+        <v>2072600</v>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/shangan-uni-k/</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2118,11 +2120,11 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1954900</v>
+        <v>1515800</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/changan/UNI-T/SUV_5D</t>
+          <t>https://fast-autodealer.ru/new_auto/shangan-uni-t/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2153,14 +2155,6 @@
           <t>https://sibir-morots.ru/auto/changan/uni-t/</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>2059900</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/shangan-uni-t/</t>
-        </is>
-      </c>
       <c r="N23" t="inlineStr">
         <is>
           <t>2104900</t>
@@ -2187,6 +2181,14 @@
           <t>https://profcouz-autosurgut.ru/auto/changan/UNI-T/SUV_5D</t>
         </is>
       </c>
+      <c r="V23" t="n">
+        <v>1515800</v>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/shangan-uni-t/</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2205,11 +2207,11 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1944900</v>
+        <v>1464100</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/changan/uni-v/liftback</t>
+          <t>https://fast-autodealer.ru/new_auto/shangan-uni-v/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2240,14 +2242,6 @@
           <t>https://sibir-morots.ru/auto/changan/uni-v/</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>2049900</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/shangan-uni-v/</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr">
         <is>
           <t>2094900</t>
@@ -2274,6 +2268,14 @@
           <t>https://profcouz-autosurgut.ru/auto/changan/uni-v/liftback</t>
         </is>
       </c>
+      <c r="V24" t="n">
+        <v>1464100</v>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/shangan-uni-v/</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2406,14 +2408,6 @@
           <t>https://sibir-morots.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>999900</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/chery-tiggo-4/</t>
-        </is>
-      </c>
       <c r="N26" t="inlineStr">
         <is>
           <t>1044900</t>
@@ -2440,6 +2434,14 @@
           <t>https://profcouz-autosurgut.ru/auto/chery/tiggo-4/2019</t>
         </is>
       </c>
+      <c r="V26" t="n">
+        <v>939200</v>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/chery-tiggo-4/</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2513,11 +2515,11 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1315000</v>
+        <v>1290500</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/chery/tiggo-4-pro/cuv</t>
+          <t>https://fast-autodealer.ru/new_auto/chery-tiggo-4-pro/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2548,14 +2550,6 @@
           <t>https://sibir-morots.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>1420000</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/chery-tiggo-4-pro/</t>
-        </is>
-      </c>
       <c r="N28" t="inlineStr">
         <is>
           <t>1465000</t>
@@ -2582,6 +2576,14 @@
           <t>https://profcouz-autosurgut.ru/auto/chery/tiggo-4-pro/cuv</t>
         </is>
       </c>
+      <c r="V28" t="n">
+        <v>1290500</v>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/chery-tiggo-4-pro/</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2635,14 +2637,6 @@
           <t>https://sibir-morots.ru/auto/chery/tiggo_7/</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>529900</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/chery-tiggo-7/</t>
-        </is>
-      </c>
       <c r="N29" t="inlineStr">
         <is>
           <t>574900</t>
@@ -2669,6 +2663,14 @@
           <t>https://profcouz-autosurgut.ru/auto/chery/tiggo-7/2019</t>
         </is>
       </c>
+      <c r="V29" t="n">
+        <v>726300</v>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/chery-tiggo-7/</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2687,11 +2689,11 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1765000</v>
+        <v>1302800</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/chery/tiggo-7-pro/cuv</t>
+          <t>https://fast-autodealer.ru/new_auto/chery-tiggo-7-pro/</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2722,14 +2724,6 @@
           <t>https://sibir-morots.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1870000</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/chery-tiggo-7-pro/</t>
-        </is>
-      </c>
       <c r="N30" t="inlineStr">
         <is>
           <t>1915000</t>
@@ -2756,6 +2750,14 @@
           <t>https://profcouz-autosurgut.ru/auto/chery/tiggo-7-pro/cuv</t>
         </is>
       </c>
+      <c r="V30" t="n">
+        <v>1302800</v>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/chery-tiggo-7-pro/</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2774,11 +2776,11 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2015000</v>
+        <v>1419800</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/chery/tiggo-7-pro-max/cuv</t>
+          <t>https://fast-autodealer.ru/new_auto/chery-tiggo-7-pro-max/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2809,14 +2811,6 @@
           <t>https://sibir-morots.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>2120000</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/chery-tiggo-7-pro-max/</t>
-        </is>
-      </c>
       <c r="N31" t="inlineStr">
         <is>
           <t>2165000</t>
@@ -2843,6 +2837,14 @@
           <t>https://profcouz-autosurgut.ru/auto/chery/tiggo-7-pro-max/cuv</t>
         </is>
       </c>
+      <c r="V31" t="n">
+        <v>1419800</v>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/chery-tiggo-7-pro-max/</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2916,11 +2918,11 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2165000</v>
+        <v>1310800</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/chery/tiggo-8/crossover</t>
+          <t>https://fast-autodealer.ru/new_auto/chery-tiggo-8/</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2951,14 +2953,6 @@
           <t>https://sibir-morots.ru/auto/chery/tiggo_8/</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>2270000</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/chery-tiggo-8/</t>
-        </is>
-      </c>
       <c r="N33" t="inlineStr">
         <is>
           <t>2315000</t>
@@ -2985,6 +2979,14 @@
           <t>https://profcouz-autosurgut.ru/auto/chery/tiggo-8/crossover</t>
         </is>
       </c>
+      <c r="V33" t="n">
+        <v>1310800</v>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/chery-tiggo-8/</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3003,11 +3005,11 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2625000</v>
+        <v>1904100</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/chery/tiggo-8-pro/cuv</t>
+          <t>https://fast-autodealer.ru/new_auto/chery-tiggo-8-pro/</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3038,14 +3040,6 @@
           <t>https://sibir-morots.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>2730000</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/chery-tiggo-8-pro/</t>
-        </is>
-      </c>
       <c r="N34" t="inlineStr">
         <is>
           <t>2775000</t>
@@ -3072,6 +3066,14 @@
           <t>https://profcouz-autosurgut.ru/auto/chery/tiggo-8-pro/cuv</t>
         </is>
       </c>
+      <c r="V34" t="n">
+        <v>1904100</v>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/chery-tiggo-8-pro/</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3090,11 +3092,11 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3046000</v>
+        <v>1855200</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/chery/tiggo-8-pro-max/tiggo-8-pro-max</t>
+          <t>https://fast-autodealer.ru/new_auto/chery-tiggo-8-pro-max/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3125,14 +3127,6 @@
           <t>https://sibir-morots.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>3151000</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/chery-tiggo-8-pro-max/</t>
-        </is>
-      </c>
       <c r="N35" t="inlineStr">
         <is>
           <t>3196000</t>
@@ -3159,6 +3153,14 @@
           <t>https://profcouz-autosurgut.ru/auto/chery/tiggo-8-pro-max/tiggo-8-pro-max</t>
         </is>
       </c>
+      <c r="V35" t="n">
+        <v>1855200</v>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/chery-tiggo-8-pro-max/</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3511,15 +3513,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/datsun-mi-do/</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>385000</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/datsun/mido/hatchback</t>
+          <t>https://fast-autodealer.ru/new_auto/datsun-mi-do/</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3530,14 +3524,6 @@
       <c r="K42" t="inlineStr">
         <is>
           <t>https://sibir-morots.ru/auto/datsun/mi-do/</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>327000</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/datsun-mi-do/</t>
         </is>
       </c>
       <c r="P42" t="n">
@@ -3556,6 +3542,14 @@
           <t>https://profcouz-autosurgut.ru/auto/datsun/mido/hatchback</t>
         </is>
       </c>
+      <c r="V42" t="n">
+        <v>327000</v>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/datsun-mi-do/</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3578,15 +3572,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/datsun-on-do/</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>365000</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/datsun/ondo/sedan</t>
+          <t>https://fast-autodealer.ru/new_auto/datsun-on-do/</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3597,14 +3583,6 @@
       <c r="K43" t="inlineStr">
         <is>
           <t>https://sibir-morots.ru/auto/datsun/on-do/</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>291000</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/datsun-on-do/</t>
         </is>
       </c>
       <c r="P43" t="n">
@@ -3623,6 +3601,14 @@
           <t>https://profcouz-autosurgut.ru/auto/datsun/ondo/sedan</t>
         </is>
       </c>
+      <c r="V43" t="n">
+        <v>291000</v>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/datsun-on-do/</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3641,11 +3627,11 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1124000</v>
+        <v>826300</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/dongfeng/580/580</t>
+          <t>https://fast-autodealer.ru/new_auto/dongfeng-580/</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -3656,14 +3642,6 @@
           <t>https://auto-centre-profsouz.ru/auto/dongfeng/580/580</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>1229000</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/dongfeng-580/</t>
-        </is>
-      </c>
       <c r="P44" t="n">
         <v>1929000</v>
       </c>
@@ -3680,6 +3658,14 @@
           <t>https://profcouz-autosurgut.ru/auto/dongfeng/580/580</t>
         </is>
       </c>
+      <c r="V44" t="n">
+        <v>826300</v>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/dongfeng-580/</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3713,14 +3699,6 @@
           <t>https://auto-centre-profsouz.ru/auto/dongfeng/ax7/suv</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>529000</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/dongfeng-ax7/</t>
-        </is>
-      </c>
       <c r="P45" t="n">
         <v>1229000</v>
       </c>
@@ -3737,6 +3715,14 @@
           <t>https://profcouz-autosurgut.ru/auto/dongfeng/ax7/suv</t>
         </is>
       </c>
+      <c r="V45" t="n">
+        <v>647700</v>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/dongfeng-ax7/</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3995,14 +3981,6 @@
           <t>https://sibir-morots.ru/auto/exeed/lx/</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>2360000</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/exeed-lx/</t>
-        </is>
-      </c>
       <c r="N51" t="inlineStr">
         <is>
           <t>2405000</t>
@@ -4029,6 +4007,14 @@
           <t>https://profcouz-autosurgut.ru/auto/exeed/lx/suv</t>
         </is>
       </c>
+      <c r="V51" t="n">
+        <v>2360000</v>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/exeed-lx/</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4051,7 +4037,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/exeed/lxawd/lxawd</t>
+          <t>https://fast-autodealer.ru/new_auto/exeed-lx-1-6-awd/</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -4062,14 +4048,6 @@
           <t>https://auto-centre-profsouz.ru/auto/exeed/lxawd/lxawd</t>
         </is>
       </c>
-      <c r="L52" t="n">
-        <v>3140000</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/exeed-lx-1-6-awd/</t>
-        </is>
-      </c>
       <c r="P52" t="n">
         <v>3840000</v>
       </c>
@@ -4086,6 +4064,14 @@
           <t>https://profcouz-autosurgut.ru/auto/exeed/lxawd/lxawd</t>
         </is>
       </c>
+      <c r="V52" t="n">
+        <v>3140000</v>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/exeed-lx-1-6-awd/</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4183,11 +4169,11 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3299900</v>
+        <v>852500</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/exeed/txl/cuv</t>
+          <t>https://fast-autodealer.ru/new_auto/exeed-txl/</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4218,14 +4204,6 @@
           <t>https://sibir-morots.ru/auto/exeed/txl/</t>
         </is>
       </c>
-      <c r="L54" t="n">
-        <v>3299900</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/exeed-txl/</t>
-        </is>
-      </c>
       <c r="N54" t="inlineStr">
         <is>
           <t>3605000</t>
@@ -4252,6 +4230,14 @@
           <t>https://profcouz-autosurgut.ru/auto/exeed/txl/cuv</t>
         </is>
       </c>
+      <c r="V54" t="n">
+        <v>852500</v>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/exeed-txl/</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4277,6 +4263,14 @@
           <t>https://sibir-morots.ru/auto/exeed/txl_new/</t>
         </is>
       </c>
+      <c r="H55" t="n">
+        <v>3980000</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://auto-centre-profsouz.ru/auto/exeed/txl2/txl2</t>
+        </is>
+      </c>
       <c r="J55" t="inlineStr">
         <is>
           <t>3560000</t>
@@ -4285,6 +4279,30 @@
       <c r="K55" t="inlineStr">
         <is>
           <t>https://sibir-morots.ru/auto/exeed/txl_new/</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>4680000</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>https://autosalon-hmao.ru/auto/exeed/txl2/txl2</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>3980000</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>https://profcouz-autosurgut.ru/auto/exeed/txl2/txl2</t>
+        </is>
+      </c>
+      <c r="V55" t="n">
+        <v>3980000</v>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/exeed-txl-2-0/</t>
         </is>
       </c>
     </row>
@@ -4305,11 +4323,11 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>4495000</v>
+        <v>2651600</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/exeed/vx/cuv</t>
+          <t>https://fast-autodealer.ru/new_auto/exeed-vx/</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4340,14 +4358,6 @@
           <t>https://sibir-morots.ru/auto/exeed/vx/</t>
         </is>
       </c>
-      <c r="L56" t="n">
-        <v>4600000</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/exeed-vx/</t>
-        </is>
-      </c>
       <c r="N56" t="inlineStr">
         <is>
           <t>4645000</t>
@@ -4374,6 +4384,14 @@
           <t>https://profcouz-autosurgut.ru/auto/exeed/vx/cuv</t>
         </is>
       </c>
+      <c r="V56" t="n">
+        <v>2651600</v>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/exeed-vx/</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4396,7 +4414,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/exeed/vxle/vxle</t>
+          <t>https://fast-autodealer.ru/new_auto/exeed-vx-le/</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -4407,14 +4425,6 @@
           <t>https://auto-centre-profsouz.ru/auto/exeed/vxle/vxle</t>
         </is>
       </c>
-      <c r="L57" t="n">
-        <v>4990000</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/exeed-vx-le/</t>
-        </is>
-      </c>
       <c r="P57" t="n">
         <v>5690000</v>
       </c>
@@ -4431,6 +4441,14 @@
           <t>https://profcouz-autosurgut.ru/auto/exeed/vxle/vxle</t>
         </is>
       </c>
+      <c r="V57" t="n">
+        <v>4990000</v>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/exeed-vx-le/</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4577,11 +4595,11 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1606000</v>
+        <v>1008800</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/faw/bestune-t55/SUV_5D</t>
+          <t>https://fast-autodealer.ru/new_auto/faw-bestune-t55/</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4612,14 +4630,6 @@
           <t>https://sibir-morots.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
-      <c r="L60" t="n">
-        <v>1711000</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/faw-bestune-t55/</t>
-        </is>
-      </c>
       <c r="N60" t="inlineStr">
         <is>
           <t>1756000</t>
@@ -4646,6 +4656,14 @@
           <t>https://profcouz-autosurgut.ru/auto/faw/bestune-t55/SUV_5D</t>
         </is>
       </c>
+      <c r="V60" t="n">
+        <v>1008800</v>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/faw-bestune-t55/</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4664,11 +4682,11 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1365000</v>
+        <v>1099800</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/faw/bestune-t77/cuv</t>
+          <t>https://fast-autodealer.ru/new_auto/faw-bestune-t77/</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4699,14 +4717,6 @@
           <t>https://sibir-morots.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
-      <c r="L61" t="n">
-        <v>1470000</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/faw-bestune-t77/</t>
-        </is>
-      </c>
       <c r="N61" t="inlineStr">
         <is>
           <t>1515000</t>
@@ -4733,6 +4743,14 @@
           <t>https://profcouz-autosurgut.ru/auto/faw/bestune-t77/cuv</t>
         </is>
       </c>
+      <c r="V61" t="n">
+        <v>1099800</v>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/faw-bestune-t77/</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4751,11 +4769,11 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2235000</v>
+        <v>851900</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/faw/bestune-t99/SUV_5D</t>
+          <t>https://fast-autodealer.ru/new_auto/2427-2/</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4786,14 +4804,6 @@
           <t>https://sibir-morots.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
-      <c r="L62" t="n">
-        <v>2340000</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/2427-2/</t>
-        </is>
-      </c>
       <c r="N62" t="inlineStr">
         <is>
           <t>2385000</t>
@@ -4820,6 +4830,14 @@
           <t>https://profcouz-autosurgut.ru/auto/faw/bestune-t99/SUV_5D</t>
         </is>
       </c>
+      <c r="V62" t="n">
+        <v>851900</v>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/2427-2/</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4838,11 +4856,11 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>703000</v>
+        <v>474500</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/faw/besturn-x80-new/cuv</t>
+          <t>https://fast-autodealer.ru/new_auto/faw-besturn-x80/</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -4853,14 +4871,6 @@
           <t>https://auto-centre-profsouz.ru/auto/faw/besturn-x80-new/cuv</t>
         </is>
       </c>
-      <c r="L63" t="n">
-        <v>808000</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/faw-besturn-x80/</t>
-        </is>
-      </c>
       <c r="P63" t="n">
         <v>1508000</v>
       </c>
@@ -4877,6 +4887,14 @@
           <t>https://profcouz-autosurgut.ru/auto/faw/besturn-x80-new/cuv</t>
         </is>
       </c>
+      <c r="V63" t="n">
+        <v>474500</v>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/faw-besturn-x80/</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4930,14 +4948,6 @@
           <t>https://sibir-morots.ru/auto/faw/x40/</t>
         </is>
       </c>
-      <c r="L64" t="n">
-        <v>902000</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/faw-new-x40/</t>
-        </is>
-      </c>
       <c r="N64" t="inlineStr">
         <is>
           <t>947000</t>
@@ -4964,6 +4974,14 @@
           <t>https://profcouz-autosurgut.ru/auto/faw/new-x40/2019</t>
         </is>
       </c>
+      <c r="V64" t="n">
+        <v>902000</v>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/faw-new-x40/</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5037,11 +5055,11 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2380000</v>
+        <v>1221200</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/forthing/t5-evo/suv-1gen</t>
+          <t>https://fast-autodealer.ru/new_auto/forthing-t5-evo/</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -5052,14 +5070,6 @@
           <t>https://auto-centre-profsouz.ru/auto/forthing/t5-evo/suv-1gen</t>
         </is>
       </c>
-      <c r="L66" t="n">
-        <v>2380000</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/forthing-t5-evo/</t>
-        </is>
-      </c>
       <c r="P66" t="n">
         <v>3080000</v>
       </c>
@@ -5076,6 +5086,14 @@
           <t>https://profcouz-autosurgut.ru/auto/forthing/t5-evo/suv-1gen</t>
         </is>
       </c>
+      <c r="V66" t="n">
+        <v>1221200</v>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/forthing-t5-evo/</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5094,11 +5112,11 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>3390000</v>
+        <v>1696800</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/forthing/yacht/minivan-1gen</t>
+          <t>https://fast-autodealer.ru/new_auto/kupit-forthing/</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -5109,14 +5127,6 @@
           <t>https://auto-centre-profsouz.ru/auto/forthing/yacht/minivan-1gen</t>
         </is>
       </c>
-      <c r="L67" t="n">
-        <v>3390000</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/kupit-forthing/</t>
-        </is>
-      </c>
       <c r="P67" t="n">
         <v>4090000</v>
       </c>
@@ -5133,6 +5143,14 @@
           <t>https://profcouz-autosurgut.ru/auto/forthing/yacht/minivan-1gen</t>
         </is>
       </c>
+      <c r="V67" t="n">
+        <v>1696800</v>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/kupit-forthing/</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5151,27 +5169,11 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>3299000</v>
+        <v>1498200</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/gac/gn-8/van</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>3299000</v>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/gac/gn-8/van</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>3299000</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/gac-gn8/</t>
+          <t>https://fast-autodealer.ru/new_auto/gac-gn8/</t>
         </is>
       </c>
       <c r="P68" t="n">
@@ -5190,6 +5192,14 @@
           <t>https://profcouz-autosurgut.ru/auto/gac/gn-8/van</t>
         </is>
       </c>
+      <c r="V68" t="n">
+        <v>1498200</v>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/gac-gn8/</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5304,11 +5314,11 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1549000</v>
+        <v>1181000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/gac/gs-5/cuv</t>
+          <t>https://fast-autodealer.ru/new_auto/gac-gs5/</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5339,14 +5349,6 @@
           <t>https://sibir-morots.ru/auto/gac/gs5/</t>
         </is>
       </c>
-      <c r="L71" t="n">
-        <v>1549000</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/gac-gs5/</t>
-        </is>
-      </c>
       <c r="N71" t="inlineStr">
         <is>
           <t>1699000</t>
@@ -5373,6 +5375,14 @@
           <t>https://profcouz-autosurgut.ru/auto/gac/gs-5/cuv</t>
         </is>
       </c>
+      <c r="V71" t="n">
+        <v>1181000</v>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/gac-gs5/</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5391,11 +5401,11 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2289000</v>
+        <v>1129200</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/gac/gc-8/crossover</t>
+          <t>https://fast-autodealer.ru/new_auto/gac-gs8/</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5426,14 +5436,6 @@
           <t>https://sibir-morots.ru/auto/gac/gs8/</t>
         </is>
       </c>
-      <c r="L72" t="n">
-        <v>2289000</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/gac-gs8/</t>
-        </is>
-      </c>
       <c r="N72" t="inlineStr">
         <is>
           <t>2439000</t>
@@ -5460,6 +5462,14 @@
           <t>https://profcouz-autosurgut.ru/auto/gac/gc-8/crossover</t>
         </is>
       </c>
+      <c r="V72" t="n">
+        <v>1129200</v>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/gac-gs8/</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5478,11 +5488,11 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1033990</v>
+        <v>730600</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/geely/Atlas/cuv</t>
+          <t>https://fast-autodealer.ru/new_auto/geely-atlas/</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5513,14 +5523,6 @@
           <t>https://sibir-morots.ru/auto/geely/atlas/</t>
         </is>
       </c>
-      <c r="L73" t="n">
-        <v>1138990</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/geely-atlas/</t>
-        </is>
-      </c>
       <c r="N73" t="inlineStr">
         <is>
           <t>1183990</t>
@@ -5547,6 +5549,14 @@
           <t>https://profcouz-autosurgut.ru/auto/geely/Atlas/cuv</t>
         </is>
       </c>
+      <c r="V73" t="n">
+        <v>730600</v>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/geely-atlas/</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5644,11 +5654,11 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1913990</v>
+        <v>1518600</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/geely/atlas-pro/cuv</t>
+          <t>https://fast-autodealer.ru/new_auto/geely-atlas-pro/</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -5679,14 +5689,6 @@
           <t>https://sibir-morots.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
-      <c r="L75" t="n">
-        <v>2018990</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/geely-atlas-pro/</t>
-        </is>
-      </c>
       <c r="N75" t="inlineStr">
         <is>
           <t>2063990</t>
@@ -5713,6 +5715,14 @@
           <t>https://profcouz-autosurgut.ru/auto/geely/atlas-pro/cuv</t>
         </is>
       </c>
+      <c r="V75" t="n">
+        <v>1518600</v>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/geely-atlas-pro/</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5731,11 +5741,19 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2518190</v>
+        <v>2499990</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/geely/cityray/suv-1gen</t>
+          <t>https://autocentersurgut186.ru/auto/geely/cityray/</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>2499990</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/geely/cityray/</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -5746,6 +5764,14 @@
           <t>https://auto-centre-profsouz.ru/auto/geely/cityray/suv-1gen</t>
         </is>
       </c>
+      <c r="N76" t="n">
+        <v>2499990</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>https://autocentersurgut186.ru/auto/geely/cityray/</t>
+        </is>
+      </c>
       <c r="R76" t="n">
         <v>2518190</v>
       </c>
@@ -5772,11 +5798,11 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1524990</v>
+        <v>1160600</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/geely/coolray/cuv</t>
+          <t>https://fast-autodealer.ru/new_auto/geely-coolray/</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -5807,14 +5833,6 @@
           <t>https://sibir-morots.ru/auto/geely/coolray/</t>
         </is>
       </c>
-      <c r="L77" t="n">
-        <v>1629990</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/geely-coolray/</t>
-        </is>
-      </c>
       <c r="N77" t="inlineStr">
         <is>
           <t>1674990</t>
@@ -5841,6 +5859,14 @@
           <t>https://profcouz-autosurgut.ru/auto/geely/coolray/cuv</t>
         </is>
       </c>
+      <c r="V77" t="n">
+        <v>1160600</v>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/geely-coolray/</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6067,14 +6093,6 @@
           <t>https://sibir-morots.ru/auto/geely/emgrand_x7/</t>
         </is>
       </c>
-      <c r="L81" t="n">
-        <v>299990</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/geely-emgrand-x7-new/</t>
-        </is>
-      </c>
       <c r="P81" t="n">
         <v>999990</v>
       </c>
@@ -6091,6 +6109,14 @@
           <t>https://profcouz-autosurgut.ru/auto/geely/emgrand-x-7-new/crossover</t>
         </is>
       </c>
+      <c r="V81" t="n">
+        <v>738200</v>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/geely-emgrand-x7-new/</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6144,14 +6170,6 @@
           <t>https://sibir-morots.ru/auto/geely/gs/</t>
         </is>
       </c>
-      <c r="L82" t="n">
-        <v>619990</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/geely-gs/</t>
-        </is>
-      </c>
       <c r="N82" t="inlineStr">
         <is>
           <t>664990</t>
@@ -6178,6 +6196,14 @@
           <t>https://profcouz-autosurgut.ru/auto/geely/gs/cuv</t>
         </is>
       </c>
+      <c r="V82" t="n">
+        <v>709500</v>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/geely-gs/</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6196,11 +6222,11 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>3369990</v>
+        <v>2954100</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/geely/monjaro/monjaro</t>
+          <t>https://fast-autodealer.ru/new_auto/geely-monjaro/</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -6231,14 +6257,6 @@
           <t>https://sibir-morots.ru/auto/geely/monjaro/</t>
         </is>
       </c>
-      <c r="L83" t="n">
-        <v>3847990</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/geely-monjaro/</t>
-        </is>
-      </c>
       <c r="N83" t="inlineStr">
         <is>
           <t>3519990</t>
@@ -6265,6 +6283,14 @@
           <t>https://profcouz-autosurgut.ru/auto/geely/monjaro/monjaro</t>
         </is>
       </c>
+      <c r="V83" t="n">
+        <v>2954100</v>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/geely-monjaro/</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6410,6 +6436,16 @@
           <t>https://profcouz-autosurgut.ru/auto/geely/preface/sedan-1gen-2rest</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2938190</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/geely/preface/</t>
+        </is>
+      </c>
       <c r="H86" t="n">
         <v>2938190</v>
       </c>
@@ -6418,6 +6454,16 @@
           <t>https://auto-centre-profsouz.ru/auto/geely/preface/sedan-1gen-2rest</t>
         </is>
       </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>2938190</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>https://autocentersurgut186.ru/auto/geely/preface/</t>
+        </is>
+      </c>
       <c r="R86" t="n">
         <v>2938190</v>
       </c>
@@ -6444,11 +6490,11 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3199990</v>
+        <v>2627600</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/geely/tugella/cuv</t>
+          <t>https://fast-autodealer.ru/new_auto/geely-tugella/</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -6469,14 +6515,6 @@
           <t>https://sibir-morots.ru/auto/geely/tugella/</t>
         </is>
       </c>
-      <c r="L87" t="n">
-        <v>3199990</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/geely-tugella/</t>
-        </is>
-      </c>
       <c r="P87" t="n">
         <v>3319990</v>
       </c>
@@ -6493,6 +6531,14 @@
           <t>https://profcouz-autosurgut.ru/auto/geely/tugella/cuv</t>
         </is>
       </c>
+      <c r="V87" t="n">
+        <v>2627600</v>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/geely-tugella/</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6566,11 +6612,11 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2084000</v>
+        <v>1725600</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/haval/dargo/cuv</t>
+          <t>https://fast-autodealer.ru/new_auto/haval-dargo/</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -6601,14 +6647,6 @@
           <t>https://sibir-morots.ru/auto/haval/dargo/</t>
         </is>
       </c>
-      <c r="L89" t="n">
-        <v>2189000</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/haval-dargo/</t>
-        </is>
-      </c>
       <c r="N89" t="inlineStr">
         <is>
           <t>2234000</t>
@@ -6635,6 +6673,14 @@
           <t>https://profcouz-autosurgut.ru/auto/haval/dargo/cuv</t>
         </is>
       </c>
+      <c r="V89" t="n">
+        <v>1725600</v>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/haval-dargo/</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6688,14 +6734,6 @@
           <t>https://sibir-morots.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
-      <c r="L90" t="n">
-        <v>2459000</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/haval-dargo-x/</t>
-        </is>
-      </c>
       <c r="N90" t="inlineStr">
         <is>
           <t>2504000</t>
@@ -6722,6 +6760,14 @@
           <t>https://profcouz-autosurgut.ru/auto/haval/dargo-x/cuv</t>
         </is>
       </c>
+      <c r="V90" t="n">
+        <v>2459000</v>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/haval-dargo-x/</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6740,11 +6786,11 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1484000</v>
+        <v>1419300</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/haval/new-f-7/cuv</t>
+          <t>https://fast-autodealer.ru/new_auto/haval-new-f7/</t>
         </is>
       </c>
       <c r="H91" t="n">
@@ -6755,14 +6801,6 @@
           <t>https://auto-centre-profsouz.ru/auto/haval/new-f-7/cuv</t>
         </is>
       </c>
-      <c r="L91" t="n">
-        <v>1589000</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/haval-new-f7/</t>
-        </is>
-      </c>
       <c r="P91" t="n">
         <v>2399000</v>
       </c>
@@ -6779,6 +6817,14 @@
           <t>https://profcouz-autosurgut.ru/auto/haval/new-f-7/cuv</t>
         </is>
       </c>
+      <c r="V91" t="n">
+        <v>1419300</v>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/haval-new-f7/</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6867,14 +6913,6 @@
           <t>https://auto-centre-profsouz.ru/auto/haval/new-f-7-x/cuv</t>
         </is>
       </c>
-      <c r="L93" t="n">
-        <v>1639000</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/haval-new-f7x/</t>
-        </is>
-      </c>
       <c r="P93" t="n">
         <v>2499000</v>
       </c>
@@ -6891,6 +6929,14 @@
           <t>https://profcouz-autosurgut.ru/auto/haval/new-f-7-x/cuv</t>
         </is>
       </c>
+      <c r="V93" t="n">
+        <v>1545600</v>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/haval-new-f7x/</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -7082,15 +7128,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/novyj-haval-h3/</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
+          <t>https://fast-autodealer.ru/new_auto/novyj-haval-h3/</t>
+        </is>
+      </c>
+      <c r="V97" t="n">
         <v>2549000</v>
       </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/novyj-haval-h3/</t>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/novyj-haval-h3/</t>
         </is>
       </c>
     </row>
@@ -7193,22 +7239,22 @@
           <t>https://sibir-morots.ru/auto/haval/h5_new/</t>
         </is>
       </c>
-      <c r="L99" t="n">
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>2519400</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>https://autocentersurgut186.ru/auto/haval/h5/</t>
+        </is>
+      </c>
+      <c r="V99" t="n">
         <v>3199000</v>
       </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/novyj-haval-h5/</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>2519400</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>https://autocentersurgut186.ru/auto/haval/h5/</t>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/novyj-haval-h5/</t>
         </is>
       </c>
     </row>
@@ -7264,11 +7310,11 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>3184000</v>
+        <v>1974800</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/haval/h9/suv</t>
+          <t>https://fast-autodealer.ru/new_auto/haval-h9/</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -7299,14 +7345,6 @@
           <t>https://sibir-morots.ru/auto/haval/h9/</t>
         </is>
       </c>
-      <c r="L101" t="n">
-        <v>3289000</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/haval-h9/</t>
-        </is>
-      </c>
       <c r="N101" t="inlineStr">
         <is>
           <t>3334000</t>
@@ -7333,6 +7371,14 @@
           <t>https://profcouz-autosurgut.ru/auto/haval/h9/suv</t>
         </is>
       </c>
+      <c r="V101" t="n">
+        <v>1974800</v>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/haval-h9/</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7351,11 +7397,11 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1139000</v>
+        <v>1041300</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/haval-jolion/</t>
+          <t>https://fast-autodealer.ru/new_auto/haval-jolion/</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -7386,14 +7432,6 @@
           <t>https://sibir-morots.ru/auto/haval/jolion/</t>
         </is>
       </c>
-      <c r="L102" t="n">
-        <v>1139000</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/haval-jolion/</t>
-        </is>
-      </c>
       <c r="N102" t="inlineStr">
         <is>
           <t>1294000</t>
@@ -7420,6 +7458,14 @@
           <t>https://profcouz-autosurgut.ru/auto/haval/jolion/cuv</t>
         </is>
       </c>
+      <c r="V102" t="n">
+        <v>1041300</v>
+      </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/haval-jolion/</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7517,11 +7563,11 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1264000</v>
+        <v>972200</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/haval/m6/WAGON_7D</t>
+          <t>https://fast-autodealer.ru/new_auto/haval-m6/</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -7552,14 +7598,6 @@
           <t>https://sibir-morots.ru/auto/haval/m6/</t>
         </is>
       </c>
-      <c r="L104" t="n">
-        <v>1369000</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/haval-m6/</t>
-        </is>
-      </c>
       <c r="N104" t="inlineStr">
         <is>
           <t>1414000</t>
@@ -7586,6 +7624,14 @@
           <t>https://profcouz-autosurgut.ru/auto/haval/m6/WAGON_7D</t>
         </is>
       </c>
+      <c r="V104" t="n">
+        <v>972200</v>
+      </c>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/haval-m6/</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7629,14 +7675,6 @@
           <t>https://sibir-morots.ru/auto/hyundai/creta/</t>
         </is>
       </c>
-      <c r="L105" t="n">
-        <v>1459000</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/hyundai-creta-new/</t>
-        </is>
-      </c>
       <c r="P105" t="n">
         <v>1859000</v>
       </c>
@@ -7716,11 +7754,11 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1644000</v>
+        <v>1182000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/hyundai/elantra-new/sedan</t>
+          <t>https://fast-autodealer.ru/new_auto/hyundai-elantra-new/</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -7741,14 +7779,6 @@
           <t>https://sibir-morots.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
-      <c r="L107" t="n">
-        <v>1749000</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/hyundai-elantra-new/</t>
-        </is>
-      </c>
       <c r="P107" t="n">
         <v>2149000</v>
       </c>
@@ -7765,6 +7795,14 @@
           <t>https://profcouz-autosurgut.ru/auto/hyundai/elantra-new/sedan</t>
         </is>
       </c>
+      <c r="V107" t="n">
+        <v>1182000</v>
+      </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/hyundai-elantra-new/</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7843,14 +7881,6 @@
           <t>https://auto-centre-profsouz.ru/auto/hyundai/santa-fe-new/cuv</t>
         </is>
       </c>
-      <c r="L109" t="n">
-        <v>3569000</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/hyundai-new-sonata-2/</t>
-        </is>
-      </c>
       <c r="P109" t="n">
         <v>3969000</v>
       </c>
@@ -7885,11 +7915,11 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>903000</v>
+        <v>778100</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/hyundai/new-solaris/new-solaris</t>
+          <t>https://fast-autodealer.ru/new_auto/hyundai-new-solaris-2/</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -7920,14 +7950,6 @@
           <t>https://sibir-morots.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
-      <c r="L110" t="n">
-        <v>1008000</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/hyundai-new-solaris-2/</t>
-        </is>
-      </c>
       <c r="N110" t="inlineStr">
         <is>
           <t>1053000</t>
@@ -7954,6 +7976,14 @@
           <t>https://profcouz-autosurgut.ru/auto/hyundai/new-solaris/new-solaris</t>
         </is>
       </c>
+      <c r="V110" t="n">
+        <v>778100</v>
+      </c>
+      <c r="W110" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/hyundai-new-solaris-2/</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7972,11 +8002,11 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>2264000</v>
+        <v>2247400</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/hyundai/sonata-new/2020</t>
+          <t>https://fast-autodealer.ru/new_auto/hyundai-new-sonata/</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -8007,14 +8037,6 @@
           <t>https://sibir-morots.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
-      <c r="L111" t="n">
-        <v>2369000</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/hyundai-new-sonata/</t>
-        </is>
-      </c>
       <c r="N111" t="inlineStr">
         <is>
           <t>2414000</t>
@@ -8041,6 +8063,14 @@
           <t>https://profcouz-autosurgut.ru/auto/hyundai/sonata-new/2020</t>
         </is>
       </c>
+      <c r="V111" t="n">
+        <v>2247400</v>
+      </c>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/hyundai-new-sonata/</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -8084,14 +8114,6 @@
           <t>https://sibir-morots.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
-      <c r="L112" t="n">
-        <v>2349000</v>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/hyundai-tucson-new/</t>
-        </is>
-      </c>
       <c r="P112" t="n">
         <v>2749000</v>
       </c>
@@ -8108,6 +8130,14 @@
           <t>https://profcouz-autosurgut.ru/auto/hyundai/tucson-new/cuv</t>
         </is>
       </c>
+      <c r="V112" t="n">
+        <v>3019000</v>
+      </c>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/hyundai-tucson-new/</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8171,11 +8201,11 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1324000</v>
+        <v>1141800</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/jac/j7/liftback</t>
+          <t>https://fast-autodealer.ru/new_auto/jac-j7/</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -8206,14 +8236,6 @@
           <t>https://sibir-morots.ru/auto/jac/j7/</t>
         </is>
       </c>
-      <c r="L114" t="n">
-        <v>1429000</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/jac-j7/</t>
-        </is>
-      </c>
       <c r="N114" t="inlineStr">
         <is>
           <t>1474000</t>
@@ -8240,6 +8262,14 @@
           <t>https://profcouz-autosurgut.ru/auto/jac/j7/liftback</t>
         </is>
       </c>
+      <c r="V114" t="n">
+        <v>1141800</v>
+      </c>
+      <c r="W114" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/jac-j7/</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8314,14 +8344,6 @@
           <t>https://auto-centre-profsouz.ru/auto/jac/js4/cuv</t>
         </is>
       </c>
-      <c r="L116" t="n">
-        <v>1449000</v>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/jac-js4/</t>
-        </is>
-      </c>
       <c r="P116" t="n">
         <v>2149000</v>
       </c>
@@ -8356,11 +8378,11 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>2229000</v>
+        <v>1289800</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/jac/js6/cuv</t>
+          <t>https://fast-autodealer.ru/new_auto/jac-js6/</t>
         </is>
       </c>
       <c r="H117" t="n">
@@ -8371,14 +8393,6 @@
           <t>https://auto-centre-profsouz.ru/auto/jac/js6/cuv</t>
         </is>
       </c>
-      <c r="L117" t="n">
-        <v>2229000</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/jac-js6/</t>
-        </is>
-      </c>
       <c r="P117" t="n">
         <v>2399000</v>
       </c>
@@ -8395,6 +8409,14 @@
           <t>https://profcouz-autosurgut.ru/auto/jac/js6/cuv</t>
         </is>
       </c>
+      <c r="V117" t="n">
+        <v>1289800</v>
+      </c>
+      <c r="W117" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/jac-js6/</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8413,11 +8435,11 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>594000</v>
+        <v>532500</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/jac/s3/cuv</t>
+          <t>https://fast-autodealer.ru/new_auto/jac-s3/</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -8448,14 +8470,6 @@
           <t>https://sibir-morots.ru/auto/jac/s3/</t>
         </is>
       </c>
-      <c r="L118" t="n">
-        <v>699000</v>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/jac-s3/</t>
-        </is>
-      </c>
       <c r="N118" t="inlineStr">
         <is>
           <t>744000</t>
@@ -8482,6 +8496,14 @@
           <t>https://profcouz-autosurgut.ru/auto/jac/s3/cuv</t>
         </is>
       </c>
+      <c r="V118" t="n">
+        <v>532500</v>
+      </c>
+      <c r="W118" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/jac-s3/</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8525,14 +8547,6 @@
           <t>https://sibir-morots.ru/auto/jac/s5/</t>
         </is>
       </c>
-      <c r="L119" t="n">
-        <v>439000</v>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/jac-s5/</t>
-        </is>
-      </c>
       <c r="P119" t="n">
         <v>1139000</v>
       </c>
@@ -8567,11 +8581,11 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>974000</v>
+        <v>756200</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/jac/s7/cuv</t>
+          <t>https://fast-autodealer.ru/new_auto/jac-s7/</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -8602,14 +8616,6 @@
           <t>https://sibir-morots.ru/auto/jac/s7/</t>
         </is>
       </c>
-      <c r="L120" t="n">
-        <v>1079000</v>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/jac-s7/</t>
-        </is>
-      </c>
       <c r="N120" t="inlineStr">
         <is>
           <t>1124000</t>
@@ -8636,6 +8642,14 @@
           <t>https://profcouz-autosurgut.ru/auto/jac/s7/cuv</t>
         </is>
       </c>
+      <c r="V120" t="n">
+        <v>756200</v>
+      </c>
+      <c r="W120" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/jac-s7/</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8658,7 +8672,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/jac/t6/2019</t>
+          <t>https://fast-autodealer.ru/new_auto/jac-t6/</t>
         </is>
       </c>
       <c r="H121" t="n">
@@ -8679,14 +8693,6 @@
           <t>https://sibir-morots.ru/auto/jac/t6/</t>
         </is>
       </c>
-      <c r="L121" t="n">
-        <v>2199000</v>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/jac-t6/</t>
-        </is>
-      </c>
       <c r="P121" t="n">
         <v>2899000</v>
       </c>
@@ -8703,6 +8709,14 @@
           <t>https://profcouz-autosurgut.ru/auto/jac/t6/2019</t>
         </is>
       </c>
+      <c r="V121" t="n">
+        <v>2199000</v>
+      </c>
+      <c r="W121" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/jac-t6/</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8803,11 +8817,11 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>2639900</v>
+        <v>1803300</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/jaecoo/j-7/suv-1gen</t>
+          <t>https://fast-autodealer.ru/new_auto/jaecoo-j7/</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -8838,14 +8852,6 @@
           <t>https://sibir-morots.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
-      <c r="L124" t="n">
-        <v>2639900</v>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/jaecoo-j7/</t>
-        </is>
-      </c>
       <c r="N124" t="inlineStr">
         <is>
           <t>2789900</t>
@@ -8872,6 +8878,14 @@
           <t>https://profcouz-autosurgut.ru/auto/jaecoo/j-7/suv-1gen</t>
         </is>
       </c>
+      <c r="V124" t="n">
+        <v>1803300</v>
+      </c>
+      <c r="W124" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/jaecoo-j7/</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -8961,11 +8975,11 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1684900</v>
+        <v>1614400</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/jetour/dashing/suv-1gen</t>
+          <t>https://fast-autodealer.ru/new_auto/jetour-dashing/</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -8996,14 +9010,6 @@
           <t>https://sibir-morots.ru/auto/jetour/dashing/</t>
         </is>
       </c>
-      <c r="L126" t="n">
-        <v>1789900</v>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/jetour-dashing/</t>
-        </is>
-      </c>
       <c r="N126" t="inlineStr">
         <is>
           <t>1834900</t>
@@ -9030,6 +9036,14 @@
           <t>https://profcouz-autosurgut.ru/auto/jetour/dashing/suv-1gen</t>
         </is>
       </c>
+      <c r="V126" t="n">
+        <v>1614400</v>
+      </c>
+      <c r="W126" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/jetour-dashing/</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -9185,11 +9199,11 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>2194900</v>
+        <v>1793500</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/jetour/jetour-x70-plus/suv-1gen</t>
+          <t>https://fast-autodealer.ru/new_auto/jetour-x70-plus/</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -9220,14 +9234,6 @@
           <t>https://sibir-morots.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
-      <c r="L130" t="n">
-        <v>2299900</v>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/jetour-x70-plus/</t>
-        </is>
-      </c>
       <c r="N130" t="inlineStr">
         <is>
           <t>2344900</t>
@@ -9254,6 +9260,14 @@
           <t>https://profcouz-autosurgut.ru/auto/jetour/jetour-x70-plus/suv-1gen</t>
         </is>
       </c>
+      <c r="V130" t="n">
+        <v>1793500</v>
+      </c>
+      <c r="W130" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/jetour-x70-plus/</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -9272,11 +9286,11 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>2594900</v>
+        <v>1737600</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/jetour/x90plus/suv-1gen</t>
+          <t>https://fast-autodealer.ru/new_auto/jetour-x90-plus/</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -9307,14 +9321,6 @@
           <t>https://sibir-morots.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
-      <c r="L131" t="n">
-        <v>2699900</v>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/jetour-x90-plus/</t>
-        </is>
-      </c>
       <c r="N131" t="inlineStr">
         <is>
           <t>2744900</t>
@@ -9341,6 +9347,14 @@
           <t>https://profcouz-autosurgut.ru/auto/jetour/x90plus/suv-1gen</t>
         </is>
       </c>
+      <c r="V131" t="n">
+        <v>1737600</v>
+      </c>
+      <c r="W131" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/jetour-x90-plus/</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -9394,14 +9408,6 @@
           <t>https://sibir-morots.ru/auto/jetta/va3/</t>
         </is>
       </c>
-      <c r="L132" t="n">
-        <v>990000</v>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/jetta-va3/</t>
-        </is>
-      </c>
       <c r="N132" t="inlineStr">
         <is>
           <t>1035000</t>
@@ -9428,6 +9434,14 @@
           <t>https://profcouz-autosurgut.ru/auto/jetta/va3/va3</t>
         </is>
       </c>
+      <c r="V132" t="n">
+        <v>1118600</v>
+      </c>
+      <c r="W132" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/jetta-va3/</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -9481,14 +9495,6 @@
           <t>https://sibir-morots.ru/auto/jetta/vs5/</t>
         </is>
       </c>
-      <c r="L133" t="n">
-        <v>1290000</v>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/jetta-vs5/</t>
-        </is>
-      </c>
       <c r="N133" t="inlineStr">
         <is>
           <t>1335000</t>
@@ -9515,6 +9521,14 @@
           <t>https://profcouz-autosurgut.ru/auto/jetta/vs5/vs5</t>
         </is>
       </c>
+      <c r="V133" t="n">
+        <v>1290000</v>
+      </c>
+      <c r="W133" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/jetta-vs5/</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -9568,14 +9582,6 @@
           <t>https://sibir-morots.ru/auto/jetta/vs7/</t>
         </is>
       </c>
-      <c r="L134" t="n">
-        <v>1449000</v>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/jetta-vs7/</t>
-        </is>
-      </c>
       <c r="N134" t="inlineStr">
         <is>
           <t>1494000</t>
@@ -9602,6 +9608,14 @@
           <t>https://profcouz-autosurgut.ru/auto/jetta/vs7/vs7</t>
         </is>
       </c>
+      <c r="V134" t="n">
+        <v>2059500</v>
+      </c>
+      <c r="W134" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/jetta-vs7/</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -9655,14 +9669,6 @@
           <t>https://sibir-morots.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
-      <c r="L135" t="n">
-        <v>1545000</v>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/kaiyi-e5/</t>
-        </is>
-      </c>
       <c r="N135" t="inlineStr">
         <is>
           <t>1590000</t>
@@ -9689,6 +9695,14 @@
           <t>https://profcouz-autosurgut.ru/auto/kaiyi/e5/e5</t>
         </is>
       </c>
+      <c r="V135" t="n">
+        <v>1545000</v>
+      </c>
+      <c r="W135" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/kaiyi-e5/</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -9707,11 +9721,11 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1426650</v>
+        <v>899900</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/kaiyi/X3/SUV_5D</t>
+          <t>https://fast-autodealer.ru/new_auto/kaiyi-x3/</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -9742,14 +9756,6 @@
           <t>https://sibir-morots.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
-      <c r="L136" t="n">
-        <v>1531650</v>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/kaiyi-x3/</t>
-        </is>
-      </c>
       <c r="N136" t="inlineStr">
         <is>
           <t>1576650</t>
@@ -9776,6 +9782,14 @@
           <t>https://profcouz-autosurgut.ru/auto/kaiyi/X3/SUV_5D</t>
         </is>
       </c>
+      <c r="V136" t="n">
+        <v>899900</v>
+      </c>
+      <c r="W136" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/kaiyi-x3/</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -9794,11 +9808,11 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1709900</v>
+        <v>1040200</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/kaiyi/X3%20Pro/SUV_5D</t>
+          <t>https://fast-autodealer.ru/new_auto/kaiyi-x3-pro/</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -9829,14 +9843,6 @@
           <t>https://sibir-morots.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
-      <c r="L137" t="n">
-        <v>1814900</v>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/kaiyi-x3-pro/</t>
-        </is>
-      </c>
       <c r="N137" t="inlineStr">
         <is>
           <t>1859900</t>
@@ -9863,6 +9869,14 @@
           <t>https://profcouz-autosurgut.ru/auto/kaiyi/X3%20Pro/SUV_5D</t>
         </is>
       </c>
+      <c r="V137" t="n">
+        <v>1040200</v>
+      </c>
+      <c r="W137" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/kaiyi-x3-pro/</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -9964,7 +9978,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/kia-ceed/</t>
+          <t>https://fast-autodealer.ru/new_auto/kia-ceed/</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -9995,14 +10009,6 @@
           <t>https://sibir-morots.ru/auto/kia/ceed/</t>
         </is>
       </c>
-      <c r="L139" t="n">
-        <v>1034900</v>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/kia-ceed/</t>
-        </is>
-      </c>
       <c r="N139" t="inlineStr">
         <is>
           <t>1889900</t>
@@ -10029,6 +10035,14 @@
           <t>https://profcouz-autosurgut.ru/auto/kia/ceed-new/hatch</t>
         </is>
       </c>
+      <c r="V139" t="n">
+        <v>1034900</v>
+      </c>
+      <c r="W139" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/kia-ceed/</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -10047,11 +10061,11 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1404900</v>
+        <v>1809900</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/kia-ceed-sw/</t>
+          <t>https://profcouz-autosurgut.ru/auto/kia/ceed-sw-new/hatch</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -10082,14 +10096,6 @@
           <t>https://sibir-morots.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
-      <c r="L140" t="n">
-        <v>1404900</v>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/kia-ceed-sw/</t>
-        </is>
-      </c>
       <c r="N140" t="inlineStr">
         <is>
           <t>1959900</t>
@@ -10134,11 +10140,11 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1549900</v>
+        <v>1483500</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/kia/cerato-new/sed</t>
+          <t>https://fast-autodealer.ru/new_auto/kia-cerato-new/</t>
         </is>
       </c>
       <c r="H141" t="n">
@@ -10159,14 +10165,6 @@
           <t>https://sibir-morots.ru/auto/kia/cerato/</t>
         </is>
       </c>
-      <c r="L141" t="n">
-        <v>1654900</v>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/kia-cerato-new/</t>
-        </is>
-      </c>
       <c r="P141" t="n">
         <v>2054900</v>
       </c>
@@ -10183,6 +10181,14 @@
           <t>https://profcouz-autosurgut.ru/auto/kia/cerato-new/sed</t>
         </is>
       </c>
+      <c r="V141" t="n">
+        <v>1483500</v>
+      </c>
+      <c r="W141" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/kia-cerato-new/</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -10281,14 +10287,6 @@
           <t>https://sibir-morots.ru/auto/kia/k5/</t>
         </is>
       </c>
-      <c r="L143" t="n">
-        <v>2334900</v>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/kia-k5/</t>
-        </is>
-      </c>
       <c r="N143" t="inlineStr">
         <is>
           <t>2379900</t>
@@ -10333,11 +10331,11 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>829900</v>
+        <v>655400</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/kia/picanto-new/hatch</t>
+          <t>https://fast-autodealer.ru/new_auto/kia-picanto-new/</t>
         </is>
       </c>
       <c r="H144" t="n">
@@ -10358,14 +10356,6 @@
           <t>https://sibir-morots.ru/auto/kia/picanto/</t>
         </is>
       </c>
-      <c r="L144" t="n">
-        <v>934900</v>
-      </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/kia-picanto-new/</t>
-        </is>
-      </c>
       <c r="P144" t="n">
         <v>1334900</v>
       </c>
@@ -10382,6 +10372,14 @@
           <t>https://profcouz-autosurgut.ru/auto/kia/picanto-new/hatch</t>
         </is>
       </c>
+      <c r="V144" t="n">
+        <v>655400</v>
+      </c>
+      <c r="W144" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/kia-picanto-new/</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -10445,11 +10443,11 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>867999</v>
+        <v>967999</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/kia-proceed/</t>
+          <t>https://autosalon-hmao.ru/auto/kia/pro-ceed/sw</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -10470,14 +10468,6 @@
           <t>https://auto-centre-profsouz.ru/auto/kia/pro-ceed/sw</t>
         </is>
       </c>
-      <c r="L146" t="n">
-        <v>867999</v>
-      </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/kia-proceed/</t>
-        </is>
-      </c>
       <c r="N146" t="inlineStr">
         <is>
           <t>1017999</t>
@@ -10522,11 +10512,11 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>929900</v>
+        <v>724000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/kia/rio-new/sed</t>
+          <t>https://fast-autodealer.ru/new_auto/kia-rio-new/</t>
         </is>
       </c>
       <c r="H147" t="n">
@@ -10547,14 +10537,6 @@
           <t>https://sibir-morots.ru/auto/kia/rio/</t>
         </is>
       </c>
-      <c r="L147" t="n">
-        <v>1034900</v>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/kia-rio-new/</t>
-        </is>
-      </c>
       <c r="P147" t="n">
         <v>1434900</v>
       </c>
@@ -10571,6 +10553,14 @@
           <t>https://profcouz-autosurgut.ru/auto/kia/rio-new/sed</t>
         </is>
       </c>
+      <c r="V147" t="n">
+        <v>724000</v>
+      </c>
+      <c r="W147" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/kia-rio-new/</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -10634,49 +10624,49 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1069900</v>
+        <v>783400</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
+          <t>https://fast-autodealer.ru/new_auto/kia-rio-x/</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1219900</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/kia/rio_x/</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>1069900</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
           <t>https://sibir-morots.ru/auto/kia/rio_x/</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="N149" t="inlineStr">
         <is>
           <t>1219900</t>
         </is>
       </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/kia/rio_x/</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>1069900</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/kia/rio_x/</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1174900</v>
-      </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/kia-rio-x/</t>
-        </is>
-      </c>
-      <c r="N149" t="inlineStr">
-        <is>
-          <t>1219900</t>
-        </is>
-      </c>
       <c r="O149" t="inlineStr">
         <is>
           <t>https://autocentersurgut186.ru/auto/kia/rio_x/</t>
+        </is>
+      </c>
+      <c r="V149" t="n">
+        <v>783400</v>
+      </c>
+      <c r="W149" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/kia-rio-x/</t>
         </is>
       </c>
     </row>
@@ -10746,11 +10736,11 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1454900</v>
+        <v>1414300</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/kia/seltos/seltos</t>
+          <t>https://fast-autodealer.ru/new_auto/kia-seltos/</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -10781,14 +10771,6 @@
           <t>https://sibir-morots.ru/auto/kia/seltos/</t>
         </is>
       </c>
-      <c r="L151" t="n">
-        <v>1559900</v>
-      </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/kia-seltos/</t>
-        </is>
-      </c>
       <c r="N151" t="inlineStr">
         <is>
           <t>1604900</t>
@@ -10815,6 +10797,14 @@
           <t>https://profcouz-autosurgut.ru/auto/kia/seltos/seltos</t>
         </is>
       </c>
+      <c r="V151" t="n">
+        <v>1414300</v>
+      </c>
+      <c r="W151" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/kia-seltos/</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -10833,11 +10823,11 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>3389900</v>
+        <v>2656200</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/kia/sorento-new/cuv</t>
+          <t>https://fast-autodealer.ru/new_auto/kia-sorento-new/</t>
         </is>
       </c>
       <c r="H152" t="n">
@@ -10848,14 +10838,6 @@
           <t>https://auto-centre-profsouz.ru/auto/kia/sorento-new/cuv</t>
         </is>
       </c>
-      <c r="L152" t="n">
-        <v>3389900</v>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/kia-sorento-new/</t>
-        </is>
-      </c>
       <c r="P152" t="n">
         <v>3789900</v>
       </c>
@@ -10872,6 +10854,14 @@
           <t>https://profcouz-autosurgut.ru/auto/kia/sorento-new/cuv</t>
         </is>
       </c>
+      <c r="V152" t="n">
+        <v>2656200</v>
+      </c>
+      <c r="W152" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/kia-sorento-new/</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -10960,14 +10950,6 @@
           <t>https://sibir-morots.ru/auto/kia/soul/</t>
         </is>
       </c>
-      <c r="L154" t="n">
-        <v>1429900</v>
-      </c>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/kia-new-soul/</t>
-        </is>
-      </c>
       <c r="N154" t="inlineStr">
         <is>
           <t>1474900</t>
@@ -10994,6 +10976,14 @@
           <t>https://profcouz-autosurgut.ru/auto/kia/new-soul/new</t>
         </is>
       </c>
+      <c r="V154" t="n">
+        <v>1692700</v>
+      </c>
+      <c r="W154" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/kia-new-soul/</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -11027,14 +11017,6 @@
           <t>https://auto-centre-profsouz.ru/auto/kia/new-sportage/sportagenew</t>
         </is>
       </c>
-      <c r="L155" t="n">
-        <v>1249900</v>
-      </c>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/kia-sportage/</t>
-        </is>
-      </c>
       <c r="P155" t="n">
         <v>1649900</v>
       </c>
@@ -11051,6 +11033,14 @@
           <t>https://profcouz-autosurgut.ru/auto/kia/new-sportage/sportagenew</t>
         </is>
       </c>
+      <c r="V155" t="n">
+        <v>1644200</v>
+      </c>
+      <c r="W155" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/kia-sportage/</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -11069,11 +11059,11 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>2344900</v>
+        <v>2038100</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/kia/sportage-5/suv</t>
+          <t>https://fast-autodealer.ru/new_auto/kia-sportage-5/</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -11104,14 +11094,6 @@
           <t>https://sibir-morots.ru/auto/kia/sportage/</t>
         </is>
       </c>
-      <c r="L156" t="n">
-        <v>2449900</v>
-      </c>
-      <c r="M156" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/kia-sportage-5/</t>
-        </is>
-      </c>
       <c r="N156" t="inlineStr">
         <is>
           <t>2494900</t>
@@ -11138,6 +11120,14 @@
           <t>https://profcouz-autosurgut.ru/auto/kia/sportage-5/suv</t>
         </is>
       </c>
+      <c r="V156" t="n">
+        <v>2038100</v>
+      </c>
+      <c r="W156" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/kia-sportage-5/</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -11335,14 +11325,6 @@
           <t>https://sibir-morots.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
-      <c r="L161" t="n">
-        <v>342300</v>
-      </c>
-      <c r="M161" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/lada-granta-cross-cross/</t>
-        </is>
-      </c>
       <c r="N161" t="inlineStr">
         <is>
           <t>337300</t>
@@ -11377,6 +11359,14 @@
           <t>https://ruauto-s.ru/#models</t>
         </is>
       </c>
+      <c r="V161" t="n">
+        <v>513900</v>
+      </c>
+      <c r="W161" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/lada-granta-cross-cross/</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -11410,14 +11400,6 @@
           <t>https://auto-centre-profsouz.ru/auto/lada/granta-drive-active/granta-drive-active</t>
         </is>
       </c>
-      <c r="L162" t="n">
-        <v>427900</v>
-      </c>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/lada-granta-drive-active-drive-active/</t>
-        </is>
-      </c>
       <c r="P162" t="n">
         <v>940900</v>
       </c>
@@ -11434,6 +11416,14 @@
           <t>https://profcouz-autosurgut.ru/auto/lada/granta-drive-active/granta-drive-active</t>
         </is>
       </c>
+      <c r="V162" t="n">
+        <v>536700</v>
+      </c>
+      <c r="W162" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/lada-granta-drive-active-drive-active/</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -11485,49 +11475,49 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>373500</v>
+        <v>363000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
+          <t>https://fast-autodealer.ru/new_auto/lada-novaya-granta-hetchbek/</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>373500</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/lada/granta_hatchback/</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>373500</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>https://sibir-morots.ru/auto/lada/granta_hatchback/</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>373500</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
           <t>https://autocentersurgut186.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>373500</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>https://autosurgut186.ru/auto/lada/granta_hatchback/</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>373500</t>
-        </is>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>https://sibir-morots.ru/auto/lada/granta_hatchback/</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>378500</v>
-      </c>
-      <c r="M164" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/lada-novaya-granta-hetchbek/</t>
-        </is>
-      </c>
-      <c r="N164" t="inlineStr">
-        <is>
-          <t>373500</t>
-        </is>
-      </c>
-      <c r="O164" t="inlineStr">
-        <is>
-          <t>https://autocentersurgut186.ru/auto/lada/granta_hatchback/</t>
+      <c r="V164" t="n">
+        <v>363000</v>
+      </c>
+      <c r="W164" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/lada-novaya-granta-hetchbek/</t>
         </is>
       </c>
     </row>
@@ -11632,14 +11622,6 @@
           <t>https://sibir-morots.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
-      <c r="L166" t="n">
-        <v>322300</v>
-      </c>
-      <c r="M166" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/lada-novaya-granta-liftbek/</t>
-        </is>
-      </c>
       <c r="N166" t="inlineStr">
         <is>
           <t>317300</t>
@@ -11648,6 +11630,14 @@
       <c r="O166" t="inlineStr">
         <is>
           <t>https://autocentersurgut186.ru/auto/lada/granta_liftback/</t>
+        </is>
+      </c>
+      <c r="V166" t="n">
+        <v>576700</v>
+      </c>
+      <c r="W166" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/lada-novaya-granta-liftbek/</t>
         </is>
       </c>
     </row>
@@ -11752,14 +11742,6 @@
           <t>https://sibir-morots.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
-      <c r="L168" t="n">
-        <v>292300</v>
-      </c>
-      <c r="M168" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/lada-novaya-granta-sedan/</t>
-        </is>
-      </c>
       <c r="N168" t="inlineStr">
         <is>
           <t>292300</t>
@@ -11778,6 +11760,14 @@
           <t>https://ruauto-s.ru/#models</t>
         </is>
       </c>
+      <c r="V168" t="n">
+        <v>515700</v>
+      </c>
+      <c r="W168" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/lada-novaya-granta-sedan/</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -11915,6 +11905,26 @@
           <t>https://ruauto-s.ru/#models</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>892800</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/lada/granta_sport_liftbek/</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>892800</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>https://autocentersurgut186.ru/auto/lada/granta_sport_liftbek/</t>
+        </is>
+      </c>
       <c r="T171" t="n">
         <v>892800</v>
       </c>
@@ -11948,6 +11958,26 @@
           <t>https://ruauto-s.ru/#models</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>868800</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/lada/granta_sport/</t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>868800</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>https://autocentersurgut186.ru/auto/lada/granta_sport/</t>
+        </is>
+      </c>
       <c r="T172" t="n">
         <v>868800</v>
       </c>
@@ -11981,6 +12011,26 @@
           <t>https://ruauto-s.ru/#models</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>780600</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/lada/granta_sportline/</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>780600</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>https://autocentersurgut186.ru/auto/lada/granta_sportline/</t>
+        </is>
+      </c>
       <c r="T173" t="n">
         <v>780600</v>
       </c>
@@ -12014,6 +12064,26 @@
           <t>https://ruauto-s.ru/#models</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>804600</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>https://autosurgut186.ru/auto/lada/granta_sportline_liftbek/</t>
+        </is>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>804600</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>https://autocentersurgut186.ru/auto/lada/granta_sportline_liftbek/</t>
+        </is>
+      </c>
       <c r="T174" t="n">
         <v>804600</v>
       </c>
@@ -12067,22 +12137,22 @@
           <t>https://sibir-morots.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
-      <c r="L175" t="n">
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>314300</t>
+        </is>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>https://autocentersurgut186.ru/auto/lada/granta_universal/</t>
+        </is>
+      </c>
+      <c r="V175" t="n">
         <v>319300</v>
       </c>
-      <c r="M175" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/lada-novaya-granta-universal/</t>
-        </is>
-      </c>
-      <c r="N175" t="inlineStr">
-        <is>
-          <t>314300</t>
-        </is>
-      </c>
-      <c r="O175" t="inlineStr">
-        <is>
-          <t>https://autocentersurgut186.ru/auto/lada/granta_universal/</t>
+      <c r="W175" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/lada-novaya-granta-universal/</t>
         </is>
       </c>
     </row>
@@ -12185,14 +12255,6 @@
           <t>https://sibir-morots.ru/auto/lada/largus/</t>
         </is>
       </c>
-      <c r="L177" t="n">
-        <v>1200900</v>
-      </c>
-      <c r="M177" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/lada-largus-universal-5-mest/</t>
-        </is>
-      </c>
       <c r="P177" t="n">
         <v>1300900</v>
       </c>
@@ -12217,6 +12279,14 @@
           <t>https://ruauto-s.ru/#models</t>
         </is>
       </c>
+      <c r="V177" t="n">
+        <v>825000</v>
+      </c>
+      <c r="W177" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/lada-largus-universal-5-mest/</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -12235,11 +12305,11 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>1232900</v>
+        <v>875600</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/lada/largus/wag</t>
+          <t>https://fast-autodealer.ru/new_auto/lada-largus-universal-7-mest/</t>
         </is>
       </c>
       <c r="H178" t="n">
@@ -12250,14 +12320,6 @@
           <t>https://auto-centre-profsouz.ru/auto/lada/largus/wag</t>
         </is>
       </c>
-      <c r="L178" t="n">
-        <v>1232900</v>
-      </c>
-      <c r="M178" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/lada-largus-universal-7-mest/</t>
-        </is>
-      </c>
       <c r="P178" t="n">
         <v>1332900</v>
       </c>
@@ -12274,6 +12336,14 @@
           <t>https://profcouz-autosurgut.ru/auto/lada/largus/wag</t>
         </is>
       </c>
+      <c r="V178" t="n">
+        <v>875600</v>
+      </c>
+      <c r="W178" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/lada-largus-universal-7-mest/</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -12317,14 +12387,6 @@
           <t>https://sibir-morots.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
-      <c r="L179" t="n">
-        <v>977900</v>
-      </c>
-      <c r="M179" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/lada-largus-cross/</t>
-        </is>
-      </c>
       <c r="P179" t="n">
         <v>1377900</v>
       </c>
@@ -12349,6 +12411,14 @@
           <t>https://ruauto-s.ru/#models</t>
         </is>
       </c>
+      <c r="V179" t="n">
+        <v>902100</v>
+      </c>
+      <c r="W179" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/lada-largus-cross/</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -12457,11 +12527,11 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>896900</v>
+        <v>757700</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/lada/largus/van%20rest</t>
+          <t>https://fast-autodealer.ru/new_auto/lada-largus-furgon/</t>
         </is>
       </c>
       <c r="H182" t="n">
@@ -12482,14 +12552,6 @@
           <t>https://sibir-morots.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
-      <c r="L182" t="n">
-        <v>901900</v>
-      </c>
-      <c r="M182" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/lada-largus-furgon/</t>
-        </is>
-      </c>
       <c r="P182" t="n">
         <v>1301900</v>
       </c>
@@ -12506,6 +12568,14 @@
           <t>https://profcouz-autosurgut.ru/auto/lada/largus/van%20rest</t>
         </is>
       </c>
+      <c r="V182" t="n">
+        <v>757700</v>
+      </c>
+      <c r="W182" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/lada-largus-furgon/</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -12594,14 +12664,6 @@
           <t>https://sibir-morots.ru/auto/lada/niva/</t>
         </is>
       </c>
-      <c r="L184" t="n">
-        <v>642900</v>
-      </c>
-      <c r="M184" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/lada-niva/</t>
-        </is>
-      </c>
       <c r="P184" t="n">
         <v>1042900</v>
       </c>
@@ -12626,6 +12688,14 @@
           <t>https://ruauto-s.ru/#models</t>
         </is>
       </c>
+      <c r="V184" t="n">
+        <v>642900</v>
+      </c>
+      <c r="W184" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/lada-niva/</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -12679,14 +12749,6 @@
           <t>https://sibir-morots.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
-      <c r="L185" t="n">
-        <v>429900</v>
-      </c>
-      <c r="M185" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/lada-niva-legend-3d/</t>
-        </is>
-      </c>
       <c r="N185" t="inlineStr">
         <is>
           <t>424900</t>
@@ -12713,6 +12775,14 @@
           <t>https://profcouz-autosurgut.ru/auto/lada/niva-legend/suv</t>
         </is>
       </c>
+      <c r="V185" t="n">
+        <v>429900</v>
+      </c>
+      <c r="W185" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/lada-niva-legend-3d/</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -12766,14 +12836,6 @@
           <t>https://sibir-morots.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
-      <c r="L186" t="n">
-        <v>518900</v>
-      </c>
-      <c r="M186" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/lada-niva-legend-5d/</t>
-        </is>
-      </c>
       <c r="N186" t="inlineStr">
         <is>
           <t>513900</t>
@@ -12800,6 +12862,14 @@
           <t>https://profcouz-autosurgut.ru/auto/lada/niva-legend/cuv</t>
         </is>
       </c>
+      <c r="V186" t="n">
+        <v>557000</v>
+      </c>
+      <c r="W186" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/lada-niva-legend-5d/</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -12822,7 +12892,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/lada/niva-legend/cuv-urban</t>
+          <t>https://fast-autodealer.ru/new_auto/lada-niva-legend-urban-3d/</t>
         </is>
       </c>
       <c r="H187" t="n">
@@ -12833,14 +12903,6 @@
           <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv-urban</t>
         </is>
       </c>
-      <c r="L187" t="n">
-        <v>492900</v>
-      </c>
-      <c r="M187" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/lada-niva-legend-urban-3d/</t>
-        </is>
-      </c>
       <c r="P187" t="n">
         <v>892900</v>
       </c>
@@ -12857,6 +12919,14 @@
           <t>https://profcouz-autosurgut.ru/auto/lada/niva-legend/cuv-urban</t>
         </is>
       </c>
+      <c r="V187" t="n">
+        <v>492900</v>
+      </c>
+      <c r="W187" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/lada-niva-legend-urban-3d/</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -12875,11 +12945,11 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>589900</v>
+        <v>430400</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/lada/niva-legend/cuv-urban5</t>
+          <t>https://fast-autodealer.ru/new_auto/lada-niva-legend-urban-5d/</t>
         </is>
       </c>
       <c r="H188" t="n">
@@ -12890,14 +12960,6 @@
           <t>https://auto-centre-profsouz.ru/auto/lada/niva-legend/cuv-urban5</t>
         </is>
       </c>
-      <c r="L188" t="n">
-        <v>589900</v>
-      </c>
-      <c r="M188" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/lada-niva-legend-urban-5d/</t>
-        </is>
-      </c>
       <c r="P188" t="n">
         <v>989900</v>
       </c>
@@ -12914,6 +12976,14 @@
           <t>https://profcouz-autosurgut.ru/auto/lada/niva-legend/cuv-urban5</t>
         </is>
       </c>
+      <c r="V188" t="n">
+        <v>430400</v>
+      </c>
+      <c r="W188" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/lada-niva-legend-urban-5d/</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -12967,14 +13037,6 @@
           <t>https://sibir-morots.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
-      <c r="L189" t="n">
-        <v>424000</v>
-      </c>
-      <c r="M189" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/lada-niva-off-road/</t>
-        </is>
-      </c>
       <c r="N189" t="inlineStr">
         <is>
           <t>419000</t>
@@ -13009,6 +13071,14 @@
           <t>https://ruauto-s.ru/#models</t>
         </is>
       </c>
+      <c r="V189" t="n">
+        <v>724000</v>
+      </c>
+      <c r="W189" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/lada-niva-off-road/</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -13027,11 +13097,11 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>687900</v>
+        <v>635000</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/lada/niva-travel/suv</t>
+          <t>https://fast-autodealer.ru/new_auto/lada-niva-travel/</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -13062,14 +13132,6 @@
           <t>https://sibir-morots.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
-      <c r="L190" t="n">
-        <v>692900</v>
-      </c>
-      <c r="M190" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/lada-niva-travel/</t>
-        </is>
-      </c>
       <c r="N190" t="inlineStr">
         <is>
           <t>687900</t>
@@ -13104,6 +13166,14 @@
           <t>https://ruauto-s.ru/#models</t>
         </is>
       </c>
+      <c r="V190" t="n">
+        <v>635000</v>
+      </c>
+      <c r="W190" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/lada-niva-travel/</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -13188,11 +13258,11 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>864900</v>
+        <v>622700</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/lada/vesta/cross</t>
+          <t>https://fast-autodealer.ru/new_auto/lada-vesta-cross/</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -13223,14 +13293,6 @@
           <t>https://sibir-morots.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
-      <c r="L193" t="n">
-        <v>869900</v>
-      </c>
-      <c r="M193" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/lada-vesta-cross/</t>
-        </is>
-      </c>
       <c r="N193" t="inlineStr">
         <is>
           <t>864900</t>
@@ -13265,6 +13327,14 @@
           <t>https://ruauto-s.ru/#models</t>
         </is>
       </c>
+      <c r="V193" t="n">
+        <v>622700</v>
+      </c>
+      <c r="W193" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/lada-vesta-cross/</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -13338,11 +13408,11 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>808900</v>
+        <v>482800</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/lada/vesta/sw</t>
+          <t>https://fast-autodealer.ru/new_auto/lada-vesta-sw/</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -13373,14 +13443,6 @@
           <t>https://sibir-morots.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
-      <c r="L195" t="n">
-        <v>813900</v>
-      </c>
-      <c r="M195" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/lada-vesta-sw/</t>
-        </is>
-      </c>
       <c r="N195" t="inlineStr">
         <is>
           <t>808900</t>
@@ -13415,6 +13477,14 @@
           <t>https://ruauto-s.ru/#models</t>
         </is>
       </c>
+      <c r="V195" t="n">
+        <v>482800</v>
+      </c>
+      <c r="W195" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/lada-vesta-sw/</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -13433,11 +13503,11 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>923900</v>
+        <v>476400</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/lada/vesta/sw-cross</t>
+          <t>https://fast-autodealer.ru/new_auto/lada-vesta-sw-cross/</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -13468,14 +13538,6 @@
           <t>https://sibir-morots.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
-      <c r="L196" t="n">
-        <v>928900</v>
-      </c>
-      <c r="M196" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/lada-vesta-sw-cross/</t>
-        </is>
-      </c>
       <c r="N196" t="inlineStr">
         <is>
           <t>923900</t>
@@ -13510,6 +13572,14 @@
           <t>https://ruauto-s.ru/#models</t>
         </is>
       </c>
+      <c r="V196" t="n">
+        <v>476400</v>
+      </c>
+      <c r="W196" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/lada-vesta-sw-cross/</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -13671,11 +13741,11 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>716900</v>
+        <v>394900</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/lada/vesta/sedan</t>
+          <t>https://fast-autodealer.ru/new_auto/lada-vesta-sedan/</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -13706,14 +13776,6 @@
           <t>https://sibir-morots.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
-      <c r="L200" t="n">
-        <v>721900</v>
-      </c>
-      <c r="M200" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/lada-vesta-sedan/</t>
-        </is>
-      </c>
       <c r="N200" t="inlineStr">
         <is>
           <t>716900</t>
@@ -13748,6 +13810,14 @@
           <t>https://ruauto-s.ru/#models</t>
         </is>
       </c>
+      <c r="V200" t="n">
+        <v>394900</v>
+      </c>
+      <c r="W200" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/lada-vesta-sedan/</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -13801,14 +13871,6 @@
           <t>https://sibir-morots.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
-      <c r="L201" t="n">
-        <v>916900</v>
-      </c>
-      <c r="M201" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/lada-vesta-cng/</t>
-        </is>
-      </c>
       <c r="N201" t="inlineStr">
         <is>
           <t>790140</t>
@@ -13916,11 +13978,11 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>1192900</v>
+        <v>522900</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/lada/vesta/sport</t>
+          <t>https://fast-autodealer.ru/new_auto/lada-vesta-sport/</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -13951,14 +14013,6 @@
           <t>https://sibir-morots.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
-      <c r="L203" t="n">
-        <v>1197900</v>
-      </c>
-      <c r="M203" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/lada-vesta-sport/</t>
-        </is>
-      </c>
       <c r="N203" t="inlineStr">
         <is>
           <t>1192900</t>
@@ -13985,6 +14039,14 @@
           <t>https://profcouz-autosurgut.ru/auto/lada/vesta/sport</t>
         </is>
       </c>
+      <c r="V203" t="n">
+        <v>522900</v>
+      </c>
+      <c r="W203" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/lada-vesta-sport/</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -14036,11 +14098,11 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>664140</v>
+        <v>340800</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://ruauto-s.ru/#models</t>
+          <t>https://fast-autodealer.ru/new_auto/lada-xray/</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -14071,14 +14133,6 @@
           <t>https://sibir-morots.ru/auto/lada/xray/</t>
         </is>
       </c>
-      <c r="L205" t="n">
-        <v>706900</v>
-      </c>
-      <c r="M205" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/lada-xray/</t>
-        </is>
-      </c>
       <c r="N205" t="inlineStr">
         <is>
           <t>664140</t>
@@ -14113,6 +14167,14 @@
           <t>https://ruauto-s.ru/#models</t>
         </is>
       </c>
+      <c r="V205" t="n">
+        <v>340800</v>
+      </c>
+      <c r="W205" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/lada-xray/</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -14131,11 +14193,11 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>749940</v>
+        <v>457000</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://ruauto-s.ru/#models</t>
+          <t>https://fast-autodealer.ru/new_auto/lada-xray-cross/</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -14166,14 +14228,6 @@
           <t>https://sibir-morots.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
-      <c r="L206" t="n">
-        <v>849900</v>
-      </c>
-      <c r="M206" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/lada-xray-cross/</t>
-        </is>
-      </c>
       <c r="N206" t="inlineStr">
         <is>
           <t>749940</t>
@@ -14208,6 +14262,14 @@
           <t>https://ruauto-s.ru/#models</t>
         </is>
       </c>
+      <c r="V206" t="n">
+        <v>457000</v>
+      </c>
+      <c r="W206" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/lada-xray-cross/</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -14575,11 +14637,11 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>1074900</v>
+        <v>1060700</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/livan/x3pro/suv-1gen</t>
+          <t>https://fast-autodealer.ru/new_auto/livan-x3pro/</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -14610,14 +14672,6 @@
           <t>https://sibir-morots.ru/auto/livan/x3pro/</t>
         </is>
       </c>
-      <c r="L214" t="n">
-        <v>1179900</v>
-      </c>
-      <c r="M214" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/livan-x3pro/</t>
-        </is>
-      </c>
       <c r="N214" t="inlineStr">
         <is>
           <t>1224900</t>
@@ -14644,6 +14698,14 @@
           <t>https://profcouz-autosurgut.ru/auto/livan/x3pro/suv-1gen</t>
         </is>
       </c>
+      <c r="V214" t="n">
+        <v>1060700</v>
+      </c>
+      <c r="W214" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/livan-x3pro/</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -14741,11 +14803,11 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>1530000</v>
+        <v>772000</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/mg/5/sedan-2gen</t>
+          <t>https://fast-autodealer.ru/new_auto/mg-5/</t>
         </is>
       </c>
       <c r="H216" t="n">
@@ -14756,14 +14818,6 @@
           <t>https://auto-centre-profsouz.ru/auto/mg/5/sedan-2gen</t>
         </is>
       </c>
-      <c r="L216" t="n">
-        <v>1530000</v>
-      </c>
-      <c r="M216" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/mg-5/</t>
-        </is>
-      </c>
       <c r="P216" t="n">
         <v>2243000</v>
       </c>
@@ -14780,6 +14834,14 @@
           <t>https://profcouz-autosurgut.ru/auto/mg/5/sedan-2gen</t>
         </is>
       </c>
+      <c r="V216" t="n">
+        <v>772000</v>
+      </c>
+      <c r="W216" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/mg-5/</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -14813,14 +14875,6 @@
           <t>https://auto-centre-profsouz.ru/auto/mg/6/liftback-2gen-rest</t>
         </is>
       </c>
-      <c r="L217" t="n">
-        <v>670000</v>
-      </c>
-      <c r="M217" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/mg-6/</t>
-        </is>
-      </c>
       <c r="P217" t="n">
         <v>2489000</v>
       </c>
@@ -14837,6 +14891,14 @@
           <t>https://profcouz-autosurgut.ru/auto/mg/6/liftback-2gen-rest</t>
         </is>
       </c>
+      <c r="V217" t="n">
+        <v>947300</v>
+      </c>
+      <c r="W217" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/mg-6/</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -14855,11 +14917,11 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>2450000</v>
+        <v>1717500</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/mg/hs/suv_5d-1gen</t>
+          <t>https://fast-autodealer.ru/new_auto/mg-hs/</t>
         </is>
       </c>
       <c r="H218" t="n">
@@ -14870,14 +14932,6 @@
           <t>https://auto-centre-profsouz.ru/auto/mg/hs/suv_5d-1gen</t>
         </is>
       </c>
-      <c r="L218" t="n">
-        <v>2450000</v>
-      </c>
-      <c r="M218" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/mg-hs/</t>
-        </is>
-      </c>
       <c r="P218" t="n">
         <v>2859000</v>
       </c>
@@ -14894,6 +14948,14 @@
           <t>https://profcouz-autosurgut.ru/auto/mg/hs/suv_5d-1gen</t>
         </is>
       </c>
+      <c r="V218" t="n">
+        <v>1717500</v>
+      </c>
+      <c r="W218" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/mg-hs/</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -14996,14 +15058,6 @@
           <t>https://sibir-morots.ru/auto/moskvich/3/</t>
         </is>
       </c>
-      <c r="L220" t="n">
-        <v>1200000</v>
-      </c>
-      <c r="M220" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/moskvich-3/</t>
-        </is>
-      </c>
       <c r="N220" t="inlineStr">
         <is>
           <t>1275000</t>
@@ -15030,6 +15084,14 @@
           <t>https://profcouz-autosurgut.ru/auto/moskvich/moskvich3/cuv</t>
         </is>
       </c>
+      <c r="V220" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="W220" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/moskvich-3/</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -15252,14 +15314,6 @@
           <t>https://sibir-morots.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
-      <c r="L224" t="n">
-        <v>1827000</v>
-      </c>
-      <c r="M224" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/nissan-qashqai/</t>
-        </is>
-      </c>
       <c r="N224" t="inlineStr">
         <is>
           <t>1782000</t>
@@ -15286,6 +15340,14 @@
           <t>https://profcouz-autosurgut.ru/auto/nissan/new-qashqai/2019</t>
         </is>
       </c>
+      <c r="V224" t="n">
+        <v>1827000</v>
+      </c>
+      <c r="W224" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/nissan-qashqai/</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -15388,14 +15450,6 @@
           <t>https://sibir-morots.ru/auto/nissan/terrano/</t>
         </is>
       </c>
-      <c r="L226" t="n">
-        <v>1290000</v>
-      </c>
-      <c r="M226" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/nissan-new-terrano/</t>
-        </is>
-      </c>
       <c r="N226" t="inlineStr">
         <is>
           <t>1335000</t>
@@ -15422,6 +15476,14 @@
           <t>https://profcouz-autosurgut.ru/auto/nissan/terrano-2020/suv</t>
         </is>
       </c>
+      <c r="V226" t="n">
+        <v>1290000</v>
+      </c>
+      <c r="W226" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/nissan-new-terrano/</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -15475,14 +15537,6 @@
           <t>https://sibir-morots.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
-      <c r="L227" t="n">
-        <v>2252000</v>
-      </c>
-      <c r="M227" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/nissan-new-x-trail/</t>
-        </is>
-      </c>
       <c r="N227" t="inlineStr">
         <is>
           <t>2297000</t>
@@ -15509,6 +15563,14 @@
           <t>https://profcouz-autosurgut.ru/auto/nissan/newxtrail/newxtrail</t>
         </is>
       </c>
+      <c r="V227" t="n">
+        <v>2252000</v>
+      </c>
+      <c r="W227" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/nissan-new-x-trail/</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -15527,11 +15589,11 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>1874900</v>
+        <v>1361900</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/omoda/c5/cuv</t>
+          <t>https://fast-autodealer.ru/new_auto/omoda-c5/</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -15562,14 +15624,6 @@
           <t>https://sibir-morots.ru/auto/omoda/c5/</t>
         </is>
       </c>
-      <c r="L228" t="n">
-        <v>1979900</v>
-      </c>
-      <c r="M228" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/omoda-c5/</t>
-        </is>
-      </c>
       <c r="N228" t="inlineStr">
         <is>
           <t>2024900</t>
@@ -15596,6 +15650,14 @@
           <t>https://profcouz-autosurgut.ru/auto/omoda/c5/cuv</t>
         </is>
       </c>
+      <c r="V228" t="n">
+        <v>1361900</v>
+      </c>
+      <c r="W228" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/omoda-c5/</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -15614,11 +15676,11 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>1514900</v>
+        <v>1066200</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/omoda/s5-2023/SEDAN</t>
+          <t>https://fast-autodealer.ru/new_auto/omoda-s5/</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -15649,14 +15711,6 @@
           <t>https://sibir-morots.ru/auto/omoda/s5/</t>
         </is>
       </c>
-      <c r="L229" t="n">
-        <v>1619900</v>
-      </c>
-      <c r="M229" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/omoda-s5/</t>
-        </is>
-      </c>
       <c r="N229" t="inlineStr">
         <is>
           <t>1664900</t>
@@ -15683,6 +15737,14 @@
           <t>https://profcouz-autosurgut.ru/auto/omoda/s5-2023/SEDAN</t>
         </is>
       </c>
+      <c r="V229" t="n">
+        <v>1066200</v>
+      </c>
+      <c r="W229" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/omoda-s5/</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -15701,11 +15763,11 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>2639900</v>
+        <v>1213700</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/omoda/s5-gt/sedan-1gen</t>
+          <t>https://fast-autodealer.ru/new_auto/omoda-s5-gt/</t>
         </is>
       </c>
       <c r="H230" t="n">
@@ -15716,14 +15778,6 @@
           <t>https://auto-centre-profsouz.ru/auto/omoda/s5-gt/sedan-1gen</t>
         </is>
       </c>
-      <c r="L230" t="n">
-        <v>2639900</v>
-      </c>
-      <c r="M230" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/omoda-s5-gt/</t>
-        </is>
-      </c>
       <c r="P230" t="n">
         <v>2759900</v>
       </c>
@@ -15740,6 +15794,14 @@
           <t>https://profcouz-autosurgut.ru/auto/omoda/s5-gt/sedan-1gen</t>
         </is>
       </c>
+      <c r="V230" t="n">
+        <v>1213700</v>
+      </c>
+      <c r="W230" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/omoda-s5-gt/</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -15758,11 +15820,11 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>1259000</v>
+        <v>839900</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/renault/new-arkana/2019</t>
+          <t>https://fast-autodealer.ru/new_auto/renault-new-arkana/</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -15793,14 +15855,6 @@
           <t>https://sibir-morots.ru/auto/renault/arkana/</t>
         </is>
       </c>
-      <c r="L231" t="n">
-        <v>1364000</v>
-      </c>
-      <c r="M231" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/renault-new-arkana/</t>
-        </is>
-      </c>
       <c r="N231" t="inlineStr">
         <is>
           <t>1409000</t>
@@ -15827,6 +15881,14 @@
           <t>https://profcouz-autosurgut.ru/auto/renault/new-arkana/2019</t>
         </is>
       </c>
+      <c r="V231" t="n">
+        <v>839900</v>
+      </c>
+      <c r="W231" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/renault-new-arkana/</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -15845,11 +15907,11 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>1003000</v>
+        <v>945800</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/renault/duster-new/cuv</t>
+          <t>https://fast-autodealer.ru/new_auto/renault-duster-new/</t>
         </is>
       </c>
       <c r="H232" t="n">
@@ -15870,14 +15932,6 @@
           <t>https://sibir-morots.ru/auto/renault/duster/</t>
         </is>
       </c>
-      <c r="L232" t="n">
-        <v>1108000</v>
-      </c>
-      <c r="M232" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/renault-duster-new/</t>
-        </is>
-      </c>
       <c r="P232" t="n">
         <v>1618000</v>
       </c>
@@ -15894,6 +15948,14 @@
           <t>https://profcouz-autosurgut.ru/auto/renault/duster-new/cuv</t>
         </is>
       </c>
+      <c r="V232" t="n">
+        <v>945800</v>
+      </c>
+      <c r="W232" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/renault-duster-new/</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -15957,11 +16019,11 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>1109000</v>
+        <v>855800</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/renault/kaptur-new/cuv</t>
+          <t>https://fast-autodealer.ru/new_auto/renault-kaptur-new/</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -15992,14 +16054,6 @@
           <t>https://sibir-morots.ru/auto/renault/kaptur/</t>
         </is>
       </c>
-      <c r="L234" t="n">
-        <v>1214000</v>
-      </c>
-      <c r="M234" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/renault-kaptur-new/</t>
-        </is>
-      </c>
       <c r="N234" t="inlineStr">
         <is>
           <t>1259000</t>
@@ -16026,6 +16080,14 @@
           <t>https://profcouz-autosurgut.ru/auto/renault/kaptur-new/cuv</t>
         </is>
       </c>
+      <c r="V234" t="n">
+        <v>855800</v>
+      </c>
+      <c r="W234" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/renault-kaptur-new/</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -16044,11 +16106,11 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>614000</v>
+        <v>431900</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/renault-new-logan/</t>
+          <t>https://fast-autodealer.ru/new_auto/renault-new-logan/</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -16079,14 +16141,6 @@
           <t>https://sibir-morots.ru/auto/renault/logan/</t>
         </is>
       </c>
-      <c r="L235" t="n">
-        <v>614000</v>
-      </c>
-      <c r="M235" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/renault-new-logan/</t>
-        </is>
-      </c>
       <c r="N235" t="inlineStr">
         <is>
           <t>769000</t>
@@ -16113,6 +16167,14 @@
           <t>https://profcouz-autosurgut.ru/auto/renault/new-logan/new</t>
         </is>
       </c>
+      <c r="V235" t="n">
+        <v>431900</v>
+      </c>
+      <c r="W235" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/renault-new-logan/</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -16131,11 +16193,11 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>758000</v>
+        <v>513100</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/renault/logan-stepway/sedan</t>
+          <t>https://fast-autodealer.ru/new_auto/renault-logan-stepway/</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -16166,14 +16228,6 @@
           <t>https://sibir-morots.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
-      <c r="L236" t="n">
-        <v>791000</v>
-      </c>
-      <c r="M236" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/renault-logan-stepway/</t>
-        </is>
-      </c>
       <c r="N236" t="inlineStr">
         <is>
           <t>908000</t>
@@ -16200,6 +16254,14 @@
           <t>https://profcouz-autosurgut.ru/auto/renault/logan-stepway/sedan</t>
         </is>
       </c>
+      <c r="V236" t="n">
+        <v>513100</v>
+      </c>
+      <c r="W236" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/renault-logan-stepway/</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -16253,14 +16315,6 @@
           <t>https://sibir-morots.ru/auto/renault/sandero/</t>
         </is>
       </c>
-      <c r="L237" t="n">
-        <v>748000</v>
-      </c>
-      <c r="M237" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/renault-new-sandero/</t>
-        </is>
-      </c>
       <c r="N237" t="inlineStr">
         <is>
           <t>659000</t>
@@ -16287,6 +16341,14 @@
           <t>https://profcouz-autosurgut.ru/auto/renault/new-sandero/new</t>
         </is>
       </c>
+      <c r="V237" t="n">
+        <v>534900</v>
+      </c>
+      <c r="W237" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/renault-new-sandero/</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -16305,11 +16367,11 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>686000</v>
+        <v>543300</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/renault/new-sandero-stepway/stepway</t>
+          <t>https://fast-autodealer.ru/new_auto/renault-new-sandero-stepway/</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -16340,14 +16402,6 @@
           <t>https://sibir-morots.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
-      <c r="L238" t="n">
-        <v>863000</v>
-      </c>
-      <c r="M238" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/renault-new-sandero-stepway/</t>
-        </is>
-      </c>
       <c r="N238" t="inlineStr">
         <is>
           <t>836000</t>
@@ -16374,6 +16428,14 @@
           <t>https://profcouz-autosurgut.ru/auto/renault/new-sandero-stepway/stepway</t>
         </is>
       </c>
+      <c r="V238" t="n">
+        <v>543300</v>
+      </c>
+      <c r="W238" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/renault-new-sandero-stepway/</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -16445,7 +16507,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/swm/g01f/suv-1gen</t>
+          <t>https://fast-autodealer.ru/new_auto/swm-g01f/</t>
         </is>
       </c>
       <c r="H240" t="n">
@@ -16456,14 +16518,6 @@
           <t>https://auto-centre-profsouz.ru/auto/swm/g01f/suv-1gen</t>
         </is>
       </c>
-      <c r="L240" t="n">
-        <v>1988340</v>
-      </c>
-      <c r="M240" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/swm-g01f/</t>
-        </is>
-      </c>
       <c r="P240" t="n">
         <v>2588340</v>
       </c>
@@ -16480,6 +16534,14 @@
           <t>https://profcouz-autosurgut.ru/auto/swm/g01f/suv-1gen</t>
         </is>
       </c>
+      <c r="V240" t="n">
+        <v>1988340</v>
+      </c>
+      <c r="W240" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/swm-g01f/</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -16582,14 +16644,6 @@
           <t>https://sibir-morots.ru/auto/skoda/karoq/</t>
         </is>
       </c>
-      <c r="L242" t="n">
-        <v>1305000</v>
-      </c>
-      <c r="M242" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/skoda-karoq/</t>
-        </is>
-      </c>
       <c r="N242" t="inlineStr">
         <is>
           <t>1350000</t>
@@ -16616,6 +16670,14 @@
           <t>https://profcouz-autosurgut.ru/auto/skoda/karoq/karoq</t>
         </is>
       </c>
+      <c r="V242" t="n">
+        <v>1401300</v>
+      </c>
+      <c r="W242" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/skoda-karoq/</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -16634,11 +16696,11 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>1657000</v>
+        <v>1188700</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/skoda/new-kodiaq/cuv</t>
+          <t>https://fast-autodealer.ru/new_auto/skoda-kodiaq-new/</t>
         </is>
       </c>
       <c r="H243" t="n">
@@ -16649,14 +16711,6 @@
           <t>https://auto-centre-profsouz.ru/auto/skoda/new-kodiaq/cuv</t>
         </is>
       </c>
-      <c r="L243" t="n">
-        <v>1657000</v>
-      </c>
-      <c r="M243" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/skoda-kodiaq-new/</t>
-        </is>
-      </c>
       <c r="P243" t="n">
         <v>2057000</v>
       </c>
@@ -16673,6 +16727,14 @@
           <t>https://profcouz-autosurgut.ru/auto/skoda/new-kodiaq/cuv</t>
         </is>
       </c>
+      <c r="V243" t="n">
+        <v>1188700</v>
+      </c>
+      <c r="W243" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/skoda-kodiaq-new/</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -16796,14 +16858,6 @@
           <t>https://auto-centre-profsouz.ru/auto/skoda/octavia-a8/2020</t>
         </is>
       </c>
-      <c r="L246" t="n">
-        <v>1257000</v>
-      </c>
-      <c r="M246" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/skoda-octavia-a8/</t>
-        </is>
-      </c>
       <c r="P246" t="n">
         <v>1657000</v>
       </c>
@@ -16820,6 +16874,14 @@
           <t>https://profcouz-autosurgut.ru/auto/skoda/octavia-a8/2020</t>
         </is>
       </c>
+      <c r="V246" t="n">
+        <v>3931500</v>
+      </c>
+      <c r="W246" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/skoda-octavia-a8/</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -16918,14 +16980,6 @@
           <t>https://sibir-morots.ru/auto/skoda/rapid/</t>
         </is>
       </c>
-      <c r="L248" t="n">
-        <v>651000</v>
-      </c>
-      <c r="M248" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/skoda-rapid-new/</t>
-        </is>
-      </c>
       <c r="N248" t="inlineStr">
         <is>
           <t>696000</t>
@@ -16952,6 +17006,14 @@
           <t>https://profcouz-autosurgut.ru/auto/skoda/rapid-new/sedan</t>
         </is>
       </c>
+      <c r="V248" t="n">
+        <v>1057000</v>
+      </c>
+      <c r="W248" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/skoda-rapid-new/</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -17315,14 +17377,6 @@
           <t>https://auto-centre-profsouz.ru/auto/soueast/dx8s/cuv-1gen</t>
         </is>
       </c>
-      <c r="L255" t="n">
-        <v>2299900</v>
-      </c>
-      <c r="M255" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/soueast-dx8s/</t>
-        </is>
-      </c>
       <c r="P255" t="n">
         <v>2225000</v>
       </c>
@@ -17339,6 +17393,14 @@
           <t>https://profcouz-autosurgut.ru/auto/soueast/dx8s/cuv-1gen</t>
         </is>
       </c>
+      <c r="V255" t="n">
+        <v>2299900</v>
+      </c>
+      <c r="W255" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/soueast-dx8s/</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -17357,11 +17419,11 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>3334000</v>
+        <v>3264400</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/tank/300/SUV_5D</t>
+          <t>https://fast-autodealer.ru/new_auto/tank-300/</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -17392,14 +17454,6 @@
           <t>https://sibir-morots.ru/auto/tank/300/</t>
         </is>
       </c>
-      <c r="L256" t="n">
-        <v>3439000</v>
-      </c>
-      <c r="M256" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/tank-300/</t>
-        </is>
-      </c>
       <c r="N256" t="inlineStr">
         <is>
           <t>3484000</t>
@@ -17426,6 +17480,14 @@
           <t>https://profcouz-autosurgut.ru/auto/tank/300/SUV_5D</t>
         </is>
       </c>
+      <c r="V256" t="n">
+        <v>3264400</v>
+      </c>
+      <c r="W256" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/tank-300/</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -17444,11 +17506,11 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>3439000</v>
+        <v>3470500</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/tank-500/</t>
+          <t>https://fast-autodealer.ru/new_auto/tank-500/</t>
         </is>
       </c>
       <c r="H257" t="n">
@@ -17459,14 +17521,6 @@
           <t>https://auto-centre-profsouz.ru/auto/tank/500/SUV_5D</t>
         </is>
       </c>
-      <c r="L257" t="n">
-        <v>3439000</v>
-      </c>
-      <c r="M257" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/tank-500/</t>
-        </is>
-      </c>
       <c r="P257" t="n">
         <v>6499000</v>
       </c>
@@ -17483,6 +17537,14 @@
           <t>https://profcouz-autosurgut.ru/auto/tank/500/SUV_5D</t>
         </is>
       </c>
+      <c r="V257" t="n">
+        <v>3470500</v>
+      </c>
+      <c r="W257" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/tank-500/</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -17577,14 +17639,6 @@
           <t>https://sibir-morots.ru/auto/uaz/hunter/</t>
         </is>
       </c>
-      <c r="L259" t="n">
-        <v>880000</v>
-      </c>
-      <c r="M259" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/uaz-hunter/</t>
-        </is>
-      </c>
       <c r="N259" t="inlineStr">
         <is>
           <t>925000</t>
@@ -17611,6 +17665,14 @@
           <t>https://profcouz-autosurgut.ru/auto/uaz/hunter/suv</t>
         </is>
       </c>
+      <c r="V259" t="n">
+        <v>880000</v>
+      </c>
+      <c r="W259" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/uaz-hunter/</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -17664,14 +17726,6 @@
           <t>https://sibir-morots.ru/auto/uaz/patriot/</t>
         </is>
       </c>
-      <c r="L260" t="n">
-        <v>1040000</v>
-      </c>
-      <c r="M260" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/uaz-patriot-new/</t>
-        </is>
-      </c>
       <c r="N260" t="inlineStr">
         <is>
           <t>1085000</t>
@@ -17698,6 +17752,14 @@
           <t>https://profcouz-autosurgut.ru/auto/uaz/patriot-new/suv</t>
         </is>
       </c>
+      <c r="V260" t="n">
+        <v>1040000</v>
+      </c>
+      <c r="W260" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/uaz-patriot-new/</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -17786,14 +17848,6 @@
           <t>https://auto-centre-profsouz.ru/auto/uaz/pickup-new/suv</t>
         </is>
       </c>
-      <c r="L262" t="n">
-        <v>1065000</v>
-      </c>
-      <c r="M262" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/uaz-pickup-new/</t>
-        </is>
-      </c>
       <c r="P262" t="n">
         <v>1159000</v>
       </c>
@@ -17810,6 +17864,14 @@
           <t>https://profcouz-autosurgut.ru/auto/uaz/pickup-new/suv</t>
         </is>
       </c>
+      <c r="V262" t="n">
+        <v>1065000</v>
+      </c>
+      <c r="W262" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/uaz-pickup-new/</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -17863,14 +17925,6 @@
           <t>https://sibir-morots.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
-      <c r="L263" t="n">
-        <v>1008000</v>
-      </c>
-      <c r="M263" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/volkswagen-jetta-new/</t>
-        </is>
-      </c>
       <c r="N263" t="inlineStr">
         <is>
           <t>1053000</t>
@@ -17897,6 +17951,14 @@
           <t>https://profcouz-autosurgut.ru/auto/volkswagen/jetta-new/sedan</t>
         </is>
       </c>
+      <c r="V263" t="n">
+        <v>913700</v>
+      </c>
+      <c r="W263" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/volkswagen-jetta-new/</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -17950,14 +18012,6 @@
           <t>https://sibir-morots.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
-      <c r="L264" t="n">
-        <v>2223000</v>
-      </c>
-      <c r="M264" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/volkswagen-passat-new/</t>
-        </is>
-      </c>
       <c r="N264" t="inlineStr">
         <is>
           <t>2268000</t>
@@ -17984,6 +18038,14 @@
           <t>https://profcouz-autosurgut.ru/auto/volkswagen/passat-new/sedan</t>
         </is>
       </c>
+      <c r="V264" t="n">
+        <v>2184800</v>
+      </c>
+      <c r="W264" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/volkswagen-passat-new/</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -18037,14 +18099,6 @@
           <t>https://sibir-morots.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
-      <c r="L265" t="n">
-        <v>612400</v>
-      </c>
-      <c r="M265" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/volkswagen-new-polo/</t>
-        </is>
-      </c>
       <c r="N265" t="inlineStr">
         <is>
           <t>657400</t>
@@ -18071,6 +18125,14 @@
           <t>https://profcouz-autosurgut.ru/auto/volkswagen/new-polo/sedan</t>
         </is>
       </c>
+      <c r="V265" t="n">
+        <v>921700</v>
+      </c>
+      <c r="W265" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/volkswagen-new-polo/</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -18089,11 +18151,11 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>2213900</v>
+        <v>1226500</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>https://profcouz-autosurgut.ru/auto/volkswagen/taos/cuv</t>
+          <t>https://fast-autodealer.ru/new_auto/volkswagen-taos/</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -18124,14 +18186,6 @@
           <t>https://sibir-morots.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
-      <c r="L266" t="n">
-        <v>2318900</v>
-      </c>
-      <c r="M266" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/volkswagen-taos/</t>
-        </is>
-      </c>
       <c r="N266" t="inlineStr">
         <is>
           <t>2363900</t>
@@ -18158,6 +18212,14 @@
           <t>https://profcouz-autosurgut.ru/auto/volkswagen/taos/cuv</t>
         </is>
       </c>
+      <c r="V266" t="n">
+        <v>1226500</v>
+      </c>
+      <c r="W266" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/volkswagen-taos/</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -18201,14 +18263,6 @@
           <t>https://sibir-morots.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
-      <c r="L267" t="n">
-        <v>1624900</v>
-      </c>
-      <c r="M267" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/volkswagen-tiguan-new/</t>
-        </is>
-      </c>
       <c r="P267" t="n">
         <v>2134900</v>
       </c>
@@ -18225,6 +18279,14 @@
           <t>https://profcouz-autosurgut.ru/auto/volkswagen/tiguan-new/cuv</t>
         </is>
       </c>
+      <c r="V267" t="n">
+        <v>3019000</v>
+      </c>
+      <c r="W267" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/volkswagen-tiguan-new/</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -18337,11 +18399,11 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>979600</v>
+        <v>648400</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/zotye-coupa/</t>
+          <t>https://fast-autodealer.ru/new_auto/zotye-coupa/</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -18354,14 +18416,6 @@
           <t>https://autosurgut186.ru/auto/zotye/coupa/</t>
         </is>
       </c>
-      <c r="H270" t="n">
-        <v>984900</v>
-      </c>
-      <c r="I270" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/zotye/coupa/coupasuv</t>
-        </is>
-      </c>
       <c r="J270" t="inlineStr">
         <is>
           <t>1089600</t>
@@ -18370,14 +18424,6 @@
       <c r="K270" t="inlineStr">
         <is>
           <t>https://sibir-morots.ru/auto/zotye/coupa/</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>979600</v>
-      </c>
-      <c r="M270" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/zotye-coupa/</t>
         </is>
       </c>
       <c r="N270" t="inlineStr">
@@ -18398,6 +18444,14 @@
           <t>https://profcouz-autosurgut.ru/auto/zotye/coupa/coupasuv</t>
         </is>
       </c>
+      <c r="V270" t="n">
+        <v>648400</v>
+      </c>
+      <c r="W270" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/zotye-coupa/</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -18416,11 +18470,11 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>761600</v>
+        <v>366100</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/zotye-t600/</t>
+          <t>https://fast-autodealer.ru/new_auto/zotye-t600/</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -18433,14 +18487,6 @@
           <t>https://autosurgut186.ru/auto/zotye/t600/</t>
         </is>
       </c>
-      <c r="H271" t="n">
-        <v>766600</v>
-      </c>
-      <c r="I271" t="inlineStr">
-        <is>
-          <t>https://auto-centre-profsouz.ru/auto/zotye/%D0%A2600/suv</t>
-        </is>
-      </c>
       <c r="J271" t="inlineStr">
         <is>
           <t>871600</t>
@@ -18449,14 +18495,6 @@
       <c r="K271" t="inlineStr">
         <is>
           <t>https://sibir-morots.ru/auto/zotye/t600/</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>761600</v>
-      </c>
-      <c r="M271" t="inlineStr">
-        <is>
-          <t>https://avtosalon-profsouz.ru/new_auto/zotye-t600/</t>
         </is>
       </c>
       <c r="N271" t="inlineStr">
@@ -18475,6 +18513,14 @@
       <c r="S271" t="inlineStr">
         <is>
           <t>https://profcouz-autosurgut.ru/auto/zotye/%D0%A2600/suv</t>
+        </is>
+      </c>
+      <c r="V271" t="n">
+        <v>366100</v>
+      </c>
+      <c r="W271" t="inlineStr">
+        <is>
+          <t>https://fast-autodealer.ru/new_auto/zotye-t600/</t>
         </is>
       </c>
     </row>
